--- a/docs/Mapping_casi_uso/riconoscimenti/Rico_010.xlsx
+++ b/docs/Mapping_casi_uso/riconoscimenti/Rico_010.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1218" uniqueCount="169">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1421" uniqueCount="177">
   <si>
     <t>Sezione</t>
   </si>
@@ -32,6 +32,9 @@
     <t>Note obbligatorieta' formule</t>
   </si>
   <si>
+    <t>Condizioni obbligatorieta'</t>
+  </si>
+  <si>
     <t>Allegati</t>
   </si>
   <si>
@@ -44,6 +47,9 @@
     <t/>
   </si>
   <si>
+    <t>{evento.datiEventoRiconoscimento.attoNascita.idComuneRegistrazione,!=,evento.idComuneRegistrazione}</t>
+  </si>
+  <si>
     <t>Atto notarile consenso</t>
   </si>
   <si>
@@ -92,6 +98,9 @@
     <t>numeroatto</t>
   </si>
   <si>
+    <t>obbligatoria</t>
+  </si>
+  <si>
     <t>Data formazione</t>
   </si>
   <si>
@@ -290,6 +299,9 @@
     <t>dataMorte</t>
   </si>
   <si>
+    <t>{evento.datiEventoRiconoscimento.preMorto,=,false}</t>
+  </si>
+  <si>
     <t>Ora</t>
   </si>
   <si>
@@ -416,6 +428,9 @@
     <t>evento.consensoPadre.atto</t>
   </si>
   <si>
+    <t>{evento.consensoPadre.tipoConsenso,!=,2}</t>
+  </si>
+  <si>
     <t>Data formazione documento</t>
   </si>
   <si>
@@ -425,6 +440,9 @@
     <t>dataTrascrizione</t>
   </si>
   <si>
+    <t>{evento.consensoPadre.tipoConsenso,!=,3}</t>
+  </si>
+  <si>
     <t>Estremi documento</t>
   </si>
   <si>
@@ -467,6 +485,9 @@
     <t>evento.consensoPadre.sentenzaTribunale</t>
   </si>
   <si>
+    <t>{evento.consensoPadre.tipoConsenso,!=,4}</t>
+  </si>
+  <si>
     <t>Interprete</t>
   </si>
   <si>
@@ -474,6 +495,9 @@
   </si>
   <si>
     <t>195,196</t>
+  </si>
+  <si>
+    <t>{evento.ausilioInterprete,=,false}</t>
   </si>
   <si>
     <t>Dettagli evento</t>
@@ -577,7 +601,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G203"/>
+  <dimension ref="A1:H203"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -589,6 +613,7 @@
     <col min="4" max="4" width="45.16796875" customWidth="true" bestFit="true"/>
     <col min="5" max="5" width="27.140625" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="27.3203125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="96.625" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -610,225 +635,261 @@
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="13">
@@ -850,3805 +911,4378 @@
       <c r="F13" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="G13" s="1" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B15" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D15" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C15" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>24</v>
-      </c>
       <c r="E15" s="2" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G27" s="2" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G28" s="2" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G29" s="2" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G30" s="2" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G31" s="2" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G32" s="2" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G33" s="2" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G34" s="2" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G35" s="2" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G36" s="2" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G37" s="2" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G38" s="2" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G39" s="2" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G40" s="2" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G41" s="2" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
+      </c>
+      <c r="G42" s="2" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G43" s="2" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G44" s="2" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G45" s="2" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G46" s="2" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G47" s="2" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G48" s="2" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
+      </c>
+      <c r="G49" s="2" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G50" s="2" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
+      </c>
+      <c r="G51" s="2" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G52" s="2" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G53" s="2" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G54" s="2" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G55" s="2" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G56" s="2" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
+      </c>
+      <c r="G57" s="2" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G58" s="2" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
+      </c>
+      <c r="G59" s="2" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="F60" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
+      </c>
+      <c r="G60" s="2" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="F61" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G61" s="2" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="B62" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C62" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D62" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="E62" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="B62" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="C62" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D62" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="E62" s="2" t="s">
-        <v>79</v>
-      </c>
       <c r="F62" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G62" s="2" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="F63" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G63" s="2" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="F64" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
+      </c>
+      <c r="G64" s="2" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="F65" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G65" s="2" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="F66" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G66" s="2" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="F67" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G67" s="2" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="F68" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G68" s="2" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="F69" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G69" s="2" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="F70" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G70" s="2" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="F71" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
+      </c>
+      <c r="G71" s="2" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="F72" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G72" s="2" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="F73" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
+      </c>
+      <c r="G73" s="2" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="F74" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G74" s="2" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="F75" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G75" s="2" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="F76" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G76" s="2" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="F77" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G77" s="2" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="F78" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G78" s="2" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="F79" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
+      </c>
+      <c r="G79" s="2" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="F80" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G80" s="2" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="F81" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
+      </c>
+      <c r="G81" s="2" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="F82" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
+      </c>
+      <c r="G82" s="2" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="F83" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G83" s="2" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="F84" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G84" s="2" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="B85" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C85" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D85" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="E85" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="B85" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="C85" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D85" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="E85" s="2" t="s">
-        <v>81</v>
-      </c>
       <c r="F85" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G85" s="2" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="F86" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
+      </c>
+      <c r="G86" s="2" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="F87" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G87" s="2" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="F88" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G88" s="2" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="F89" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G89" s="2" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="F90" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G90" s="2" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="F91" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G91" s="2" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="F92" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G92" s="2" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="F93" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
+      </c>
+      <c r="G93" s="2" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="F94" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G94" s="2" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="F95" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
+      </c>
+      <c r="G95" s="2" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="F96" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G96" s="2" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="F97" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G97" s="2" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="F98" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G98" s="2" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="F99" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G99" s="2" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="F100" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G100" s="2" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="F101" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
+      </c>
+      <c r="G101" s="2" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="F102" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G102" s="2" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="F103" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
+      </c>
+      <c r="G103" s="2" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="F104" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
+      </c>
+      <c r="G104" s="2" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="F105" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G105" s="2" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="F106" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G106" s="2" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="F107" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G107" s="2" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="F108" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G108" s="2" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="F109" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G109" s="2" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="E110" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="F110" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G110" s="2" t="s">
         <v>95</v>
-      </c>
-      <c r="F110" s="2" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="F111" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G111" s="2" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="F112" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G112" s="2" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="F113" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G113" s="2" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="F114" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G114" s="2" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="F115" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G115" s="2" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="F116" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G116" s="2" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="F117" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G117" s="2" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="F118" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G118" s="2" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="F119" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G119" s="2" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="F120" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G120" s="2" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="F121" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G121" s="2" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="F122" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G122" s="2" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="F123" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G123" s="2" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="2" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="F124" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G124" s="2" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="2" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="C125" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="F125" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G125" s="2" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="2" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="F126" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G126" s="2" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="2" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="C127" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="F127" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G127" s="2" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="2" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="C128" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="F128" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G128" s="2" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="2" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="C129" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="F129" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G129" s="2" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="2" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="C130" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="F130" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G130" s="2" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="2" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="C131" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="F131" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G131" s="2" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="2" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="C132" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="F132" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G132" s="2" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="2" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="C133" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="E133" s="2" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="F133" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G133" s="2" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="2" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="C134" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="E134" s="2" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="F134" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G134" s="2" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="2" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="C135" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="E135" s="2" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="F135" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G135" s="2" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="2" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="C136" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="E136" s="2" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="F136" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G136" s="2" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="2" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="C137" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="E137" s="2" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="F137" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G137" s="2" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="2" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="C138" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="E138" s="2" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="F138" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G138" s="2" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="2" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="C139" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="E139" s="2" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="F139" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G139" s="2" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="2" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="B140" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="C140" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D140" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="C140" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D140" s="2" t="s">
-        <v>110</v>
-      </c>
       <c r="E140" s="2" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="F140" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G140" s="2" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="2" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="C141" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="E141" s="2" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="F141" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G141" s="2" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="2" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="C142" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="E142" s="2" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="F142" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G142" s="2" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="2" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="C143" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="E143" s="2" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="F143" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G143" s="2" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="2" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="C144" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="E144" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="F144" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G144" s="2" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="2" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="C145" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="E145" s="2" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="F145" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G145" s="2" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="2" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="C146" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="E146" s="2" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="F146" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G146" s="2" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="2" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="C147" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="E147" s="2" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="F147" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G147" s="2" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="2" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="C148" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D148" s="2" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="E148" s="2" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="F148" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G148" s="2" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="2" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="C149" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D149" s="2" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="E149" s="2" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="F149" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G149" s="2" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="2" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="C150" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D150" s="2" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="E150" s="2" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="F150" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G150" s="2" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="2" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="C151" s="2" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="D151" s="2" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="E151" s="2" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="F151" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G151" s="2" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="2" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="C152" s="2" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="D152" s="2" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="E152" s="2" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="F152" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
+      </c>
+      <c r="G152" s="2" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="2" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="C153" s="2" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="D153" s="2" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="E153" s="2" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="F153" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G153" s="2" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="2" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="C154" s="2" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="D154" s="2" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="E154" s="2" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="F154" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
+      </c>
+      <c r="G154" s="2" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="2" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="C155" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D155" s="2" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="E155" s="2" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="F155" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G155" s="2" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="2" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="C156" s="2" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="D156" s="2" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="E156" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="F156" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
+      </c>
+      <c r="G156" s="2" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="2" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="C157" s="2" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="D157" s="2" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="E157" s="2" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="F157" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
+      </c>
+      <c r="G157" s="2" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="2" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="C158" s="2" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="D158" s="2" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="E158" s="2" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="F158" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
+      </c>
+      <c r="G158" s="2" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="2" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="C159" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D159" s="2" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="E159" s="2" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="F159" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
+      </c>
+      <c r="G159" s="2" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="B160" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="B160" s="2" t="s">
-        <v>128</v>
-      </c>
       <c r="C160" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D160" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="E160" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="E160" s="2" t="s">
-        <v>129</v>
-      </c>
       <c r="F160" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
+      </c>
+      <c r="G160" s="2" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="2" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="B161" s="2" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="C161" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D161" s="2" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="E161" s="2" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="F161" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
+      </c>
+      <c r="G161" s="2" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" s="2" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="B162" s="2" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="C162" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D162" s="2" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="E162" s="2" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="F162" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
+      </c>
+      <c r="G162" s="2" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" s="2" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="B163" s="2" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="C163" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D163" s="2" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="E163" s="2" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="F163" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
+      </c>
+      <c r="G163" s="2" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" s="2" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="B164" s="2" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="C164" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D164" s="2" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="E164" s="2" t="s">
-        <v>140</v>
+        <v>146</v>
       </c>
       <c r="F164" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
+      </c>
+      <c r="G164" s="2" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" s="2" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="B165" s="2" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="C165" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D165" s="2" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="E165" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="F165" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G165" s="2" t="s">
         <v>142</v>
-      </c>
-      <c r="F165" s="2" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" s="2" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="B166" s="2" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="C166" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D166" s="2" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="E166" s="2" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="F166" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
+      </c>
+      <c r="G166" s="2" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" s="2" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="B167" s="2" t="s">
-        <v>145</v>
+        <v>151</v>
       </c>
       <c r="C167" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D167" s="2" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="E167" s="2" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="F167" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G167" s="2" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" s="2" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="B168" s="2" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="C168" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D168" s="2" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="E168" s="2" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="F168" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
+      </c>
+      <c r="G168" s="2" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" s="2" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="B169" s="2" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="C169" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D169" s="2" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="E169" s="2" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="F169" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
+      </c>
+      <c r="G169" s="2" t="s">
+        <v>157</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" s="2" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="B170" s="2" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="C170" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D170" s="2" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="E170" s="2" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="F170" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
+      </c>
+      <c r="G170" s="2" t="s">
+        <v>157</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" s="2" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="B171" s="2" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="C171" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D171" s="2" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="E171" s="2" t="s">
-        <v>140</v>
+        <v>146</v>
       </c>
       <c r="F171" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
+      </c>
+      <c r="G171" s="2" t="s">
+        <v>157</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" s="2" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="B172" s="2" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="C172" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D172" s="2" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="E172" s="2" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
       <c r="F172" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G172" s="2" t="s">
+        <v>157</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="B173" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="B173" s="2" t="s">
-        <v>143</v>
-      </c>
       <c r="C173" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D173" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="E173" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="E173" s="2" t="s">
-        <v>144</v>
-      </c>
       <c r="F173" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
+      </c>
+      <c r="G173" s="2" t="s">
+        <v>157</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" s="2" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="B174" s="2" t="s">
-        <v>145</v>
+        <v>151</v>
       </c>
       <c r="C174" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D174" s="2" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="E174" s="2" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="F174" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G174" s="2" t="s">
+        <v>157</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" s="2" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="B175" s="2" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="C175" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D175" s="2" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="E175" s="2" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="F175" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
+      </c>
+      <c r="G175" s="2" t="s">
+        <v>157</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" s="2" t="s">
-        <v>151</v>
+        <v>158</v>
       </c>
       <c r="B176" s="2" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C176" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D176" s="2" t="s">
-        <v>152</v>
+        <v>159</v>
       </c>
       <c r="E176" s="2" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="F176" s="2" t="s">
-        <v>153</v>
+        <v>160</v>
+      </c>
+      <c r="G176" s="2" t="s">
+        <v>161</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" s="2" t="s">
-        <v>151</v>
+        <v>158</v>
       </c>
       <c r="B177" s="2" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="C177" s="2" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="D177" s="2" t="s">
-        <v>152</v>
+        <v>159</v>
       </c>
       <c r="E177" s="2" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="F177" s="2" t="s">
-        <v>153</v>
+        <v>10</v>
+      </c>
+      <c r="G177" s="2" t="s">
+        <v>161</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" s="2" t="s">
-        <v>151</v>
+        <v>158</v>
       </c>
       <c r="B178" s="2" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="C178" s="2" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="D178" s="2" t="s">
-        <v>152</v>
+        <v>159</v>
       </c>
       <c r="E178" s="2" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="F178" s="2" t="s">
-        <v>153</v>
+        <v>10</v>
+      </c>
+      <c r="G178" s="2" t="s">
+        <v>161</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" s="2" t="s">
-        <v>151</v>
+        <v>158</v>
       </c>
       <c r="B179" s="2" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="C179" s="2" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="D179" s="2" t="s">
-        <v>152</v>
+        <v>159</v>
       </c>
       <c r="E179" s="2" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="F179" s="2" t="s">
-        <v>153</v>
+        <v>10</v>
+      </c>
+      <c r="G179" s="2" t="s">
+        <v>161</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" s="2" t="s">
-        <v>151</v>
+        <v>158</v>
       </c>
       <c r="B180" s="2" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="C180" s="2" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="D180" s="2" t="s">
-        <v>152</v>
+        <v>159</v>
       </c>
       <c r="E180" s="2" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="F180" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G180" s="2" t="s">
+        <v>161</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" s="2" t="s">
-        <v>151</v>
+        <v>158</v>
       </c>
       <c r="B181" s="2" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="C181" s="2" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="D181" s="2" t="s">
-        <v>152</v>
+        <v>159</v>
       </c>
       <c r="E181" s="2" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="F181" s="2" t="s">
-        <v>153</v>
+        <v>10</v>
+      </c>
+      <c r="G181" s="2" t="s">
+        <v>161</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" s="2" t="s">
-        <v>151</v>
+        <v>158</v>
       </c>
       <c r="B182" s="2" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="C182" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D182" s="2" t="s">
-        <v>152</v>
+        <v>159</v>
       </c>
       <c r="E182" s="2" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="F182" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G182" s="2" t="s">
+        <v>161</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" s="2" t="s">
-        <v>151</v>
+        <v>158</v>
       </c>
       <c r="B183" s="2" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="C183" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D183" s="2" t="s">
-        <v>152</v>
+        <v>159</v>
       </c>
       <c r="E183" s="2" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="F183" s="2" t="s">
-        <v>153</v>
+        <v>160</v>
+      </c>
+      <c r="G183" s="2" t="s">
+        <v>161</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" s="2" t="s">
-        <v>151</v>
+        <v>158</v>
       </c>
       <c r="B184" s="2" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="C184" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D184" s="2" t="s">
-        <v>152</v>
+        <v>159</v>
       </c>
       <c r="E184" s="2" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="F184" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G184" s="2" t="s">
+        <v>161</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" s="2" t="s">
-        <v>151</v>
+        <v>158</v>
       </c>
       <c r="B185" s="2" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="C185" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D185" s="2" t="s">
-        <v>152</v>
+        <v>159</v>
       </c>
       <c r="E185" s="2" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="F185" s="2" t="s">
-        <v>153</v>
+        <v>160</v>
+      </c>
+      <c r="G185" s="2" t="s">
+        <v>161</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" s="2" t="s">
-        <v>151</v>
+        <v>158</v>
       </c>
       <c r="B186" s="2" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="C186" s="2" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="D186" s="2" t="s">
-        <v>152</v>
+        <v>159</v>
       </c>
       <c r="E186" s="2" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="F186" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G186" s="2" t="s">
+        <v>161</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" s="2" t="s">
-        <v>151</v>
+        <v>158</v>
       </c>
       <c r="B187" s="2" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="C187" s="2" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="D187" s="2" t="s">
-        <v>152</v>
+        <v>159</v>
       </c>
       <c r="E187" s="2" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="F187" s="2" t="s">
-        <v>153</v>
+        <v>10</v>
+      </c>
+      <c r="G187" s="2" t="s">
+        <v>161</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" s="2" t="s">
-        <v>151</v>
+        <v>158</v>
       </c>
       <c r="B188" s="2" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="C188" s="2" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="D188" s="2" t="s">
-        <v>152</v>
+        <v>159</v>
       </c>
       <c r="E188" s="2" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="F188" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G188" s="2" t="s">
+        <v>161</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" s="2" t="s">
-        <v>151</v>
+        <v>158</v>
       </c>
       <c r="B189" s="2" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="C189" s="2" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="D189" s="2" t="s">
-        <v>152</v>
+        <v>159</v>
       </c>
       <c r="E189" s="2" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="F189" s="2" t="s">
-        <v>153</v>
+        <v>10</v>
+      </c>
+      <c r="G189" s="2" t="s">
+        <v>161</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" s="2" t="s">
-        <v>151</v>
+        <v>158</v>
       </c>
       <c r="B190" s="2" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="C190" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D190" s="2" t="s">
-        <v>152</v>
+        <v>159</v>
       </c>
       <c r="E190" s="2" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="F190" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G190" s="2" t="s">
+        <v>161</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" s="2" t="s">
-        <v>151</v>
+        <v>158</v>
       </c>
       <c r="B191" s="2" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="C191" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D191" s="2" t="s">
-        <v>152</v>
+        <v>159</v>
       </c>
       <c r="E191" s="2" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="F191" s="2" t="s">
-        <v>153</v>
+        <v>160</v>
+      </c>
+      <c r="G191" s="2" t="s">
+        <v>161</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" s="2" t="s">
-        <v>151</v>
+        <v>158</v>
       </c>
       <c r="B192" s="2" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="C192" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D192" s="2" t="s">
-        <v>152</v>
+        <v>159</v>
       </c>
       <c r="E192" s="2" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="F192" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G192" s="2" t="s">
+        <v>161</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" s="2" t="s">
-        <v>151</v>
+        <v>158</v>
       </c>
       <c r="B193" s="2" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="C193" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D193" s="2" t="s">
-        <v>152</v>
+        <v>159</v>
       </c>
       <c r="E193" s="2" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="F193" s="2" t="s">
-        <v>153</v>
+        <v>160</v>
+      </c>
+      <c r="G193" s="2" t="s">
+        <v>161</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" s="2" t="s">
-        <v>151</v>
+        <v>158</v>
       </c>
       <c r="B194" s="2" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="C194" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D194" s="2" t="s">
-        <v>152</v>
+        <v>159</v>
       </c>
       <c r="E194" s="2" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="F194" s="2" t="s">
-        <v>153</v>
+        <v>160</v>
+      </c>
+      <c r="G194" s="2" t="s">
+        <v>161</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" s="2" t="s">
-        <v>151</v>
+        <v>158</v>
       </c>
       <c r="B195" s="2" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="C195" s="2" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="D195" s="2" t="s">
-        <v>152</v>
+        <v>159</v>
       </c>
       <c r="E195" s="2" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="F195" s="2" t="s">
-        <v>153</v>
+        <v>10</v>
+      </c>
+      <c r="G195" s="2" t="s">
+        <v>161</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" s="2" t="s">
-        <v>151</v>
+        <v>158</v>
       </c>
       <c r="B196" s="2" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="C196" s="2" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="D196" s="2" t="s">
-        <v>152</v>
+        <v>159</v>
       </c>
       <c r="E196" s="2" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="F196" s="2" t="s">
-        <v>153</v>
+        <v>10</v>
+      </c>
+      <c r="G196" s="2" t="s">
+        <v>161</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" s="2" t="s">
-        <v>151</v>
+        <v>158</v>
       </c>
       <c r="B197" s="2" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="C197" s="2" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="D197" s="2" t="s">
-        <v>152</v>
+        <v>159</v>
       </c>
       <c r="E197" s="2" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="F197" s="2" t="s">
-        <v>153</v>
+        <v>10</v>
+      </c>
+      <c r="G197" s="2" t="s">
+        <v>161</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" s="2" t="s">
-        <v>154</v>
+        <v>162</v>
       </c>
       <c r="B198" s="2" t="s">
-        <v>155</v>
+        <v>163</v>
       </c>
       <c r="C198" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D198" s="2" t="s">
-        <v>156</v>
+        <v>164</v>
       </c>
       <c r="E198" s="2" t="s">
-        <v>157</v>
+        <v>165</v>
       </c>
       <c r="F198" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G198" s="2" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" s="2" t="s">
-        <v>154</v>
+        <v>162</v>
       </c>
       <c r="B199" s="2" t="s">
-        <v>158</v>
+        <v>166</v>
       </c>
       <c r="C199" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D199" s="2" t="s">
-        <v>156</v>
+        <v>164</v>
       </c>
       <c r="E199" s="2" t="s">
-        <v>159</v>
+        <v>167</v>
       </c>
       <c r="F199" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
+      </c>
+      <c r="G199" s="2" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" s="2" t="s">
-        <v>154</v>
+        <v>162</v>
       </c>
       <c r="B200" s="2" t="s">
-        <v>160</v>
+        <v>168</v>
       </c>
       <c r="C200" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D200" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E200" s="2" t="s">
-        <v>161</v>
+        <v>169</v>
       </c>
       <c r="F200" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G200" s="2" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" s="2" t="s">
-        <v>154</v>
+        <v>162</v>
       </c>
       <c r="B201" s="2" t="s">
-        <v>162</v>
+        <v>170</v>
       </c>
       <c r="C201" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D201" s="2" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="E201" s="2" t="s">
-        <v>163</v>
+        <v>171</v>
       </c>
       <c r="F201" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G201" s="2" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" s="2" t="s">
-        <v>154</v>
+        <v>162</v>
       </c>
       <c r="B202" s="2" t="s">
-        <v>164</v>
+        <v>172</v>
       </c>
       <c r="C202" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D202" s="2" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="E202" s="2" t="s">
-        <v>165</v>
+        <v>173</v>
       </c>
       <c r="F202" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G202" s="2" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" s="2" t="s">
-        <v>154</v>
+        <v>162</v>
       </c>
       <c r="B203" s="2" t="s">
-        <v>166</v>
+        <v>174</v>
       </c>
       <c r="C203" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D203" s="2" t="s">
-        <v>167</v>
+        <v>175</v>
       </c>
       <c r="E203" s="2" t="s">
-        <v>168</v>
+        <v>176</v>
       </c>
       <c r="F203" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G203" s="2" t="s">
+        <v>28</v>
       </c>
     </row>
   </sheetData>

--- a/docs/Mapping_casi_uso/riconoscimenti/Rico_010.xlsx
+++ b/docs/Mapping_casi_uso/riconoscimenti/Rico_010.xlsx
@@ -32,7 +32,7 @@
     <t>Note obbligatorieta' formule</t>
   </si>
   <si>
-    <t>Condizioni obbligatorieta'</t>
+    <t>Si puo' ignorare la sezione per</t>
   </si>
   <si>
     <t>Allegati</t>

--- a/docs/Mapping_casi_uso/riconoscimenti/Rico_010.xlsx
+++ b/docs/Mapping_casi_uso/riconoscimenti/Rico_010.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1421" uniqueCount="177">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1421" uniqueCount="178">
   <si>
     <t>Sezione</t>
   </si>
@@ -32,58 +32,61 @@
     <t>Note obbligatorieta' formule</t>
   </si>
   <si>
+    <t>Condizioni obbligatorieta'</t>
+  </si>
+  <si>
+    <t>Allegati</t>
+  </si>
+  <si>
+    <t>Copia integrale dell'atto di nascita del figlio che viene riconosciuto</t>
+  </si>
+  <si>
+    <t>NO</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>{evento.datiEventoRiconoscimento.attoNascita.idComuneRegistrazione,!=,evento.idComuneRegistrazione}</t>
+  </si>
+  <si>
+    <t>Atto notarile consenso</t>
+  </si>
+  <si>
+    <t>Copia dell'atto di consenso dell'altro genitore</t>
+  </si>
+  <si>
+    <t>Sentenza del Tribunale che autorizza al riconoscimento senza il consenso dell'altro genitore</t>
+  </si>
+  <si>
+    <t>Formula</t>
+  </si>
+  <si>
+    <t>109</t>
+  </si>
+  <si>
+    <t>SI</t>
+  </si>
+  <si>
+    <t>194</t>
+  </si>
+  <si>
+    <t>195</t>
+  </si>
+  <si>
+    <t>196</t>
+  </si>
+  <si>
+    <t>197</t>
+  </si>
+  <si>
+    <t>198</t>
+  </si>
+  <si>
+    <t>199</t>
+  </si>
+  <si>
     <t>Si puo' ignorare la sezione per</t>
-  </si>
-  <si>
-    <t>Allegati</t>
-  </si>
-  <si>
-    <t>Copia integrale dell'atto di nascita del figlio che viene riconosciuto</t>
-  </si>
-  <si>
-    <t>NO</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>{evento.datiEventoRiconoscimento.attoNascita.idComuneRegistrazione,!=,evento.idComuneRegistrazione}</t>
-  </si>
-  <si>
-    <t>Atto notarile consenso</t>
-  </si>
-  <si>
-    <t>Copia dell'atto di consenso dell'altro genitore</t>
-  </si>
-  <si>
-    <t>Sentenza del Tribunale che autorizza al riconoscimento senza il consenso dell'altro genitore</t>
-  </si>
-  <si>
-    <t>Formula</t>
-  </si>
-  <si>
-    <t>109</t>
-  </si>
-  <si>
-    <t>SI</t>
-  </si>
-  <si>
-    <t>194</t>
-  </si>
-  <si>
-    <t>195</t>
-  </si>
-  <si>
-    <t>196</t>
-  </si>
-  <si>
-    <t>197</t>
-  </si>
-  <si>
-    <t>198</t>
-  </si>
-  <si>
-    <t>199</t>
   </si>
   <si>
     <t>Formazione atto</t>
@@ -912,4377 +915,4377 @@
         <v>5</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>6</v>
+        <v>24</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F14" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F15" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F16" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F17" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F18" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F19" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F20" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F21" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F22" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F23" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F24" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F25" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F26" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F27" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F28" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C29" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F29" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C30" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F30" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C31" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F31" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C32" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F32" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C33" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F33" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C34" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F34" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C35" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F35" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C36" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F36" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C37" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F37" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C38" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F38" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C39" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="F39" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C40" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F40" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C41" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F41" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C42" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F42" s="2" t="s">
         <v>16</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C43" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F43" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C44" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F44" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C45" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F45" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C46" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F46" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C47" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F47" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C48" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C49" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>16</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>16</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G54" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>16</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G58" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>16</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>16</v>
       </c>
       <c r="G60" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G61" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G62" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="B63" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C63" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D63" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="E63" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="B63" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="C63" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D63" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="E63" s="2" t="s">
-        <v>84</v>
-      </c>
       <c r="F63" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G63" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>16</v>
       </c>
       <c r="G64" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G65" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G66" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G67" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G68" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G69" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G70" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>16</v>
       </c>
       <c r="G71" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G72" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>16</v>
       </c>
       <c r="G73" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G74" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G75" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G76" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G77" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G78" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>16</v>
       </c>
       <c r="G79" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G80" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>16</v>
       </c>
       <c r="G81" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>16</v>
       </c>
       <c r="G82" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C83" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G83" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C84" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G84" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C85" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G85" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>16</v>
       </c>
       <c r="G86" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C87" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G87" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C88" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G88" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C89" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G89" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C90" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G90" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C91" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G91" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C92" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F92" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G92" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C93" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>16</v>
       </c>
       <c r="G93" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C94" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F94" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G94" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C95" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F95" s="2" t="s">
         <v>16</v>
       </c>
       <c r="G95" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C96" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F96" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G96" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C97" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F97" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G97" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C98" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F98" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G98" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C99" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F99" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G99" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C100" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F100" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G100" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C101" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F101" s="2" t="s">
         <v>16</v>
       </c>
       <c r="G101" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C102" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F102" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G102" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C103" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F103" s="2" t="s">
         <v>16</v>
       </c>
       <c r="G103" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C104" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F104" s="2" t="s">
         <v>16</v>
       </c>
       <c r="G104" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C105" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="F105" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G105" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C106" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F106" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G106" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C107" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F107" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G107" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C108" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="F108" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G108" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B109" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="C109" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D109" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="E109" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="F109" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G109" s="2" t="s">
         <v>96</v>
-      </c>
-      <c r="C109" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D109" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="E109" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="F109" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G109" s="2" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C110" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="F110" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G110" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C111" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F111" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G111" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C112" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="F112" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G112" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C113" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="F113" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G113" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C114" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="F114" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G114" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C115" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F115" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G115" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C116" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F116" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G116" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C117" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F117" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G117" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C118" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F118" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G118" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C119" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F119" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G119" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C120" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F120" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G120" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C121" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F121" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G121" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C122" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F122" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G122" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C123" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F123" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G123" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C124" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F124" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G124" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C125" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F125" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G125" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C126" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F126" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G126" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C127" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F127" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G127" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C128" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F128" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G128" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C129" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F129" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G129" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C130" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F130" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G130" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C131" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F131" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G131" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C132" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F132" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G132" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C133" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E133" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F133" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G133" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C134" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E134" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F134" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G134" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C135" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E135" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="F135" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G135" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C136" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E136" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F136" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G136" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C137" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E137" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F137" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G137" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C138" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E138" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F138" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G138" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C139" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E139" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="F139" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G139" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C140" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E140" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="F140" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G140" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C141" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E141" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="F141" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G141" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C142" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E142" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="F142" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G142" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C143" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E143" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="F143" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G143" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C144" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E144" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F144" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G144" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C145" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E145" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="F145" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G145" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C146" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E146" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F146" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G146" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C147" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E147" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="F147" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G147" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C148" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D148" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E148" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="F148" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G148" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C149" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D149" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E149" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="F149" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G149" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C150" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D150" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="E150" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F150" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G150" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C151" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D151" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="E151" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="F151" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G151" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C152" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D152" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="E152" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="F152" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G152" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C153" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D153" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="E153" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="F153" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G153" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C154" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D154" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="E154" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="F154" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G154" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C155" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D155" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="E155" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="F155" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G155" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C156" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D156" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="E156" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F156" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G156" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C157" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D157" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="E157" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="F157" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G157" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C158" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D158" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="E158" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F158" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G158" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C159" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D159" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="E159" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="F159" s="2" t="s">
         <v>16</v>
       </c>
       <c r="G159" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C160" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D160" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="E160" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="F160" s="2" t="s">
         <v>16</v>
       </c>
       <c r="G160" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="B161" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="C161" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D161" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="E161" s="2" t="s">
         <v>136</v>
-      </c>
-      <c r="B161" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="C161" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D161" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="E161" s="2" t="s">
-        <v>135</v>
       </c>
       <c r="F161" s="2" t="s">
         <v>16</v>
       </c>
       <c r="G161" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B162" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C162" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D162" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="E162" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="F162" s="2" t="s">
         <v>16</v>
       </c>
       <c r="G162" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B163" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C163" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D163" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="E163" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="F163" s="2" t="s">
         <v>16</v>
       </c>
       <c r="G163" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B164" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C164" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D164" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="E164" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="F164" s="2" t="s">
         <v>16</v>
       </c>
       <c r="G164" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B165" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C165" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D165" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="E165" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="F165" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G165" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B166" s="2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C166" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D166" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="E166" s="2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="F166" s="2" t="s">
         <v>16</v>
       </c>
       <c r="G166" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B167" s="2" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C167" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D167" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="E167" s="2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="F167" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G167" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B168" s="2" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C168" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D168" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="E168" s="2" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="F168" s="2" t="s">
         <v>16</v>
       </c>
       <c r="G168" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" s="2" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B169" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C169" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D169" s="2" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="E169" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="F169" s="2" t="s">
         <v>16</v>
       </c>
       <c r="G169" s="2" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" s="2" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B170" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C170" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D170" s="2" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="E170" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="F170" s="2" t="s">
         <v>16</v>
       </c>
       <c r="G170" s="2" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" s="2" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B171" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C171" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D171" s="2" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="E171" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="F171" s="2" t="s">
         <v>16</v>
       </c>
       <c r="G171" s="2" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" s="2" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B172" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C172" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D172" s="2" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="E172" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="F172" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G172" s="2" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" s="2" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B173" s="2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C173" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D173" s="2" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="E173" s="2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="F173" s="2" t="s">
         <v>16</v>
       </c>
       <c r="G173" s="2" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" s="2" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B174" s="2" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C174" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D174" s="2" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="E174" s="2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="F174" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G174" s="2" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="B175" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="C175" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D175" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="E175" s="2" t="s">
         <v>155</v>
-      </c>
-      <c r="B175" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="C175" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D175" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="E175" s="2" t="s">
-        <v>154</v>
       </c>
       <c r="F175" s="2" t="s">
         <v>16</v>
       </c>
       <c r="G175" s="2" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" s="2" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B176" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C176" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D176" s="2" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="E176" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F176" s="2" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="G176" s="2" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" s="2" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B177" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C177" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D177" s="2" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="E177" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F177" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G177" s="2" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" s="2" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B178" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C178" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D178" s="2" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="E178" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F178" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G178" s="2" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" s="2" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B179" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C179" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D179" s="2" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="E179" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F179" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G179" s="2" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" s="2" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B180" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C180" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D180" s="2" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="E180" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F180" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G180" s="2" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" s="2" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B181" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C181" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D181" s="2" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="E181" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F181" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G181" s="2" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" s="2" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B182" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C182" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D182" s="2" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="E182" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F182" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G182" s="2" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" s="2" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B183" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C183" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D183" s="2" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="E183" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F183" s="2" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="G183" s="2" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" s="2" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B184" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C184" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D184" s="2" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="E184" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F184" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G184" s="2" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" s="2" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B185" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C185" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D185" s="2" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="E185" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F185" s="2" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="G185" s="2" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" s="2" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B186" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C186" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D186" s="2" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="E186" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F186" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G186" s="2" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" s="2" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B187" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C187" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D187" s="2" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="E187" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F187" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G187" s="2" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" s="2" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B188" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C188" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D188" s="2" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="E188" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F188" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G188" s="2" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" s="2" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B189" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C189" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D189" s="2" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="E189" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F189" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G189" s="2" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" s="2" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B190" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C190" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D190" s="2" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="E190" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F190" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G190" s="2" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" s="2" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B191" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C191" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D191" s="2" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="E191" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F191" s="2" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="G191" s="2" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" s="2" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B192" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C192" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D192" s="2" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="E192" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F192" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G192" s="2" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" s="2" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B193" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C193" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D193" s="2" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="E193" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F193" s="2" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="G193" s="2" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" s="2" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B194" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C194" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D194" s="2" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="E194" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F194" s="2" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="G194" s="2" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" s="2" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B195" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C195" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D195" s="2" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="E195" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="F195" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G195" s="2" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" s="2" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B196" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C196" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D196" s="2" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="E196" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F196" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G196" s="2" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" s="2" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B197" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C197" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D197" s="2" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="E197" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F197" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G197" s="2" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" s="2" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B198" s="2" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C198" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D198" s="2" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="E198" s="2" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="F198" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G198" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" s="2" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B199" s="2" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C199" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D199" s="2" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="E199" s="2" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="F199" s="2" t="s">
         <v>19</v>
       </c>
       <c r="G199" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" s="2" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B200" s="2" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C200" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D200" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E200" s="2" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="F200" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G200" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" s="2" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B201" s="2" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C201" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D201" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E201" s="2" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="F201" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G201" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" s="2" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B202" s="2" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C202" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D202" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E202" s="2" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="F202" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G202" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" s="2" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B203" s="2" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C203" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D203" s="2" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="E203" s="2" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="F203" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G203" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
   </sheetData>

--- a/docs/Mapping_casi_uso/riconoscimenti/Rico_010.xlsx
+++ b/docs/Mapping_casi_uso/riconoscimenti/Rico_010.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1421" uniqueCount="178">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1428" uniqueCount="179">
   <si>
     <t>Sezione</t>
   </si>
@@ -47,7 +47,7 @@
     <t/>
   </si>
   <si>
-    <t>{evento.datiEventoRiconoscimento.attoNascita.idComuneRegistrazione,!=,evento.idComuneRegistrazione}</t>
+    <t>evento.datiEventoRiconoscimento.attoNascita.idComuneRegistrazione,!=,evento.idComuneRegistrazione</t>
   </si>
   <si>
     <t>Atto notarile consenso</t>
@@ -59,6 +59,9 @@
     <t>Sentenza del Tribunale che autorizza al riconoscimento senza il consenso dell'altro genitore</t>
   </si>
   <si>
+    <t>Autorizzazione del tribunale</t>
+  </si>
+  <si>
     <t>Formula</t>
   </si>
   <si>
@@ -302,7 +305,7 @@
     <t>dataMorte</t>
   </si>
   <si>
-    <t>{evento.datiEventoRiconoscimento.preMorto,=,false}</t>
+    <t>evento.datiEventoRiconoscimento.preMorto,=,false</t>
   </si>
   <si>
     <t>Ora</t>
@@ -431,7 +434,7 @@
     <t>evento.consensoPadre.atto</t>
   </si>
   <si>
-    <t>{evento.consensoPadre.tipoConsenso,!=,2}</t>
+    <t>evento.consensoPadre.tipoConsenso,!=,2</t>
   </si>
   <si>
     <t>Data formazione documento</t>
@@ -443,7 +446,7 @@
     <t>dataTrascrizione</t>
   </si>
   <si>
-    <t>{evento.consensoPadre.tipoConsenso,!=,3}</t>
+    <t>evento.consensoPadre.tipoConsenso,!=,3</t>
   </si>
   <si>
     <t>Estremi documento</t>
@@ -488,7 +491,7 @@
     <t>evento.consensoPadre.sentenzaTribunale</t>
   </si>
   <si>
-    <t>{evento.consensoPadre.tipoConsenso,!=,4}</t>
+    <t>evento.consensoPadre.tipoConsenso,!=,4</t>
   </si>
   <si>
     <t>Interprete</t>
@@ -500,7 +503,7 @@
     <t>195,196</t>
   </si>
   <si>
-    <t>{evento.ausilioInterprete,=,false}</t>
+    <t>evento.ausilioInterprete,=,false</t>
   </si>
   <si>
     <t>Dettagli evento</t>
@@ -604,7 +607,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H203"/>
+  <dimension ref="A1:H204"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -616,7 +619,7 @@
     <col min="4" max="4" width="45.16796875" customWidth="true" bestFit="true"/>
     <col min="5" max="5" width="27.140625" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="27.3203125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="96.625" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="95.2421875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -736,13 +739,13 @@
     </row>
     <row r="6">
       <c r="A6" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B6" s="2" t="s">
-        <v>16</v>
-      </c>
       <c r="C6" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>10</v>
@@ -759,13 +762,13 @@
     </row>
     <row r="7">
       <c r="A7" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>10</v>
@@ -782,7 +785,7 @@
     </row>
     <row r="8">
       <c r="A8" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>19</v>
@@ -805,7 +808,7 @@
     </row>
     <row r="9">
       <c r="A9" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>20</v>
@@ -828,7 +831,7 @@
     </row>
     <row r="10">
       <c r="A10" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>21</v>
@@ -851,7 +854,7 @@
     </row>
     <row r="11">
       <c r="A11" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>22</v>
@@ -874,7 +877,7 @@
     </row>
     <row r="12">
       <c r="A12" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>23</v>
@@ -896,4396 +899,4419 @@
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="1" t="s">
+      <c r="A13" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="B14" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="C14" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D13" s="1" t="s">
+      <c r="D14" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E13" s="1" t="s">
+      <c r="E14" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F13" s="1" t="s">
+      <c r="F14" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G13" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="2" t="s">
+      <c r="G14" s="1" t="s">
         <v>25</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="F14" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G14" s="2" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F15" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B16" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E16" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C16" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>33</v>
-      </c>
       <c r="F16" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B17" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E17" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="C17" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>35</v>
-      </c>
       <c r="F17" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E18" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="B18" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>38</v>
-      </c>
       <c r="F18" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E19" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="B19" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>40</v>
-      </c>
       <c r="F19" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B20" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E20" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="C20" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="E20" s="2" t="s">
-        <v>43</v>
-      </c>
       <c r="F20" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B21" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E21" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C21" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="E21" s="2" t="s">
-        <v>45</v>
-      </c>
       <c r="F21" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B22" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E22" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="C22" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="E22" s="2" t="s">
-        <v>47</v>
-      </c>
       <c r="F22" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B23" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E23" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="C23" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="E23" s="2" t="s">
-        <v>49</v>
-      </c>
       <c r="F23" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B24" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E24" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="C24" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="E24" s="2" t="s">
-        <v>51</v>
-      </c>
       <c r="F24" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B25" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E25" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="C25" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="E25" s="2" t="s">
-        <v>53</v>
-      </c>
       <c r="F25" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B26" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E26" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="C26" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D26" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="E26" s="2" t="s">
-        <v>55</v>
-      </c>
       <c r="F26" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B27" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E27" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="C27" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D27" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="E27" s="2" t="s">
-        <v>57</v>
-      </c>
       <c r="F27" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B28" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E28" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="C28" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D28" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="E28" s="2" t="s">
-        <v>59</v>
-      </c>
       <c r="F28" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B29" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E29" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="C29" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D29" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="E29" s="2" t="s">
-        <v>61</v>
-      </c>
       <c r="F29" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B30" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E30" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="C30" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D30" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="E30" s="2" t="s">
-        <v>63</v>
-      </c>
       <c r="F30" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B31" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E31" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="C31" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D31" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="E31" s="2" t="s">
-        <v>65</v>
-      </c>
       <c r="F31" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B32" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E32" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="C32" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D32" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="E32" s="2" t="s">
-        <v>67</v>
-      </c>
       <c r="F32" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B33" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E33" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="C33" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D33" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="E33" s="2" t="s">
-        <v>69</v>
-      </c>
       <c r="F33" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B34" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E34" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="C34" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D34" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="E34" s="2" t="s">
-        <v>71</v>
-      </c>
       <c r="F34" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B35" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E35" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="C35" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D35" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="E35" s="2" t="s">
-        <v>73</v>
-      </c>
       <c r="F35" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B36" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E36" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="C36" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D36" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="E36" s="2" t="s">
-        <v>75</v>
-      </c>
       <c r="F36" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B37" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E37" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="C37" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D37" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="E37" s="2" t="s">
-        <v>77</v>
-      </c>
       <c r="F37" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B38" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E38" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="C38" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D38" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="E38" s="2" t="s">
-        <v>79</v>
-      </c>
       <c r="F38" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B39" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E39" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="C39" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D39" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="E39" s="2" t="s">
-        <v>81</v>
-      </c>
       <c r="F39" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B40" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E40" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="C40" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D40" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="E40" s="2" t="s">
-        <v>83</v>
-      </c>
       <c r="F40" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B41" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E41" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="C41" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D41" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="E41" s="2" t="s">
-        <v>85</v>
-      </c>
       <c r="F41" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E42" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="B42" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="C42" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D42" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="E42" s="2" t="s">
-        <v>43</v>
-      </c>
       <c r="F42" s="2" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B43" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="E43" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C43" s="2" t="s">
+      <c r="F43" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D43" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="E43" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="F43" s="2" t="s">
-        <v>10</v>
-      </c>
       <c r="G43" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B44" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="E44" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="C44" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D44" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="E44" s="2" t="s">
-        <v>47</v>
-      </c>
       <c r="F44" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B45" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="E45" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="C45" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D45" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="E45" s="2" t="s">
-        <v>49</v>
-      </c>
       <c r="F45" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B46" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="E46" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="C46" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D46" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="E46" s="2" t="s">
-        <v>51</v>
-      </c>
       <c r="F46" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B47" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="E47" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="C47" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D47" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="E47" s="2" t="s">
-        <v>53</v>
-      </c>
       <c r="F47" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B48" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="E48" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="C48" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D48" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="E48" s="2" t="s">
-        <v>55</v>
-      </c>
       <c r="F48" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B49" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D49" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="E49" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="C49" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D49" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="E49" s="2" t="s">
-        <v>57</v>
-      </c>
       <c r="F49" s="2" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B50" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D50" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="E50" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="C50" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D50" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="E50" s="2" t="s">
-        <v>59</v>
-      </c>
       <c r="F50" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B51" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D51" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="E51" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="C51" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D51" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="E51" s="2" t="s">
-        <v>61</v>
-      </c>
       <c r="F51" s="2" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B52" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D52" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="E52" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="C52" s="2" t="s">
+      <c r="F52" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D52" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="E52" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="F52" s="2" t="s">
-        <v>10</v>
-      </c>
       <c r="G52" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B53" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D53" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="E53" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="C53" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D53" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="E53" s="2" t="s">
-        <v>65</v>
-      </c>
       <c r="F53" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B54" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D54" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="E54" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="C54" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D54" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="E54" s="2" t="s">
-        <v>67</v>
-      </c>
       <c r="F54" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G54" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B55" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D55" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="E55" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="C55" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D55" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="E55" s="2" t="s">
-        <v>69</v>
-      </c>
       <c r="F55" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B56" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D56" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="E56" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="C56" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D56" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="E56" s="2" t="s">
-        <v>71</v>
-      </c>
       <c r="F56" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B57" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C57" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D57" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="E57" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="C57" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D57" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="E57" s="2" t="s">
-        <v>73</v>
-      </c>
       <c r="F57" s="2" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B58" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C58" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D58" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="E58" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="C58" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D58" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="E58" s="2" t="s">
-        <v>75</v>
-      </c>
       <c r="F58" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G58" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B59" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C59" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D59" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="E59" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="C59" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D59" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="E59" s="2" t="s">
-        <v>77</v>
-      </c>
       <c r="F59" s="2" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B60" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C60" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D60" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="E60" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="C60" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D60" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="E60" s="2" t="s">
-        <v>79</v>
-      </c>
       <c r="F60" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G60" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B61" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C61" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D61" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="E61" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="C61" s="2" t="s">
+      <c r="F61" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D61" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="E61" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="F61" s="2" t="s">
-        <v>10</v>
-      </c>
       <c r="G61" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B62" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C62" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D62" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="E62" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="C62" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D62" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="E62" s="2" t="s">
-        <v>83</v>
-      </c>
       <c r="F62" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G62" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B63" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C63" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D63" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="E63" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="C63" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D63" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="E63" s="2" t="s">
-        <v>85</v>
-      </c>
       <c r="F63" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G63" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="B64" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C64" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D64" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="B64" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="C64" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D64" s="2" t="s">
-        <v>89</v>
-      </c>
       <c r="E64" s="2" t="s">
-        <v>43</v>
+        <v>86</v>
       </c>
       <c r="F64" s="2" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="G64" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B65" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C65" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D65" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="E65" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C65" s="2" t="s">
+      <c r="F65" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D65" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="E65" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="F65" s="2" t="s">
-        <v>10</v>
-      </c>
       <c r="G65" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B66" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C66" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D66" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="E66" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="C66" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D66" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="E66" s="2" t="s">
-        <v>47</v>
-      </c>
       <c r="F66" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G66" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B67" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C67" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D67" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="E67" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="C67" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D67" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="E67" s="2" t="s">
-        <v>49</v>
-      </c>
       <c r="F67" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G67" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B68" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C68" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D68" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="E68" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="C68" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D68" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="E68" s="2" t="s">
-        <v>51</v>
-      </c>
       <c r="F68" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G68" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B69" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C69" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D69" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="E69" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="C69" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D69" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="E69" s="2" t="s">
-        <v>53</v>
-      </c>
       <c r="F69" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G69" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B70" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C70" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D70" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="E70" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="C70" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D70" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="E70" s="2" t="s">
-        <v>55</v>
-      </c>
       <c r="F70" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G70" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B71" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C71" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D71" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="E71" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="C71" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D71" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="E71" s="2" t="s">
-        <v>57</v>
-      </c>
       <c r="F71" s="2" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="G71" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B72" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C72" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D72" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="E72" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="C72" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D72" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="E72" s="2" t="s">
-        <v>59</v>
-      </c>
       <c r="F72" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G72" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B73" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C73" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D73" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="E73" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="C73" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D73" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="E73" s="2" t="s">
-        <v>61</v>
-      </c>
       <c r="F73" s="2" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="G73" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B74" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C74" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D74" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="E74" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="C74" s="2" t="s">
+      <c r="F74" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D74" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="E74" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="F74" s="2" t="s">
-        <v>10</v>
-      </c>
       <c r="G74" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B75" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C75" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D75" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="E75" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="C75" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D75" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="E75" s="2" t="s">
-        <v>65</v>
-      </c>
       <c r="F75" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G75" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B76" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C76" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D76" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="E76" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="C76" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D76" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="E76" s="2" t="s">
-        <v>67</v>
-      </c>
       <c r="F76" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G76" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B77" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C77" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D77" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="E77" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="C77" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D77" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="E77" s="2" t="s">
-        <v>69</v>
-      </c>
       <c r="F77" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G77" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B78" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C78" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D78" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="E78" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="C78" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D78" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="E78" s="2" t="s">
-        <v>71</v>
-      </c>
       <c r="F78" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G78" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B79" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C79" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D79" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="E79" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="C79" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D79" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="E79" s="2" t="s">
-        <v>73</v>
-      </c>
       <c r="F79" s="2" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="G79" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B80" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C80" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D80" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="E80" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="C80" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D80" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="E80" s="2" t="s">
-        <v>75</v>
-      </c>
       <c r="F80" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G80" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B81" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C81" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D81" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="E81" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="C81" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D81" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="E81" s="2" t="s">
-        <v>77</v>
-      </c>
       <c r="F81" s="2" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="G81" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B82" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C82" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D82" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="E82" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="C82" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D82" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="E82" s="2" t="s">
-        <v>79</v>
-      </c>
       <c r="F82" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G82" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B83" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C83" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D83" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="E83" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="C83" s="2" t="s">
+      <c r="F83" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D83" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="E83" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="F83" s="2" t="s">
-        <v>10</v>
-      </c>
       <c r="G83" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B84" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C84" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D84" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="E84" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="C84" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D84" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="E84" s="2" t="s">
-        <v>83</v>
-      </c>
       <c r="F84" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G84" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B85" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C85" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D85" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="E85" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="C85" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D85" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="E85" s="2" t="s">
-        <v>85</v>
-      </c>
       <c r="F85" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G85" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="B86" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C86" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D86" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="B86" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="C86" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D86" s="2" t="s">
-        <v>91</v>
-      </c>
       <c r="E86" s="2" t="s">
-        <v>43</v>
+        <v>86</v>
       </c>
       <c r="F86" s="2" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="G86" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B87" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C87" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D87" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="E87" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C87" s="2" t="s">
+      <c r="F87" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D87" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="E87" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="F87" s="2" t="s">
-        <v>10</v>
-      </c>
       <c r="G87" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B88" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C88" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D88" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="E88" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="C88" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D88" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="E88" s="2" t="s">
-        <v>47</v>
-      </c>
       <c r="F88" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G88" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B89" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C89" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D89" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="E89" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="C89" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D89" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="E89" s="2" t="s">
-        <v>49</v>
-      </c>
       <c r="F89" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G89" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B90" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C90" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D90" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="E90" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="C90" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D90" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="E90" s="2" t="s">
-        <v>51</v>
-      </c>
       <c r="F90" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G90" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B91" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C91" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D91" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="E91" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="C91" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D91" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="E91" s="2" t="s">
-        <v>53</v>
-      </c>
       <c r="F91" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G91" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B92" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C92" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D92" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="E92" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="C92" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D92" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="E92" s="2" t="s">
-        <v>55</v>
-      </c>
       <c r="F92" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G92" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B93" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C93" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D93" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="E93" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="C93" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D93" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="E93" s="2" t="s">
-        <v>57</v>
-      </c>
       <c r="F93" s="2" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="G93" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B94" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C94" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D94" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="E94" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="C94" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D94" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="E94" s="2" t="s">
-        <v>59</v>
-      </c>
       <c r="F94" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G94" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B95" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C95" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D95" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="E95" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="C95" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D95" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="E95" s="2" t="s">
-        <v>61</v>
-      </c>
       <c r="F95" s="2" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="G95" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B96" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C96" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D96" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="E96" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="C96" s="2" t="s">
+      <c r="F96" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D96" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="E96" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="F96" s="2" t="s">
-        <v>10</v>
-      </c>
       <c r="G96" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B97" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C97" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D97" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="E97" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="C97" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D97" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="E97" s="2" t="s">
-        <v>65</v>
-      </c>
       <c r="F97" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G97" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B98" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C98" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D98" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="E98" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="C98" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D98" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="E98" s="2" t="s">
-        <v>67</v>
-      </c>
       <c r="F98" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G98" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B99" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C99" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D99" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="E99" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="C99" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D99" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="E99" s="2" t="s">
-        <v>69</v>
-      </c>
       <c r="F99" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G99" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B100" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C100" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D100" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="E100" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="C100" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D100" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="E100" s="2" t="s">
-        <v>71</v>
-      </c>
       <c r="F100" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G100" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B101" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C101" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D101" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="E101" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="C101" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D101" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="E101" s="2" t="s">
-        <v>73</v>
-      </c>
       <c r="F101" s="2" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="G101" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B102" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C102" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D102" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="E102" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="C102" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D102" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="E102" s="2" t="s">
-        <v>75</v>
-      </c>
       <c r="F102" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G102" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B103" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C103" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D103" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="E103" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="C103" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D103" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="E103" s="2" t="s">
-        <v>77</v>
-      </c>
       <c r="F103" s="2" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="G103" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B104" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C104" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D104" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="E104" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="C104" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D104" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="E104" s="2" t="s">
-        <v>79</v>
-      </c>
       <c r="F104" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G104" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B105" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C105" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D105" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="E105" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="C105" s="2" t="s">
+      <c r="F105" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D105" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="E105" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="F105" s="2" t="s">
-        <v>10</v>
-      </c>
       <c r="G105" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B106" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C106" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D106" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="E106" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="C106" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D106" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="E106" s="2" t="s">
-        <v>83</v>
-      </c>
       <c r="F106" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G106" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B107" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C107" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D107" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="E107" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="C107" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D107" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="E107" s="2" t="s">
-        <v>85</v>
-      </c>
       <c r="F107" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G107" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B108" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C108" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D108" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="B108" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="C108" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D108" s="2" t="s">
-        <v>94</v>
-      </c>
       <c r="E108" s="2" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
       <c r="F108" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G108" s="2" t="s">
-        <v>96</v>
+        <v>30</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B109" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="C109" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D109" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="E109" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="F109" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G109" s="2" t="s">
         <v>97</v>
-      </c>
-      <c r="C109" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D109" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="E109" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="F109" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G109" s="2" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B110" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="C110" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D110" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="E110" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="C110" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D110" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="E110" s="2" t="s">
-        <v>100</v>
-      </c>
       <c r="F110" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G110" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B111" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="C111" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D111" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="E111" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="C111" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D111" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="E111" s="2" t="s">
-        <v>102</v>
-      </c>
       <c r="F111" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G111" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B112" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="C112" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D112" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="E112" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="C112" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D112" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="E112" s="2" t="s">
-        <v>104</v>
-      </c>
       <c r="F112" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G112" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B113" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="C113" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D113" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="E113" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="C113" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D113" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="E113" s="2" t="s">
-        <v>106</v>
-      </c>
       <c r="F113" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G113" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B114" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="C114" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D114" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="E114" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="C114" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D114" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="E114" s="2" t="s">
-        <v>108</v>
-      </c>
       <c r="F114" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G114" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B115" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="C115" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D115" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="E115" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="C115" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D115" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="E115" s="2" t="s">
-        <v>38</v>
-      </c>
       <c r="F115" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G115" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B116" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C116" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D116" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="B116" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="C116" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D116" s="2" t="s">
-        <v>112</v>
-      </c>
       <c r="E116" s="2" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="F116" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G116" s="2" t="s">
-        <v>29</v>
+        <v>97</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B117" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C117" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D117" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="E117" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C117" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D117" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="E117" s="2" t="s">
-        <v>45</v>
-      </c>
       <c r="F117" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G117" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B118" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C118" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D118" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="E118" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="C118" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D118" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="E118" s="2" t="s">
-        <v>47</v>
-      </c>
       <c r="F118" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G118" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B119" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C119" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D119" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="E119" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="C119" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D119" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="E119" s="2" t="s">
-        <v>49</v>
-      </c>
       <c r="F119" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G119" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B120" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C120" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D120" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="E120" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="C120" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D120" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="E120" s="2" t="s">
-        <v>51</v>
-      </c>
       <c r="F120" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G120" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B121" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C121" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D121" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="E121" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="C121" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D121" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="E121" s="2" t="s">
-        <v>53</v>
-      </c>
       <c r="F121" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G121" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B122" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C122" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D122" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="E122" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="C122" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D122" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="E122" s="2" t="s">
-        <v>55</v>
-      </c>
       <c r="F122" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G122" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B123" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C123" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D123" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="E123" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="C123" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D123" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="E123" s="2" t="s">
-        <v>57</v>
-      </c>
       <c r="F123" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G123" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B124" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C124" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D124" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="E124" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="C124" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D124" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="E124" s="2" t="s">
-        <v>59</v>
-      </c>
       <c r="F124" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G124" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B125" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C125" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D125" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="E125" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="C125" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D125" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="E125" s="2" t="s">
-        <v>61</v>
-      </c>
       <c r="F125" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G125" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B126" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C126" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D126" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="E126" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="C126" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D126" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="E126" s="2" t="s">
-        <v>63</v>
-      </c>
       <c r="F126" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G126" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B127" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C127" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D127" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="E127" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="C127" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D127" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="E127" s="2" t="s">
-        <v>65</v>
-      </c>
       <c r="F127" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G127" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B128" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C128" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D128" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="E128" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="C128" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D128" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="E128" s="2" t="s">
-        <v>67</v>
-      </c>
       <c r="F128" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G128" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B129" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C129" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D129" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="E129" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="C129" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D129" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="E129" s="2" t="s">
-        <v>69</v>
-      </c>
       <c r="F129" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G129" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B130" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C130" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D130" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="E130" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="C130" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D130" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="E130" s="2" t="s">
-        <v>71</v>
-      </c>
       <c r="F130" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G130" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B131" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C131" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D131" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="E131" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="C131" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D131" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="E131" s="2" t="s">
-        <v>73</v>
-      </c>
       <c r="F131" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G131" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B132" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C132" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D132" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="E132" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="C132" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D132" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="E132" s="2" t="s">
-        <v>75</v>
-      </c>
       <c r="F132" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G132" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B133" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C133" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D133" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="E133" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="C133" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D133" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="E133" s="2" t="s">
-        <v>77</v>
-      </c>
       <c r="F133" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G133" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B134" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C134" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D134" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="E134" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="C134" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D134" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="E134" s="2" t="s">
-        <v>79</v>
-      </c>
       <c r="F134" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G134" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B135" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C135" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D135" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="E135" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="C135" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D135" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="E135" s="2" t="s">
-        <v>81</v>
-      </c>
       <c r="F135" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G135" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B136" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C136" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D136" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="E136" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="C136" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D136" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="E136" s="2" t="s">
-        <v>83</v>
-      </c>
       <c r="F136" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G136" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B137" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C137" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D137" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="E137" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="C137" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D137" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="E137" s="2" t="s">
-        <v>85</v>
-      </c>
       <c r="F137" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G137" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="B138" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C138" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D138" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="B138" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="C138" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D138" s="2" t="s">
-        <v>115</v>
-      </c>
       <c r="E138" s="2" t="s">
-        <v>116</v>
+        <v>86</v>
       </c>
       <c r="F138" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G138" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B139" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="C139" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D139" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="E139" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="C139" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D139" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="E139" s="2" t="s">
-        <v>118</v>
-      </c>
       <c r="F139" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G139" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B140" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="C140" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D140" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="E140" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="C140" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D140" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="E140" s="2" t="s">
-        <v>120</v>
-      </c>
       <c r="F140" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G140" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B141" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="C141" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D141" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="E141" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="C141" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D141" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="E141" s="2" t="s">
-        <v>122</v>
-      </c>
       <c r="F141" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G141" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B142" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="C142" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D142" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="E142" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="C142" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D142" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="E142" s="2" t="s">
-        <v>124</v>
-      </c>
       <c r="F142" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G142" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B143" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="C143" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D143" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="E143" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="C143" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D143" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="E143" s="2" t="s">
-        <v>126</v>
-      </c>
       <c r="F143" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G143" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B144" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="C144" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D144" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="E144" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="C144" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D144" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="E144" s="2" t="s">
-        <v>28</v>
-      </c>
       <c r="F144" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G144" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B145" s="2" t="s">
         <v>128</v>
       </c>
       <c r="C145" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E145" s="2" t="s">
-        <v>129</v>
+        <v>29</v>
       </c>
       <c r="F145" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G145" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B146" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="C146" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D146" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="E146" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="C146" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D146" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="E146" s="2" t="s">
-        <v>31</v>
-      </c>
       <c r="F146" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G146" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B147" s="2" t="s">
         <v>131</v>
       </c>
       <c r="C147" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E147" s="2" t="s">
-        <v>132</v>
+        <v>32</v>
       </c>
       <c r="F147" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G147" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B148" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="C148" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D148" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="E148" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="C148" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D148" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="E148" s="2" t="s">
-        <v>134</v>
-      </c>
       <c r="F148" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G148" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B149" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="C149" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D149" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="E149" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="C149" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D149" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="E149" s="2" t="s">
-        <v>136</v>
-      </c>
       <c r="F149" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G149" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="B150" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="C150" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D150" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="E150" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="B150" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="C150" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D150" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="E150" s="2" t="s">
-        <v>116</v>
-      </c>
       <c r="F150" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G150" s="2" t="s">
-        <v>139</v>
+        <v>30</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B151" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="C151" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D151" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="E151" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="C151" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D151" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="E151" s="2" t="s">
-        <v>118</v>
-      </c>
       <c r="F151" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G151" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B152" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="C152" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D152" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="E152" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="C152" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D152" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="E152" s="2" t="s">
-        <v>120</v>
-      </c>
       <c r="F152" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G152" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B153" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="C153" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D153" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="E153" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="C153" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D153" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="E153" s="2" t="s">
-        <v>122</v>
-      </c>
       <c r="F153" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G153" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B154" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="C154" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D154" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="E154" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="C154" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D154" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="E154" s="2" t="s">
-        <v>124</v>
-      </c>
       <c r="F154" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G154" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B155" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="C155" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D155" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="E155" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="C155" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D155" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="E155" s="2" t="s">
-        <v>126</v>
-      </c>
       <c r="F155" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G155" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B156" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="C156" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D156" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="E156" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="C156" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D156" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="E156" s="2" t="s">
-        <v>28</v>
-      </c>
       <c r="F156" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G156" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B157" s="2" t="s">
         <v>128</v>
       </c>
       <c r="C157" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D157" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="E157" s="2" t="s">
-        <v>129</v>
+        <v>29</v>
       </c>
       <c r="F157" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G157" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B158" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="C158" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D158" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="E158" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="C158" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D158" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="E158" s="2" t="s">
-        <v>31</v>
-      </c>
       <c r="F158" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G158" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B159" s="2" t="s">
         <v>131</v>
       </c>
       <c r="C159" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D159" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="E159" s="2" t="s">
-        <v>132</v>
+        <v>32</v>
       </c>
       <c r="F159" s="2" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="G159" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B160" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="C160" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D160" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="E160" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="C160" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D160" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="E160" s="2" t="s">
-        <v>134</v>
-      </c>
       <c r="F160" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G160" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B161" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="C161" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D161" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="E161" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="C161" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D161" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="E161" s="2" t="s">
-        <v>136</v>
-      </c>
       <c r="F161" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G161" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="B162" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="C162" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D162" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="E162" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="B162" s="2" t="s">
+      <c r="F162" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G162" s="2" t="s">
         <v>140</v>
-      </c>
-      <c r="C162" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D162" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="E162" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="F162" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="G162" s="2" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B163" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="C163" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D163" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="E163" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="F163" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G163" s="2" t="s">
         <v>144</v>
-      </c>
-      <c r="C163" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D163" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="E163" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="F163" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="G163" s="2" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B164" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="C164" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D164" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="E164" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="C164" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D164" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="E164" s="2" t="s">
-        <v>147</v>
-      </c>
       <c r="F164" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G164" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B165" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="C165" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D165" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="E165" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="C165" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D165" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="E165" s="2" t="s">
-        <v>149</v>
-      </c>
       <c r="F165" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G165" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B166" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="C166" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D166" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="E166" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="C166" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D166" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="E166" s="2" t="s">
-        <v>151</v>
-      </c>
       <c r="F166" s="2" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="G166" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B167" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="C167" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D167" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="E167" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="C167" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D167" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="E167" s="2" t="s">
-        <v>153</v>
-      </c>
       <c r="F167" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G167" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B168" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="C168" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D168" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="E168" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="C168" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D168" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="E168" s="2" t="s">
-        <v>155</v>
-      </c>
       <c r="F168" s="2" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="G168" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="B169" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="C169" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D169" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="E169" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="B169" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="C169" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D169" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="E169" s="2" t="s">
-        <v>142</v>
-      </c>
       <c r="F169" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G169" s="2" t="s">
-        <v>158</v>
+        <v>144</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" s="2" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B170" s="2" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="C170" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D170" s="2" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="E170" s="2" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="F170" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G170" s="2" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" s="2" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B171" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="C171" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D171" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="E171" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="C171" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D171" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="E171" s="2" t="s">
-        <v>147</v>
-      </c>
       <c r="F171" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G171" s="2" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" s="2" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B172" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="C172" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D172" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="E172" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="C172" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D172" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="E172" s="2" t="s">
-        <v>149</v>
-      </c>
       <c r="F172" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G172" s="2" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" s="2" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B173" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="C173" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D173" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="E173" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="C173" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D173" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="E173" s="2" t="s">
-        <v>151</v>
-      </c>
       <c r="F173" s="2" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="G173" s="2" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" s="2" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B174" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="C174" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D174" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="E174" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="C174" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D174" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="E174" s="2" t="s">
-        <v>153</v>
-      </c>
       <c r="F174" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G174" s="2" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" s="2" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B175" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="C175" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D175" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="E175" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="C175" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D175" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="E175" s="2" t="s">
-        <v>155</v>
-      </c>
       <c r="F175" s="2" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="G175" s="2" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="B176" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="C176" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D176" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="E176" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="F176" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G176" s="2" t="s">
         <v>159</v>
-      </c>
-      <c r="B176" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="C176" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D176" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="E176" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="F176" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="G176" s="2" t="s">
-        <v>162</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" s="2" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B177" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C177" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D177" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="E177" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C177" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D177" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="E177" s="2" t="s">
-        <v>45</v>
-      </c>
       <c r="F177" s="2" t="s">
-        <v>10</v>
+        <v>162</v>
       </c>
       <c r="G177" s="2" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" s="2" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B178" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C178" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D178" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="E178" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="C178" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D178" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="E178" s="2" t="s">
-        <v>47</v>
-      </c>
       <c r="F178" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G178" s="2" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" s="2" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B179" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C179" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D179" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="E179" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="C179" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D179" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="E179" s="2" t="s">
-        <v>49</v>
-      </c>
       <c r="F179" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G179" s="2" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" s="2" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B180" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C180" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D180" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="E180" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="C180" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D180" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="E180" s="2" t="s">
-        <v>51</v>
-      </c>
       <c r="F180" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G180" s="2" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" s="2" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B181" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C181" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D181" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="E181" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="C181" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D181" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="E181" s="2" t="s">
-        <v>53</v>
-      </c>
       <c r="F181" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G181" s="2" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" s="2" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B182" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C182" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D182" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="E182" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="C182" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D182" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="E182" s="2" t="s">
-        <v>55</v>
-      </c>
       <c r="F182" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G182" s="2" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" s="2" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B183" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C183" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D183" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="E183" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="C183" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D183" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="E183" s="2" t="s">
-        <v>57</v>
-      </c>
       <c r="F183" s="2" t="s">
-        <v>161</v>
+        <v>10</v>
       </c>
       <c r="G183" s="2" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" s="2" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B184" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C184" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D184" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="E184" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="C184" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D184" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="E184" s="2" t="s">
-        <v>59</v>
-      </c>
       <c r="F184" s="2" t="s">
-        <v>10</v>
+        <v>162</v>
       </c>
       <c r="G184" s="2" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" s="2" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B185" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C185" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D185" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="E185" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="C185" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D185" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="E185" s="2" t="s">
-        <v>61</v>
-      </c>
       <c r="F185" s="2" t="s">
-        <v>161</v>
+        <v>10</v>
       </c>
       <c r="G185" s="2" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" s="2" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B186" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C186" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D186" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="E186" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="C186" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D186" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="E186" s="2" t="s">
-        <v>63</v>
-      </c>
       <c r="F186" s="2" t="s">
-        <v>10</v>
+        <v>162</v>
       </c>
       <c r="G186" s="2" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" s="2" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B187" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C187" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D187" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="E187" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="C187" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D187" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="E187" s="2" t="s">
-        <v>65</v>
-      </c>
       <c r="F187" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G187" s="2" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" s="2" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B188" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C188" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D188" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="E188" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="C188" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D188" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="E188" s="2" t="s">
-        <v>67</v>
-      </c>
       <c r="F188" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G188" s="2" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" s="2" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B189" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C189" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D189" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="E189" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="C189" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D189" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="E189" s="2" t="s">
-        <v>69</v>
-      </c>
       <c r="F189" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G189" s="2" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" s="2" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B190" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C190" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D190" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="E190" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="C190" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D190" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="E190" s="2" t="s">
-        <v>71</v>
-      </c>
       <c r="F190" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G190" s="2" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" s="2" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B191" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C191" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D191" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="E191" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="C191" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D191" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="E191" s="2" t="s">
-        <v>73</v>
-      </c>
       <c r="F191" s="2" t="s">
-        <v>161</v>
+        <v>10</v>
       </c>
       <c r="G191" s="2" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" s="2" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B192" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C192" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D192" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="E192" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="C192" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D192" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="E192" s="2" t="s">
-        <v>75</v>
-      </c>
       <c r="F192" s="2" t="s">
-        <v>10</v>
+        <v>162</v>
       </c>
       <c r="G192" s="2" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" s="2" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B193" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C193" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D193" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="E193" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="C193" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D193" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="E193" s="2" t="s">
-        <v>77</v>
-      </c>
       <c r="F193" s="2" t="s">
-        <v>161</v>
+        <v>10</v>
       </c>
       <c r="G193" s="2" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" s="2" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B194" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C194" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D194" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="E194" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="C194" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D194" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="E194" s="2" t="s">
-        <v>79</v>
-      </c>
       <c r="F194" s="2" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="G194" s="2" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" s="2" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B195" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C195" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D195" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="E195" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="C195" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D195" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="E195" s="2" t="s">
-        <v>81</v>
-      </c>
       <c r="F195" s="2" t="s">
-        <v>10</v>
+        <v>162</v>
       </c>
       <c r="G195" s="2" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" s="2" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B196" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C196" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D196" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="E196" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="C196" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D196" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="E196" s="2" t="s">
-        <v>83</v>
-      </c>
       <c r="F196" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G196" s="2" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" s="2" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B197" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C197" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D197" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="E197" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="C197" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D197" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="E197" s="2" t="s">
-        <v>85</v>
-      </c>
       <c r="F197" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G197" s="2" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="B198" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C198" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D198" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="E198" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="F198" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G198" s="2" t="s">
         <v>163</v>
-      </c>
-      <c r="B198" s="2" t="s">
-        <v>164</v>
-      </c>
-      <c r="C198" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D198" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="E198" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="F198" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G198" s="2" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" s="2" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B199" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="C199" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D199" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="E199" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="C199" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D199" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="E199" s="2" t="s">
-        <v>168</v>
-      </c>
       <c r="F199" s="2" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="G199" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" s="2" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B200" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="C200" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D200" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="E200" s="2" t="s">
         <v>169</v>
       </c>
-      <c r="C200" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D200" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="E200" s="2" t="s">
-        <v>170</v>
-      </c>
       <c r="F200" s="2" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G200" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" s="2" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B201" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="C201" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D201" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E201" s="2" t="s">
         <v>171</v>
       </c>
-      <c r="C201" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D201" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="E201" s="2" t="s">
-        <v>172</v>
-      </c>
       <c r="F201" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G201" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" s="2" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B202" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="C202" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D202" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="E202" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="C202" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D202" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="E202" s="2" t="s">
-        <v>174</v>
-      </c>
       <c r="F202" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G202" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" s="2" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B203" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="C203" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D203" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="E203" s="2" t="s">
         <v>175</v>
       </c>
-      <c r="C203" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D203" s="2" t="s">
+      <c r="F203" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G203" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="B204" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="E203" s="2" t="s">
+      <c r="C204" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D204" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="F203" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G203" s="2" t="s">
-        <v>29</v>
+      <c r="E204" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="F204" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G204" s="2" t="s">
+        <v>30</v>
       </c>
     </row>
   </sheetData>

--- a/docs/Mapping_casi_uso/riconoscimenti/Rico_010.xlsx
+++ b/docs/Mapping_casi_uso/riconoscimenti/Rico_010.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1428" uniqueCount="179">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1449" uniqueCount="185">
   <si>
     <t>Sezione</t>
   </si>
@@ -320,22 +320,40 @@
     <t>minutoMorte</t>
   </si>
   <si>
-    <t>stato</t>
+    <t>Stato di morte</t>
   </si>
   <si>
     <t>idStatoMorte</t>
   </si>
   <si>
-    <t>provincia</t>
+    <t>Stato di morte - Descrizione</t>
+  </si>
+  <si>
+    <t>nomeStatoMorte</t>
+  </si>
+  <si>
+    <t>Provincia di morte</t>
+  </si>
+  <si>
+    <t>idProvinciaMorte</t>
+  </si>
+  <si>
+    <t>Provincia di morte - Descrizione</t>
   </si>
   <si>
     <t>siglaProvinciaMorte</t>
   </si>
   <si>
-    <t>comune</t>
+    <t>Comune di morte</t>
   </si>
   <si>
     <t>idComuneMorte</t>
+  </si>
+  <si>
+    <t>Comune di morte - Descrizione</t>
+  </si>
+  <si>
+    <t>nomeComuneMorte</t>
   </si>
   <si>
     <t>indirizzo</t>
@@ -607,7 +625,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H204"/>
+  <dimension ref="A1:H207"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -3278,10 +3296,10 @@
         <v>9</v>
       </c>
       <c r="D116" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="E116" s="2" t="s">
         <v>111</v>
-      </c>
-      <c r="E116" s="2" t="s">
-        <v>39</v>
       </c>
       <c r="F116" s="2" t="s">
         <v>10</v>
@@ -3292,88 +3310,88 @@
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B117" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="B117" s="2" t="s">
-        <v>42</v>
-      </c>
       <c r="C117" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D117" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="E117" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="E117" s="2" t="s">
-        <v>44</v>
-      </c>
       <c r="F117" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G117" s="2" t="s">
-        <v>30</v>
+        <v>97</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>112</v>
+        <v>93</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>45</v>
+        <v>114</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>113</v>
+        <v>95</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>46</v>
+        <v>115</v>
       </c>
       <c r="F118" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G118" s="2" t="s">
-        <v>30</v>
+        <v>97</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
-        <v>112</v>
+        <v>93</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>47</v>
+        <v>116</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="F119" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G119" s="2" t="s">
-        <v>30</v>
+        <v>97</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="C120" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="F120" s="2" t="s">
         <v>10</v>
@@ -3384,19 +3402,19 @@
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="C121" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="F121" s="2" t="s">
         <v>10</v>
@@ -3407,19 +3425,19 @@
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="C122" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="F122" s="2" t="s">
         <v>10</v>
@@ -3430,19 +3448,19 @@
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="C123" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="F123" s="2" t="s">
         <v>10</v>
@@ -3453,19 +3471,19 @@
     </row>
     <row r="124">
       <c r="A124" s="2" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="C124" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="F124" s="2" t="s">
         <v>10</v>
@@ -3476,19 +3494,19 @@
     </row>
     <row r="125">
       <c r="A125" s="2" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="C125" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="F125" s="2" t="s">
         <v>10</v>
@@ -3499,19 +3517,19 @@
     </row>
     <row r="126">
       <c r="A126" s="2" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="C126" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="F126" s="2" t="s">
         <v>10</v>
@@ -3522,19 +3540,19 @@
     </row>
     <row r="127">
       <c r="A127" s="2" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="C127" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="F127" s="2" t="s">
         <v>10</v>
@@ -3545,19 +3563,19 @@
     </row>
     <row r="128">
       <c r="A128" s="2" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="C128" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="F128" s="2" t="s">
         <v>10</v>
@@ -3568,19 +3586,19 @@
     </row>
     <row r="129">
       <c r="A129" s="2" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="C129" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="F129" s="2" t="s">
         <v>10</v>
@@ -3591,19 +3609,19 @@
     </row>
     <row r="130">
       <c r="A130" s="2" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="C130" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="F130" s="2" t="s">
         <v>10</v>
@@ -3614,19 +3632,19 @@
     </row>
     <row r="131">
       <c r="A131" s="2" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="C131" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="F131" s="2" t="s">
         <v>10</v>
@@ -3637,19 +3655,19 @@
     </row>
     <row r="132">
       <c r="A132" s="2" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="C132" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="F132" s="2" t="s">
         <v>10</v>
@@ -3660,19 +3678,19 @@
     </row>
     <row r="133">
       <c r="A133" s="2" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="C133" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="E133" s="2" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="F133" s="2" t="s">
         <v>10</v>
@@ -3683,19 +3701,19 @@
     </row>
     <row r="134">
       <c r="A134" s="2" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="C134" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="E134" s="2" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="F134" s="2" t="s">
         <v>10</v>
@@ -3706,19 +3724,19 @@
     </row>
     <row r="135">
       <c r="A135" s="2" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="C135" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="E135" s="2" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="F135" s="2" t="s">
         <v>10</v>
@@ -3729,19 +3747,19 @@
     </row>
     <row r="136">
       <c r="A136" s="2" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="C136" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="E136" s="2" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="F136" s="2" t="s">
         <v>10</v>
@@ -3752,19 +3770,19 @@
     </row>
     <row r="137">
       <c r="A137" s="2" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="C137" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="E137" s="2" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="F137" s="2" t="s">
         <v>10</v>
@@ -3775,19 +3793,19 @@
     </row>
     <row r="138">
       <c r="A138" s="2" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="C138" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="E138" s="2" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="F138" s="2" t="s">
         <v>10</v>
@@ -3798,19 +3816,19 @@
     </row>
     <row r="139">
       <c r="A139" s="2" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>115</v>
+        <v>81</v>
       </c>
       <c r="C139" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="E139" s="2" t="s">
-        <v>117</v>
+        <v>82</v>
       </c>
       <c r="F139" s="2" t="s">
         <v>10</v>
@@ -3821,19 +3839,19 @@
     </row>
     <row r="140">
       <c r="A140" s="2" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>118</v>
+        <v>83</v>
       </c>
       <c r="C140" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="E140" s="2" t="s">
-        <v>119</v>
+        <v>84</v>
       </c>
       <c r="F140" s="2" t="s">
         <v>10</v>
@@ -3844,19 +3862,19 @@
     </row>
     <row r="141">
       <c r="A141" s="2" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>120</v>
+        <v>85</v>
       </c>
       <c r="C141" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="E141" s="2" t="s">
-        <v>121</v>
+        <v>86</v>
       </c>
       <c r="F141" s="2" t="s">
         <v>10</v>
@@ -3867,16 +3885,16 @@
     </row>
     <row r="142">
       <c r="A142" s="2" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="B142" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="C142" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D142" s="2" t="s">
         <v>122</v>
-      </c>
-      <c r="C142" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D142" s="2" t="s">
-        <v>116</v>
       </c>
       <c r="E142" s="2" t="s">
         <v>123</v>
@@ -3890,7 +3908,7 @@
     </row>
     <row r="143">
       <c r="A143" s="2" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="B143" s="2" t="s">
         <v>124</v>
@@ -3899,7 +3917,7 @@
         <v>18</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="E143" s="2" t="s">
         <v>125</v>
@@ -3913,7 +3931,7 @@
     </row>
     <row r="144">
       <c r="A144" s="2" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="B144" s="2" t="s">
         <v>126</v>
@@ -3922,7 +3940,7 @@
         <v>18</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="E144" s="2" t="s">
         <v>127</v>
@@ -3936,7 +3954,7 @@
     </row>
     <row r="145">
       <c r="A145" s="2" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="B145" s="2" t="s">
         <v>128</v>
@@ -3945,10 +3963,10 @@
         <v>18</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="E145" s="2" t="s">
-        <v>29</v>
+        <v>129</v>
       </c>
       <c r="F145" s="2" t="s">
         <v>10</v>
@@ -3959,19 +3977,19 @@
     </row>
     <row r="146">
       <c r="A146" s="2" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C146" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="E146" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="F146" s="2" t="s">
         <v>10</v>
@@ -3982,19 +4000,19 @@
     </row>
     <row r="147">
       <c r="A147" s="2" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C147" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="E147" s="2" t="s">
-        <v>32</v>
+        <v>133</v>
       </c>
       <c r="F147" s="2" t="s">
         <v>10</v>
@@ -4005,19 +4023,19 @@
     </row>
     <row r="148">
       <c r="A148" s="2" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="C148" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D148" s="2" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="E148" s="2" t="s">
-        <v>133</v>
+        <v>29</v>
       </c>
       <c r="F148" s="2" t="s">
         <v>10</v>
@@ -4028,19 +4046,19 @@
     </row>
     <row r="149">
       <c r="A149" s="2" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C149" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D149" s="2" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="E149" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="F149" s="2" t="s">
         <v>10</v>
@@ -4051,19 +4069,19 @@
     </row>
     <row r="150">
       <c r="A150" s="2" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C150" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D150" s="2" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="E150" s="2" t="s">
-        <v>137</v>
+        <v>32</v>
       </c>
       <c r="F150" s="2" t="s">
         <v>10</v>
@@ -4074,85 +4092,85 @@
     </row>
     <row r="151">
       <c r="A151" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="B151" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="B151" s="2" t="s">
-        <v>115</v>
-      </c>
       <c r="C151" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D151" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="E151" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="E151" s="2" t="s">
-        <v>117</v>
-      </c>
       <c r="F151" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G151" s="2" t="s">
-        <v>140</v>
+        <v>30</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="2" t="s">
-        <v>138</v>
+        <v>120</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>118</v>
+        <v>140</v>
       </c>
       <c r="C152" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D152" s="2" t="s">
-        <v>139</v>
+        <v>122</v>
       </c>
       <c r="E152" s="2" t="s">
-        <v>119</v>
+        <v>141</v>
       </c>
       <c r="F152" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G152" s="2" t="s">
-        <v>140</v>
+        <v>30</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="2" t="s">
-        <v>138</v>
+        <v>120</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>120</v>
+        <v>142</v>
       </c>
       <c r="C153" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D153" s="2" t="s">
-        <v>139</v>
+        <v>122</v>
       </c>
       <c r="E153" s="2" t="s">
-        <v>121</v>
+        <v>143</v>
       </c>
       <c r="F153" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G153" s="2" t="s">
-        <v>140</v>
+        <v>30</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="2" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C154" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D154" s="2" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="E154" s="2" t="s">
         <v>123</v>
@@ -4161,12 +4179,12 @@
         <v>10</v>
       </c>
       <c r="G154" s="2" t="s">
-        <v>140</v>
+        <v>146</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="2" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="B155" s="2" t="s">
         <v>124</v>
@@ -4175,7 +4193,7 @@
         <v>18</v>
       </c>
       <c r="D155" s="2" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="E155" s="2" t="s">
         <v>125</v>
@@ -4184,21 +4202,21 @@
         <v>10</v>
       </c>
       <c r="G155" s="2" t="s">
-        <v>140</v>
+        <v>146</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="2" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="B156" s="2" t="s">
         <v>126</v>
       </c>
       <c r="C156" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D156" s="2" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="E156" s="2" t="s">
         <v>127</v>
@@ -4207,12 +4225,12 @@
         <v>10</v>
       </c>
       <c r="G156" s="2" t="s">
-        <v>140</v>
+        <v>146</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="2" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="B157" s="2" t="s">
         <v>128</v>
@@ -4221,228 +4239,228 @@
         <v>18</v>
       </c>
       <c r="D157" s="2" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="E157" s="2" t="s">
-        <v>29</v>
+        <v>129</v>
       </c>
       <c r="F157" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G157" s="2" t="s">
-        <v>140</v>
+        <v>146</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="2" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C158" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D158" s="2" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="E158" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="F158" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G158" s="2" t="s">
-        <v>140</v>
+        <v>146</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="2" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C159" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D159" s="2" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="E159" s="2" t="s">
-        <v>32</v>
+        <v>133</v>
       </c>
       <c r="F159" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G159" s="2" t="s">
-        <v>140</v>
+        <v>146</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" s="2" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="C160" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D160" s="2" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="E160" s="2" t="s">
-        <v>133</v>
+        <v>29</v>
       </c>
       <c r="F160" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G160" s="2" t="s">
-        <v>140</v>
+        <v>146</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="2" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="B161" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C161" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D161" s="2" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="E161" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="F161" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G161" s="2" t="s">
-        <v>140</v>
+        <v>146</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" s="2" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="B162" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C162" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D162" s="2" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="E162" s="2" t="s">
-        <v>137</v>
+        <v>32</v>
       </c>
       <c r="F162" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G162" s="2" t="s">
-        <v>140</v>
+        <v>146</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="B163" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="B163" s="2" t="s">
-        <v>141</v>
-      </c>
       <c r="C163" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D163" s="2" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="E163" s="2" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="F163" s="2" t="s">
         <v>17</v>
       </c>
       <c r="G163" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" s="2" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="B164" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="C164" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D164" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="C164" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D164" s="2" t="s">
-        <v>142</v>
-      </c>
       <c r="E164" s="2" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="F164" s="2" t="s">
         <v>17</v>
       </c>
       <c r="G164" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" s="2" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="B165" s="2" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="C165" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D165" s="2" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="E165" s="2" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="F165" s="2" t="s">
         <v>17</v>
       </c>
       <c r="G165" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" s="2" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="B166" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="C166" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D166" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="E166" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="C166" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D166" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="E166" s="2" t="s">
+      <c r="F166" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G166" s="2" t="s">
         <v>150</v>
-      </c>
-      <c r="F166" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G166" s="2" t="s">
-        <v>144</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" s="2" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="B167" s="2" t="s">
         <v>151</v>
@@ -4451,7 +4469,7 @@
         <v>9</v>
       </c>
       <c r="D167" s="2" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
       <c r="E167" s="2" t="s">
         <v>152</v>
@@ -4460,12 +4478,12 @@
         <v>17</v>
       </c>
       <c r="G167" s="2" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" s="2" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="B168" s="2" t="s">
         <v>153</v>
@@ -4474,21 +4492,21 @@
         <v>9</v>
       </c>
       <c r="D168" s="2" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
       <c r="E168" s="2" t="s">
         <v>154</v>
       </c>
       <c r="F168" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G168" s="2" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" s="2" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="B169" s="2" t="s">
         <v>155</v>
@@ -4497,113 +4515,113 @@
         <v>9</v>
       </c>
       <c r="D169" s="2" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
       <c r="E169" s="2" t="s">
         <v>156</v>
       </c>
       <c r="F169" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G169" s="2" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="B170" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="B170" s="2" t="s">
-        <v>141</v>
-      </c>
       <c r="C170" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D170" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="E170" s="2" t="s">
         <v>158</v>
-      </c>
-      <c r="E170" s="2" t="s">
-        <v>143</v>
       </c>
       <c r="F170" s="2" t="s">
         <v>17</v>
       </c>
       <c r="G170" s="2" t="s">
-        <v>159</v>
+        <v>150</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" s="2" t="s">
-        <v>157</v>
+        <v>144</v>
       </c>
       <c r="B171" s="2" t="s">
-        <v>145</v>
+        <v>159</v>
       </c>
       <c r="C171" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D171" s="2" t="s">
-        <v>158</v>
+        <v>148</v>
       </c>
       <c r="E171" s="2" t="s">
-        <v>146</v>
+        <v>160</v>
       </c>
       <c r="F171" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G171" s="2" t="s">
-        <v>159</v>
+        <v>150</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" s="2" t="s">
-        <v>157</v>
+        <v>144</v>
       </c>
       <c r="B172" s="2" t="s">
-        <v>147</v>
+        <v>161</v>
       </c>
       <c r="C172" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D172" s="2" t="s">
-        <v>158</v>
+        <v>148</v>
       </c>
       <c r="E172" s="2" t="s">
-        <v>148</v>
+        <v>162</v>
       </c>
       <c r="F172" s="2" t="s">
         <v>17</v>
       </c>
       <c r="G172" s="2" t="s">
-        <v>159</v>
+        <v>150</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" s="2" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="B173" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="C173" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D173" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="E173" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="C173" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D173" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="E173" s="2" t="s">
-        <v>150</v>
-      </c>
       <c r="F173" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G173" s="2" t="s">
-        <v>159</v>
+        <v>165</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" s="2" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="B174" s="2" t="s">
         <v>151</v>
@@ -4612,7 +4630,7 @@
         <v>9</v>
       </c>
       <c r="D174" s="2" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="E174" s="2" t="s">
         <v>152</v>
@@ -4621,12 +4639,12 @@
         <v>17</v>
       </c>
       <c r="G174" s="2" t="s">
-        <v>159</v>
+        <v>165</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" s="2" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="B175" s="2" t="s">
         <v>153</v>
@@ -4635,21 +4653,21 @@
         <v>9</v>
       </c>
       <c r="D175" s="2" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="E175" s="2" t="s">
         <v>154</v>
       </c>
       <c r="F175" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G175" s="2" t="s">
-        <v>159</v>
+        <v>165</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" s="2" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="B176" s="2" t="s">
         <v>155</v>
@@ -4658,605 +4676,605 @@
         <v>9</v>
       </c>
       <c r="D176" s="2" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="E176" s="2" t="s">
         <v>156</v>
       </c>
       <c r="F176" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G176" s="2" t="s">
-        <v>159</v>
+        <v>165</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" s="2" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="B177" s="2" t="s">
-        <v>42</v>
+        <v>157</v>
       </c>
       <c r="C177" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D177" s="2" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="E177" s="2" t="s">
-        <v>44</v>
+        <v>158</v>
       </c>
       <c r="F177" s="2" t="s">
-        <v>162</v>
+        <v>17</v>
       </c>
       <c r="G177" s="2" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="B178" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="C178" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D178" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="E178" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="B178" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="C178" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D178" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="E178" s="2" t="s">
-        <v>46</v>
-      </c>
       <c r="F178" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G178" s="2" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" s="2" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="B179" s="2" t="s">
-        <v>47</v>
+        <v>161</v>
       </c>
       <c r="C179" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D179" s="2" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="E179" s="2" t="s">
-        <v>48</v>
+        <v>162</v>
       </c>
       <c r="F179" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G179" s="2" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" s="2" t="s">
-        <v>160</v>
+        <v>166</v>
       </c>
       <c r="B180" s="2" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="C180" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D180" s="2" t="s">
-        <v>161</v>
+        <v>167</v>
       </c>
       <c r="E180" s="2" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="F180" s="2" t="s">
-        <v>10</v>
+        <v>168</v>
       </c>
       <c r="G180" s="2" t="s">
-        <v>163</v>
+        <v>169</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" s="2" t="s">
-        <v>160</v>
+        <v>166</v>
       </c>
       <c r="B181" s="2" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="C181" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D181" s="2" t="s">
-        <v>161</v>
+        <v>167</v>
       </c>
       <c r="E181" s="2" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="F181" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G181" s="2" t="s">
-        <v>163</v>
+        <v>169</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" s="2" t="s">
-        <v>160</v>
+        <v>166</v>
       </c>
       <c r="B182" s="2" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="C182" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D182" s="2" t="s">
-        <v>161</v>
+        <v>167</v>
       </c>
       <c r="E182" s="2" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="F182" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G182" s="2" t="s">
-        <v>163</v>
+        <v>169</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" s="2" t="s">
-        <v>160</v>
+        <v>166</v>
       </c>
       <c r="B183" s="2" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="C183" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D183" s="2" t="s">
-        <v>161</v>
+        <v>167</v>
       </c>
       <c r="E183" s="2" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="F183" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G183" s="2" t="s">
-        <v>163</v>
+        <v>169</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" s="2" t="s">
-        <v>160</v>
+        <v>166</v>
       </c>
       <c r="B184" s="2" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="C184" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D184" s="2" t="s">
-        <v>161</v>
+        <v>167</v>
       </c>
       <c r="E184" s="2" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="F184" s="2" t="s">
-        <v>162</v>
+        <v>10</v>
       </c>
       <c r="G184" s="2" t="s">
-        <v>163</v>
+        <v>169</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" s="2" t="s">
-        <v>160</v>
+        <v>166</v>
       </c>
       <c r="B185" s="2" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="C185" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D185" s="2" t="s">
-        <v>161</v>
+        <v>167</v>
       </c>
       <c r="E185" s="2" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="F185" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G185" s="2" t="s">
-        <v>163</v>
+        <v>169</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" s="2" t="s">
-        <v>160</v>
+        <v>166</v>
       </c>
       <c r="B186" s="2" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="C186" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D186" s="2" t="s">
-        <v>161</v>
+        <v>167</v>
       </c>
       <c r="E186" s="2" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="F186" s="2" t="s">
-        <v>162</v>
+        <v>10</v>
       </c>
       <c r="G186" s="2" t="s">
-        <v>163</v>
+        <v>169</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" s="2" t="s">
-        <v>160</v>
+        <v>166</v>
       </c>
       <c r="B187" s="2" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="C187" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D187" s="2" t="s">
-        <v>161</v>
+        <v>167</v>
       </c>
       <c r="E187" s="2" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="F187" s="2" t="s">
-        <v>10</v>
+        <v>168</v>
       </c>
       <c r="G187" s="2" t="s">
-        <v>163</v>
+        <v>169</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" s="2" t="s">
-        <v>160</v>
+        <v>166</v>
       </c>
       <c r="B188" s="2" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="C188" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D188" s="2" t="s">
-        <v>161</v>
+        <v>167</v>
       </c>
       <c r="E188" s="2" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="F188" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G188" s="2" t="s">
-        <v>163</v>
+        <v>169</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" s="2" t="s">
-        <v>160</v>
+        <v>166</v>
       </c>
       <c r="B189" s="2" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="C189" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D189" s="2" t="s">
-        <v>161</v>
+        <v>167</v>
       </c>
       <c r="E189" s="2" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="F189" s="2" t="s">
-        <v>10</v>
+        <v>168</v>
       </c>
       <c r="G189" s="2" t="s">
-        <v>163</v>
+        <v>169</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" s="2" t="s">
-        <v>160</v>
+        <v>166</v>
       </c>
       <c r="B190" s="2" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="C190" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D190" s="2" t="s">
-        <v>161</v>
+        <v>167</v>
       </c>
       <c r="E190" s="2" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="F190" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G190" s="2" t="s">
-        <v>163</v>
+        <v>169</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" s="2" t="s">
-        <v>160</v>
+        <v>166</v>
       </c>
       <c r="B191" s="2" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="C191" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D191" s="2" t="s">
-        <v>161</v>
+        <v>167</v>
       </c>
       <c r="E191" s="2" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="F191" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G191" s="2" t="s">
-        <v>163</v>
+        <v>169</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" s="2" t="s">
-        <v>160</v>
+        <v>166</v>
       </c>
       <c r="B192" s="2" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="C192" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D192" s="2" t="s">
-        <v>161</v>
+        <v>167</v>
       </c>
       <c r="E192" s="2" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="F192" s="2" t="s">
-        <v>162</v>
+        <v>10</v>
       </c>
       <c r="G192" s="2" t="s">
-        <v>163</v>
+        <v>169</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" s="2" t="s">
-        <v>160</v>
+        <v>166</v>
       </c>
       <c r="B193" s="2" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="C193" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D193" s="2" t="s">
-        <v>161</v>
+        <v>167</v>
       </c>
       <c r="E193" s="2" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="F193" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G193" s="2" t="s">
-        <v>163</v>
+        <v>169</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" s="2" t="s">
-        <v>160</v>
+        <v>166</v>
       </c>
       <c r="B194" s="2" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="C194" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D194" s="2" t="s">
-        <v>161</v>
+        <v>167</v>
       </c>
       <c r="E194" s="2" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="F194" s="2" t="s">
-        <v>162</v>
+        <v>10</v>
       </c>
       <c r="G194" s="2" t="s">
-        <v>163</v>
+        <v>169</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" s="2" t="s">
-        <v>160</v>
+        <v>166</v>
       </c>
       <c r="B195" s="2" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="C195" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D195" s="2" t="s">
-        <v>161</v>
+        <v>167</v>
       </c>
       <c r="E195" s="2" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="F195" s="2" t="s">
-        <v>162</v>
+        <v>168</v>
       </c>
       <c r="G195" s="2" t="s">
-        <v>163</v>
+        <v>169</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" s="2" t="s">
-        <v>160</v>
+        <v>166</v>
       </c>
       <c r="B196" s="2" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="C196" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D196" s="2" t="s">
-        <v>161</v>
+        <v>167</v>
       </c>
       <c r="E196" s="2" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="F196" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G196" s="2" t="s">
-        <v>163</v>
+        <v>169</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" s="2" t="s">
-        <v>160</v>
+        <v>166</v>
       </c>
       <c r="B197" s="2" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="C197" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D197" s="2" t="s">
-        <v>161</v>
+        <v>167</v>
       </c>
       <c r="E197" s="2" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="F197" s="2" t="s">
-        <v>10</v>
+        <v>168</v>
       </c>
       <c r="G197" s="2" t="s">
-        <v>163</v>
+        <v>169</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" s="2" t="s">
-        <v>160</v>
+        <v>166</v>
       </c>
       <c r="B198" s="2" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="C198" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D198" s="2" t="s">
-        <v>161</v>
+        <v>167</v>
       </c>
       <c r="E198" s="2" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="F198" s="2" t="s">
-        <v>10</v>
+        <v>168</v>
       </c>
       <c r="G198" s="2" t="s">
-        <v>163</v>
+        <v>169</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="B199" s="2" t="s">
-        <v>165</v>
+        <v>81</v>
       </c>
       <c r="C199" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D199" s="2" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="E199" s="2" t="s">
-        <v>167</v>
+        <v>82</v>
       </c>
       <c r="F199" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G199" s="2" t="s">
-        <v>30</v>
+        <v>169</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="B200" s="2" t="s">
-        <v>168</v>
+        <v>83</v>
       </c>
       <c r="C200" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D200" s="2" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="E200" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="F200" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G200" s="2" t="s">
         <v>169</v>
-      </c>
-      <c r="F200" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G200" s="2" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="B201" s="2" t="s">
-        <v>170</v>
+        <v>85</v>
       </c>
       <c r="C201" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D201" s="2" t="s">
-        <v>28</v>
+        <v>167</v>
       </c>
       <c r="E201" s="2" t="s">
-        <v>171</v>
+        <v>86</v>
       </c>
       <c r="F201" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G201" s="2" t="s">
-        <v>30</v>
+        <v>169</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" s="2" t="s">
-        <v>164</v>
+        <v>170</v>
       </c>
       <c r="B202" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="C202" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D202" s="2" t="s">
         <v>172</v>
-      </c>
-      <c r="C202" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D202" s="2" t="s">
-        <v>111</v>
       </c>
       <c r="E202" s="2" t="s">
         <v>173</v>
@@ -5270,7 +5288,7 @@
     </row>
     <row r="203">
       <c r="A203" s="2" t="s">
-        <v>164</v>
+        <v>170</v>
       </c>
       <c r="B203" s="2" t="s">
         <v>174</v>
@@ -5279,13 +5297,13 @@
         <v>9</v>
       </c>
       <c r="D203" s="2" t="s">
-        <v>111</v>
+        <v>172</v>
       </c>
       <c r="E203" s="2" t="s">
         <v>175</v>
       </c>
       <c r="F203" s="2" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G203" s="2" t="s">
         <v>30</v>
@@ -5293,7 +5311,7 @@
     </row>
     <row r="204">
       <c r="A204" s="2" t="s">
-        <v>164</v>
+        <v>170</v>
       </c>
       <c r="B204" s="2" t="s">
         <v>176</v>
@@ -5302,15 +5320,84 @@
         <v>18</v>
       </c>
       <c r="D204" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E204" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="E204" s="2" t="s">
+      <c r="F204" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G204" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="B205" s="2" t="s">
         <v>178</v>
       </c>
-      <c r="F204" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G204" s="2" t="s">
+      <c r="C205" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D205" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="E205" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="F205" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G205" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="B206" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="C206" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D206" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="E206" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="F206" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G206" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="B207" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="C207" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D207" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="E207" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="F207" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G207" s="2" t="s">
         <v>30</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/riconoscimenti/Rico_010.xlsx
+++ b/docs/Mapping_casi_uso/riconoscimenti/Rico_010.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1449" uniqueCount="185">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1491" uniqueCount="187">
   <si>
     <t>Sezione</t>
   </si>
@@ -203,6 +203,12 @@
     <t>nomeComuneNascita</t>
   </si>
   <si>
+    <t>Località estera</t>
+  </si>
+  <si>
+    <t>localitaEsteraNascita</t>
+  </si>
+  <si>
     <t>Nazionalita</t>
   </si>
   <si>
@@ -428,22 +434,22 @@
     <t>Data atto</t>
   </si>
   <si>
+    <t>Parte</t>
+  </si>
+  <si>
+    <t>parte</t>
+  </si>
+  <si>
+    <t>Serie</t>
+  </si>
+  <si>
+    <t>serie</t>
+  </si>
+  <si>
     <t>Tipo registro</t>
   </si>
   <si>
     <t>tipologia</t>
-  </si>
-  <si>
-    <t>Parte</t>
-  </si>
-  <si>
-    <t>parte</t>
-  </si>
-  <si>
-    <t>Serie</t>
-  </si>
-  <si>
-    <t>serie</t>
   </si>
   <si>
     <t>Atto Consenso Padre</t>
@@ -625,7 +631,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H207"/>
+  <dimension ref="A1:H213"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1608,22 +1614,22 @@
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B43" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="B43" s="2" t="s">
-        <v>42</v>
-      </c>
       <c r="C43" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D43" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E43" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="E43" s="2" t="s">
-        <v>44</v>
-      </c>
       <c r="F43" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G43" s="2" t="s">
         <v>30</v>
@@ -1631,22 +1637,22 @@
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G44" s="2" t="s">
         <v>30</v>
@@ -1654,19 +1660,19 @@
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C45" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F45" s="2" t="s">
         <v>10</v>
@@ -1677,19 +1683,19 @@
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C46" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F46" s="2" t="s">
         <v>10</v>
@@ -1700,19 +1706,19 @@
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C47" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F47" s="2" t="s">
         <v>10</v>
@@ -1723,19 +1729,19 @@
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C48" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>10</v>
@@ -1746,19 +1752,19 @@
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>10</v>
@@ -1769,22 +1775,22 @@
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G50" s="2" t="s">
         <v>30</v>
@@ -1792,22 +1798,22 @@
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G51" s="2" t="s">
         <v>30</v>
@@ -1815,22 +1821,22 @@
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G52" s="2" t="s">
         <v>30</v>
@@ -1838,22 +1844,22 @@
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G53" s="2" t="s">
         <v>30</v>
@@ -1861,22 +1867,22 @@
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G54" s="2" t="s">
         <v>30</v>
@@ -1884,19 +1890,19 @@
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>10</v>
@@ -1907,19 +1913,19 @@
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>10</v>
@@ -1930,19 +1936,19 @@
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>10</v>
@@ -1953,22 +1959,22 @@
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G58" s="2" t="s">
         <v>30</v>
@@ -1976,19 +1982,19 @@
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>10</v>
@@ -1999,19 +2005,19 @@
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>17</v>
@@ -2022,22 +2028,22 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F61" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G61" s="2" t="s">
         <v>30</v>
@@ -2045,22 +2051,22 @@
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F62" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G62" s="2" t="s">
         <v>30</v>
@@ -2068,22 +2074,22 @@
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="F63" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G63" s="2" t="s">
         <v>30</v>
@@ -2091,19 +2097,19 @@
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>10</v>
@@ -2117,19 +2123,19 @@
         <v>89</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>42</v>
+        <v>85</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D65" s="2" t="s">
         <v>90</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>44</v>
+        <v>86</v>
       </c>
       <c r="F65" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G65" s="2" t="s">
         <v>30</v>
@@ -2140,7 +2146,7 @@
         <v>89</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>45</v>
+        <v>87</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>18</v>
@@ -2149,7 +2155,7 @@
         <v>90</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>46</v>
+        <v>88</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>10</v>
@@ -2160,22 +2166,22 @@
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="F67" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G67" s="2" t="s">
         <v>30</v>
@@ -2183,19 +2189,19 @@
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>10</v>
@@ -2206,19 +2212,19 @@
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>10</v>
@@ -2229,19 +2235,19 @@
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>10</v>
@@ -2252,19 +2258,19 @@
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>10</v>
@@ -2275,22 +2281,22 @@
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="F72" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G72" s="2" t="s">
         <v>30</v>
@@ -2298,19 +2304,19 @@
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>10</v>
@@ -2321,19 +2327,19 @@
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>17</v>
@@ -2344,19 +2350,19 @@
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>10</v>
@@ -2367,22 +2373,22 @@
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="F76" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G76" s="2" t="s">
         <v>30</v>
@@ -2390,22 +2396,22 @@
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="F77" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G77" s="2" t="s">
         <v>30</v>
@@ -2413,19 +2419,19 @@
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>10</v>
@@ -2436,19 +2442,19 @@
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>10</v>
@@ -2459,22 +2465,22 @@
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="F80" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G80" s="2" t="s">
         <v>30</v>
@@ -2482,19 +2488,19 @@
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>10</v>
@@ -2505,22 +2511,22 @@
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="F82" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G82" s="2" t="s">
         <v>30</v>
@@ -2528,19 +2534,19 @@
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="C83" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>17</v>
@@ -2551,19 +2557,19 @@
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>10</v>
@@ -2574,22 +2580,22 @@
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="F85" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G85" s="2" t="s">
         <v>30</v>
@@ -2597,22 +2603,22 @@
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="F86" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G86" s="2" t="s">
         <v>30</v>
@@ -2623,19 +2629,19 @@
         <v>91</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>42</v>
+        <v>83</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D87" s="2" t="s">
         <v>92</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>44</v>
+        <v>84</v>
       </c>
       <c r="F87" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G87" s="2" t="s">
         <v>30</v>
@@ -2646,7 +2652,7 @@
         <v>91</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>45</v>
+        <v>85</v>
       </c>
       <c r="C88" s="2" t="s">
         <v>18</v>
@@ -2655,7 +2661,7 @@
         <v>92</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>46</v>
+        <v>86</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>10</v>
@@ -2669,7 +2675,7 @@
         <v>91</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>47</v>
+        <v>87</v>
       </c>
       <c r="C89" s="2" t="s">
         <v>18</v>
@@ -2678,7 +2684,7 @@
         <v>92</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>48</v>
+        <v>88</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>10</v>
@@ -2689,22 +2695,22 @@
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="F90" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G90" s="2" t="s">
         <v>30</v>
@@ -2712,19 +2718,19 @@
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="C91" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>10</v>
@@ -2735,19 +2741,19 @@
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="C92" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="F92" s="2" t="s">
         <v>10</v>
@@ -2758,19 +2764,19 @@
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>10</v>
@@ -2781,22 +2787,22 @@
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="F94" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G94" s="2" t="s">
         <v>30</v>
@@ -2804,19 +2810,19 @@
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="F95" s="2" t="s">
         <v>10</v>
@@ -2827,22 +2833,22 @@
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="C96" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="F96" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G96" s="2" t="s">
         <v>30</v>
@@ -2850,22 +2856,22 @@
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="F97" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G97" s="2" t="s">
         <v>30</v>
@@ -2873,19 +2879,19 @@
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="F98" s="2" t="s">
         <v>10</v>
@@ -2896,22 +2902,22 @@
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="F99" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G99" s="2" t="s">
         <v>30</v>
@@ -2919,22 +2925,22 @@
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="F100" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G100" s="2" t="s">
         <v>30</v>
@@ -2942,19 +2948,19 @@
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="F101" s="2" t="s">
         <v>10</v>
@@ -2965,22 +2971,22 @@
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="F102" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G102" s="2" t="s">
         <v>30</v>
@@ -2988,19 +2994,19 @@
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="F103" s="2" t="s">
         <v>10</v>
@@ -3011,22 +3017,22 @@
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="F104" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G104" s="2" t="s">
         <v>30</v>
@@ -3034,22 +3040,22 @@
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="C105" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="F105" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G105" s="2" t="s">
         <v>30</v>
@@ -3057,22 +3063,22 @@
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="F106" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G106" s="2" t="s">
         <v>30</v>
@@ -3080,19 +3086,19 @@
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="F107" s="2" t="s">
         <v>10</v>
@@ -3103,22 +3109,22 @@
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="F108" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G108" s="2" t="s">
         <v>30</v>
@@ -3129,22 +3135,22 @@
         <v>93</v>
       </c>
       <c r="B109" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C109" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D109" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="C109" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D109" s="2" t="s">
-        <v>95</v>
-      </c>
       <c r="E109" s="2" t="s">
-        <v>96</v>
+        <v>82</v>
       </c>
       <c r="F109" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G109" s="2" t="s">
-        <v>97</v>
+        <v>30</v>
       </c>
     </row>
     <row r="110">
@@ -3152,22 +3158,22 @@
         <v>93</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>98</v>
+        <v>83</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>99</v>
+        <v>84</v>
       </c>
       <c r="F110" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G110" s="2" t="s">
-        <v>97</v>
+        <v>30</v>
       </c>
     </row>
     <row r="111">
@@ -3175,22 +3181,22 @@
         <v>93</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>101</v>
+        <v>86</v>
       </c>
       <c r="F111" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G111" s="2" t="s">
-        <v>97</v>
+        <v>30</v>
       </c>
     </row>
     <row r="112">
@@ -3198,292 +3204,292 @@
         <v>93</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>102</v>
+        <v>87</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>103</v>
+        <v>88</v>
       </c>
       <c r="F112" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G112" s="2" t="s">
-        <v>97</v>
+        <v>30</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="C113" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="F113" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G113" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="C114" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="F114" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G114" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="C115" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="F115" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G115" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="C116" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="F116" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G116" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="C117" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="F117" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G117" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="C118" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="F118" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G118" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="C119" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>117</v>
+        <v>97</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>39</v>
+        <v>111</v>
       </c>
       <c r="F119" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G119" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
-        <v>118</v>
+        <v>95</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>42</v>
+        <v>112</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>119</v>
+        <v>97</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>44</v>
+        <v>113</v>
       </c>
       <c r="F120" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G120" s="2" t="s">
-        <v>30</v>
+        <v>99</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
-        <v>118</v>
+        <v>95</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>45</v>
+        <v>114</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>119</v>
+        <v>97</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>46</v>
+        <v>115</v>
       </c>
       <c r="F121" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G121" s="2" t="s">
-        <v>30</v>
+        <v>99</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
-        <v>118</v>
+        <v>95</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>47</v>
+        <v>116</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>119</v>
+        <v>97</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>48</v>
+        <v>117</v>
       </c>
       <c r="F122" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G122" s="2" t="s">
-        <v>30</v>
+        <v>99</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="B123" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="B123" s="2" t="s">
-        <v>49</v>
-      </c>
       <c r="C123" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D123" s="2" t="s">
         <v>119</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="F123" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G123" s="2" t="s">
-        <v>30</v>
+        <v>99</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="C124" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="F124" s="2" t="s">
         <v>10</v>
@@ -3494,19 +3500,19 @@
     </row>
     <row r="125">
       <c r="A125" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="C125" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="F125" s="2" t="s">
         <v>10</v>
@@ -3517,19 +3523,19 @@
     </row>
     <row r="126">
       <c r="A126" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="C126" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="F126" s="2" t="s">
         <v>10</v>
@@ -3540,19 +3546,19 @@
     </row>
     <row r="127">
       <c r="A127" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="C127" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="F127" s="2" t="s">
         <v>10</v>
@@ -3563,19 +3569,19 @@
     </row>
     <row r="128">
       <c r="A128" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="C128" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="F128" s="2" t="s">
         <v>10</v>
@@ -3586,19 +3592,19 @@
     </row>
     <row r="129">
       <c r="A129" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="C129" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="F129" s="2" t="s">
         <v>10</v>
@@ -3609,19 +3615,19 @@
     </row>
     <row r="130">
       <c r="A130" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="C130" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="F130" s="2" t="s">
         <v>10</v>
@@ -3632,19 +3638,19 @@
     </row>
     <row r="131">
       <c r="A131" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="C131" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="F131" s="2" t="s">
         <v>10</v>
@@ -3655,19 +3661,19 @@
     </row>
     <row r="132">
       <c r="A132" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="C132" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="F132" s="2" t="s">
         <v>10</v>
@@ -3678,19 +3684,19 @@
     </row>
     <row r="133">
       <c r="A133" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="C133" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E133" s="2" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="F133" s="2" t="s">
         <v>10</v>
@@ -3701,19 +3707,19 @@
     </row>
     <row r="134">
       <c r="A134" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="C134" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E134" s="2" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="F134" s="2" t="s">
         <v>10</v>
@@ -3724,19 +3730,19 @@
     </row>
     <row r="135">
       <c r="A135" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="C135" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E135" s="2" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="F135" s="2" t="s">
         <v>10</v>
@@ -3747,19 +3753,19 @@
     </row>
     <row r="136">
       <c r="A136" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="C136" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E136" s="2" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="F136" s="2" t="s">
         <v>10</v>
@@ -3770,19 +3776,19 @@
     </row>
     <row r="137">
       <c r="A137" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="C137" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E137" s="2" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="F137" s="2" t="s">
         <v>10</v>
@@ -3793,19 +3799,19 @@
     </row>
     <row r="138">
       <c r="A138" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="C138" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E138" s="2" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="F138" s="2" t="s">
         <v>10</v>
@@ -3816,19 +3822,19 @@
     </row>
     <row r="139">
       <c r="A139" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="C139" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E139" s="2" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="F139" s="2" t="s">
         <v>10</v>
@@ -3839,19 +3845,19 @@
     </row>
     <row r="140">
       <c r="A140" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="C140" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E140" s="2" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="F140" s="2" t="s">
         <v>10</v>
@@ -3862,19 +3868,19 @@
     </row>
     <row r="141">
       <c r="A141" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="C141" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E141" s="2" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="F141" s="2" t="s">
         <v>10</v>
@@ -3888,16 +3894,16 @@
         <v>120</v>
       </c>
       <c r="B142" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C142" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D142" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="C142" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D142" s="2" t="s">
-        <v>122</v>
-      </c>
       <c r="E142" s="2" t="s">
-        <v>123</v>
+        <v>80</v>
       </c>
       <c r="F142" s="2" t="s">
         <v>10</v>
@@ -3911,16 +3917,16 @@
         <v>120</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>124</v>
+        <v>81</v>
       </c>
       <c r="C143" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E143" s="2" t="s">
-        <v>125</v>
+        <v>82</v>
       </c>
       <c r="F143" s="2" t="s">
         <v>10</v>
@@ -3934,16 +3940,16 @@
         <v>120</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>126</v>
+        <v>83</v>
       </c>
       <c r="C144" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E144" s="2" t="s">
-        <v>127</v>
+        <v>84</v>
       </c>
       <c r="F144" s="2" t="s">
         <v>10</v>
@@ -3957,16 +3963,16 @@
         <v>120</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>128</v>
+        <v>85</v>
       </c>
       <c r="C145" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E145" s="2" t="s">
-        <v>129</v>
+        <v>86</v>
       </c>
       <c r="F145" s="2" t="s">
         <v>10</v>
@@ -3980,16 +3986,16 @@
         <v>120</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>130</v>
+        <v>87</v>
       </c>
       <c r="C146" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E146" s="2" t="s">
-        <v>131</v>
+        <v>88</v>
       </c>
       <c r="F146" s="2" t="s">
         <v>10</v>
@@ -4000,19 +4006,19 @@
     </row>
     <row r="147">
       <c r="A147" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>132</v>
+        <v>123</v>
       </c>
       <c r="C147" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="E147" s="2" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="F147" s="2" t="s">
         <v>10</v>
@@ -4023,19 +4029,19 @@
     </row>
     <row r="148">
       <c r="A148" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="C148" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D148" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="E148" s="2" t="s">
-        <v>29</v>
+        <v>127</v>
       </c>
       <c r="F148" s="2" t="s">
         <v>10</v>
@@ -4046,19 +4052,19 @@
     </row>
     <row r="149">
       <c r="A149" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="C149" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D149" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="E149" s="2" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="F149" s="2" t="s">
         <v>10</v>
@@ -4069,19 +4075,19 @@
     </row>
     <row r="150">
       <c r="A150" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="C150" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D150" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="E150" s="2" t="s">
-        <v>32</v>
+        <v>131</v>
       </c>
       <c r="F150" s="2" t="s">
         <v>10</v>
@@ -4092,19 +4098,19 @@
     </row>
     <row r="151">
       <c r="A151" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="C151" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D151" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="E151" s="2" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="F151" s="2" t="s">
         <v>10</v>
@@ -4115,19 +4121,19 @@
     </row>
     <row r="152">
       <c r="A152" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="C152" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D152" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="E152" s="2" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="F152" s="2" t="s">
         <v>10</v>
@@ -4138,19 +4144,19 @@
     </row>
     <row r="153">
       <c r="A153" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="C153" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D153" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="E153" s="2" t="s">
-        <v>143</v>
+        <v>29</v>
       </c>
       <c r="F153" s="2" t="s">
         <v>10</v>
@@ -4161,1243 +4167,1381 @@
     </row>
     <row r="154">
       <c r="A154" s="2" t="s">
-        <v>144</v>
+        <v>122</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>121</v>
+        <v>137</v>
       </c>
       <c r="C154" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D154" s="2" t="s">
-        <v>145</v>
+        <v>124</v>
       </c>
       <c r="E154" s="2" t="s">
-        <v>123</v>
+        <v>138</v>
       </c>
       <c r="F154" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G154" s="2" t="s">
-        <v>146</v>
+        <v>30</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="2" t="s">
-        <v>144</v>
+        <v>122</v>
       </c>
       <c r="B155" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="C155" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D155" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="C155" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D155" s="2" t="s">
-        <v>145</v>
-      </c>
       <c r="E155" s="2" t="s">
-        <v>125</v>
+        <v>32</v>
       </c>
       <c r="F155" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G155" s="2" t="s">
-        <v>146</v>
+        <v>30</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="2" t="s">
-        <v>144</v>
+        <v>122</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>126</v>
+        <v>140</v>
       </c>
       <c r="C156" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D156" s="2" t="s">
-        <v>145</v>
+        <v>124</v>
       </c>
       <c r="E156" s="2" t="s">
-        <v>127</v>
+        <v>141</v>
       </c>
       <c r="F156" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G156" s="2" t="s">
-        <v>146</v>
+        <v>30</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="2" t="s">
-        <v>144</v>
+        <v>122</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>128</v>
+        <v>142</v>
       </c>
       <c r="C157" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D157" s="2" t="s">
-        <v>145</v>
+        <v>124</v>
       </c>
       <c r="E157" s="2" t="s">
-        <v>129</v>
+        <v>143</v>
       </c>
       <c r="F157" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G157" s="2" t="s">
-        <v>146</v>
+        <v>30</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="B158" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="B158" s="2" t="s">
-        <v>130</v>
-      </c>
       <c r="C158" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D158" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="E158" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="E158" s="2" t="s">
-        <v>131</v>
-      </c>
       <c r="F158" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G158" s="2" t="s">
-        <v>146</v>
+        <v>30</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>132</v>
+        <v>123</v>
       </c>
       <c r="C159" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D159" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="E159" s="2" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="F159" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G159" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="C160" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D160" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="E160" s="2" t="s">
-        <v>29</v>
+        <v>127</v>
       </c>
       <c r="F160" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G160" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B161" s="2" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="C161" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D161" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="E161" s="2" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="F161" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G161" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B162" s="2" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="C162" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D162" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="E162" s="2" t="s">
-        <v>32</v>
+        <v>131</v>
       </c>
       <c r="F162" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G162" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B163" s="2" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="C163" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D163" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="E163" s="2" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="F163" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G163" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B164" s="2" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="C164" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D164" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="E164" s="2" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="F164" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G164" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B165" s="2" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="C165" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D165" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="E165" s="2" t="s">
-        <v>143</v>
+        <v>29</v>
       </c>
       <c r="F165" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G165" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B166" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="C166" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D166" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="C166" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D166" s="2" t="s">
+      <c r="E166" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="F166" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G166" s="2" t="s">
         <v>148</v>
-      </c>
-      <c r="E166" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="F166" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="G166" s="2" t="s">
-        <v>150</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B167" s="2" t="s">
-        <v>151</v>
+        <v>139</v>
       </c>
       <c r="C167" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D167" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="E167" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F167" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G167" s="2" t="s">
         <v>148</v>
-      </c>
-      <c r="E167" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="F167" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="G167" s="2" t="s">
-        <v>150</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B168" s="2" t="s">
-        <v>153</v>
+        <v>140</v>
       </c>
       <c r="C168" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D168" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E168" s="2" t="s">
-        <v>154</v>
+        <v>141</v>
       </c>
       <c r="F168" s="2" t="s">
         <v>17</v>
       </c>
       <c r="G168" s="2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B169" s="2" t="s">
-        <v>155</v>
+        <v>142</v>
       </c>
       <c r="C169" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D169" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="E169" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="F169" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G169" s="2" t="s">
         <v>148</v>
-      </c>
-      <c r="E169" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="F169" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G169" s="2" t="s">
-        <v>150</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="B170" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="B170" s="2" t="s">
-        <v>157</v>
-      </c>
       <c r="C170" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D170" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E170" s="2" t="s">
-        <v>158</v>
+        <v>145</v>
       </c>
       <c r="F170" s="2" t="s">
         <v>17</v>
       </c>
       <c r="G170" s="2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B171" s="2" t="s">
-        <v>159</v>
+        <v>149</v>
       </c>
       <c r="C171" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D171" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="E171" s="2" t="s">
-        <v>160</v>
+        <v>151</v>
       </c>
       <c r="F171" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G171" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B172" s="2" t="s">
-        <v>161</v>
+        <v>153</v>
       </c>
       <c r="C172" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D172" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="E172" s="2" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
       <c r="F172" s="2" t="s">
         <v>17</v>
       </c>
       <c r="G172" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" s="2" t="s">
-        <v>163</v>
+        <v>146</v>
       </c>
       <c r="B173" s="2" t="s">
-        <v>147</v>
+        <v>155</v>
       </c>
       <c r="C173" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D173" s="2" t="s">
-        <v>164</v>
+        <v>150</v>
       </c>
       <c r="E173" s="2" t="s">
-        <v>149</v>
+        <v>156</v>
       </c>
       <c r="F173" s="2" t="s">
         <v>17</v>
       </c>
       <c r="G173" s="2" t="s">
-        <v>165</v>
+        <v>152</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" s="2" t="s">
-        <v>163</v>
+        <v>146</v>
       </c>
       <c r="B174" s="2" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="C174" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D174" s="2" t="s">
-        <v>164</v>
+        <v>150</v>
       </c>
       <c r="E174" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="F174" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G174" s="2" t="s">
         <v>152</v>
-      </c>
-      <c r="F174" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="G174" s="2" t="s">
-        <v>165</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" s="2" t="s">
-        <v>163</v>
+        <v>146</v>
       </c>
       <c r="B175" s="2" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="C175" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D175" s="2" t="s">
-        <v>164</v>
+        <v>150</v>
       </c>
       <c r="E175" s="2" t="s">
-        <v>154</v>
+        <v>160</v>
       </c>
       <c r="F175" s="2" t="s">
         <v>17</v>
       </c>
       <c r="G175" s="2" t="s">
-        <v>165</v>
+        <v>152</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" s="2" t="s">
-        <v>163</v>
+        <v>146</v>
       </c>
       <c r="B176" s="2" t="s">
-        <v>155</v>
+        <v>161</v>
       </c>
       <c r="C176" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D176" s="2" t="s">
-        <v>164</v>
+        <v>150</v>
       </c>
       <c r="E176" s="2" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="F176" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G176" s="2" t="s">
-        <v>165</v>
+        <v>152</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="B177" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="B177" s="2" t="s">
-        <v>157</v>
-      </c>
       <c r="C177" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D177" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="E177" s="2" t="s">
         <v>164</v>
-      </c>
-      <c r="E177" s="2" t="s">
-        <v>158</v>
       </c>
       <c r="F177" s="2" t="s">
         <v>17</v>
       </c>
       <c r="G177" s="2" t="s">
-        <v>165</v>
+        <v>152</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" s="2" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="B178" s="2" t="s">
-        <v>159</v>
+        <v>149</v>
       </c>
       <c r="C178" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D178" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="E178" s="2" t="s">
-        <v>160</v>
+        <v>151</v>
       </c>
       <c r="F178" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G178" s="2" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" s="2" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="B179" s="2" t="s">
-        <v>161</v>
+        <v>153</v>
       </c>
       <c r="C179" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D179" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="E179" s="2" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
       <c r="F179" s="2" t="s">
         <v>17</v>
       </c>
       <c r="G179" s="2" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="B180" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="C180" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D180" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="B180" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="C180" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D180" s="2" t="s">
+      <c r="E180" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="F180" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G180" s="2" t="s">
         <v>167</v>
-      </c>
-      <c r="E180" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="F180" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="G180" s="2" t="s">
-        <v>169</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="B181" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="C181" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D181" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="B181" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="C181" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D181" s="2" t="s">
+      <c r="E181" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="F181" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G181" s="2" t="s">
         <v>167</v>
-      </c>
-      <c r="E181" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="F181" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G181" s="2" t="s">
-        <v>169</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="B182" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="C182" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D182" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="B182" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="C182" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D182" s="2" t="s">
+      <c r="E182" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="F182" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G182" s="2" t="s">
         <v>167</v>
-      </c>
-      <c r="E182" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="F182" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G182" s="2" t="s">
-        <v>169</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="B183" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="C183" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D183" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="B183" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="C183" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D183" s="2" t="s">
+      <c r="E183" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="F183" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G183" s="2" t="s">
         <v>167</v>
-      </c>
-      <c r="E183" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="F183" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G183" s="2" t="s">
-        <v>169</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="B184" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="C184" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D184" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="B184" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="C184" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D184" s="2" t="s">
+      <c r="E184" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="F184" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G184" s="2" t="s">
         <v>167</v>
-      </c>
-      <c r="E184" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="F184" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G184" s="2" t="s">
-        <v>169</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" s="2" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="B185" s="2" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="C185" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D185" s="2" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="E185" s="2" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="F185" s="2" t="s">
-        <v>10</v>
+        <v>170</v>
       </c>
       <c r="G185" s="2" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" s="2" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="B186" s="2" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="C186" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D186" s="2" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="E186" s="2" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="F186" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G186" s="2" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" s="2" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="B187" s="2" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="C187" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D187" s="2" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="E187" s="2" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="F187" s="2" t="s">
-        <v>168</v>
+        <v>10</v>
       </c>
       <c r="G187" s="2" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" s="2" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="B188" s="2" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="C188" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D188" s="2" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="E188" s="2" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="F188" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G188" s="2" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" s="2" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="B189" s="2" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="C189" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D189" s="2" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="E189" s="2" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="F189" s="2" t="s">
-        <v>168</v>
+        <v>10</v>
       </c>
       <c r="G189" s="2" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" s="2" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="B190" s="2" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="C190" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D190" s="2" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="E190" s="2" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="F190" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G190" s="2" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" s="2" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="B191" s="2" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="C191" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D191" s="2" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="E191" s="2" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="F191" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G191" s="2" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" s="2" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="B192" s="2" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="C192" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D192" s="2" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="E192" s="2" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="F192" s="2" t="s">
-        <v>10</v>
+        <v>170</v>
       </c>
       <c r="G192" s="2" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" s="2" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="B193" s="2" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="C193" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D193" s="2" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="E193" s="2" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="F193" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G193" s="2" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" s="2" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="B194" s="2" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="C194" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D194" s="2" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="E194" s="2" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="F194" s="2" t="s">
-        <v>10</v>
+        <v>170</v>
       </c>
       <c r="G194" s="2" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" s="2" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="B195" s="2" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="C195" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D195" s="2" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="E195" s="2" t="s">
-        <v>74</v>
+        <v>64</v>
       </c>
       <c r="F195" s="2" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="G195" s="2" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" s="2" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="B196" s="2" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="C196" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D196" s="2" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="E196" s="2" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="F196" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G196" s="2" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" s="2" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="B197" s="2" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="C197" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D197" s="2" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="E197" s="2" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="F197" s="2" t="s">
-        <v>168</v>
+        <v>10</v>
       </c>
       <c r="G197" s="2" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" s="2" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="B198" s="2" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="C198" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D198" s="2" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="E198" s="2" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="F198" s="2" t="s">
-        <v>168</v>
+        <v>10</v>
       </c>
       <c r="G198" s="2" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" s="2" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="B199" s="2" t="s">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="C199" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D199" s="2" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="E199" s="2" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="F199" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G199" s="2" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" s="2" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="B200" s="2" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="C200" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D200" s="2" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="E200" s="2" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="F200" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G200" s="2" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" s="2" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="B201" s="2" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="C201" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D201" s="2" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="E201" s="2" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="F201" s="2" t="s">
-        <v>10</v>
+        <v>170</v>
       </c>
       <c r="G201" s="2" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" s="2" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B202" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C202" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D202" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="E202" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="F202" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G202" s="2" t="s">
         <v>171</v>
-      </c>
-      <c r="C202" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D202" s="2" t="s">
-        <v>172</v>
-      </c>
-      <c r="E202" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="F202" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G202" s="2" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="B203" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C203" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D203" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="E203" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="F203" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="B203" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="C203" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D203" s="2" t="s">
-        <v>172</v>
-      </c>
-      <c r="E203" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="F203" s="2" t="s">
-        <v>20</v>
-      </c>
       <c r="G203" s="2" t="s">
-        <v>30</v>
+        <v>171</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="B204" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C204" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D204" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="E204" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="F204" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="B204" s="2" t="s">
-        <v>176</v>
-      </c>
-      <c r="C204" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D204" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="E204" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="F204" s="2" t="s">
-        <v>10</v>
-      </c>
       <c r="G204" s="2" t="s">
-        <v>30</v>
+        <v>171</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" s="2" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B205" s="2" t="s">
-        <v>178</v>
+        <v>83</v>
       </c>
       <c r="C205" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D205" s="2" t="s">
-        <v>117</v>
+        <v>169</v>
       </c>
       <c r="E205" s="2" t="s">
-        <v>179</v>
+        <v>84</v>
       </c>
       <c r="F205" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G205" s="2" t="s">
-        <v>30</v>
+        <v>171</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" s="2" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B206" s="2" t="s">
-        <v>180</v>
+        <v>85</v>
       </c>
       <c r="C206" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D206" s="2" t="s">
-        <v>117</v>
+        <v>169</v>
       </c>
       <c r="E206" s="2" t="s">
-        <v>181</v>
+        <v>86</v>
       </c>
       <c r="F206" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G206" s="2" t="s">
-        <v>30</v>
+        <v>171</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" s="2" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B207" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C207" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D207" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="E207" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="F207" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G207" s="2" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="B208" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="C208" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D208" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="E208" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="F208" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G208" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="B209" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="C209" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D209" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="E209" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="F209" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G209" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="B210" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="C210" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D210" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E210" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="F210" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G210" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="B211" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="C211" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D211" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="E211" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="F211" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G211" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="B212" s="2" t="s">
         <v>182</v>
       </c>
-      <c r="C207" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D207" s="2" t="s">
+      <c r="C212" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D212" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="E212" s="2" t="s">
         <v>183</v>
       </c>
-      <c r="E207" s="2" t="s">
+      <c r="F212" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G212" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="B213" s="2" t="s">
         <v>184</v>
       </c>
-      <c r="F207" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G207" s="2" t="s">
+      <c r="C213" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D213" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="E213" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="F213" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G213" s="2" t="s">
         <v>30</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/riconoscimenti/Rico_010.xlsx
+++ b/docs/Mapping_casi_uso/riconoscimenti/Rico_010.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1491" uniqueCount="187">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1491" uniqueCount="188">
   <si>
     <t>Sezione</t>
   </si>
@@ -527,7 +527,10 @@
     <t>195,196</t>
   </si>
   <si>
-    <t>evento.ausilioInterprete,=,false</t>
+    <t>evento.ausilioInterprete,!=,true &amp;&amp; evento.ausilioInterprete,!=,S &amp;&amp; evento.ausilioInterprete,!=,SI</t>
+  </si>
+  <si>
+    <t>Firmatario</t>
   </si>
   <si>
     <t>Dettagli evento</t>
@@ -5389,7 +5392,7 @@
         <v>168</v>
       </c>
       <c r="B207" s="2" t="s">
-        <v>87</v>
+        <v>172</v>
       </c>
       <c r="C207" s="2" t="s">
         <v>18</v>
@@ -5409,19 +5412,19 @@
     </row>
     <row r="208">
       <c r="A208" s="2" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B208" s="2" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C208" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D208" s="2" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="E208" s="2" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="F208" s="2" t="s">
         <v>10</v>
@@ -5432,19 +5435,19 @@
     </row>
     <row r="209">
       <c r="A209" s="2" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B209" s="2" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C209" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D209" s="2" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="E209" s="2" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="F209" s="2" t="s">
         <v>20</v>
@@ -5455,10 +5458,10 @@
     </row>
     <row r="210">
       <c r="A210" s="2" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B210" s="2" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C210" s="2" t="s">
         <v>18</v>
@@ -5467,7 +5470,7 @@
         <v>28</v>
       </c>
       <c r="E210" s="2" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="F210" s="2" t="s">
         <v>10</v>
@@ -5478,10 +5481,10 @@
     </row>
     <row r="211">
       <c r="A211" s="2" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B211" s="2" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C211" s="2" t="s">
         <v>18</v>
@@ -5490,7 +5493,7 @@
         <v>119</v>
       </c>
       <c r="E211" s="2" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="F211" s="2" t="s">
         <v>10</v>
@@ -5501,10 +5504,10 @@
     </row>
     <row r="212">
       <c r="A212" s="2" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B212" s="2" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C212" s="2" t="s">
         <v>9</v>
@@ -5513,7 +5516,7 @@
         <v>119</v>
       </c>
       <c r="E212" s="2" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="F212" s="2" t="s">
         <v>10</v>
@@ -5524,19 +5527,19 @@
     </row>
     <row r="213">
       <c r="A213" s="2" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B213" s="2" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C213" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D213" s="2" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="E213" s="2" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="F213" s="2" t="s">
         <v>10</v>

--- a/docs/Mapping_casi_uso/riconoscimenti/Rico_010.xlsx
+++ b/docs/Mapping_casi_uso/riconoscimenti/Rico_010.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1491" uniqueCount="188">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1491" uniqueCount="187">
   <si>
     <t>Sezione</t>
   </si>
@@ -528,9 +528,6 @@
   </si>
   <si>
     <t>evento.ausilioInterprete,!=,true &amp;&amp; evento.ausilioInterprete,!=,S &amp;&amp; evento.ausilioInterprete,!=,SI</t>
-  </si>
-  <si>
-    <t>Firmatario</t>
   </si>
   <si>
     <t>Dettagli evento</t>
@@ -5392,7 +5389,7 @@
         <v>168</v>
       </c>
       <c r="B207" s="2" t="s">
-        <v>172</v>
+        <v>87</v>
       </c>
       <c r="C207" s="2" t="s">
         <v>18</v>
@@ -5412,19 +5409,19 @@
     </row>
     <row r="208">
       <c r="A208" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="B208" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="B208" s="2" t="s">
+      <c r="C208" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D208" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="C208" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D208" s="2" t="s">
+      <c r="E208" s="2" t="s">
         <v>175</v>
-      </c>
-      <c r="E208" s="2" t="s">
-        <v>176</v>
       </c>
       <c r="F208" s="2" t="s">
         <v>10</v>
@@ -5435,19 +5432,19 @@
     </row>
     <row r="209">
       <c r="A209" s="2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B209" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="C209" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D209" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="E209" s="2" t="s">
         <v>177</v>
-      </c>
-      <c r="C209" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D209" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="E209" s="2" t="s">
-        <v>178</v>
       </c>
       <c r="F209" s="2" t="s">
         <v>20</v>
@@ -5458,10 +5455,10 @@
     </row>
     <row r="210">
       <c r="A210" s="2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B210" s="2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C210" s="2" t="s">
         <v>18</v>
@@ -5470,7 +5467,7 @@
         <v>28</v>
       </c>
       <c r="E210" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F210" s="2" t="s">
         <v>10</v>
@@ -5481,10 +5478,10 @@
     </row>
     <row r="211">
       <c r="A211" s="2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B211" s="2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C211" s="2" t="s">
         <v>18</v>
@@ -5493,7 +5490,7 @@
         <v>119</v>
       </c>
       <c r="E211" s="2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="F211" s="2" t="s">
         <v>10</v>
@@ -5504,10 +5501,10 @@
     </row>
     <row r="212">
       <c r="A212" s="2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B212" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C212" s="2" t="s">
         <v>9</v>
@@ -5516,7 +5513,7 @@
         <v>119</v>
       </c>
       <c r="E212" s="2" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="F212" s="2" t="s">
         <v>10</v>
@@ -5527,19 +5524,19 @@
     </row>
     <row r="213">
       <c r="A213" s="2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B213" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="C213" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D213" s="2" t="s">
         <v>185</v>
       </c>
-      <c r="C213" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D213" s="2" t="s">
+      <c r="E213" s="2" t="s">
         <v>186</v>
-      </c>
-      <c r="E213" s="2" t="s">
-        <v>187</v>
       </c>
       <c r="F213" s="2" t="s">
         <v>10</v>

--- a/docs/Mapping_casi_uso/riconoscimenti/Rico_010.xlsx
+++ b/docs/Mapping_casi_uso/riconoscimenti/Rico_010.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1491" uniqueCount="187">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1491" uniqueCount="188">
   <si>
     <t>Sezione</t>
   </si>
@@ -528,6 +528,9 @@
   </si>
   <si>
     <t>evento.ausilioInterprete,!=,true &amp;&amp; evento.ausilioInterprete,!=,S &amp;&amp; evento.ausilioInterprete,!=,SI</t>
+  </si>
+  <si>
+    <t>Firmatario</t>
   </si>
   <si>
     <t>Dettagli evento</t>
@@ -5389,7 +5392,7 @@
         <v>168</v>
       </c>
       <c r="B207" s="2" t="s">
-        <v>87</v>
+        <v>172</v>
       </c>
       <c r="C207" s="2" t="s">
         <v>18</v>
@@ -5409,19 +5412,19 @@
     </row>
     <row r="208">
       <c r="A208" s="2" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B208" s="2" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C208" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D208" s="2" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="E208" s="2" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="F208" s="2" t="s">
         <v>10</v>
@@ -5432,19 +5435,19 @@
     </row>
     <row r="209">
       <c r="A209" s="2" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B209" s="2" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C209" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D209" s="2" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="E209" s="2" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="F209" s="2" t="s">
         <v>20</v>
@@ -5455,10 +5458,10 @@
     </row>
     <row r="210">
       <c r="A210" s="2" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B210" s="2" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C210" s="2" t="s">
         <v>18</v>
@@ -5467,7 +5470,7 @@
         <v>28</v>
       </c>
       <c r="E210" s="2" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="F210" s="2" t="s">
         <v>10</v>
@@ -5478,10 +5481,10 @@
     </row>
     <row r="211">
       <c r="A211" s="2" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B211" s="2" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C211" s="2" t="s">
         <v>18</v>
@@ -5490,7 +5493,7 @@
         <v>119</v>
       </c>
       <c r="E211" s="2" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="F211" s="2" t="s">
         <v>10</v>
@@ -5501,10 +5504,10 @@
     </row>
     <row r="212">
       <c r="A212" s="2" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B212" s="2" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C212" s="2" t="s">
         <v>9</v>
@@ -5513,7 +5516,7 @@
         <v>119</v>
       </c>
       <c r="E212" s="2" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="F212" s="2" t="s">
         <v>10</v>
@@ -5524,19 +5527,19 @@
     </row>
     <row r="213">
       <c r="A213" s="2" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B213" s="2" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C213" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D213" s="2" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="E213" s="2" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="F213" s="2" t="s">
         <v>10</v>

--- a/docs/Mapping_casi_uso/riconoscimenti/Rico_010.xlsx
+++ b/docs/Mapping_casi_uso/riconoscimenti/Rico_010.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1491" uniqueCount="188">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1589" uniqueCount="198">
   <si>
     <t>Sezione</t>
   </si>
@@ -285,6 +285,36 @@
   </si>
   <si>
     <t>evento.madre</t>
+  </si>
+  <si>
+    <t>Provincia AIRE</t>
+  </si>
+  <si>
+    <t>idProvinciaAIRE</t>
+  </si>
+  <si>
+    <t>Provincia AIRE - Descrizione</t>
+  </si>
+  <si>
+    <t>siglaProvinciaAIRE</t>
+  </si>
+  <si>
+    <t>Comune AIRE</t>
+  </si>
+  <si>
+    <t>idComuneAIRE</t>
+  </si>
+  <si>
+    <t>Comune AIRE - Descrizione</t>
+  </si>
+  <si>
+    <t>nomeComuneAIRE</t>
+  </si>
+  <si>
+    <t>Trasmissione residenza estera</t>
+  </si>
+  <si>
+    <t>flagTrasmissioneResidenzaEstera</t>
   </si>
   <si>
     <t>Padre</t>
@@ -634,7 +664,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H213"/>
+  <dimension ref="A1:H227"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -644,7 +674,7 @@
     <col min="2" max="2" width="82.625" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="12.5625" customWidth="true" bestFit="true"/>
     <col min="4" max="4" width="45.16796875" customWidth="true" bestFit="true"/>
-    <col min="5" max="5" width="27.140625" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" width="30.5234375" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="27.3203125" customWidth="true" bestFit="true"/>
     <col min="7" max="7" width="95.2421875" customWidth="true" bestFit="true"/>
   </cols>
@@ -2169,22 +2199,22 @@
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="B67" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="B67" s="2" t="s">
-        <v>42</v>
-      </c>
       <c r="C67" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D67" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="E67" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="E67" s="2" t="s">
-        <v>44</v>
-      </c>
       <c r="F67" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G67" s="2" t="s">
         <v>30</v>
@@ -2192,22 +2222,22 @@
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>45</v>
+        <v>93</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>46</v>
+        <v>94</v>
       </c>
       <c r="F68" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G68" s="2" t="s">
         <v>30</v>
@@ -2215,19 +2245,19 @@
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>47</v>
+        <v>95</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>48</v>
+        <v>96</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>10</v>
@@ -2238,22 +2268,22 @@
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>49</v>
+        <v>97</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>50</v>
+        <v>98</v>
       </c>
       <c r="F70" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G70" s="2" t="s">
         <v>30</v>
@@ -2261,22 +2291,22 @@
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>51</v>
+        <v>99</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>52</v>
+        <v>100</v>
       </c>
       <c r="F71" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G71" s="2" t="s">
         <v>30</v>
@@ -2284,22 +2314,22 @@
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>91</v>
+        <v>101</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>92</v>
+        <v>102</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="F72" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G72" s="2" t="s">
         <v>30</v>
@@ -2307,19 +2337,19 @@
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>91</v>
+        <v>101</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>92</v>
+        <v>102</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>10</v>
@@ -2330,22 +2360,22 @@
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>91</v>
+        <v>101</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>92</v>
+        <v>102</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="F74" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G74" s="2" t="s">
         <v>30</v>
@@ -2353,19 +2383,19 @@
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>91</v>
+        <v>101</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>92</v>
+        <v>102</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>10</v>
@@ -2376,22 +2406,22 @@
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>91</v>
+        <v>101</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>92</v>
+        <v>102</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="F76" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G76" s="2" t="s">
         <v>30</v>
@@ -2399,22 +2429,22 @@
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>91</v>
+        <v>101</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>92</v>
+        <v>102</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="F77" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G77" s="2" t="s">
         <v>30</v>
@@ -2422,19 +2452,19 @@
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>91</v>
+        <v>101</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>92</v>
+        <v>102</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>10</v>
@@ -2445,22 +2475,22 @@
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>91</v>
+        <v>101</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>92</v>
+        <v>102</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="F79" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G79" s="2" t="s">
         <v>30</v>
@@ -2468,19 +2498,19 @@
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>91</v>
+        <v>101</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>92</v>
+        <v>102</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>10</v>
@@ -2491,22 +2521,22 @@
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>91</v>
+        <v>101</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>92</v>
+        <v>102</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="F81" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G81" s="2" t="s">
         <v>30</v>
@@ -2514,22 +2544,22 @@
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>91</v>
+        <v>101</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>92</v>
+        <v>102</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>74</v>
+        <v>64</v>
       </c>
       <c r="F82" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G82" s="2" t="s">
         <v>30</v>
@@ -2537,22 +2567,22 @@
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>91</v>
+        <v>101</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>92</v>
+        <v>102</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="F83" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G83" s="2" t="s">
         <v>30</v>
@@ -2560,19 +2590,19 @@
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>91</v>
+        <v>101</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>92</v>
+        <v>102</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>10</v>
@@ -2583,22 +2613,22 @@
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>91</v>
+        <v>101</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>92</v>
+        <v>102</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="F85" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G85" s="2" t="s">
         <v>30</v>
@@ -2606,22 +2636,22 @@
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>91</v>
+        <v>101</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>92</v>
+        <v>102</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="F86" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G86" s="2" t="s">
         <v>30</v>
@@ -2629,19 +2659,19 @@
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>91</v>
+        <v>101</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>92</v>
+        <v>102</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>10</v>
@@ -2652,22 +2682,22 @@
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>91</v>
+        <v>101</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>92</v>
+        <v>102</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="F88" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G88" s="2" t="s">
         <v>30</v>
@@ -2675,19 +2705,19 @@
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>91</v>
+        <v>101</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>92</v>
+        <v>102</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>10</v>
@@ -2698,19 +2728,19 @@
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>42</v>
+        <v>79</v>
       </c>
       <c r="C90" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>17</v>
@@ -2721,22 +2751,22 @@
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>46</v>
+        <v>82</v>
       </c>
       <c r="F91" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G91" s="2" t="s">
         <v>30</v>
@@ -2744,19 +2774,19 @@
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>47</v>
+        <v>83</v>
       </c>
       <c r="C92" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>48</v>
+        <v>84</v>
       </c>
       <c r="F92" s="2" t="s">
         <v>10</v>
@@ -2767,19 +2797,19 @@
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>49</v>
+        <v>85</v>
       </c>
       <c r="C93" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>50</v>
+        <v>86</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>10</v>
@@ -2790,19 +2820,19 @@
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>51</v>
+        <v>87</v>
       </c>
       <c r="C94" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>52</v>
+        <v>88</v>
       </c>
       <c r="F94" s="2" t="s">
         <v>10</v>
@@ -2813,19 +2843,19 @@
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>53</v>
+        <v>91</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>54</v>
+        <v>92</v>
       </c>
       <c r="F95" s="2" t="s">
         <v>10</v>
@@ -2836,22 +2866,22 @@
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="B96" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="B96" s="2" t="s">
-        <v>55</v>
-      </c>
       <c r="C96" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D96" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="E96" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="E96" s="2" t="s">
-        <v>56</v>
-      </c>
       <c r="F96" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G96" s="2" t="s">
         <v>30</v>
@@ -2859,22 +2889,22 @@
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>57</v>
+        <v>95</v>
       </c>
       <c r="C97" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>58</v>
+        <v>96</v>
       </c>
       <c r="F97" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G97" s="2" t="s">
         <v>30</v>
@@ -2882,22 +2912,22 @@
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>59</v>
+        <v>97</v>
       </c>
       <c r="C98" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>60</v>
+        <v>98</v>
       </c>
       <c r="F98" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G98" s="2" t="s">
         <v>30</v>
@@ -2905,19 +2935,19 @@
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>61</v>
+        <v>99</v>
       </c>
       <c r="C99" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>62</v>
+        <v>100</v>
       </c>
       <c r="F99" s="2" t="s">
         <v>17</v>
@@ -2928,19 +2958,19 @@
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>93</v>
+        <v>103</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>63</v>
+        <v>42</v>
       </c>
       <c r="C100" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>94</v>
+        <v>104</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>64</v>
+        <v>44</v>
       </c>
       <c r="F100" s="2" t="s">
         <v>17</v>
@@ -2951,19 +2981,19 @@
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>93</v>
+        <v>103</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>65</v>
+        <v>45</v>
       </c>
       <c r="C101" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>94</v>
+        <v>104</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>66</v>
+        <v>46</v>
       </c>
       <c r="F101" s="2" t="s">
         <v>10</v>
@@ -2974,19 +3004,19 @@
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>93</v>
+        <v>103</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>67</v>
+        <v>47</v>
       </c>
       <c r="C102" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>94</v>
+        <v>104</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>68</v>
+        <v>48</v>
       </c>
       <c r="F102" s="2" t="s">
         <v>10</v>
@@ -2997,19 +3027,19 @@
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>93</v>
+        <v>103</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>69</v>
+        <v>49</v>
       </c>
       <c r="C103" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>94</v>
+        <v>104</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="F103" s="2" t="s">
         <v>10</v>
@@ -3020,19 +3050,19 @@
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>93</v>
+        <v>103</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>71</v>
+        <v>51</v>
       </c>
       <c r="C104" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>94</v>
+        <v>104</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>72</v>
+        <v>52</v>
       </c>
       <c r="F104" s="2" t="s">
         <v>10</v>
@@ -3043,19 +3073,19 @@
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>93</v>
+        <v>103</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>73</v>
+        <v>53</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>94</v>
+        <v>104</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>74</v>
+        <v>54</v>
       </c>
       <c r="F105" s="2" t="s">
         <v>10</v>
@@ -3066,22 +3096,22 @@
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>93</v>
+        <v>103</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>75</v>
+        <v>55</v>
       </c>
       <c r="C106" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>94</v>
+        <v>104</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>76</v>
+        <v>56</v>
       </c>
       <c r="F106" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G106" s="2" t="s">
         <v>30</v>
@@ -3089,22 +3119,22 @@
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>93</v>
+        <v>103</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>77</v>
+        <v>57</v>
       </c>
       <c r="C107" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>94</v>
+        <v>104</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>78</v>
+        <v>58</v>
       </c>
       <c r="F107" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G107" s="2" t="s">
         <v>30</v>
@@ -3112,22 +3142,22 @@
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>93</v>
+        <v>103</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>79</v>
+        <v>59</v>
       </c>
       <c r="C108" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>94</v>
+        <v>104</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="F108" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G108" s="2" t="s">
         <v>30</v>
@@ -3135,19 +3165,19 @@
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>93</v>
+        <v>103</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>81</v>
+        <v>61</v>
       </c>
       <c r="C109" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>94</v>
+        <v>104</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>82</v>
+        <v>62</v>
       </c>
       <c r="F109" s="2" t="s">
         <v>17</v>
@@ -3158,22 +3188,22 @@
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>93</v>
+        <v>103</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>83</v>
+        <v>63</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>94</v>
+        <v>104</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>84</v>
+        <v>64</v>
       </c>
       <c r="F110" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G110" s="2" t="s">
         <v>30</v>
@@ -3181,19 +3211,19 @@
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>93</v>
+        <v>103</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>85</v>
+        <v>65</v>
       </c>
       <c r="C111" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>94</v>
+        <v>104</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>86</v>
+        <v>66</v>
       </c>
       <c r="F111" s="2" t="s">
         <v>10</v>
@@ -3204,19 +3234,19 @@
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>93</v>
+        <v>103</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>87</v>
+        <v>67</v>
       </c>
       <c r="C112" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>94</v>
+        <v>104</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>88</v>
+        <v>68</v>
       </c>
       <c r="F112" s="2" t="s">
         <v>10</v>
@@ -3227,275 +3257,275 @@
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>96</v>
+        <v>69</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>98</v>
+        <v>70</v>
       </c>
       <c r="F113" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G113" s="2" t="s">
-        <v>99</v>
+        <v>30</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>100</v>
+        <v>71</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>101</v>
+        <v>72</v>
       </c>
       <c r="F114" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G114" s="2" t="s">
-        <v>99</v>
+        <v>30</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>102</v>
+        <v>73</v>
       </c>
       <c r="C115" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>103</v>
+        <v>74</v>
       </c>
       <c r="F115" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G115" s="2" t="s">
-        <v>99</v>
+        <v>30</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="B116" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C116" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D116" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="C116" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D116" s="2" t="s">
-        <v>97</v>
-      </c>
       <c r="E116" s="2" t="s">
-        <v>105</v>
+        <v>76</v>
       </c>
       <c r="F116" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G116" s="2" t="s">
-        <v>99</v>
+        <v>30</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>106</v>
+        <v>77</v>
       </c>
       <c r="C117" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>107</v>
+        <v>78</v>
       </c>
       <c r="F117" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G117" s="2" t="s">
-        <v>99</v>
+        <v>30</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>108</v>
+        <v>79</v>
       </c>
       <c r="C118" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>109</v>
+        <v>80</v>
       </c>
       <c r="F118" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G118" s="2" t="s">
-        <v>99</v>
+        <v>30</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>110</v>
+        <v>81</v>
       </c>
       <c r="C119" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>111</v>
+        <v>82</v>
       </c>
       <c r="F119" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G119" s="2" t="s">
-        <v>99</v>
+        <v>30</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>112</v>
+        <v>83</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>113</v>
+        <v>84</v>
       </c>
       <c r="F120" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G120" s="2" t="s">
-        <v>99</v>
+        <v>30</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>114</v>
+        <v>85</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>115</v>
+        <v>86</v>
       </c>
       <c r="F121" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G121" s="2" t="s">
-        <v>99</v>
+        <v>30</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>116</v>
+        <v>87</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>117</v>
+        <v>88</v>
       </c>
       <c r="F122" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G122" s="2" t="s">
-        <v>99</v>
+        <v>30</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>118</v>
+        <v>91</v>
       </c>
       <c r="C123" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>119</v>
+        <v>104</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>39</v>
+        <v>92</v>
       </c>
       <c r="F123" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G123" s="2" t="s">
-        <v>99</v>
+        <v>30</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="2" t="s">
-        <v>120</v>
+        <v>103</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>42</v>
+        <v>93</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>121</v>
+        <v>104</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>44</v>
+        <v>94</v>
       </c>
       <c r="F124" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G124" s="2" t="s">
         <v>30</v>
@@ -3503,19 +3533,19 @@
     </row>
     <row r="125">
       <c r="A125" s="2" t="s">
-        <v>120</v>
+        <v>103</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>45</v>
+        <v>95</v>
       </c>
       <c r="C125" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>121</v>
+        <v>104</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>46</v>
+        <v>96</v>
       </c>
       <c r="F125" s="2" t="s">
         <v>10</v>
@@ -3526,22 +3556,22 @@
     </row>
     <row r="126">
       <c r="A126" s="2" t="s">
-        <v>120</v>
+        <v>103</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>47</v>
+        <v>97</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>121</v>
+        <v>104</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>48</v>
+        <v>98</v>
       </c>
       <c r="F126" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G126" s="2" t="s">
         <v>30</v>
@@ -3549,272 +3579,272 @@
     </row>
     <row r="127">
       <c r="A127" s="2" t="s">
-        <v>120</v>
+        <v>105</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>49</v>
+        <v>106</v>
       </c>
       <c r="C127" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>121</v>
+        <v>107</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>50</v>
+        <v>108</v>
       </c>
       <c r="F127" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G127" s="2" t="s">
-        <v>30</v>
+        <v>109</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="2" t="s">
-        <v>120</v>
+        <v>105</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>51</v>
+        <v>110</v>
       </c>
       <c r="C128" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>121</v>
+        <v>107</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>52</v>
+        <v>111</v>
       </c>
       <c r="F128" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G128" s="2" t="s">
-        <v>30</v>
+        <v>109</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="2" t="s">
-        <v>120</v>
+        <v>105</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>53</v>
+        <v>112</v>
       </c>
       <c r="C129" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>121</v>
+        <v>107</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>54</v>
+        <v>113</v>
       </c>
       <c r="F129" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G129" s="2" t="s">
-        <v>30</v>
+        <v>109</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="2" t="s">
-        <v>120</v>
+        <v>105</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>55</v>
+        <v>114</v>
       </c>
       <c r="C130" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>121</v>
+        <v>107</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>56</v>
+        <v>115</v>
       </c>
       <c r="F130" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G130" s="2" t="s">
-        <v>30</v>
+        <v>109</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="2" t="s">
-        <v>120</v>
+        <v>105</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>57</v>
+        <v>116</v>
       </c>
       <c r="C131" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>121</v>
+        <v>107</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>58</v>
+        <v>117</v>
       </c>
       <c r="F131" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G131" s="2" t="s">
-        <v>30</v>
+        <v>109</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="2" t="s">
-        <v>120</v>
+        <v>105</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>59</v>
+        <v>118</v>
       </c>
       <c r="C132" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>121</v>
+        <v>107</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>60</v>
+        <v>119</v>
       </c>
       <c r="F132" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G132" s="2" t="s">
-        <v>30</v>
+        <v>109</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="B133" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="B133" s="2" t="s">
-        <v>61</v>
-      </c>
       <c r="C133" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D133" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="E133" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="E133" s="2" t="s">
-        <v>62</v>
-      </c>
       <c r="F133" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G133" s="2" t="s">
-        <v>30</v>
+        <v>109</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="2" t="s">
-        <v>120</v>
+        <v>105</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>63</v>
+        <v>122</v>
       </c>
       <c r="C134" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>121</v>
+        <v>107</v>
       </c>
       <c r="E134" s="2" t="s">
-        <v>64</v>
+        <v>123</v>
       </c>
       <c r="F134" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G134" s="2" t="s">
-        <v>30</v>
+        <v>109</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="2" t="s">
-        <v>120</v>
+        <v>105</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>65</v>
+        <v>124</v>
       </c>
       <c r="C135" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>121</v>
+        <v>107</v>
       </c>
       <c r="E135" s="2" t="s">
-        <v>66</v>
+        <v>125</v>
       </c>
       <c r="F135" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G135" s="2" t="s">
-        <v>30</v>
+        <v>109</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="2" t="s">
-        <v>120</v>
+        <v>105</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>67</v>
+        <v>126</v>
       </c>
       <c r="C136" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>121</v>
+        <v>107</v>
       </c>
       <c r="E136" s="2" t="s">
-        <v>68</v>
+        <v>127</v>
       </c>
       <c r="F136" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G136" s="2" t="s">
-        <v>30</v>
+        <v>109</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="2" t="s">
-        <v>120</v>
+        <v>105</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>69</v>
+        <v>128</v>
       </c>
       <c r="C137" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>121</v>
+        <v>129</v>
       </c>
       <c r="E137" s="2" t="s">
-        <v>70</v>
+        <v>39</v>
       </c>
       <c r="F137" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G137" s="2" t="s">
-        <v>30</v>
+        <v>109</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="2" t="s">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>71</v>
+        <v>42</v>
       </c>
       <c r="C138" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>121</v>
+        <v>131</v>
       </c>
       <c r="E138" s="2" t="s">
-        <v>72</v>
+        <v>44</v>
       </c>
       <c r="F138" s="2" t="s">
         <v>10</v>
@@ -3825,19 +3855,19 @@
     </row>
     <row r="139">
       <c r="A139" s="2" t="s">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>73</v>
+        <v>45</v>
       </c>
       <c r="C139" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>121</v>
+        <v>131</v>
       </c>
       <c r="E139" s="2" t="s">
-        <v>74</v>
+        <v>46</v>
       </c>
       <c r="F139" s="2" t="s">
         <v>10</v>
@@ -3848,19 +3878,19 @@
     </row>
     <row r="140">
       <c r="A140" s="2" t="s">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>75</v>
+        <v>47</v>
       </c>
       <c r="C140" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>121</v>
+        <v>131</v>
       </c>
       <c r="E140" s="2" t="s">
-        <v>76</v>
+        <v>48</v>
       </c>
       <c r="F140" s="2" t="s">
         <v>10</v>
@@ -3871,19 +3901,19 @@
     </row>
     <row r="141">
       <c r="A141" s="2" t="s">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>77</v>
+        <v>49</v>
       </c>
       <c r="C141" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>121</v>
+        <v>131</v>
       </c>
       <c r="E141" s="2" t="s">
-        <v>78</v>
+        <v>50</v>
       </c>
       <c r="F141" s="2" t="s">
         <v>10</v>
@@ -3894,19 +3924,19 @@
     </row>
     <row r="142">
       <c r="A142" s="2" t="s">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>79</v>
+        <v>51</v>
       </c>
       <c r="C142" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>121</v>
+        <v>131</v>
       </c>
       <c r="E142" s="2" t="s">
-        <v>80</v>
+        <v>52</v>
       </c>
       <c r="F142" s="2" t="s">
         <v>10</v>
@@ -3917,19 +3947,19 @@
     </row>
     <row r="143">
       <c r="A143" s="2" t="s">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>81</v>
+        <v>53</v>
       </c>
       <c r="C143" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>121</v>
+        <v>131</v>
       </c>
       <c r="E143" s="2" t="s">
-        <v>82</v>
+        <v>54</v>
       </c>
       <c r="F143" s="2" t="s">
         <v>10</v>
@@ -3940,19 +3970,19 @@
     </row>
     <row r="144">
       <c r="A144" s="2" t="s">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>83</v>
+        <v>55</v>
       </c>
       <c r="C144" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>121</v>
+        <v>131</v>
       </c>
       <c r="E144" s="2" t="s">
-        <v>84</v>
+        <v>56</v>
       </c>
       <c r="F144" s="2" t="s">
         <v>10</v>
@@ -3963,19 +3993,19 @@
     </row>
     <row r="145">
       <c r="A145" s="2" t="s">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>85</v>
+        <v>57</v>
       </c>
       <c r="C145" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>121</v>
+        <v>131</v>
       </c>
       <c r="E145" s="2" t="s">
-        <v>86</v>
+        <v>58</v>
       </c>
       <c r="F145" s="2" t="s">
         <v>10</v>
@@ -3986,19 +4016,19 @@
     </row>
     <row r="146">
       <c r="A146" s="2" t="s">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>87</v>
+        <v>59</v>
       </c>
       <c r="C146" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>121</v>
+        <v>131</v>
       </c>
       <c r="E146" s="2" t="s">
-        <v>88</v>
+        <v>60</v>
       </c>
       <c r="F146" s="2" t="s">
         <v>10</v>
@@ -4009,19 +4039,19 @@
     </row>
     <row r="147">
       <c r="A147" s="2" t="s">
-        <v>122</v>
+        <v>130</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>123</v>
+        <v>61</v>
       </c>
       <c r="C147" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>124</v>
+        <v>131</v>
       </c>
       <c r="E147" s="2" t="s">
-        <v>125</v>
+        <v>62</v>
       </c>
       <c r="F147" s="2" t="s">
         <v>10</v>
@@ -4032,19 +4062,19 @@
     </row>
     <row r="148">
       <c r="A148" s="2" t="s">
-        <v>122</v>
+        <v>130</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>126</v>
+        <v>63</v>
       </c>
       <c r="C148" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D148" s="2" t="s">
-        <v>124</v>
+        <v>131</v>
       </c>
       <c r="E148" s="2" t="s">
-        <v>127</v>
+        <v>64</v>
       </c>
       <c r="F148" s="2" t="s">
         <v>10</v>
@@ -4055,19 +4085,19 @@
     </row>
     <row r="149">
       <c r="A149" s="2" t="s">
-        <v>122</v>
+        <v>130</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>128</v>
+        <v>65</v>
       </c>
       <c r="C149" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D149" s="2" t="s">
-        <v>124</v>
+        <v>131</v>
       </c>
       <c r="E149" s="2" t="s">
-        <v>129</v>
+        <v>66</v>
       </c>
       <c r="F149" s="2" t="s">
         <v>10</v>
@@ -4078,19 +4108,19 @@
     </row>
     <row r="150">
       <c r="A150" s="2" t="s">
-        <v>122</v>
+        <v>130</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>130</v>
+        <v>67</v>
       </c>
       <c r="C150" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D150" s="2" t="s">
-        <v>124</v>
+        <v>131</v>
       </c>
       <c r="E150" s="2" t="s">
-        <v>131</v>
+        <v>68</v>
       </c>
       <c r="F150" s="2" t="s">
         <v>10</v>
@@ -4101,19 +4131,19 @@
     </row>
     <row r="151">
       <c r="A151" s="2" t="s">
-        <v>122</v>
+        <v>130</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>132</v>
+        <v>69</v>
       </c>
       <c r="C151" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D151" s="2" t="s">
-        <v>124</v>
+        <v>131</v>
       </c>
       <c r="E151" s="2" t="s">
-        <v>133</v>
+        <v>70</v>
       </c>
       <c r="F151" s="2" t="s">
         <v>10</v>
@@ -4124,19 +4154,19 @@
     </row>
     <row r="152">
       <c r="A152" s="2" t="s">
-        <v>122</v>
+        <v>130</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>134</v>
+        <v>71</v>
       </c>
       <c r="C152" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D152" s="2" t="s">
-        <v>124</v>
+        <v>131</v>
       </c>
       <c r="E152" s="2" t="s">
-        <v>135</v>
+        <v>72</v>
       </c>
       <c r="F152" s="2" t="s">
         <v>10</v>
@@ -4147,19 +4177,19 @@
     </row>
     <row r="153">
       <c r="A153" s="2" t="s">
-        <v>122</v>
+        <v>130</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>136</v>
+        <v>73</v>
       </c>
       <c r="C153" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D153" s="2" t="s">
-        <v>124</v>
+        <v>131</v>
       </c>
       <c r="E153" s="2" t="s">
-        <v>29</v>
+        <v>74</v>
       </c>
       <c r="F153" s="2" t="s">
         <v>10</v>
@@ -4170,19 +4200,19 @@
     </row>
     <row r="154">
       <c r="A154" s="2" t="s">
-        <v>122</v>
+        <v>130</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>137</v>
+        <v>75</v>
       </c>
       <c r="C154" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D154" s="2" t="s">
-        <v>124</v>
+        <v>131</v>
       </c>
       <c r="E154" s="2" t="s">
-        <v>138</v>
+        <v>76</v>
       </c>
       <c r="F154" s="2" t="s">
         <v>10</v>
@@ -4193,19 +4223,19 @@
     </row>
     <row r="155">
       <c r="A155" s="2" t="s">
-        <v>122</v>
+        <v>130</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>139</v>
+        <v>77</v>
       </c>
       <c r="C155" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D155" s="2" t="s">
-        <v>124</v>
+        <v>131</v>
       </c>
       <c r="E155" s="2" t="s">
-        <v>32</v>
+        <v>78</v>
       </c>
       <c r="F155" s="2" t="s">
         <v>10</v>
@@ -4216,19 +4246,19 @@
     </row>
     <row r="156">
       <c r="A156" s="2" t="s">
-        <v>122</v>
+        <v>130</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>140</v>
+        <v>79</v>
       </c>
       <c r="C156" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D156" s="2" t="s">
-        <v>124</v>
+        <v>131</v>
       </c>
       <c r="E156" s="2" t="s">
-        <v>141</v>
+        <v>80</v>
       </c>
       <c r="F156" s="2" t="s">
         <v>10</v>
@@ -4239,19 +4269,19 @@
     </row>
     <row r="157">
       <c r="A157" s="2" t="s">
-        <v>122</v>
+        <v>130</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>142</v>
+        <v>81</v>
       </c>
       <c r="C157" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D157" s="2" t="s">
-        <v>124</v>
+        <v>131</v>
       </c>
       <c r="E157" s="2" t="s">
-        <v>143</v>
+        <v>82</v>
       </c>
       <c r="F157" s="2" t="s">
         <v>10</v>
@@ -4262,19 +4292,19 @@
     </row>
     <row r="158">
       <c r="A158" s="2" t="s">
-        <v>122</v>
+        <v>130</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>144</v>
+        <v>83</v>
       </c>
       <c r="C158" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D158" s="2" t="s">
-        <v>124</v>
+        <v>131</v>
       </c>
       <c r="E158" s="2" t="s">
-        <v>145</v>
+        <v>84</v>
       </c>
       <c r="F158" s="2" t="s">
         <v>10</v>
@@ -4285,1266 +4315,1588 @@
     </row>
     <row r="159">
       <c r="A159" s="2" t="s">
-        <v>146</v>
+        <v>130</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>123</v>
+        <v>85</v>
       </c>
       <c r="C159" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D159" s="2" t="s">
-        <v>147</v>
+        <v>131</v>
       </c>
       <c r="E159" s="2" t="s">
-        <v>125</v>
+        <v>86</v>
       </c>
       <c r="F159" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G159" s="2" t="s">
-        <v>148</v>
+        <v>30</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" s="2" t="s">
-        <v>146</v>
+        <v>130</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>126</v>
+        <v>87</v>
       </c>
       <c r="C160" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D160" s="2" t="s">
-        <v>147</v>
+        <v>131</v>
       </c>
       <c r="E160" s="2" t="s">
-        <v>127</v>
+        <v>88</v>
       </c>
       <c r="F160" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G160" s="2" t="s">
-        <v>148</v>
+        <v>30</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="2" t="s">
-        <v>146</v>
+        <v>132</v>
       </c>
       <c r="B161" s="2" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="C161" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D161" s="2" t="s">
-        <v>147</v>
+        <v>134</v>
       </c>
       <c r="E161" s="2" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="F161" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G161" s="2" t="s">
-        <v>148</v>
+        <v>30</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" s="2" t="s">
-        <v>146</v>
+        <v>132</v>
       </c>
       <c r="B162" s="2" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="C162" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D162" s="2" t="s">
-        <v>147</v>
+        <v>134</v>
       </c>
       <c r="E162" s="2" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="F162" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G162" s="2" t="s">
-        <v>148</v>
+        <v>30</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" s="2" t="s">
-        <v>146</v>
+        <v>132</v>
       </c>
       <c r="B163" s="2" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="C163" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D163" s="2" t="s">
-        <v>147</v>
+        <v>134</v>
       </c>
       <c r="E163" s="2" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="F163" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G163" s="2" t="s">
-        <v>148</v>
+        <v>30</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" s="2" t="s">
-        <v>146</v>
+        <v>132</v>
       </c>
       <c r="B164" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="C164" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D164" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="C164" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D164" s="2" t="s">
-        <v>147</v>
-      </c>
       <c r="E164" s="2" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="F164" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G164" s="2" t="s">
-        <v>148</v>
+        <v>30</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" s="2" t="s">
-        <v>146</v>
+        <v>132</v>
       </c>
       <c r="B165" s="2" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="C165" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D165" s="2" t="s">
-        <v>147</v>
+        <v>134</v>
       </c>
       <c r="E165" s="2" t="s">
-        <v>29</v>
+        <v>143</v>
       </c>
       <c r="F165" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G165" s="2" t="s">
-        <v>148</v>
+        <v>30</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" s="2" t="s">
-        <v>146</v>
+        <v>132</v>
       </c>
       <c r="B166" s="2" t="s">
-        <v>137</v>
+        <v>144</v>
       </c>
       <c r="C166" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D166" s="2" t="s">
-        <v>147</v>
+        <v>134</v>
       </c>
       <c r="E166" s="2" t="s">
-        <v>138</v>
+        <v>145</v>
       </c>
       <c r="F166" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G166" s="2" t="s">
-        <v>148</v>
+        <v>30</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="B167" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="B167" s="2" t="s">
-        <v>139</v>
-      </c>
       <c r="C167" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D167" s="2" t="s">
-        <v>147</v>
+        <v>134</v>
       </c>
       <c r="E167" s="2" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="F167" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G167" s="2" t="s">
-        <v>148</v>
+        <v>30</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" s="2" t="s">
-        <v>146</v>
+        <v>132</v>
       </c>
       <c r="B168" s="2" t="s">
-        <v>140</v>
+        <v>147</v>
       </c>
       <c r="C168" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D168" s="2" t="s">
-        <v>147</v>
+        <v>134</v>
       </c>
       <c r="E168" s="2" t="s">
-        <v>141</v>
+        <v>148</v>
       </c>
       <c r="F168" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G168" s="2" t="s">
-        <v>148</v>
+        <v>30</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" s="2" t="s">
-        <v>146</v>
+        <v>132</v>
       </c>
       <c r="B169" s="2" t="s">
-        <v>142</v>
+        <v>149</v>
       </c>
       <c r="C169" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D169" s="2" t="s">
-        <v>147</v>
+        <v>134</v>
       </c>
       <c r="E169" s="2" t="s">
-        <v>143</v>
+        <v>32</v>
       </c>
       <c r="F169" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G169" s="2" t="s">
-        <v>148</v>
+        <v>30</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" s="2" t="s">
-        <v>146</v>
+        <v>132</v>
       </c>
       <c r="B170" s="2" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="C170" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D170" s="2" t="s">
-        <v>147</v>
+        <v>134</v>
       </c>
       <c r="E170" s="2" t="s">
-        <v>145</v>
+        <v>151</v>
       </c>
       <c r="F170" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G170" s="2" t="s">
-        <v>148</v>
+        <v>30</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" s="2" t="s">
-        <v>146</v>
+        <v>132</v>
       </c>
       <c r="B171" s="2" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="C171" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D171" s="2" t="s">
-        <v>150</v>
+        <v>134</v>
       </c>
       <c r="E171" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="F171" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G171" s="2" t="s">
-        <v>152</v>
+        <v>30</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" s="2" t="s">
-        <v>146</v>
+        <v>132</v>
       </c>
       <c r="B172" s="2" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C172" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D172" s="2" t="s">
-        <v>150</v>
+        <v>134</v>
       </c>
       <c r="E172" s="2" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="F172" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G172" s="2" t="s">
-        <v>152</v>
+        <v>30</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" s="2" t="s">
-        <v>146</v>
+        <v>156</v>
       </c>
       <c r="B173" s="2" t="s">
-        <v>155</v>
+        <v>133</v>
       </c>
       <c r="C173" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D173" s="2" t="s">
-        <v>150</v>
+        <v>157</v>
       </c>
       <c r="E173" s="2" t="s">
-        <v>156</v>
+        <v>135</v>
       </c>
       <c r="F173" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G173" s="2" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" s="2" t="s">
-        <v>146</v>
+        <v>156</v>
       </c>
       <c r="B174" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="C174" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D174" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="C174" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D174" s="2" t="s">
-        <v>150</v>
-      </c>
       <c r="E174" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="F174" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G174" s="2" t="s">
         <v>158</v>
-      </c>
-      <c r="F174" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G174" s="2" t="s">
-        <v>152</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" s="2" t="s">
-        <v>146</v>
+        <v>156</v>
       </c>
       <c r="B175" s="2" t="s">
-        <v>159</v>
+        <v>138</v>
       </c>
       <c r="C175" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D175" s="2" t="s">
-        <v>150</v>
+        <v>157</v>
       </c>
       <c r="E175" s="2" t="s">
-        <v>160</v>
+        <v>139</v>
       </c>
       <c r="F175" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G175" s="2" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" s="2" t="s">
-        <v>146</v>
+        <v>156</v>
       </c>
       <c r="B176" s="2" t="s">
-        <v>161</v>
+        <v>140</v>
       </c>
       <c r="C176" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D176" s="2" t="s">
-        <v>150</v>
+        <v>157</v>
       </c>
       <c r="E176" s="2" t="s">
-        <v>162</v>
+        <v>141</v>
       </c>
       <c r="F176" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G176" s="2" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" s="2" t="s">
-        <v>146</v>
+        <v>156</v>
       </c>
       <c r="B177" s="2" t="s">
-        <v>163</v>
+        <v>142</v>
       </c>
       <c r="C177" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D177" s="2" t="s">
-        <v>150</v>
+        <v>157</v>
       </c>
       <c r="E177" s="2" t="s">
-        <v>164</v>
+        <v>143</v>
       </c>
       <c r="F177" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G177" s="2" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" s="2" t="s">
-        <v>165</v>
+        <v>156</v>
       </c>
       <c r="B178" s="2" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="C178" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D178" s="2" t="s">
-        <v>166</v>
+        <v>157</v>
       </c>
       <c r="E178" s="2" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="F178" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G178" s="2" t="s">
-        <v>167</v>
+        <v>158</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" s="2" t="s">
-        <v>165</v>
+        <v>156</v>
       </c>
       <c r="B179" s="2" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="C179" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D179" s="2" t="s">
-        <v>166</v>
+        <v>157</v>
       </c>
       <c r="E179" s="2" t="s">
-        <v>154</v>
+        <v>29</v>
       </c>
       <c r="F179" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G179" s="2" t="s">
-        <v>167</v>
+        <v>158</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" s="2" t="s">
-        <v>165</v>
+        <v>156</v>
       </c>
       <c r="B180" s="2" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
       <c r="C180" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D180" s="2" t="s">
-        <v>166</v>
+        <v>157</v>
       </c>
       <c r="E180" s="2" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
       <c r="F180" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G180" s="2" t="s">
-        <v>167</v>
+        <v>158</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" s="2" t="s">
-        <v>165</v>
+        <v>156</v>
       </c>
       <c r="B181" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="C181" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D181" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="C181" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D181" s="2" t="s">
-        <v>166</v>
-      </c>
       <c r="E181" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F181" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G181" s="2" t="s">
         <v>158</v>
-      </c>
-      <c r="F181" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G181" s="2" t="s">
-        <v>167</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" s="2" t="s">
-        <v>165</v>
+        <v>156</v>
       </c>
       <c r="B182" s="2" t="s">
-        <v>159</v>
+        <v>150</v>
       </c>
       <c r="C182" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D182" s="2" t="s">
-        <v>166</v>
+        <v>157</v>
       </c>
       <c r="E182" s="2" t="s">
-        <v>160</v>
+        <v>151</v>
       </c>
       <c r="F182" s="2" t="s">
         <v>17</v>
       </c>
       <c r="G182" s="2" t="s">
-        <v>167</v>
+        <v>158</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" s="2" t="s">
-        <v>165</v>
+        <v>156</v>
       </c>
       <c r="B183" s="2" t="s">
-        <v>161</v>
+        <v>152</v>
       </c>
       <c r="C183" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D183" s="2" t="s">
-        <v>166</v>
+        <v>157</v>
       </c>
       <c r="E183" s="2" t="s">
-        <v>162</v>
+        <v>153</v>
       </c>
       <c r="F183" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G183" s="2" t="s">
-        <v>167</v>
+        <v>158</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" s="2" t="s">
-        <v>165</v>
+        <v>156</v>
       </c>
       <c r="B184" s="2" t="s">
-        <v>163</v>
+        <v>154</v>
       </c>
       <c r="C184" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D184" s="2" t="s">
-        <v>166</v>
+        <v>157</v>
       </c>
       <c r="E184" s="2" t="s">
-        <v>164</v>
+        <v>155</v>
       </c>
       <c r="F184" s="2" t="s">
         <v>17</v>
       </c>
       <c r="G184" s="2" t="s">
-        <v>167</v>
+        <v>158</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" s="2" t="s">
-        <v>168</v>
+        <v>156</v>
       </c>
       <c r="B185" s="2" t="s">
-        <v>42</v>
+        <v>159</v>
       </c>
       <c r="C185" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D185" s="2" t="s">
-        <v>169</v>
+        <v>160</v>
       </c>
       <c r="E185" s="2" t="s">
-        <v>44</v>
+        <v>161</v>
       </c>
       <c r="F185" s="2" t="s">
-        <v>170</v>
+        <v>17</v>
       </c>
       <c r="G185" s="2" t="s">
-        <v>171</v>
+        <v>162</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" s="2" t="s">
-        <v>168</v>
+        <v>156</v>
       </c>
       <c r="B186" s="2" t="s">
-        <v>45</v>
+        <v>163</v>
       </c>
       <c r="C186" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D186" s="2" t="s">
-        <v>169</v>
+        <v>160</v>
       </c>
       <c r="E186" s="2" t="s">
-        <v>46</v>
+        <v>164</v>
       </c>
       <c r="F186" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G186" s="2" t="s">
-        <v>171</v>
+        <v>162</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" s="2" t="s">
-        <v>168</v>
+        <v>156</v>
       </c>
       <c r="B187" s="2" t="s">
-        <v>47</v>
+        <v>165</v>
       </c>
       <c r="C187" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D187" s="2" t="s">
-        <v>169</v>
+        <v>160</v>
       </c>
       <c r="E187" s="2" t="s">
-        <v>48</v>
+        <v>166</v>
       </c>
       <c r="F187" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G187" s="2" t="s">
-        <v>171</v>
+        <v>162</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="B188" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="C188" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D188" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="E188" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="B188" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="C188" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D188" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="E188" s="2" t="s">
-        <v>50</v>
-      </c>
       <c r="F188" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G188" s="2" t="s">
-        <v>171</v>
+        <v>162</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" s="2" t="s">
-        <v>168</v>
+        <v>156</v>
       </c>
       <c r="B189" s="2" t="s">
-        <v>51</v>
+        <v>169</v>
       </c>
       <c r="C189" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D189" s="2" t="s">
-        <v>169</v>
+        <v>160</v>
       </c>
       <c r="E189" s="2" t="s">
-        <v>52</v>
+        <v>170</v>
       </c>
       <c r="F189" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G189" s="2" t="s">
-        <v>171</v>
+        <v>162</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" s="2" t="s">
-        <v>168</v>
+        <v>156</v>
       </c>
       <c r="B190" s="2" t="s">
-        <v>53</v>
+        <v>171</v>
       </c>
       <c r="C190" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D190" s="2" t="s">
-        <v>169</v>
+        <v>160</v>
       </c>
       <c r="E190" s="2" t="s">
-        <v>54</v>
+        <v>172</v>
       </c>
       <c r="F190" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G190" s="2" t="s">
-        <v>171</v>
+        <v>162</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" s="2" t="s">
-        <v>168</v>
+        <v>156</v>
       </c>
       <c r="B191" s="2" t="s">
-        <v>55</v>
+        <v>173</v>
       </c>
       <c r="C191" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D191" s="2" t="s">
-        <v>169</v>
+        <v>160</v>
       </c>
       <c r="E191" s="2" t="s">
-        <v>56</v>
+        <v>174</v>
       </c>
       <c r="F191" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G191" s="2" t="s">
-        <v>171</v>
+        <v>162</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" s="2" t="s">
-        <v>168</v>
+        <v>175</v>
       </c>
       <c r="B192" s="2" t="s">
-        <v>57</v>
+        <v>159</v>
       </c>
       <c r="C192" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D192" s="2" t="s">
-        <v>169</v>
+        <v>176</v>
       </c>
       <c r="E192" s="2" t="s">
-        <v>58</v>
+        <v>161</v>
       </c>
       <c r="F192" s="2" t="s">
-        <v>170</v>
+        <v>17</v>
       </c>
       <c r="G192" s="2" t="s">
-        <v>171</v>
+        <v>177</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" s="2" t="s">
-        <v>168</v>
+        <v>175</v>
       </c>
       <c r="B193" s="2" t="s">
-        <v>59</v>
+        <v>163</v>
       </c>
       <c r="C193" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D193" s="2" t="s">
-        <v>169</v>
+        <v>176</v>
       </c>
       <c r="E193" s="2" t="s">
-        <v>60</v>
+        <v>164</v>
       </c>
       <c r="F193" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G193" s="2" t="s">
-        <v>171</v>
+        <v>177</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" s="2" t="s">
-        <v>168</v>
+        <v>175</v>
       </c>
       <c r="B194" s="2" t="s">
-        <v>61</v>
+        <v>165</v>
       </c>
       <c r="C194" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D194" s="2" t="s">
-        <v>169</v>
+        <v>176</v>
       </c>
       <c r="E194" s="2" t="s">
-        <v>62</v>
+        <v>166</v>
       </c>
       <c r="F194" s="2" t="s">
-        <v>170</v>
+        <v>17</v>
       </c>
       <c r="G194" s="2" t="s">
-        <v>171</v>
+        <v>177</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="B195" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="C195" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D195" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="E195" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="B195" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="C195" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D195" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="E195" s="2" t="s">
-        <v>64</v>
-      </c>
       <c r="F195" s="2" t="s">
-        <v>170</v>
+        <v>10</v>
       </c>
       <c r="G195" s="2" t="s">
-        <v>171</v>
+        <v>177</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" s="2" t="s">
-        <v>168</v>
+        <v>175</v>
       </c>
       <c r="B196" s="2" t="s">
-        <v>65</v>
+        <v>169</v>
       </c>
       <c r="C196" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D196" s="2" t="s">
-        <v>169</v>
+        <v>176</v>
       </c>
       <c r="E196" s="2" t="s">
-        <v>66</v>
+        <v>170</v>
       </c>
       <c r="F196" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G196" s="2" t="s">
-        <v>171</v>
+        <v>177</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" s="2" t="s">
-        <v>168</v>
+        <v>175</v>
       </c>
       <c r="B197" s="2" t="s">
-        <v>67</v>
+        <v>171</v>
       </c>
       <c r="C197" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D197" s="2" t="s">
-        <v>169</v>
+        <v>176</v>
       </c>
       <c r="E197" s="2" t="s">
-        <v>68</v>
+        <v>172</v>
       </c>
       <c r="F197" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G197" s="2" t="s">
-        <v>171</v>
+        <v>177</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" s="2" t="s">
-        <v>168</v>
+        <v>175</v>
       </c>
       <c r="B198" s="2" t="s">
-        <v>69</v>
+        <v>173</v>
       </c>
       <c r="C198" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D198" s="2" t="s">
-        <v>169</v>
+        <v>176</v>
       </c>
       <c r="E198" s="2" t="s">
-        <v>70</v>
+        <v>174</v>
       </c>
       <c r="F198" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G198" s="2" t="s">
-        <v>171</v>
+        <v>177</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" s="2" t="s">
-        <v>168</v>
+        <v>178</v>
       </c>
       <c r="B199" s="2" t="s">
-        <v>71</v>
+        <v>42</v>
       </c>
       <c r="C199" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D199" s="2" t="s">
-        <v>169</v>
+        <v>179</v>
       </c>
       <c r="E199" s="2" t="s">
-        <v>72</v>
+        <v>44</v>
       </c>
       <c r="F199" s="2" t="s">
-        <v>10</v>
+        <v>180</v>
       </c>
       <c r="G199" s="2" t="s">
-        <v>171</v>
+        <v>181</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" s="2" t="s">
-        <v>168</v>
+        <v>178</v>
       </c>
       <c r="B200" s="2" t="s">
-        <v>73</v>
+        <v>45</v>
       </c>
       <c r="C200" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D200" s="2" t="s">
-        <v>169</v>
+        <v>179</v>
       </c>
       <c r="E200" s="2" t="s">
-        <v>74</v>
+        <v>46</v>
       </c>
       <c r="F200" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G200" s="2" t="s">
-        <v>171</v>
+        <v>181</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" s="2" t="s">
-        <v>168</v>
+        <v>178</v>
       </c>
       <c r="B201" s="2" t="s">
-        <v>75</v>
+        <v>47</v>
       </c>
       <c r="C201" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D201" s="2" t="s">
-        <v>169</v>
+        <v>179</v>
       </c>
       <c r="E201" s="2" t="s">
-        <v>76</v>
+        <v>48</v>
       </c>
       <c r="F201" s="2" t="s">
-        <v>170</v>
+        <v>10</v>
       </c>
       <c r="G201" s="2" t="s">
-        <v>171</v>
+        <v>181</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" s="2" t="s">
-        <v>168</v>
+        <v>178</v>
       </c>
       <c r="B202" s="2" t="s">
-        <v>77</v>
+        <v>49</v>
       </c>
       <c r="C202" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D202" s="2" t="s">
-        <v>169</v>
+        <v>179</v>
       </c>
       <c r="E202" s="2" t="s">
-        <v>78</v>
+        <v>50</v>
       </c>
       <c r="F202" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G202" s="2" t="s">
-        <v>171</v>
+        <v>181</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" s="2" t="s">
-        <v>168</v>
+        <v>178</v>
       </c>
       <c r="B203" s="2" t="s">
-        <v>79</v>
+        <v>51</v>
       </c>
       <c r="C203" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D203" s="2" t="s">
-        <v>169</v>
+        <v>179</v>
       </c>
       <c r="E203" s="2" t="s">
-        <v>80</v>
+        <v>52</v>
       </c>
       <c r="F203" s="2" t="s">
-        <v>170</v>
+        <v>10</v>
       </c>
       <c r="G203" s="2" t="s">
-        <v>171</v>
+        <v>181</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" s="2" t="s">
-        <v>168</v>
+        <v>178</v>
       </c>
       <c r="B204" s="2" t="s">
-        <v>81</v>
+        <v>53</v>
       </c>
       <c r="C204" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D204" s="2" t="s">
-        <v>169</v>
+        <v>179</v>
       </c>
       <c r="E204" s="2" t="s">
-        <v>82</v>
+        <v>54</v>
       </c>
       <c r="F204" s="2" t="s">
-        <v>170</v>
+        <v>10</v>
       </c>
       <c r="G204" s="2" t="s">
-        <v>171</v>
+        <v>181</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" s="2" t="s">
-        <v>168</v>
+        <v>178</v>
       </c>
       <c r="B205" s="2" t="s">
-        <v>83</v>
+        <v>55</v>
       </c>
       <c r="C205" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D205" s="2" t="s">
-        <v>169</v>
+        <v>179</v>
       </c>
       <c r="E205" s="2" t="s">
-        <v>84</v>
+        <v>56</v>
       </c>
       <c r="F205" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G205" s="2" t="s">
-        <v>171</v>
+        <v>181</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" s="2" t="s">
-        <v>168</v>
+        <v>178</v>
       </c>
       <c r="B206" s="2" t="s">
-        <v>85</v>
+        <v>57</v>
       </c>
       <c r="C206" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D206" s="2" t="s">
-        <v>169</v>
+        <v>179</v>
       </c>
       <c r="E206" s="2" t="s">
-        <v>86</v>
+        <v>58</v>
       </c>
       <c r="F206" s="2" t="s">
-        <v>10</v>
+        <v>180</v>
       </c>
       <c r="G206" s="2" t="s">
-        <v>171</v>
+        <v>181</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" s="2" t="s">
-        <v>168</v>
+        <v>178</v>
       </c>
       <c r="B207" s="2" t="s">
-        <v>172</v>
+        <v>59</v>
       </c>
       <c r="C207" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D207" s="2" t="s">
-        <v>169</v>
+        <v>179</v>
       </c>
       <c r="E207" s="2" t="s">
-        <v>88</v>
+        <v>60</v>
       </c>
       <c r="F207" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G207" s="2" t="s">
-        <v>171</v>
+        <v>181</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" s="2" t="s">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="B208" s="2" t="s">
-        <v>174</v>
+        <v>61</v>
       </c>
       <c r="C208" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D208" s="2" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="E208" s="2" t="s">
-        <v>176</v>
+        <v>62</v>
       </c>
       <c r="F208" s="2" t="s">
-        <v>10</v>
+        <v>180</v>
       </c>
       <c r="G208" s="2" t="s">
-        <v>30</v>
+        <v>181</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" s="2" t="s">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="B209" s="2" t="s">
-        <v>177</v>
+        <v>63</v>
       </c>
       <c r="C209" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D209" s="2" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="E209" s="2" t="s">
-        <v>178</v>
+        <v>64</v>
       </c>
       <c r="F209" s="2" t="s">
-        <v>20</v>
+        <v>180</v>
       </c>
       <c r="G209" s="2" t="s">
-        <v>30</v>
+        <v>181</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" s="2" t="s">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="B210" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C210" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D210" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="C210" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D210" s="2" t="s">
-        <v>28</v>
-      </c>
       <c r="E210" s="2" t="s">
-        <v>180</v>
+        <v>66</v>
       </c>
       <c r="F210" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G210" s="2" t="s">
-        <v>30</v>
+        <v>181</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" s="2" t="s">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="B211" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C211" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D211" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="E211" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="F211" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G211" s="2" t="s">
         <v>181</v>
-      </c>
-      <c r="C211" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D211" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="E211" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="F211" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G211" s="2" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" s="2" t="s">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="B212" s="2" t="s">
-        <v>183</v>
+        <v>69</v>
       </c>
       <c r="C212" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D212" s="2" t="s">
-        <v>119</v>
+        <v>179</v>
       </c>
       <c r="E212" s="2" t="s">
-        <v>184</v>
+        <v>70</v>
       </c>
       <c r="F212" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G212" s="2" t="s">
-        <v>30</v>
+        <v>181</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" s="2" t="s">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="B213" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C213" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D213" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="E213" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="F213" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G213" s="2" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="B214" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C214" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D214" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="E214" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="F214" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G214" s="2" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="B215" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C215" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D215" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="E215" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="F215" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="G215" s="2" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="B216" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C216" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D216" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="E216" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="F216" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G216" s="2" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="B217" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C217" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D217" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="E217" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="F217" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="G217" s="2" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="B218" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C218" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D218" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="E218" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="F218" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="G218" s="2" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="B219" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C219" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D219" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="E219" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="F219" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G219" s="2" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="B220" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C220" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D220" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="E220" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="F220" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G220" s="2" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="B221" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="C221" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D221" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="E221" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="F221" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G221" s="2" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="B222" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="C222" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D222" s="2" t="s">
         <v>185</v>
       </c>
-      <c r="C213" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D213" s="2" t="s">
+      <c r="E222" s="2" t="s">
         <v>186</v>
       </c>
-      <c r="E213" s="2" t="s">
+      <c r="F222" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G222" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="B223" s="2" t="s">
         <v>187</v>
       </c>
-      <c r="F213" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G213" s="2" t="s">
+      <c r="C223" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D223" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="E223" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="F223" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G223" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="B224" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="C224" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D224" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E224" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="F224" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G224" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="B225" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="C225" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D225" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="E225" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="F225" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G225" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="B226" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="C226" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D226" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="E226" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="F226" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G226" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="B227" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="C227" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D227" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="E227" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="F227" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G227" s="2" t="s">
         <v>30</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/riconoscimenti/Rico_010.xlsx
+++ b/docs/Mapping_casi_uso/riconoscimenti/Rico_010.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1589" uniqueCount="198">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1554" uniqueCount="176">
   <si>
     <t>Sezione</t>
   </si>
@@ -155,6 +155,12 @@
     <t>nome</t>
   </si>
   <si>
+    <t>Identificativo unico nazionale</t>
+  </si>
+  <si>
+    <t>idANPR</t>
+  </si>
+  <si>
     <t>Sesso</t>
   </si>
   <si>
@@ -209,13 +215,13 @@
     <t>localitaEsteraNascita</t>
   </si>
   <si>
-    <t>Nazionalita</t>
+    <t>Nazionalità</t>
   </si>
   <si>
     <t>idNazionalita</t>
   </si>
   <si>
-    <t>Nazionalita - Descrizione</t>
+    <t>Nazionalità - Descrizione</t>
   </si>
   <si>
     <t>nazionalita</t>
@@ -329,265 +335,193 @@
     <t>evento.intestatari[0]</t>
   </si>
   <si>
-    <t>Dati Riconoscimento - Dati di morte</t>
-  </si>
-  <si>
-    <t>data</t>
-  </si>
-  <si>
-    <t>evento.datiDiMorte</t>
-  </si>
-  <si>
-    <t>dataMorte</t>
-  </si>
-  <si>
-    <t>evento.datiEventoRiconoscimento.preMorto,=,false</t>
-  </si>
-  <si>
-    <t>Ora</t>
-  </si>
-  <si>
-    <t>oraMorte</t>
-  </si>
-  <si>
-    <t>minuti</t>
-  </si>
-  <si>
-    <t>minutoMorte</t>
-  </si>
-  <si>
-    <t>Stato di morte</t>
-  </si>
-  <si>
-    <t>idStatoMorte</t>
-  </si>
-  <si>
-    <t>Stato di morte - Descrizione</t>
-  </si>
-  <si>
-    <t>nomeStatoMorte</t>
-  </si>
-  <si>
-    <t>Provincia di morte</t>
-  </si>
-  <si>
-    <t>idProvinciaMorte</t>
-  </si>
-  <si>
-    <t>Provincia di morte - Descrizione</t>
-  </si>
-  <si>
-    <t>siglaProvinciaMorte</t>
-  </si>
-  <si>
-    <t>Comune di morte</t>
-  </si>
-  <si>
-    <t>idComuneMorte</t>
-  </si>
-  <si>
-    <t>Comune di morte - Descrizione</t>
-  </si>
-  <si>
-    <t>nomeComuneMorte</t>
-  </si>
-  <si>
-    <t>indirizzo</t>
-  </si>
-  <si>
-    <t>indirizzoMorte</t>
-  </si>
-  <si>
-    <t>Dati prodotti</t>
+    <t>Dati Riconoscimento - Generalità discendenti</t>
+  </si>
+  <si>
+    <t>evento.datiEventoRiconoscimento.discendenti[0]</t>
+  </si>
+  <si>
+    <t>Atto Nascita Figlio</t>
+  </si>
+  <si>
+    <t>Id atto</t>
+  </si>
+  <si>
+    <t>evento.datiEventoRiconoscimento.attoNascita</t>
+  </si>
+  <si>
+    <t>idAnsc</t>
+  </si>
+  <si>
+    <t>Provincia registrazione</t>
+  </si>
+  <si>
+    <t>idProvinciaRegistrazione</t>
+  </si>
+  <si>
+    <t>Provincia registrazione - Descrizione</t>
+  </si>
+  <si>
+    <t>siglaProvinciaRegistrazione</t>
+  </si>
+  <si>
+    <t>Comune registrazione</t>
+  </si>
+  <si>
+    <t>idComuneRegistrazione</t>
+  </si>
+  <si>
+    <t>Comune registrazione - Descrizione</t>
+  </si>
+  <si>
+    <t>nomeComuneRegistrazione</t>
+  </si>
+  <si>
+    <t>Tipo evento</t>
+  </si>
+  <si>
+    <t>idtipocontenuto</t>
+  </si>
+  <si>
+    <t>Numero Comunale</t>
+  </si>
+  <si>
+    <t>Anno atto</t>
+  </si>
+  <si>
+    <t>annoAtto</t>
+  </si>
+  <si>
+    <t>Data atto</t>
+  </si>
+  <si>
+    <t>Parte</t>
+  </si>
+  <si>
+    <t>parte</t>
+  </si>
+  <si>
+    <t>Serie</t>
+  </si>
+  <si>
+    <t>serie</t>
+  </si>
+  <si>
+    <t>Tipo registro</t>
+  </si>
+  <si>
+    <t>tipologia</t>
+  </si>
+  <si>
+    <t>Atto Consenso Padre</t>
+  </si>
+  <si>
+    <t>evento.consensoPadre.atto</t>
+  </si>
+  <si>
+    <t>evento.consensoPadre.tipoConsenso,!=,2</t>
+  </si>
+  <si>
+    <t>Data formazione documento</t>
+  </si>
+  <si>
+    <t>evento.consensoPadre.altroUfficiale</t>
+  </si>
+  <si>
+    <t>dataTrascrizione</t>
+  </si>
+  <si>
+    <t>evento.consensoPadre.tipoConsenso,!=,3</t>
+  </si>
+  <si>
+    <t>Estremi documento</t>
+  </si>
+  <si>
+    <t>estremiDocumento</t>
+  </si>
+  <si>
+    <t>Nome ente</t>
+  </si>
+  <si>
+    <t>nomeEnte</t>
+  </si>
+  <si>
+    <t>Provincia ente</t>
+  </si>
+  <si>
+    <t>idProvinciaEnte</t>
+  </si>
+  <si>
+    <t>Provincia ente - Descrizione</t>
+  </si>
+  <si>
+    <t>siglaProvinciaEnte</t>
+  </si>
+  <si>
+    <t>Comune ente</t>
+  </si>
+  <si>
+    <t>idComuneEnte</t>
+  </si>
+  <si>
+    <t>Comune ente - Descrizione</t>
+  </si>
+  <si>
+    <t>nomeComuneEnte</t>
+  </si>
+  <si>
+    <t>Sentenza di consenso</t>
+  </si>
+  <si>
+    <t>evento.consensoPadre.sentenzaTribunale</t>
+  </si>
+  <si>
+    <t>evento.consensoPadre.tipoConsenso,!=,4</t>
+  </si>
+  <si>
+    <t>Interprete</t>
+  </si>
+  <si>
+    <t>evento.interprete</t>
+  </si>
+  <si>
+    <t>195,196</t>
+  </si>
+  <si>
+    <t>evento.ausilioInterprete,!=,true &amp;&amp; evento.ausilioInterprete,!=,S &amp;&amp; evento.ausilioInterprete,!=,SI</t>
+  </si>
+  <si>
+    <t>Firmatario</t>
+  </si>
+  <si>
+    <t>Dettagli evento</t>
+  </si>
+  <si>
+    <t>Condizioni dichiarante</t>
+  </si>
+  <si>
+    <t>evento.datiDichiarante</t>
+  </si>
+  <si>
+    <t>comprensione</t>
+  </si>
+  <si>
+    <t>Motivo impedimento scrittura</t>
+  </si>
+  <si>
+    <t>motivoImpedimentoScrittura</t>
+  </si>
+  <si>
+    <t>Presenza interprete</t>
+  </si>
+  <si>
+    <t>ausilioInterprete</t>
+  </si>
+  <si>
+    <t>Figlio premorto</t>
   </si>
   <si>
     <t>evento.datiEventoRiconoscimento</t>
-  </si>
-  <si>
-    <t>Dati Riconoscimento - Generalità discendenti</t>
-  </si>
-  <si>
-    <t>evento.datiEventoRiconoscimento.discendenti[0]</t>
-  </si>
-  <si>
-    <t>Atto Nascita Figlio</t>
-  </si>
-  <si>
-    <t>Id atto</t>
-  </si>
-  <si>
-    <t>evento.datiEventoRiconoscimento.attoNascita</t>
-  </si>
-  <si>
-    <t>idAnsc</t>
-  </si>
-  <si>
-    <t>Provincia registrazione</t>
-  </si>
-  <si>
-    <t>idProvinciaRegistrazione</t>
-  </si>
-  <si>
-    <t>Provincia registrazione - Descrizione</t>
-  </si>
-  <si>
-    <t>siglaProvinciaRegistrazione</t>
-  </si>
-  <si>
-    <t>Comune registrazione</t>
-  </si>
-  <si>
-    <t>idComuneRegistrazione</t>
-  </si>
-  <si>
-    <t>Comune registrazione - Descrizione</t>
-  </si>
-  <si>
-    <t>nomeComuneRegistrazione</t>
-  </si>
-  <si>
-    <t>Tipo evento</t>
-  </si>
-  <si>
-    <t>idtipocontenuto</t>
-  </si>
-  <si>
-    <t>Numero Comunale</t>
-  </si>
-  <si>
-    <t>Anno atto</t>
-  </si>
-  <si>
-    <t>annoAtto</t>
-  </si>
-  <si>
-    <t>Data atto</t>
-  </si>
-  <si>
-    <t>Parte</t>
-  </si>
-  <si>
-    <t>parte</t>
-  </si>
-  <si>
-    <t>Serie</t>
-  </si>
-  <si>
-    <t>serie</t>
-  </si>
-  <si>
-    <t>Tipo registro</t>
-  </si>
-  <si>
-    <t>tipologia</t>
-  </si>
-  <si>
-    <t>Atto Consenso Padre</t>
-  </si>
-  <si>
-    <t>evento.consensoPadre.atto</t>
-  </si>
-  <si>
-    <t>evento.consensoPadre.tipoConsenso,!=,2</t>
-  </si>
-  <si>
-    <t>Data formazione documento</t>
-  </si>
-  <si>
-    <t>evento.consensoPadre.altroUfficiale</t>
-  </si>
-  <si>
-    <t>dataTrascrizione</t>
-  </si>
-  <si>
-    <t>evento.consensoPadre.tipoConsenso,!=,3</t>
-  </si>
-  <si>
-    <t>Estremi documento</t>
-  </si>
-  <si>
-    <t>estremiDocumento</t>
-  </si>
-  <si>
-    <t>Nome ente</t>
-  </si>
-  <si>
-    <t>nomeEnte</t>
-  </si>
-  <si>
-    <t>Provincia ente</t>
-  </si>
-  <si>
-    <t>idProvinciaEnte</t>
-  </si>
-  <si>
-    <t>Provincia ente - Descrizione</t>
-  </si>
-  <si>
-    <t>siglaProvinciaEnte</t>
-  </si>
-  <si>
-    <t>Comune ente</t>
-  </si>
-  <si>
-    <t>idComuneEnte</t>
-  </si>
-  <si>
-    <t>Comune ente - Descrizione</t>
-  </si>
-  <si>
-    <t>nomeComuneEnte</t>
-  </si>
-  <si>
-    <t>Sentenza di consenso</t>
-  </si>
-  <si>
-    <t>evento.consensoPadre.sentenzaTribunale</t>
-  </si>
-  <si>
-    <t>evento.consensoPadre.tipoConsenso,!=,4</t>
-  </si>
-  <si>
-    <t>Interprete</t>
-  </si>
-  <si>
-    <t>evento.interprete</t>
-  </si>
-  <si>
-    <t>195,196</t>
-  </si>
-  <si>
-    <t>evento.ausilioInterprete,!=,true &amp;&amp; evento.ausilioInterprete,!=,S &amp;&amp; evento.ausilioInterprete,!=,SI</t>
-  </si>
-  <si>
-    <t>Firmatario</t>
-  </si>
-  <si>
-    <t>Dettagli evento</t>
-  </si>
-  <si>
-    <t>Condizioni dichiarante</t>
-  </si>
-  <si>
-    <t>evento.datiDichiarante</t>
-  </si>
-  <si>
-    <t>comprensione</t>
-  </si>
-  <si>
-    <t>Motivo impedimento scrittura</t>
-  </si>
-  <si>
-    <t>motivoImpedimentoScrittura</t>
-  </si>
-  <si>
-    <t>Presenza interprete</t>
-  </si>
-  <si>
-    <t>ausilioInterprete</t>
-  </si>
-  <si>
-    <t>Figlio premorto</t>
   </si>
   <si>
     <t>preMorto</t>
@@ -664,7 +598,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H227"/>
+  <dimension ref="A1:H222"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1670,22 +1604,22 @@
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B44" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="B44" s="2" t="s">
-        <v>42</v>
-      </c>
       <c r="C44" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D44" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E44" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="E44" s="2" t="s">
-        <v>44</v>
-      </c>
       <c r="F44" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G44" s="2" t="s">
         <v>30</v>
@@ -1693,22 +1627,22 @@
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G45" s="2" t="s">
         <v>30</v>
@@ -1716,19 +1650,19 @@
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C46" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F46" s="2" t="s">
         <v>10</v>
@@ -1739,19 +1673,19 @@
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F47" s="2" t="s">
         <v>10</v>
@@ -1762,19 +1696,19 @@
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C48" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>10</v>
@@ -1785,19 +1719,19 @@
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C49" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>10</v>
@@ -1808,19 +1742,19 @@
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>10</v>
@@ -1831,22 +1765,22 @@
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G51" s="2" t="s">
         <v>30</v>
@@ -1854,19 +1788,19 @@
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>10</v>
@@ -1877,19 +1811,19 @@
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>17</v>
@@ -1900,22 +1834,22 @@
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G54" s="2" t="s">
         <v>30</v>
@@ -1923,22 +1857,22 @@
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G55" s="2" t="s">
         <v>30</v>
@@ -1946,22 +1880,22 @@
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G56" s="2" t="s">
         <v>30</v>
@@ -1969,19 +1903,19 @@
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>10</v>
@@ -1992,19 +1926,19 @@
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>10</v>
@@ -2015,19 +1949,19 @@
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>10</v>
@@ -2038,22 +1972,22 @@
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F60" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G60" s="2" t="s">
         <v>30</v>
@@ -2061,19 +1995,19 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>10</v>
@@ -2084,19 +2018,19 @@
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>17</v>
@@ -2107,22 +2041,22 @@
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F63" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G63" s="2" t="s">
         <v>30</v>
@@ -2130,22 +2064,22 @@
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="F64" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G64" s="2" t="s">
         <v>30</v>
@@ -2153,22 +2087,22 @@
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="F65" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G65" s="2" t="s">
         <v>30</v>
@@ -2176,19 +2110,19 @@
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>10</v>
@@ -2199,19 +2133,19 @@
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>10</v>
@@ -2222,22 +2156,22 @@
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B68" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="B68" s="2" t="s">
-        <v>93</v>
-      </c>
       <c r="C68" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D68" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="E68" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="E68" s="2" t="s">
-        <v>94</v>
-      </c>
       <c r="F68" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G68" s="2" t="s">
         <v>30</v>
@@ -2245,19 +2179,19 @@
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>10</v>
@@ -2268,19 +2202,19 @@
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>17</v>
@@ -2291,22 +2225,22 @@
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="F71" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G71" s="2" t="s">
         <v>30</v>
@@ -2314,19 +2248,19 @@
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>101</v>
+        <v>91</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>42</v>
+        <v>99</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>44</v>
+        <v>100</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>17</v>
@@ -2337,22 +2271,22 @@
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B73" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="B73" s="2" t="s">
-        <v>45</v>
-      </c>
       <c r="C73" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D73" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="E73" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="E73" s="2" t="s">
-        <v>46</v>
-      </c>
       <c r="F73" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G73" s="2" t="s">
         <v>30</v>
@@ -2360,22 +2294,22 @@
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="F74" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G74" s="2" t="s">
         <v>30</v>
@@ -2383,19 +2317,19 @@
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>10</v>
@@ -2406,19 +2340,19 @@
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>10</v>
@@ -2429,19 +2363,19 @@
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>10</v>
@@ -2452,19 +2386,19 @@
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>10</v>
@@ -2475,22 +2409,22 @@
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="F79" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G79" s="2" t="s">
         <v>30</v>
@@ -2498,19 +2432,19 @@
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>10</v>
@@ -2521,22 +2455,22 @@
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="F81" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G81" s="2" t="s">
         <v>30</v>
@@ -2544,19 +2478,19 @@
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>17</v>
@@ -2567,19 +2501,19 @@
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>10</v>
@@ -2590,22 +2524,22 @@
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="F84" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G84" s="2" t="s">
         <v>30</v>
@@ -2613,22 +2547,22 @@
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="F85" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G85" s="2" t="s">
         <v>30</v>
@@ -2636,19 +2570,19 @@
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>10</v>
@@ -2659,19 +2593,19 @@
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>10</v>
@@ -2682,22 +2616,22 @@
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="F88" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G88" s="2" t="s">
         <v>30</v>
@@ -2705,19 +2639,19 @@
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>10</v>
@@ -2728,22 +2662,22 @@
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="C90" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="F90" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G90" s="2" t="s">
         <v>30</v>
@@ -2751,19 +2685,19 @@
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="C91" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>17</v>
@@ -2774,19 +2708,19 @@
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="F92" s="2" t="s">
         <v>10</v>
@@ -2797,22 +2731,22 @@
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="F93" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G93" s="2" t="s">
         <v>30</v>
@@ -2820,22 +2754,22 @@
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="F94" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G94" s="2" t="s">
         <v>30</v>
@@ -2843,19 +2777,19 @@
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="F95" s="2" t="s">
         <v>10</v>
@@ -2866,22 +2800,22 @@
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="F96" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G96" s="2" t="s">
         <v>30</v>
@@ -2889,19 +2823,19 @@
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="F97" s="2" t="s">
         <v>10</v>
@@ -2912,22 +2846,22 @@
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="C98" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="F98" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G98" s="2" t="s">
         <v>30</v>
@@ -2935,19 +2869,19 @@
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="C99" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="F99" s="2" t="s">
         <v>17</v>
@@ -2961,7 +2895,7 @@
         <v>103</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>42</v>
+        <v>97</v>
       </c>
       <c r="C100" s="2" t="s">
         <v>9</v>
@@ -2970,10 +2904,10 @@
         <v>104</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>44</v>
+        <v>98</v>
       </c>
       <c r="F100" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G100" s="2" t="s">
         <v>30</v>
@@ -2984,19 +2918,19 @@
         <v>103</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>45</v>
+        <v>99</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D101" s="2" t="s">
         <v>104</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>46</v>
+        <v>100</v>
       </c>
       <c r="F101" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G101" s="2" t="s">
         <v>30</v>
@@ -3007,19 +2941,19 @@
         <v>103</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>47</v>
+        <v>101</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D102" s="2" t="s">
         <v>104</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>48</v>
+        <v>102</v>
       </c>
       <c r="F102" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G102" s="2" t="s">
         <v>30</v>
@@ -3027,22 +2961,22 @@
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="F103" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G103" s="2" t="s">
         <v>30</v>
@@ -3050,19 +2984,19 @@
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="C104" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="F104" s="2" t="s">
         <v>10</v>
@@ -3073,19 +3007,19 @@
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="F105" s="2" t="s">
         <v>10</v>
@@ -3096,19 +3030,19 @@
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="F106" s="2" t="s">
         <v>10</v>
@@ -3119,22 +3053,22 @@
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="F107" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G107" s="2" t="s">
         <v>30</v>
@@ -3142,19 +3076,19 @@
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="F108" s="2" t="s">
         <v>10</v>
@@ -3165,22 +3099,22 @@
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="F109" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G109" s="2" t="s">
         <v>30</v>
@@ -3188,22 +3122,22 @@
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="C110" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="F110" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G110" s="2" t="s">
         <v>30</v>
@@ -3211,22 +3145,22 @@
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="F111" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G111" s="2" t="s">
         <v>30</v>
@@ -3234,19 +3168,19 @@
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="F112" s="2" t="s">
         <v>10</v>
@@ -3257,22 +3191,22 @@
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="F113" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G113" s="2" t="s">
         <v>30</v>
@@ -3280,22 +3214,22 @@
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="F114" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G114" s="2" t="s">
         <v>30</v>
@@ -3303,19 +3237,19 @@
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="F115" s="2" t="s">
         <v>10</v>
@@ -3326,22 +3260,22 @@
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="F116" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G116" s="2" t="s">
         <v>30</v>
@@ -3349,19 +3283,19 @@
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="F117" s="2" t="s">
         <v>10</v>
@@ -3372,22 +3306,22 @@
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="F118" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G118" s="2" t="s">
         <v>30</v>
@@ -3395,22 +3329,22 @@
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="C119" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="F119" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G119" s="2" t="s">
         <v>30</v>
@@ -3418,22 +3352,22 @@
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="F120" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G120" s="2" t="s">
         <v>30</v>
@@ -3441,19 +3375,19 @@
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="F121" s="2" t="s">
         <v>10</v>
@@ -3464,22 +3398,22 @@
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="F122" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G122" s="2" t="s">
         <v>30</v>
@@ -3487,22 +3421,22 @@
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="C123" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="F123" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G123" s="2" t="s">
         <v>30</v>
@@ -3510,22 +3444,22 @@
     </row>
     <row r="124">
       <c r="A124" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="F124" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G124" s="2" t="s">
         <v>30</v>
@@ -3533,19 +3467,19 @@
     </row>
     <row r="125">
       <c r="A125" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="C125" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="F125" s="2" t="s">
         <v>10</v>
@@ -3556,22 +3490,22 @@
     </row>
     <row r="126">
       <c r="A126" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="F126" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G126" s="2" t="s">
         <v>30</v>
@@ -3582,22 +3516,22 @@
         <v>105</v>
       </c>
       <c r="B127" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C127" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D127" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="C127" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D127" s="2" t="s">
-        <v>107</v>
-      </c>
       <c r="E127" s="2" t="s">
-        <v>108</v>
+        <v>94</v>
       </c>
       <c r="F127" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G127" s="2" t="s">
-        <v>109</v>
+        <v>30</v>
       </c>
     </row>
     <row r="128">
@@ -3605,22 +3539,22 @@
         <v>105</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>110</v>
+        <v>95</v>
       </c>
       <c r="C128" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>111</v>
+        <v>96</v>
       </c>
       <c r="F128" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G128" s="2" t="s">
-        <v>109</v>
+        <v>30</v>
       </c>
     </row>
     <row r="129">
@@ -3628,22 +3562,22 @@
         <v>105</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>112</v>
+        <v>97</v>
       </c>
       <c r="C129" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>113</v>
+        <v>98</v>
       </c>
       <c r="F129" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G129" s="2" t="s">
-        <v>109</v>
+        <v>30</v>
       </c>
     </row>
     <row r="130">
@@ -3651,200 +3585,200 @@
         <v>105</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>114</v>
+        <v>99</v>
       </c>
       <c r="C130" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>115</v>
+        <v>100</v>
       </c>
       <c r="F130" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G130" s="2" t="s">
-        <v>109</v>
+        <v>30</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>116</v>
+        <v>42</v>
       </c>
       <c r="C131" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>117</v>
+        <v>44</v>
       </c>
       <c r="F131" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G131" s="2" t="s">
-        <v>109</v>
+        <v>30</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>118</v>
+        <v>45</v>
       </c>
       <c r="C132" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>119</v>
+        <v>46</v>
       </c>
       <c r="F132" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G132" s="2" t="s">
-        <v>109</v>
+        <v>30</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>120</v>
+        <v>47</v>
       </c>
       <c r="C133" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E133" s="2" t="s">
-        <v>121</v>
+        <v>48</v>
       </c>
       <c r="F133" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G133" s="2" t="s">
-        <v>109</v>
+        <v>30</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>122</v>
+        <v>49</v>
       </c>
       <c r="C134" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E134" s="2" t="s">
-        <v>123</v>
+        <v>50</v>
       </c>
       <c r="F134" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G134" s="2" t="s">
-        <v>109</v>
+        <v>30</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>124</v>
+        <v>51</v>
       </c>
       <c r="C135" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E135" s="2" t="s">
-        <v>125</v>
+        <v>52</v>
       </c>
       <c r="F135" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G135" s="2" t="s">
-        <v>109</v>
+        <v>30</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>126</v>
+        <v>53</v>
       </c>
       <c r="C136" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E136" s="2" t="s">
-        <v>127</v>
+        <v>54</v>
       </c>
       <c r="F136" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G136" s="2" t="s">
-        <v>109</v>
+        <v>30</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>128</v>
+        <v>55</v>
       </c>
       <c r="C137" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>129</v>
+        <v>108</v>
       </c>
       <c r="E137" s="2" t="s">
-        <v>39</v>
+        <v>56</v>
       </c>
       <c r="F137" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G137" s="2" t="s">
-        <v>109</v>
+        <v>30</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="2" t="s">
-        <v>130</v>
+        <v>107</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>42</v>
+        <v>57</v>
       </c>
       <c r="C138" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>131</v>
+        <v>108</v>
       </c>
       <c r="E138" s="2" t="s">
-        <v>44</v>
+        <v>58</v>
       </c>
       <c r="F138" s="2" t="s">
         <v>10</v>
@@ -3855,19 +3789,19 @@
     </row>
     <row r="139">
       <c r="A139" s="2" t="s">
-        <v>130</v>
+        <v>107</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>45</v>
+        <v>59</v>
       </c>
       <c r="C139" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>131</v>
+        <v>108</v>
       </c>
       <c r="E139" s="2" t="s">
-        <v>46</v>
+        <v>60</v>
       </c>
       <c r="F139" s="2" t="s">
         <v>10</v>
@@ -3878,19 +3812,19 @@
     </row>
     <row r="140">
       <c r="A140" s="2" t="s">
-        <v>130</v>
+        <v>107</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>47</v>
+        <v>61</v>
       </c>
       <c r="C140" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>131</v>
+        <v>108</v>
       </c>
       <c r="E140" s="2" t="s">
-        <v>48</v>
+        <v>62</v>
       </c>
       <c r="F140" s="2" t="s">
         <v>10</v>
@@ -3901,19 +3835,19 @@
     </row>
     <row r="141">
       <c r="A141" s="2" t="s">
-        <v>130</v>
+        <v>107</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>49</v>
+        <v>63</v>
       </c>
       <c r="C141" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>131</v>
+        <v>108</v>
       </c>
       <c r="E141" s="2" t="s">
-        <v>50</v>
+        <v>64</v>
       </c>
       <c r="F141" s="2" t="s">
         <v>10</v>
@@ -3924,19 +3858,19 @@
     </row>
     <row r="142">
       <c r="A142" s="2" t="s">
-        <v>130</v>
+        <v>107</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>51</v>
+        <v>65</v>
       </c>
       <c r="C142" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>131</v>
+        <v>108</v>
       </c>
       <c r="E142" s="2" t="s">
-        <v>52</v>
+        <v>66</v>
       </c>
       <c r="F142" s="2" t="s">
         <v>10</v>
@@ -3947,19 +3881,19 @@
     </row>
     <row r="143">
       <c r="A143" s="2" t="s">
-        <v>130</v>
+        <v>107</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>53</v>
+        <v>67</v>
       </c>
       <c r="C143" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>131</v>
+        <v>108</v>
       </c>
       <c r="E143" s="2" t="s">
-        <v>54</v>
+        <v>68</v>
       </c>
       <c r="F143" s="2" t="s">
         <v>10</v>
@@ -3970,19 +3904,19 @@
     </row>
     <row r="144">
       <c r="A144" s="2" t="s">
-        <v>130</v>
+        <v>107</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>55</v>
+        <v>69</v>
       </c>
       <c r="C144" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>131</v>
+        <v>108</v>
       </c>
       <c r="E144" s="2" t="s">
-        <v>56</v>
+        <v>70</v>
       </c>
       <c r="F144" s="2" t="s">
         <v>10</v>
@@ -3993,19 +3927,19 @@
     </row>
     <row r="145">
       <c r="A145" s="2" t="s">
-        <v>130</v>
+        <v>107</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>57</v>
+        <v>71</v>
       </c>
       <c r="C145" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>131</v>
+        <v>108</v>
       </c>
       <c r="E145" s="2" t="s">
-        <v>58</v>
+        <v>72</v>
       </c>
       <c r="F145" s="2" t="s">
         <v>10</v>
@@ -4016,19 +3950,19 @@
     </row>
     <row r="146">
       <c r="A146" s="2" t="s">
-        <v>130</v>
+        <v>107</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>59</v>
+        <v>73</v>
       </c>
       <c r="C146" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>131</v>
+        <v>108</v>
       </c>
       <c r="E146" s="2" t="s">
-        <v>60</v>
+        <v>74</v>
       </c>
       <c r="F146" s="2" t="s">
         <v>10</v>
@@ -4039,19 +3973,19 @@
     </row>
     <row r="147">
       <c r="A147" s="2" t="s">
-        <v>130</v>
+        <v>107</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
       <c r="C147" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>131</v>
+        <v>108</v>
       </c>
       <c r="E147" s="2" t="s">
-        <v>62</v>
+        <v>76</v>
       </c>
       <c r="F147" s="2" t="s">
         <v>10</v>
@@ -4062,19 +3996,19 @@
     </row>
     <row r="148">
       <c r="A148" s="2" t="s">
-        <v>130</v>
+        <v>107</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>63</v>
+        <v>77</v>
       </c>
       <c r="C148" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D148" s="2" t="s">
-        <v>131</v>
+        <v>108</v>
       </c>
       <c r="E148" s="2" t="s">
-        <v>64</v>
+        <v>78</v>
       </c>
       <c r="F148" s="2" t="s">
         <v>10</v>
@@ -4085,19 +4019,19 @@
     </row>
     <row r="149">
       <c r="A149" s="2" t="s">
-        <v>130</v>
+        <v>107</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>65</v>
+        <v>79</v>
       </c>
       <c r="C149" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D149" s="2" t="s">
-        <v>131</v>
+        <v>108</v>
       </c>
       <c r="E149" s="2" t="s">
-        <v>66</v>
+        <v>80</v>
       </c>
       <c r="F149" s="2" t="s">
         <v>10</v>
@@ -4108,19 +4042,19 @@
     </row>
     <row r="150">
       <c r="A150" s="2" t="s">
-        <v>130</v>
+        <v>107</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="C150" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D150" s="2" t="s">
-        <v>131</v>
+        <v>108</v>
       </c>
       <c r="E150" s="2" t="s">
-        <v>68</v>
+        <v>82</v>
       </c>
       <c r="F150" s="2" t="s">
         <v>10</v>
@@ -4131,19 +4065,19 @@
     </row>
     <row r="151">
       <c r="A151" s="2" t="s">
-        <v>130</v>
+        <v>107</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>69</v>
+        <v>83</v>
       </c>
       <c r="C151" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D151" s="2" t="s">
-        <v>131</v>
+        <v>108</v>
       </c>
       <c r="E151" s="2" t="s">
-        <v>70</v>
+        <v>84</v>
       </c>
       <c r="F151" s="2" t="s">
         <v>10</v>
@@ -4154,19 +4088,19 @@
     </row>
     <row r="152">
       <c r="A152" s="2" t="s">
-        <v>130</v>
+        <v>107</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>71</v>
+        <v>85</v>
       </c>
       <c r="C152" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D152" s="2" t="s">
-        <v>131</v>
+        <v>108</v>
       </c>
       <c r="E152" s="2" t="s">
-        <v>72</v>
+        <v>86</v>
       </c>
       <c r="F152" s="2" t="s">
         <v>10</v>
@@ -4177,19 +4111,19 @@
     </row>
     <row r="153">
       <c r="A153" s="2" t="s">
-        <v>130</v>
+        <v>107</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>73</v>
+        <v>87</v>
       </c>
       <c r="C153" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D153" s="2" t="s">
-        <v>131</v>
+        <v>108</v>
       </c>
       <c r="E153" s="2" t="s">
-        <v>74</v>
+        <v>88</v>
       </c>
       <c r="F153" s="2" t="s">
         <v>10</v>
@@ -4200,19 +4134,19 @@
     </row>
     <row r="154">
       <c r="A154" s="2" t="s">
-        <v>130</v>
+        <v>107</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>75</v>
+        <v>89</v>
       </c>
       <c r="C154" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D154" s="2" t="s">
-        <v>131</v>
+        <v>108</v>
       </c>
       <c r="E154" s="2" t="s">
-        <v>76</v>
+        <v>90</v>
       </c>
       <c r="F154" s="2" t="s">
         <v>10</v>
@@ -4223,19 +4157,19 @@
     </row>
     <row r="155">
       <c r="A155" s="2" t="s">
-        <v>130</v>
+        <v>109</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>77</v>
+        <v>110</v>
       </c>
       <c r="C155" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D155" s="2" t="s">
-        <v>131</v>
+        <v>111</v>
       </c>
       <c r="E155" s="2" t="s">
-        <v>78</v>
+        <v>112</v>
       </c>
       <c r="F155" s="2" t="s">
         <v>10</v>
@@ -4246,19 +4180,19 @@
     </row>
     <row r="156">
       <c r="A156" s="2" t="s">
-        <v>130</v>
+        <v>109</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>79</v>
+        <v>113</v>
       </c>
       <c r="C156" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D156" s="2" t="s">
-        <v>131</v>
+        <v>111</v>
       </c>
       <c r="E156" s="2" t="s">
-        <v>80</v>
+        <v>114</v>
       </c>
       <c r="F156" s="2" t="s">
         <v>10</v>
@@ -4269,19 +4203,19 @@
     </row>
     <row r="157">
       <c r="A157" s="2" t="s">
-        <v>130</v>
+        <v>109</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>81</v>
+        <v>115</v>
       </c>
       <c r="C157" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D157" s="2" t="s">
-        <v>131</v>
+        <v>111</v>
       </c>
       <c r="E157" s="2" t="s">
-        <v>82</v>
+        <v>116</v>
       </c>
       <c r="F157" s="2" t="s">
         <v>10</v>
@@ -4292,19 +4226,19 @@
     </row>
     <row r="158">
       <c r="A158" s="2" t="s">
-        <v>130</v>
+        <v>109</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>83</v>
+        <v>117</v>
       </c>
       <c r="C158" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D158" s="2" t="s">
-        <v>131</v>
+        <v>111</v>
       </c>
       <c r="E158" s="2" t="s">
-        <v>84</v>
+        <v>118</v>
       </c>
       <c r="F158" s="2" t="s">
         <v>10</v>
@@ -4315,19 +4249,19 @@
     </row>
     <row r="159">
       <c r="A159" s="2" t="s">
-        <v>130</v>
+        <v>109</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>85</v>
+        <v>119</v>
       </c>
       <c r="C159" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D159" s="2" t="s">
-        <v>131</v>
+        <v>111</v>
       </c>
       <c r="E159" s="2" t="s">
-        <v>86</v>
+        <v>120</v>
       </c>
       <c r="F159" s="2" t="s">
         <v>10</v>
@@ -4338,19 +4272,19 @@
     </row>
     <row r="160">
       <c r="A160" s="2" t="s">
-        <v>130</v>
+        <v>109</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>87</v>
+        <v>121</v>
       </c>
       <c r="C160" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D160" s="2" t="s">
-        <v>131</v>
+        <v>111</v>
       </c>
       <c r="E160" s="2" t="s">
-        <v>88</v>
+        <v>122</v>
       </c>
       <c r="F160" s="2" t="s">
         <v>10</v>
@@ -4361,19 +4295,19 @@
     </row>
     <row r="161">
       <c r="A161" s="2" t="s">
-        <v>132</v>
+        <v>109</v>
       </c>
       <c r="B161" s="2" t="s">
-        <v>133</v>
+        <v>123</v>
       </c>
       <c r="C161" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D161" s="2" t="s">
-        <v>134</v>
+        <v>111</v>
       </c>
       <c r="E161" s="2" t="s">
-        <v>135</v>
+        <v>29</v>
       </c>
       <c r="F161" s="2" t="s">
         <v>10</v>
@@ -4384,19 +4318,19 @@
     </row>
     <row r="162">
       <c r="A162" s="2" t="s">
-        <v>132</v>
+        <v>109</v>
       </c>
       <c r="B162" s="2" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="C162" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D162" s="2" t="s">
-        <v>134</v>
+        <v>111</v>
       </c>
       <c r="E162" s="2" t="s">
-        <v>137</v>
+        <v>125</v>
       </c>
       <c r="F162" s="2" t="s">
         <v>10</v>
@@ -4407,19 +4341,19 @@
     </row>
     <row r="163">
       <c r="A163" s="2" t="s">
-        <v>132</v>
+        <v>109</v>
       </c>
       <c r="B163" s="2" t="s">
-        <v>138</v>
+        <v>126</v>
       </c>
       <c r="C163" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D163" s="2" t="s">
-        <v>134</v>
+        <v>111</v>
       </c>
       <c r="E163" s="2" t="s">
-        <v>139</v>
+        <v>32</v>
       </c>
       <c r="F163" s="2" t="s">
         <v>10</v>
@@ -4430,19 +4364,19 @@
     </row>
     <row r="164">
       <c r="A164" s="2" t="s">
-        <v>132</v>
+        <v>109</v>
       </c>
       <c r="B164" s="2" t="s">
-        <v>140</v>
+        <v>127</v>
       </c>
       <c r="C164" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D164" s="2" t="s">
-        <v>134</v>
+        <v>111</v>
       </c>
       <c r="E164" s="2" t="s">
-        <v>141</v>
+        <v>128</v>
       </c>
       <c r="F164" s="2" t="s">
         <v>10</v>
@@ -4453,19 +4387,19 @@
     </row>
     <row r="165">
       <c r="A165" s="2" t="s">
-        <v>132</v>
+        <v>109</v>
       </c>
       <c r="B165" s="2" t="s">
-        <v>142</v>
+        <v>129</v>
       </c>
       <c r="C165" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D165" s="2" t="s">
-        <v>134</v>
+        <v>111</v>
       </c>
       <c r="E165" s="2" t="s">
-        <v>143</v>
+        <v>130</v>
       </c>
       <c r="F165" s="2" t="s">
         <v>10</v>
@@ -4476,19 +4410,19 @@
     </row>
     <row r="166">
       <c r="A166" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="B166" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="C166" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D166" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="E166" s="2" t="s">
         <v>132</v>
-      </c>
-      <c r="B166" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="C166" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D166" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="E166" s="2" t="s">
-        <v>145</v>
       </c>
       <c r="F166" s="2" t="s">
         <v>10</v>
@@ -4499,33 +4433,33 @@
     </row>
     <row r="167">
       <c r="A167" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B167" s="2" t="s">
-        <v>146</v>
+        <v>110</v>
       </c>
       <c r="C167" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D167" s="2" t="s">
         <v>134</v>
       </c>
       <c r="E167" s="2" t="s">
-        <v>29</v>
+        <v>112</v>
       </c>
       <c r="F167" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G167" s="2" t="s">
-        <v>30</v>
+        <v>135</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B168" s="2" t="s">
-        <v>147</v>
+        <v>113</v>
       </c>
       <c r="C168" s="2" t="s">
         <v>18</v>
@@ -4534,21 +4468,21 @@
         <v>134</v>
       </c>
       <c r="E168" s="2" t="s">
-        <v>148</v>
+        <v>114</v>
       </c>
       <c r="F168" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G168" s="2" t="s">
-        <v>30</v>
+        <v>135</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B169" s="2" t="s">
-        <v>149</v>
+        <v>115</v>
       </c>
       <c r="C169" s="2" t="s">
         <v>18</v>
@@ -4557,1346 +4491,1231 @@
         <v>134</v>
       </c>
       <c r="E169" s="2" t="s">
-        <v>32</v>
+        <v>116</v>
       </c>
       <c r="F169" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G169" s="2" t="s">
-        <v>30</v>
+        <v>135</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B170" s="2" t="s">
-        <v>150</v>
+        <v>117</v>
       </c>
       <c r="C170" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D170" s="2" t="s">
         <v>134</v>
       </c>
       <c r="E170" s="2" t="s">
-        <v>151</v>
+        <v>118</v>
       </c>
       <c r="F170" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G170" s="2" t="s">
-        <v>30</v>
+        <v>135</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B171" s="2" t="s">
-        <v>152</v>
+        <v>119</v>
       </c>
       <c r="C171" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D171" s="2" t="s">
         <v>134</v>
       </c>
       <c r="E171" s="2" t="s">
-        <v>153</v>
+        <v>120</v>
       </c>
       <c r="F171" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G171" s="2" t="s">
-        <v>30</v>
+        <v>135</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B172" s="2" t="s">
-        <v>154</v>
+        <v>121</v>
       </c>
       <c r="C172" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D172" s="2" t="s">
         <v>134</v>
       </c>
       <c r="E172" s="2" t="s">
-        <v>155</v>
+        <v>122</v>
       </c>
       <c r="F172" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G172" s="2" t="s">
-        <v>30</v>
+        <v>135</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" s="2" t="s">
-        <v>156</v>
+        <v>133</v>
       </c>
       <c r="B173" s="2" t="s">
-        <v>133</v>
+        <v>123</v>
       </c>
       <c r="C173" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D173" s="2" t="s">
-        <v>157</v>
+        <v>134</v>
       </c>
       <c r="E173" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F173" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G173" s="2" t="s">
         <v>135</v>
-      </c>
-      <c r="F173" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G173" s="2" t="s">
-        <v>158</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" s="2" t="s">
-        <v>156</v>
+        <v>133</v>
       </c>
       <c r="B174" s="2" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="C174" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D174" s="2" t="s">
-        <v>157</v>
+        <v>134</v>
       </c>
       <c r="E174" s="2" t="s">
-        <v>137</v>
+        <v>125</v>
       </c>
       <c r="F174" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G174" s="2" t="s">
-        <v>158</v>
+        <v>135</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" s="2" t="s">
-        <v>156</v>
+        <v>133</v>
       </c>
       <c r="B175" s="2" t="s">
-        <v>138</v>
+        <v>126</v>
       </c>
       <c r="C175" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D175" s="2" t="s">
-        <v>157</v>
+        <v>134</v>
       </c>
       <c r="E175" s="2" t="s">
-        <v>139</v>
+        <v>32</v>
       </c>
       <c r="F175" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G175" s="2" t="s">
-        <v>158</v>
+        <v>135</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" s="2" t="s">
-        <v>156</v>
+        <v>133</v>
       </c>
       <c r="B176" s="2" t="s">
-        <v>140</v>
+        <v>127</v>
       </c>
       <c r="C176" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D176" s="2" t="s">
-        <v>157</v>
+        <v>134</v>
       </c>
       <c r="E176" s="2" t="s">
-        <v>141</v>
+        <v>128</v>
       </c>
       <c r="F176" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G176" s="2" t="s">
-        <v>158</v>
+        <v>135</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" s="2" t="s">
-        <v>156</v>
+        <v>133</v>
       </c>
       <c r="B177" s="2" t="s">
-        <v>142</v>
+        <v>129</v>
       </c>
       <c r="C177" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D177" s="2" t="s">
-        <v>157</v>
+        <v>134</v>
       </c>
       <c r="E177" s="2" t="s">
-        <v>143</v>
+        <v>130</v>
       </c>
       <c r="F177" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G177" s="2" t="s">
-        <v>158</v>
+        <v>135</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" s="2" t="s">
-        <v>156</v>
+        <v>133</v>
       </c>
       <c r="B178" s="2" t="s">
-        <v>144</v>
+        <v>131</v>
       </c>
       <c r="C178" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D178" s="2" t="s">
-        <v>157</v>
+        <v>134</v>
       </c>
       <c r="E178" s="2" t="s">
-        <v>145</v>
+        <v>132</v>
       </c>
       <c r="F178" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G178" s="2" t="s">
-        <v>158</v>
+        <v>135</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" s="2" t="s">
-        <v>156</v>
+        <v>133</v>
       </c>
       <c r="B179" s="2" t="s">
-        <v>146</v>
+        <v>136</v>
       </c>
       <c r="C179" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D179" s="2" t="s">
-        <v>157</v>
+        <v>137</v>
       </c>
       <c r="E179" s="2" t="s">
-        <v>29</v>
+        <v>138</v>
       </c>
       <c r="F179" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G179" s="2" t="s">
-        <v>158</v>
+        <v>139</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" s="2" t="s">
-        <v>156</v>
+        <v>133</v>
       </c>
       <c r="B180" s="2" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="C180" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D180" s="2" t="s">
-        <v>157</v>
+        <v>137</v>
       </c>
       <c r="E180" s="2" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="F180" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G180" s="2" t="s">
-        <v>158</v>
+        <v>139</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" s="2" t="s">
-        <v>156</v>
+        <v>133</v>
       </c>
       <c r="B181" s="2" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="C181" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D181" s="2" t="s">
-        <v>157</v>
+        <v>137</v>
       </c>
       <c r="E181" s="2" t="s">
-        <v>32</v>
+        <v>143</v>
       </c>
       <c r="F181" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G181" s="2" t="s">
-        <v>158</v>
+        <v>139</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" s="2" t="s">
-        <v>156</v>
+        <v>133</v>
       </c>
       <c r="B182" s="2" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="C182" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D182" s="2" t="s">
-        <v>157</v>
+        <v>137</v>
       </c>
       <c r="E182" s="2" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="F182" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G182" s="2" t="s">
-        <v>158</v>
+        <v>139</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" s="2" t="s">
-        <v>156</v>
+        <v>133</v>
       </c>
       <c r="B183" s="2" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="C183" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D183" s="2" t="s">
-        <v>157</v>
+        <v>137</v>
       </c>
       <c r="E183" s="2" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="F183" s="2" t="s">
         <v>17</v>
       </c>
       <c r="G183" s="2" t="s">
-        <v>158</v>
+        <v>139</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" s="2" t="s">
-        <v>156</v>
+        <v>133</v>
       </c>
       <c r="B184" s="2" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="C184" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D184" s="2" t="s">
-        <v>157</v>
+        <v>137</v>
       </c>
       <c r="E184" s="2" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="F184" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G184" s="2" t="s">
-        <v>158</v>
+        <v>139</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" s="2" t="s">
-        <v>156</v>
+        <v>133</v>
       </c>
       <c r="B185" s="2" t="s">
-        <v>159</v>
+        <v>150</v>
       </c>
       <c r="C185" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D185" s="2" t="s">
-        <v>160</v>
+        <v>137</v>
       </c>
       <c r="E185" s="2" t="s">
-        <v>161</v>
+        <v>151</v>
       </c>
       <c r="F185" s="2" t="s">
         <v>17</v>
       </c>
       <c r="G185" s="2" t="s">
-        <v>162</v>
+        <v>139</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" s="2" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="B186" s="2" t="s">
-        <v>163</v>
+        <v>136</v>
       </c>
       <c r="C186" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D186" s="2" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="E186" s="2" t="s">
-        <v>164</v>
+        <v>138</v>
       </c>
       <c r="F186" s="2" t="s">
         <v>17</v>
       </c>
       <c r="G186" s="2" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" s="2" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="B187" s="2" t="s">
-        <v>165</v>
+        <v>140</v>
       </c>
       <c r="C187" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D187" s="2" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="E187" s="2" t="s">
-        <v>166</v>
+        <v>141</v>
       </c>
       <c r="F187" s="2" t="s">
         <v>17</v>
       </c>
       <c r="G187" s="2" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" s="2" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="B188" s="2" t="s">
-        <v>167</v>
+        <v>142</v>
       </c>
       <c r="C188" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D188" s="2" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="E188" s="2" t="s">
-        <v>168</v>
+        <v>143</v>
       </c>
       <c r="F188" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G188" s="2" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" s="2" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="B189" s="2" t="s">
-        <v>169</v>
+        <v>144</v>
       </c>
       <c r="C189" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D189" s="2" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="E189" s="2" t="s">
-        <v>170</v>
+        <v>145</v>
       </c>
       <c r="F189" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G189" s="2" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" s="2" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="B190" s="2" t="s">
-        <v>171</v>
+        <v>146</v>
       </c>
       <c r="C190" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D190" s="2" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="E190" s="2" t="s">
-        <v>172</v>
+        <v>147</v>
       </c>
       <c r="F190" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G190" s="2" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" s="2" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="B191" s="2" t="s">
-        <v>173</v>
+        <v>148</v>
       </c>
       <c r="C191" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D191" s="2" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="E191" s="2" t="s">
-        <v>174</v>
+        <v>149</v>
       </c>
       <c r="F191" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G191" s="2" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" s="2" t="s">
-        <v>175</v>
+        <v>152</v>
       </c>
       <c r="B192" s="2" t="s">
-        <v>159</v>
+        <v>150</v>
       </c>
       <c r="C192" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D192" s="2" t="s">
-        <v>176</v>
+        <v>153</v>
       </c>
       <c r="E192" s="2" t="s">
-        <v>161</v>
+        <v>151</v>
       </c>
       <c r="F192" s="2" t="s">
         <v>17</v>
       </c>
       <c r="G192" s="2" t="s">
-        <v>177</v>
+        <v>154</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" s="2" t="s">
-        <v>175</v>
+        <v>155</v>
       </c>
       <c r="B193" s="2" t="s">
-        <v>163</v>
+        <v>42</v>
       </c>
       <c r="C193" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D193" s="2" t="s">
-        <v>176</v>
+        <v>156</v>
       </c>
       <c r="E193" s="2" t="s">
-        <v>164</v>
+        <v>44</v>
       </c>
       <c r="F193" s="2" t="s">
-        <v>17</v>
+        <v>157</v>
       </c>
       <c r="G193" s="2" t="s">
-        <v>177</v>
+        <v>158</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" s="2" t="s">
-        <v>175</v>
+        <v>155</v>
       </c>
       <c r="B194" s="2" t="s">
-        <v>165</v>
+        <v>45</v>
       </c>
       <c r="C194" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D194" s="2" t="s">
-        <v>176</v>
+        <v>156</v>
       </c>
       <c r="E194" s="2" t="s">
-        <v>166</v>
+        <v>46</v>
       </c>
       <c r="F194" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G194" s="2" t="s">
-        <v>177</v>
+        <v>158</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" s="2" t="s">
-        <v>175</v>
+        <v>155</v>
       </c>
       <c r="B195" s="2" t="s">
-        <v>167</v>
+        <v>47</v>
       </c>
       <c r="C195" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D195" s="2" t="s">
-        <v>176</v>
+        <v>156</v>
       </c>
       <c r="E195" s="2" t="s">
-        <v>168</v>
+        <v>48</v>
       </c>
       <c r="F195" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G195" s="2" t="s">
-        <v>177</v>
+        <v>158</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" s="2" t="s">
-        <v>175</v>
+        <v>155</v>
       </c>
       <c r="B196" s="2" t="s">
-        <v>169</v>
+        <v>49</v>
       </c>
       <c r="C196" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D196" s="2" t="s">
-        <v>176</v>
+        <v>156</v>
       </c>
       <c r="E196" s="2" t="s">
-        <v>170</v>
+        <v>50</v>
       </c>
       <c r="F196" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G196" s="2" t="s">
-        <v>177</v>
+        <v>158</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" s="2" t="s">
-        <v>175</v>
+        <v>155</v>
       </c>
       <c r="B197" s="2" t="s">
-        <v>171</v>
+        <v>51</v>
       </c>
       <c r="C197" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D197" s="2" t="s">
-        <v>176</v>
+        <v>156</v>
       </c>
       <c r="E197" s="2" t="s">
-        <v>172</v>
+        <v>52</v>
       </c>
       <c r="F197" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G197" s="2" t="s">
-        <v>177</v>
+        <v>158</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" s="2" t="s">
-        <v>175</v>
+        <v>155</v>
       </c>
       <c r="B198" s="2" t="s">
-        <v>173</v>
+        <v>53</v>
       </c>
       <c r="C198" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D198" s="2" t="s">
-        <v>176</v>
+        <v>156</v>
       </c>
       <c r="E198" s="2" t="s">
-        <v>174</v>
+        <v>54</v>
       </c>
       <c r="F198" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G198" s="2" t="s">
-        <v>177</v>
+        <v>158</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" s="2" t="s">
-        <v>178</v>
+        <v>155</v>
       </c>
       <c r="B199" s="2" t="s">
-        <v>42</v>
+        <v>55</v>
       </c>
       <c r="C199" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D199" s="2" t="s">
-        <v>179</v>
+        <v>156</v>
       </c>
       <c r="E199" s="2" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="F199" s="2" t="s">
-        <v>180</v>
+        <v>10</v>
       </c>
       <c r="G199" s="2" t="s">
-        <v>181</v>
+        <v>158</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" s="2" t="s">
-        <v>178</v>
+        <v>155</v>
       </c>
       <c r="B200" s="2" t="s">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="C200" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D200" s="2" t="s">
-        <v>179</v>
+        <v>156</v>
       </c>
       <c r="E200" s="2" t="s">
-        <v>46</v>
+        <v>58</v>
       </c>
       <c r="F200" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G200" s="2" t="s">
-        <v>181</v>
+        <v>158</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" s="2" t="s">
-        <v>178</v>
+        <v>155</v>
       </c>
       <c r="B201" s="2" t="s">
-        <v>47</v>
+        <v>59</v>
       </c>
       <c r="C201" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D201" s="2" t="s">
-        <v>179</v>
+        <v>156</v>
       </c>
       <c r="E201" s="2" t="s">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="F201" s="2" t="s">
-        <v>10</v>
+        <v>157</v>
       </c>
       <c r="G201" s="2" t="s">
-        <v>181</v>
+        <v>158</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" s="2" t="s">
-        <v>178</v>
+        <v>155</v>
       </c>
       <c r="B202" s="2" t="s">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="C202" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D202" s="2" t="s">
-        <v>179</v>
+        <v>156</v>
       </c>
       <c r="E202" s="2" t="s">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="F202" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G202" s="2" t="s">
-        <v>181</v>
+        <v>158</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" s="2" t="s">
-        <v>178</v>
+        <v>155</v>
       </c>
       <c r="B203" s="2" t="s">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="C203" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D203" s="2" t="s">
-        <v>179</v>
+        <v>156</v>
       </c>
       <c r="E203" s="2" t="s">
-        <v>52</v>
+        <v>64</v>
       </c>
       <c r="F203" s="2" t="s">
-        <v>10</v>
+        <v>157</v>
       </c>
       <c r="G203" s="2" t="s">
-        <v>181</v>
+        <v>158</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" s="2" t="s">
-        <v>178</v>
+        <v>155</v>
       </c>
       <c r="B204" s="2" t="s">
-        <v>53</v>
+        <v>65</v>
       </c>
       <c r="C204" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D204" s="2" t="s">
-        <v>179</v>
+        <v>156</v>
       </c>
       <c r="E204" s="2" t="s">
-        <v>54</v>
+        <v>66</v>
       </c>
       <c r="F204" s="2" t="s">
-        <v>10</v>
+        <v>157</v>
       </c>
       <c r="G204" s="2" t="s">
-        <v>181</v>
+        <v>158</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" s="2" t="s">
-        <v>178</v>
+        <v>155</v>
       </c>
       <c r="B205" s="2" t="s">
-        <v>55</v>
+        <v>67</v>
       </c>
       <c r="C205" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D205" s="2" t="s">
-        <v>179</v>
+        <v>156</v>
       </c>
       <c r="E205" s="2" t="s">
-        <v>56</v>
+        <v>68</v>
       </c>
       <c r="F205" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G205" s="2" t="s">
-        <v>181</v>
+        <v>158</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" s="2" t="s">
-        <v>178</v>
+        <v>155</v>
       </c>
       <c r="B206" s="2" t="s">
-        <v>57</v>
+        <v>69</v>
       </c>
       <c r="C206" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D206" s="2" t="s">
-        <v>179</v>
+        <v>156</v>
       </c>
       <c r="E206" s="2" t="s">
-        <v>58</v>
+        <v>70</v>
       </c>
       <c r="F206" s="2" t="s">
-        <v>180</v>
+        <v>10</v>
       </c>
       <c r="G206" s="2" t="s">
-        <v>181</v>
+        <v>158</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" s="2" t="s">
-        <v>178</v>
+        <v>155</v>
       </c>
       <c r="B207" s="2" t="s">
-        <v>59</v>
+        <v>71</v>
       </c>
       <c r="C207" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D207" s="2" t="s">
-        <v>179</v>
+        <v>156</v>
       </c>
       <c r="E207" s="2" t="s">
-        <v>60</v>
+        <v>72</v>
       </c>
       <c r="F207" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G207" s="2" t="s">
-        <v>181</v>
+        <v>158</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" s="2" t="s">
-        <v>178</v>
+        <v>155</v>
       </c>
       <c r="B208" s="2" t="s">
-        <v>61</v>
+        <v>73</v>
       </c>
       <c r="C208" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D208" s="2" t="s">
-        <v>179</v>
+        <v>156</v>
       </c>
       <c r="E208" s="2" t="s">
-        <v>62</v>
+        <v>74</v>
       </c>
       <c r="F208" s="2" t="s">
-        <v>180</v>
+        <v>10</v>
       </c>
       <c r="G208" s="2" t="s">
-        <v>181</v>
+        <v>158</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" s="2" t="s">
-        <v>178</v>
+        <v>155</v>
       </c>
       <c r="B209" s="2" t="s">
-        <v>63</v>
+        <v>75</v>
       </c>
       <c r="C209" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D209" s="2" t="s">
-        <v>179</v>
+        <v>156</v>
       </c>
       <c r="E209" s="2" t="s">
-        <v>64</v>
+        <v>76</v>
       </c>
       <c r="F209" s="2" t="s">
-        <v>180</v>
+        <v>10</v>
       </c>
       <c r="G209" s="2" t="s">
-        <v>181</v>
+        <v>158</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" s="2" t="s">
-        <v>178</v>
+        <v>155</v>
       </c>
       <c r="B210" s="2" t="s">
-        <v>65</v>
+        <v>77</v>
       </c>
       <c r="C210" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D210" s="2" t="s">
-        <v>179</v>
+        <v>156</v>
       </c>
       <c r="E210" s="2" t="s">
-        <v>66</v>
+        <v>78</v>
       </c>
       <c r="F210" s="2" t="s">
-        <v>10</v>
+        <v>157</v>
       </c>
       <c r="G210" s="2" t="s">
-        <v>181</v>
+        <v>158</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" s="2" t="s">
-        <v>178</v>
+        <v>155</v>
       </c>
       <c r="B211" s="2" t="s">
-        <v>67</v>
+        <v>79</v>
       </c>
       <c r="C211" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D211" s="2" t="s">
-        <v>179</v>
+        <v>156</v>
       </c>
       <c r="E211" s="2" t="s">
-        <v>68</v>
+        <v>80</v>
       </c>
       <c r="F211" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G211" s="2" t="s">
-        <v>181</v>
+        <v>158</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" s="2" t="s">
-        <v>178</v>
+        <v>155</v>
       </c>
       <c r="B212" s="2" t="s">
-        <v>69</v>
+        <v>81</v>
       </c>
       <c r="C212" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D212" s="2" t="s">
-        <v>179</v>
+        <v>156</v>
       </c>
       <c r="E212" s="2" t="s">
-        <v>70</v>
+        <v>82</v>
       </c>
       <c r="F212" s="2" t="s">
-        <v>10</v>
+        <v>157</v>
       </c>
       <c r="G212" s="2" t="s">
-        <v>181</v>
+        <v>158</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" s="2" t="s">
-        <v>178</v>
+        <v>155</v>
       </c>
       <c r="B213" s="2" t="s">
-        <v>71</v>
+        <v>83</v>
       </c>
       <c r="C213" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D213" s="2" t="s">
-        <v>179</v>
+        <v>156</v>
       </c>
       <c r="E213" s="2" t="s">
-        <v>72</v>
+        <v>84</v>
       </c>
       <c r="F213" s="2" t="s">
-        <v>10</v>
+        <v>157</v>
       </c>
       <c r="G213" s="2" t="s">
-        <v>181</v>
+        <v>158</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" s="2" t="s">
-        <v>178</v>
+        <v>155</v>
       </c>
       <c r="B214" s="2" t="s">
-        <v>73</v>
+        <v>85</v>
       </c>
       <c r="C214" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D214" s="2" t="s">
-        <v>179</v>
+        <v>156</v>
       </c>
       <c r="E214" s="2" t="s">
-        <v>74</v>
+        <v>86</v>
       </c>
       <c r="F214" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G214" s="2" t="s">
-        <v>181</v>
+        <v>158</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" s="2" t="s">
-        <v>178</v>
+        <v>155</v>
       </c>
       <c r="B215" s="2" t="s">
-        <v>75</v>
+        <v>87</v>
       </c>
       <c r="C215" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D215" s="2" t="s">
-        <v>179</v>
+        <v>156</v>
       </c>
       <c r="E215" s="2" t="s">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="F215" s="2" t="s">
-        <v>180</v>
+        <v>10</v>
       </c>
       <c r="G215" s="2" t="s">
-        <v>181</v>
+        <v>158</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" s="2" t="s">
-        <v>178</v>
+        <v>155</v>
       </c>
       <c r="B216" s="2" t="s">
-        <v>77</v>
+        <v>159</v>
       </c>
       <c r="C216" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D216" s="2" t="s">
-        <v>179</v>
+        <v>156</v>
       </c>
       <c r="E216" s="2" t="s">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="F216" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G216" s="2" t="s">
-        <v>181</v>
+        <v>158</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" s="2" t="s">
-        <v>178</v>
+        <v>160</v>
       </c>
       <c r="B217" s="2" t="s">
-        <v>79</v>
+        <v>161</v>
       </c>
       <c r="C217" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D217" s="2" t="s">
-        <v>179</v>
+        <v>162</v>
       </c>
       <c r="E217" s="2" t="s">
-        <v>80</v>
+        <v>163</v>
       </c>
       <c r="F217" s="2" t="s">
-        <v>180</v>
+        <v>10</v>
       </c>
       <c r="G217" s="2" t="s">
-        <v>181</v>
+        <v>30</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" s="2" t="s">
-        <v>178</v>
+        <v>160</v>
       </c>
       <c r="B218" s="2" t="s">
-        <v>81</v>
+        <v>164</v>
       </c>
       <c r="C218" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D218" s="2" t="s">
-        <v>179</v>
+        <v>162</v>
       </c>
       <c r="E218" s="2" t="s">
-        <v>82</v>
+        <v>165</v>
       </c>
       <c r="F218" s="2" t="s">
-        <v>180</v>
+        <v>20</v>
       </c>
       <c r="G218" s="2" t="s">
-        <v>181</v>
+        <v>30</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" s="2" t="s">
-        <v>178</v>
+        <v>160</v>
       </c>
       <c r="B219" s="2" t="s">
-        <v>83</v>
+        <v>166</v>
       </c>
       <c r="C219" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D219" s="2" t="s">
-        <v>179</v>
+        <v>28</v>
       </c>
       <c r="E219" s="2" t="s">
-        <v>84</v>
+        <v>167</v>
       </c>
       <c r="F219" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G219" s="2" t="s">
-        <v>181</v>
+        <v>30</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" s="2" t="s">
-        <v>178</v>
+        <v>160</v>
       </c>
       <c r="B220" s="2" t="s">
-        <v>85</v>
+        <v>168</v>
       </c>
       <c r="C220" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D220" s="2" t="s">
-        <v>179</v>
+        <v>169</v>
       </c>
       <c r="E220" s="2" t="s">
-        <v>86</v>
+        <v>170</v>
       </c>
       <c r="F220" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G220" s="2" t="s">
-        <v>181</v>
+        <v>30</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" s="2" t="s">
-        <v>178</v>
+        <v>160</v>
       </c>
       <c r="B221" s="2" t="s">
-        <v>182</v>
+        <v>171</v>
       </c>
       <c r="C221" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D221" s="2" t="s">
-        <v>179</v>
+        <v>169</v>
       </c>
       <c r="E221" s="2" t="s">
-        <v>88</v>
+        <v>172</v>
       </c>
       <c r="F221" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G221" s="2" t="s">
-        <v>181</v>
+        <v>30</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" s="2" t="s">
-        <v>183</v>
+        <v>160</v>
       </c>
       <c r="B222" s="2" t="s">
-        <v>184</v>
+        <v>173</v>
       </c>
       <c r="C222" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D222" s="2" t="s">
-        <v>185</v>
+        <v>174</v>
       </c>
       <c r="E222" s="2" t="s">
-        <v>186</v>
+        <v>175</v>
       </c>
       <c r="F222" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G222" s="2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="223">
-      <c r="A223" s="2" t="s">
-        <v>183</v>
-      </c>
-      <c r="B223" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="C223" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D223" s="2" t="s">
-        <v>185</v>
-      </c>
-      <c r="E223" s="2" t="s">
-        <v>188</v>
-      </c>
-      <c r="F223" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G223" s="2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="224">
-      <c r="A224" s="2" t="s">
-        <v>183</v>
-      </c>
-      <c r="B224" s="2" t="s">
-        <v>189</v>
-      </c>
-      <c r="C224" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D224" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="E224" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="F224" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G224" s="2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="225">
-      <c r="A225" s="2" t="s">
-        <v>183</v>
-      </c>
-      <c r="B225" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="C225" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D225" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="E225" s="2" t="s">
-        <v>192</v>
-      </c>
-      <c r="F225" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G225" s="2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="226">
-      <c r="A226" s="2" t="s">
-        <v>183</v>
-      </c>
-      <c r="B226" s="2" t="s">
-        <v>193</v>
-      </c>
-      <c r="C226" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D226" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="E226" s="2" t="s">
-        <v>194</v>
-      </c>
-      <c r="F226" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G226" s="2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="227">
-      <c r="A227" s="2" t="s">
-        <v>183</v>
-      </c>
-      <c r="B227" s="2" t="s">
-        <v>195</v>
-      </c>
-      <c r="C227" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D227" s="2" t="s">
-        <v>196</v>
-      </c>
-      <c r="E227" s="2" t="s">
-        <v>197</v>
-      </c>
-      <c r="F227" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G227" s="2" t="s">
         <v>30</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/riconoscimenti/Rico_010.xlsx
+++ b/docs/Mapping_casi_uso/riconoscimenti/Rico_010.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1554" uniqueCount="176">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1596" uniqueCount="178">
   <si>
     <t>Sezione</t>
   </si>
@@ -225,6 +225,12 @@
   </si>
   <si>
     <t>nazionalita</t>
+  </si>
+  <si>
+    <t>Residenza non nota</t>
+  </si>
+  <si>
+    <t>flagIrreperibile</t>
   </si>
   <si>
     <t>Stato di residenza</t>
@@ -598,7 +604,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H222"/>
+  <dimension ref="A1:H228"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1627,22 +1633,22 @@
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B45" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="B45" s="2" t="s">
-        <v>42</v>
-      </c>
       <c r="C45" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D45" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E45" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="E45" s="2" t="s">
-        <v>44</v>
-      </c>
       <c r="F45" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G45" s="2" t="s">
         <v>30</v>
@@ -1650,22 +1656,22 @@
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G46" s="2" t="s">
         <v>30</v>
@@ -1673,19 +1679,19 @@
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F47" s="2" t="s">
         <v>10</v>
@@ -1696,19 +1702,19 @@
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>10</v>
@@ -1719,19 +1725,19 @@
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C49" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>10</v>
@@ -1742,19 +1748,19 @@
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>10</v>
@@ -1765,19 +1771,19 @@
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>10</v>
@@ -1788,19 +1794,19 @@
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>10</v>
@@ -1811,22 +1817,22 @@
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G53" s="2" t="s">
         <v>30</v>
@@ -1834,22 +1840,22 @@
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G54" s="2" t="s">
         <v>30</v>
@@ -1857,22 +1863,22 @@
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G55" s="2" t="s">
         <v>30</v>
@@ -1880,19 +1886,19 @@
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>17</v>
@@ -1903,22 +1909,22 @@
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G57" s="2" t="s">
         <v>30</v>
@@ -1926,19 +1932,19 @@
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>10</v>
@@ -1949,19 +1955,19 @@
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>10</v>
@@ -1972,22 +1978,22 @@
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="F60" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G60" s="2" t="s">
         <v>30</v>
@@ -1995,19 +2001,19 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>10</v>
@@ -2018,19 +2024,19 @@
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>17</v>
@@ -2041,19 +2047,19 @@
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>10</v>
@@ -2064,19 +2070,19 @@
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>17</v>
@@ -2087,22 +2093,22 @@
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="F65" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G65" s="2" t="s">
         <v>30</v>
@@ -2110,22 +2116,22 @@
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="F66" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G66" s="2" t="s">
         <v>30</v>
@@ -2133,22 +2139,22 @@
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F67" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G67" s="2" t="s">
         <v>30</v>
@@ -2156,19 +2162,19 @@
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>10</v>
@@ -2179,19 +2185,19 @@
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>10</v>
@@ -2202,22 +2208,22 @@
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B70" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="B70" s="2" t="s">
-        <v>95</v>
-      </c>
       <c r="C70" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D70" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="E70" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="E70" s="2" t="s">
-        <v>96</v>
-      </c>
       <c r="F70" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G70" s="2" t="s">
         <v>30</v>
@@ -2225,19 +2231,19 @@
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>10</v>
@@ -2248,19 +2254,19 @@
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>17</v>
@@ -2271,22 +2277,22 @@
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="F73" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G73" s="2" t="s">
         <v>30</v>
@@ -2294,19 +2300,19 @@
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>42</v>
+        <v>101</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>104</v>
+        <v>94</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>44</v>
+        <v>102</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>17</v>
@@ -2317,22 +2323,22 @@
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B75" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="B75" s="2" t="s">
-        <v>45</v>
-      </c>
       <c r="C75" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D75" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="E75" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="E75" s="2" t="s">
-        <v>46</v>
-      </c>
       <c r="F75" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G75" s="2" t="s">
         <v>30</v>
@@ -2340,22 +2346,22 @@
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="F76" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G76" s="2" t="s">
         <v>30</v>
@@ -2363,19 +2369,19 @@
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>10</v>
@@ -2386,19 +2392,19 @@
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>10</v>
@@ -2409,19 +2415,19 @@
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>10</v>
@@ -2432,19 +2438,19 @@
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>10</v>
@@ -2455,19 +2461,19 @@
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>10</v>
@@ -2478,22 +2484,22 @@
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="F82" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G82" s="2" t="s">
         <v>30</v>
@@ -2501,19 +2507,19 @@
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="C83" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>10</v>
@@ -2524,19 +2530,19 @@
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="C84" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>17</v>
@@ -2547,22 +2553,22 @@
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="C85" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="F85" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G85" s="2" t="s">
         <v>30</v>
@@ -2570,22 +2576,22 @@
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="F86" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G86" s="2" t="s">
         <v>30</v>
@@ -2593,22 +2599,22 @@
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="F87" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G87" s="2" t="s">
         <v>30</v>
@@ -2616,19 +2622,19 @@
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="C88" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>10</v>
@@ -2639,19 +2645,19 @@
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="C89" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>10</v>
@@ -2662,22 +2668,22 @@
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="C90" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="F90" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G90" s="2" t="s">
         <v>30</v>
@@ -2685,22 +2691,22 @@
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="C91" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="F91" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G91" s="2" t="s">
         <v>30</v>
@@ -2708,22 +2714,22 @@
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="C92" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="F92" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G92" s="2" t="s">
         <v>30</v>
@@ -2731,22 +2737,22 @@
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="C93" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="F93" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G93" s="2" t="s">
         <v>30</v>
@@ -2754,19 +2760,19 @@
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="C94" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="F94" s="2" t="s">
         <v>17</v>
@@ -2777,19 +2783,19 @@
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="F95" s="2" t="s">
         <v>10</v>
@@ -2800,22 +2806,22 @@
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="F96" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G96" s="2" t="s">
         <v>30</v>
@@ -2823,22 +2829,22 @@
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="F97" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G97" s="2" t="s">
         <v>30</v>
@@ -2846,19 +2852,19 @@
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="F98" s="2" t="s">
         <v>10</v>
@@ -2869,22 +2875,22 @@
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="F99" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G99" s="2" t="s">
         <v>30</v>
@@ -2892,19 +2898,19 @@
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="F100" s="2" t="s">
         <v>10</v>
@@ -2915,22 +2921,22 @@
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="C101" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="F101" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G101" s="2" t="s">
         <v>30</v>
@@ -2938,19 +2944,19 @@
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="C102" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="F102" s="2" t="s">
         <v>17</v>
@@ -2964,7 +2970,7 @@
         <v>105</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>42</v>
+        <v>99</v>
       </c>
       <c r="C103" s="2" t="s">
         <v>9</v>
@@ -2973,10 +2979,10 @@
         <v>106</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>44</v>
+        <v>100</v>
       </c>
       <c r="F103" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G103" s="2" t="s">
         <v>30</v>
@@ -2987,19 +2993,19 @@
         <v>105</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>45</v>
+        <v>101</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D104" s="2" t="s">
         <v>106</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>46</v>
+        <v>102</v>
       </c>
       <c r="F104" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G104" s="2" t="s">
         <v>30</v>
@@ -3010,7 +3016,7 @@
         <v>105</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>47</v>
+        <v>103</v>
       </c>
       <c r="C105" s="2" t="s">
         <v>9</v>
@@ -3019,10 +3025,10 @@
         <v>106</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>48</v>
+        <v>104</v>
       </c>
       <c r="F105" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G105" s="2" t="s">
         <v>30</v>
@@ -3030,22 +3036,22 @@
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="F106" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G106" s="2" t="s">
         <v>30</v>
@@ -3053,19 +3059,19 @@
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="C107" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="F107" s="2" t="s">
         <v>10</v>
@@ -3076,19 +3082,19 @@
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="F108" s="2" t="s">
         <v>10</v>
@@ -3099,19 +3105,19 @@
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="C109" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="F109" s="2" t="s">
         <v>10</v>
@@ -3122,19 +3128,19 @@
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="F110" s="2" t="s">
         <v>10</v>
@@ -3145,22 +3151,22 @@
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="F111" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G111" s="2" t="s">
         <v>30</v>
@@ -3168,19 +3174,19 @@
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="F112" s="2" t="s">
         <v>10</v>
@@ -3191,22 +3197,22 @@
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="C113" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="F113" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G113" s="2" t="s">
         <v>30</v>
@@ -3214,19 +3220,19 @@
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="C114" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="F114" s="2" t="s">
         <v>17</v>
@@ -3237,19 +3243,19 @@
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="F115" s="2" t="s">
         <v>10</v>
@@ -3260,22 +3266,22 @@
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="F116" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G116" s="2" t="s">
         <v>30</v>
@@ -3283,22 +3289,22 @@
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="F117" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G117" s="2" t="s">
         <v>30</v>
@@ -3306,19 +3312,19 @@
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="C118" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="F118" s="2" t="s">
         <v>10</v>
@@ -3329,19 +3335,19 @@
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="F119" s="2" t="s">
         <v>10</v>
@@ -3352,19 +3358,19 @@
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="C120" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="F120" s="2" t="s">
         <v>17</v>
@@ -3375,19 +3381,19 @@
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="C121" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="F121" s="2" t="s">
         <v>10</v>
@@ -3398,19 +3404,19 @@
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="C122" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="F122" s="2" t="s">
         <v>17</v>
@@ -3421,22 +3427,22 @@
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="C123" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="F123" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G123" s="2" t="s">
         <v>30</v>
@@ -3444,22 +3450,22 @@
     </row>
     <row r="124">
       <c r="A124" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="F124" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G124" s="2" t="s">
         <v>30</v>
@@ -3467,19 +3473,19 @@
     </row>
     <row r="125">
       <c r="A125" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="C125" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="F125" s="2" t="s">
         <v>10</v>
@@ -3490,22 +3496,22 @@
     </row>
     <row r="126">
       <c r="A126" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="F126" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G126" s="2" t="s">
         <v>30</v>
@@ -3513,22 +3519,22 @@
     </row>
     <row r="127">
       <c r="A127" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="C127" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="F127" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G127" s="2" t="s">
         <v>30</v>
@@ -3536,22 +3542,22 @@
     </row>
     <row r="128">
       <c r="A128" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="C128" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="F128" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G128" s="2" t="s">
         <v>30</v>
@@ -3559,19 +3565,19 @@
     </row>
     <row r="129">
       <c r="A129" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="C129" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="F129" s="2" t="s">
         <v>10</v>
@@ -3582,22 +3588,22 @@
     </row>
     <row r="130">
       <c r="A130" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="C130" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="F130" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G130" s="2" t="s">
         <v>30</v>
@@ -3608,16 +3614,16 @@
         <v>107</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>42</v>
+        <v>95</v>
       </c>
       <c r="C131" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D131" s="2" t="s">
         <v>108</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>44</v>
+        <v>96</v>
       </c>
       <c r="F131" s="2" t="s">
         <v>10</v>
@@ -3631,19 +3637,19 @@
         <v>107</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>45</v>
+        <v>97</v>
       </c>
       <c r="C132" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D132" s="2" t="s">
         <v>108</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>46</v>
+        <v>98</v>
       </c>
       <c r="F132" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G132" s="2" t="s">
         <v>30</v>
@@ -3654,16 +3660,16 @@
         <v>107</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>47</v>
+        <v>99</v>
       </c>
       <c r="C133" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D133" s="2" t="s">
         <v>108</v>
       </c>
       <c r="E133" s="2" t="s">
-        <v>48</v>
+        <v>100</v>
       </c>
       <c r="F133" s="2" t="s">
         <v>10</v>
@@ -3677,19 +3683,19 @@
         <v>107</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>49</v>
+        <v>101</v>
       </c>
       <c r="C134" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D134" s="2" t="s">
         <v>108</v>
       </c>
       <c r="E134" s="2" t="s">
-        <v>50</v>
+        <v>102</v>
       </c>
       <c r="F134" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G134" s="2" t="s">
         <v>30</v>
@@ -3697,19 +3703,19 @@
     </row>
     <row r="135">
       <c r="A135" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="C135" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E135" s="2" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="F135" s="2" t="s">
         <v>10</v>
@@ -3720,19 +3726,19 @@
     </row>
     <row r="136">
       <c r="A136" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="C136" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E136" s="2" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="F136" s="2" t="s">
         <v>10</v>
@@ -3743,19 +3749,19 @@
     </row>
     <row r="137">
       <c r="A137" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="C137" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E137" s="2" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="F137" s="2" t="s">
         <v>10</v>
@@ -3766,19 +3772,19 @@
     </row>
     <row r="138">
       <c r="A138" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="C138" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E138" s="2" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="F138" s="2" t="s">
         <v>10</v>
@@ -3789,19 +3795,19 @@
     </row>
     <row r="139">
       <c r="A139" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="C139" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E139" s="2" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="F139" s="2" t="s">
         <v>10</v>
@@ -3812,19 +3818,19 @@
     </row>
     <row r="140">
       <c r="A140" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="C140" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E140" s="2" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="F140" s="2" t="s">
         <v>10</v>
@@ -3835,19 +3841,19 @@
     </row>
     <row r="141">
       <c r="A141" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="C141" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E141" s="2" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="F141" s="2" t="s">
         <v>10</v>
@@ -3858,19 +3864,19 @@
     </row>
     <row r="142">
       <c r="A142" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="C142" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E142" s="2" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="F142" s="2" t="s">
         <v>10</v>
@@ -3881,19 +3887,19 @@
     </row>
     <row r="143">
       <c r="A143" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="C143" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E143" s="2" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="F143" s="2" t="s">
         <v>10</v>
@@ -3904,19 +3910,19 @@
     </row>
     <row r="144">
       <c r="A144" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="C144" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E144" s="2" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="F144" s="2" t="s">
         <v>10</v>
@@ -3927,19 +3933,19 @@
     </row>
     <row r="145">
       <c r="A145" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="C145" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E145" s="2" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="F145" s="2" t="s">
         <v>10</v>
@@ -3950,19 +3956,19 @@
     </row>
     <row r="146">
       <c r="A146" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="C146" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E146" s="2" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="F146" s="2" t="s">
         <v>10</v>
@@ -3973,19 +3979,19 @@
     </row>
     <row r="147">
       <c r="A147" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="C147" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E147" s="2" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="F147" s="2" t="s">
         <v>10</v>
@@ -3996,19 +4002,19 @@
     </row>
     <row r="148">
       <c r="A148" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="C148" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D148" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E148" s="2" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="F148" s="2" t="s">
         <v>10</v>
@@ -4019,19 +4025,19 @@
     </row>
     <row r="149">
       <c r="A149" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="C149" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D149" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E149" s="2" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="F149" s="2" t="s">
         <v>10</v>
@@ -4042,19 +4048,19 @@
     </row>
     <row r="150">
       <c r="A150" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="C150" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D150" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E150" s="2" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="F150" s="2" t="s">
         <v>10</v>
@@ -4065,19 +4071,19 @@
     </row>
     <row r="151">
       <c r="A151" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="C151" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D151" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E151" s="2" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="F151" s="2" t="s">
         <v>10</v>
@@ -4088,19 +4094,19 @@
     </row>
     <row r="152">
       <c r="A152" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="C152" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D152" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E152" s="2" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="F152" s="2" t="s">
         <v>10</v>
@@ -4111,19 +4117,19 @@
     </row>
     <row r="153">
       <c r="A153" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="C153" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D153" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E153" s="2" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="F153" s="2" t="s">
         <v>10</v>
@@ -4134,19 +4140,19 @@
     </row>
     <row r="154">
       <c r="A154" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="C154" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D154" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E154" s="2" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="F154" s="2" t="s">
         <v>10</v>
@@ -4160,16 +4166,16 @@
         <v>109</v>
       </c>
       <c r="B155" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C155" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D155" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="C155" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D155" s="2" t="s">
-        <v>111</v>
-      </c>
       <c r="E155" s="2" t="s">
-        <v>112</v>
+        <v>84</v>
       </c>
       <c r="F155" s="2" t="s">
         <v>10</v>
@@ -4183,16 +4189,16 @@
         <v>109</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>113</v>
+        <v>85</v>
       </c>
       <c r="C156" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D156" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E156" s="2" t="s">
-        <v>114</v>
+        <v>86</v>
       </c>
       <c r="F156" s="2" t="s">
         <v>10</v>
@@ -4206,16 +4212,16 @@
         <v>109</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>115</v>
+        <v>87</v>
       </c>
       <c r="C157" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D157" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E157" s="2" t="s">
-        <v>116</v>
+        <v>88</v>
       </c>
       <c r="F157" s="2" t="s">
         <v>10</v>
@@ -4229,16 +4235,16 @@
         <v>109</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>117</v>
+        <v>89</v>
       </c>
       <c r="C158" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D158" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E158" s="2" t="s">
-        <v>118</v>
+        <v>90</v>
       </c>
       <c r="F158" s="2" t="s">
         <v>10</v>
@@ -4252,16 +4258,16 @@
         <v>109</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>119</v>
+        <v>91</v>
       </c>
       <c r="C159" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D159" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E159" s="2" t="s">
-        <v>120</v>
+        <v>92</v>
       </c>
       <c r="F159" s="2" t="s">
         <v>10</v>
@@ -4272,19 +4278,19 @@
     </row>
     <row r="160">
       <c r="A160" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
       <c r="C160" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D160" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E160" s="2" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="F160" s="2" t="s">
         <v>10</v>
@@ -4295,19 +4301,19 @@
     </row>
     <row r="161">
       <c r="A161" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B161" s="2" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="C161" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D161" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E161" s="2" t="s">
-        <v>29</v>
+        <v>116</v>
       </c>
       <c r="F161" s="2" t="s">
         <v>10</v>
@@ -4318,19 +4324,19 @@
     </row>
     <row r="162">
       <c r="A162" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B162" s="2" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="C162" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D162" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E162" s="2" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="F162" s="2" t="s">
         <v>10</v>
@@ -4341,19 +4347,19 @@
     </row>
     <row r="163">
       <c r="A163" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B163" s="2" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="C163" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D163" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E163" s="2" t="s">
-        <v>32</v>
+        <v>120</v>
       </c>
       <c r="F163" s="2" t="s">
         <v>10</v>
@@ -4364,19 +4370,19 @@
     </row>
     <row r="164">
       <c r="A164" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B164" s="2" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="C164" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D164" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E164" s="2" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="F164" s="2" t="s">
         <v>10</v>
@@ -4387,19 +4393,19 @@
     </row>
     <row r="165">
       <c r="A165" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B165" s="2" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="C165" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D165" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E165" s="2" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="F165" s="2" t="s">
         <v>10</v>
@@ -4410,19 +4416,19 @@
     </row>
     <row r="166">
       <c r="A166" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B166" s="2" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="C166" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D166" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E166" s="2" t="s">
-        <v>132</v>
+        <v>29</v>
       </c>
       <c r="F166" s="2" t="s">
         <v>10</v>
@@ -4433,1289 +4439,1427 @@
     </row>
     <row r="167">
       <c r="A167" s="2" t="s">
-        <v>133</v>
+        <v>111</v>
       </c>
       <c r="B167" s="2" t="s">
-        <v>110</v>
+        <v>126</v>
       </c>
       <c r="C167" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D167" s="2" t="s">
-        <v>134</v>
+        <v>113</v>
       </c>
       <c r="E167" s="2" t="s">
-        <v>112</v>
+        <v>127</v>
       </c>
       <c r="F167" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G167" s="2" t="s">
-        <v>135</v>
+        <v>30</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" s="2" t="s">
-        <v>133</v>
+        <v>111</v>
       </c>
       <c r="B168" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="C168" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D168" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="C168" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D168" s="2" t="s">
-        <v>134</v>
-      </c>
       <c r="E168" s="2" t="s">
-        <v>114</v>
+        <v>32</v>
       </c>
       <c r="F168" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G168" s="2" t="s">
-        <v>135</v>
+        <v>30</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" s="2" t="s">
-        <v>133</v>
+        <v>111</v>
       </c>
       <c r="B169" s="2" t="s">
-        <v>115</v>
+        <v>129</v>
       </c>
       <c r="C169" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D169" s="2" t="s">
-        <v>134</v>
+        <v>113</v>
       </c>
       <c r="E169" s="2" t="s">
-        <v>116</v>
+        <v>130</v>
       </c>
       <c r="F169" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G169" s="2" t="s">
-        <v>135</v>
+        <v>30</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" s="2" t="s">
-        <v>133</v>
+        <v>111</v>
       </c>
       <c r="B170" s="2" t="s">
-        <v>117</v>
+        <v>131</v>
       </c>
       <c r="C170" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D170" s="2" t="s">
-        <v>134</v>
+        <v>113</v>
       </c>
       <c r="E170" s="2" t="s">
-        <v>118</v>
+        <v>132</v>
       </c>
       <c r="F170" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G170" s="2" t="s">
-        <v>135</v>
+        <v>30</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="B171" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="B171" s="2" t="s">
-        <v>119</v>
-      </c>
       <c r="C171" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D171" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="E171" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="E171" s="2" t="s">
-        <v>120</v>
-      </c>
       <c r="F171" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G171" s="2" t="s">
-        <v>135</v>
+        <v>30</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B172" s="2" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
       <c r="C172" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D172" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="E172" s="2" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="F172" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G172" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B173" s="2" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="C173" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D173" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="E173" s="2" t="s">
-        <v>29</v>
+        <v>116</v>
       </c>
       <c r="F173" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G173" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B174" s="2" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="C174" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D174" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="E174" s="2" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="F174" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G174" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B175" s="2" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="C175" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D175" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="E175" s="2" t="s">
-        <v>32</v>
+        <v>120</v>
       </c>
       <c r="F175" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G175" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B176" s="2" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="C176" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D176" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="E176" s="2" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="F176" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G176" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B177" s="2" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="C177" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D177" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="E177" s="2" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="F177" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G177" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B178" s="2" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="C178" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D178" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="E178" s="2" t="s">
-        <v>132</v>
+        <v>29</v>
       </c>
       <c r="F178" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G178" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B179" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="C179" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D179" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="C179" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D179" s="2" t="s">
+      <c r="E179" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="F179" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G179" s="2" t="s">
         <v>137</v>
-      </c>
-      <c r="E179" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="F179" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="G179" s="2" t="s">
-        <v>139</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B180" s="2" t="s">
-        <v>140</v>
+        <v>128</v>
       </c>
       <c r="C180" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D180" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="E180" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F180" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G180" s="2" t="s">
         <v>137</v>
-      </c>
-      <c r="E180" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="F180" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="G180" s="2" t="s">
-        <v>139</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B181" s="2" t="s">
-        <v>142</v>
+        <v>129</v>
       </c>
       <c r="C181" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D181" s="2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E181" s="2" t="s">
-        <v>143</v>
+        <v>130</v>
       </c>
       <c r="F181" s="2" t="s">
         <v>17</v>
       </c>
       <c r="G181" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B182" s="2" t="s">
-        <v>144</v>
+        <v>131</v>
       </c>
       <c r="C182" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D182" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="E182" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="F182" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G182" s="2" t="s">
         <v>137</v>
-      </c>
-      <c r="E182" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="F182" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G182" s="2" t="s">
-        <v>139</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="B183" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="B183" s="2" t="s">
-        <v>146</v>
-      </c>
       <c r="C183" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D183" s="2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E183" s="2" t="s">
-        <v>147</v>
+        <v>134</v>
       </c>
       <c r="F183" s="2" t="s">
         <v>17</v>
       </c>
       <c r="G183" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B184" s="2" t="s">
-        <v>148</v>
+        <v>138</v>
       </c>
       <c r="C184" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D184" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="E184" s="2" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="F184" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G184" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B185" s="2" t="s">
-        <v>150</v>
+        <v>142</v>
       </c>
       <c r="C185" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D185" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="E185" s="2" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="F185" s="2" t="s">
         <v>17</v>
       </c>
       <c r="G185" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" s="2" t="s">
-        <v>152</v>
+        <v>135</v>
       </c>
       <c r="B186" s="2" t="s">
-        <v>136</v>
+        <v>144</v>
       </c>
       <c r="C186" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D186" s="2" t="s">
-        <v>153</v>
+        <v>139</v>
       </c>
       <c r="E186" s="2" t="s">
-        <v>138</v>
+        <v>145</v>
       </c>
       <c r="F186" s="2" t="s">
         <v>17</v>
       </c>
       <c r="G186" s="2" t="s">
-        <v>154</v>
+        <v>141</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" s="2" t="s">
-        <v>152</v>
+        <v>135</v>
       </c>
       <c r="B187" s="2" t="s">
-        <v>140</v>
+        <v>146</v>
       </c>
       <c r="C187" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D187" s="2" t="s">
-        <v>153</v>
+        <v>139</v>
       </c>
       <c r="E187" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="F187" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G187" s="2" t="s">
         <v>141</v>
-      </c>
-      <c r="F187" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="G187" s="2" t="s">
-        <v>154</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" s="2" t="s">
-        <v>152</v>
+        <v>135</v>
       </c>
       <c r="B188" s="2" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
       <c r="C188" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D188" s="2" t="s">
-        <v>153</v>
+        <v>139</v>
       </c>
       <c r="E188" s="2" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="F188" s="2" t="s">
         <v>17</v>
       </c>
       <c r="G188" s="2" t="s">
-        <v>154</v>
+        <v>141</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" s="2" t="s">
-        <v>152</v>
+        <v>135</v>
       </c>
       <c r="B189" s="2" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="C189" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D189" s="2" t="s">
-        <v>153</v>
+        <v>139</v>
       </c>
       <c r="E189" s="2" t="s">
-        <v>145</v>
+        <v>151</v>
       </c>
       <c r="F189" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G189" s="2" t="s">
-        <v>154</v>
+        <v>141</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="B190" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="B190" s="2" t="s">
-        <v>146</v>
-      </c>
       <c r="C190" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D190" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="E190" s="2" t="s">
         <v>153</v>
-      </c>
-      <c r="E190" s="2" t="s">
-        <v>147</v>
       </c>
       <c r="F190" s="2" t="s">
         <v>17</v>
       </c>
       <c r="G190" s="2" t="s">
-        <v>154</v>
+        <v>141</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="B191" s="2" t="s">
-        <v>148</v>
+        <v>138</v>
       </c>
       <c r="C191" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D191" s="2" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="E191" s="2" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="F191" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G191" s="2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="B192" s="2" t="s">
-        <v>150</v>
+        <v>142</v>
       </c>
       <c r="C192" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D192" s="2" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="E192" s="2" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="F192" s="2" t="s">
         <v>17</v>
       </c>
       <c r="G192" s="2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="B193" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="C193" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D193" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="B193" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="C193" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D193" s="2" t="s">
+      <c r="E193" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="F193" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G193" s="2" t="s">
         <v>156</v>
-      </c>
-      <c r="E193" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="F193" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="G193" s="2" t="s">
-        <v>158</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="B194" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="C194" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D194" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="B194" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="C194" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D194" s="2" t="s">
+      <c r="E194" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="F194" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G194" s="2" t="s">
         <v>156</v>
-      </c>
-      <c r="E194" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="F194" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G194" s="2" t="s">
-        <v>158</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="B195" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="C195" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D195" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="B195" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="C195" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D195" s="2" t="s">
+      <c r="E195" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="F195" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G195" s="2" t="s">
         <v>156</v>
-      </c>
-      <c r="E195" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="F195" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G195" s="2" t="s">
-        <v>158</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="B196" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="C196" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D196" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="B196" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="C196" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D196" s="2" t="s">
+      <c r="E196" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="F196" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G196" s="2" t="s">
         <v>156</v>
-      </c>
-      <c r="E196" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="F196" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G196" s="2" t="s">
-        <v>158</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="B197" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="C197" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D197" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="B197" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="C197" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D197" s="2" t="s">
+      <c r="E197" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="F197" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G197" s="2" t="s">
         <v>156</v>
-      </c>
-      <c r="E197" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="F197" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G197" s="2" t="s">
-        <v>158</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" s="2" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="B198" s="2" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="C198" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D198" s="2" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="E198" s="2" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="F198" s="2" t="s">
-        <v>10</v>
+        <v>159</v>
       </c>
       <c r="G198" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" s="2" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="B199" s="2" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="C199" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D199" s="2" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="E199" s="2" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="F199" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G199" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" s="2" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="B200" s="2" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="C200" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D200" s="2" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="E200" s="2" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="F200" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G200" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" s="2" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="B201" s="2" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="C201" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D201" s="2" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="E201" s="2" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="F201" s="2" t="s">
-        <v>157</v>
+        <v>10</v>
       </c>
       <c r="G201" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" s="2" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="B202" s="2" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="C202" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D202" s="2" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="E202" s="2" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="F202" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G202" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" s="2" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="B203" s="2" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="C203" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D203" s="2" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="E203" s="2" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="F203" s="2" t="s">
-        <v>157</v>
+        <v>10</v>
       </c>
       <c r="G203" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" s="2" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="B204" s="2" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="C204" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D204" s="2" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="E204" s="2" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="F204" s="2" t="s">
-        <v>157</v>
+        <v>10</v>
       </c>
       <c r="G204" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" s="2" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="B205" s="2" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="C205" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D205" s="2" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="E205" s="2" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="F205" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G205" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" s="2" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="B206" s="2" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="C206" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D206" s="2" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="E206" s="2" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="F206" s="2" t="s">
-        <v>10</v>
+        <v>159</v>
       </c>
       <c r="G206" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" s="2" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="B207" s="2" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="C207" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D207" s="2" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="E207" s="2" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="F207" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G207" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" s="2" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="B208" s="2" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="C208" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D208" s="2" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="E208" s="2" t="s">
-        <v>74</v>
+        <v>64</v>
       </c>
       <c r="F208" s="2" t="s">
-        <v>10</v>
+        <v>159</v>
       </c>
       <c r="G208" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" s="2" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="B209" s="2" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="C209" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D209" s="2" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="E209" s="2" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="F209" s="2" t="s">
-        <v>10</v>
+        <v>159</v>
       </c>
       <c r="G209" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" s="2" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="B210" s="2" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="C210" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D210" s="2" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="E210" s="2" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="F210" s="2" t="s">
-        <v>157</v>
+        <v>10</v>
       </c>
       <c r="G210" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" s="2" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="B211" s="2" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="C211" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D211" s="2" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="E211" s="2" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="F211" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G211" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" s="2" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="B212" s="2" t="s">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="C212" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D212" s="2" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="E212" s="2" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="F212" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="G212" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" s="2" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="B213" s="2" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="C213" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D213" s="2" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="E213" s="2" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="F213" s="2" t="s">
-        <v>157</v>
+        <v>10</v>
       </c>
       <c r="G213" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" s="2" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="B214" s="2" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="C214" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D214" s="2" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="E214" s="2" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="F214" s="2" t="s">
-        <v>10</v>
+        <v>159</v>
       </c>
       <c r="G214" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" s="2" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="B215" s="2" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="C215" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D215" s="2" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="E215" s="2" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="F215" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G215" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" s="2" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="B216" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C216" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D216" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="E216" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="F216" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="C216" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D216" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="E216" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="F216" s="2" t="s">
-        <v>10</v>
-      </c>
       <c r="G216" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="B217" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C217" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D217" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="E217" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="F217" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G217" s="2" t="s">
         <v>160</v>
-      </c>
-      <c r="B217" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="C217" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D217" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="E217" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="F217" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G217" s="2" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="B218" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C218" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D218" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="E218" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="F218" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="G218" s="2" t="s">
         <v>160</v>
-      </c>
-      <c r="B218" s="2" t="s">
-        <v>164</v>
-      </c>
-      <c r="C218" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D218" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="E218" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="F218" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G218" s="2" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="B219" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C219" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D219" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="E219" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="F219" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="G219" s="2" t="s">
         <v>160</v>
-      </c>
-      <c r="B219" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="C219" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D219" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="E219" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="F219" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G219" s="2" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="B220" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C220" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D220" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="E220" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="F220" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G220" s="2" t="s">
         <v>160</v>
-      </c>
-      <c r="B220" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="C220" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D220" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="E220" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="F220" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G220" s="2" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="B221" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C221" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D221" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="E221" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="F221" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G221" s="2" t="s">
         <v>160</v>
-      </c>
-      <c r="B221" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="C221" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D221" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="E221" s="2" t="s">
-        <v>172</v>
-      </c>
-      <c r="F221" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G221" s="2" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="B222" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="C222" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D222" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="E222" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="F222" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G222" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="B222" s="2" t="s">
+    </row>
+    <row r="223">
+      <c r="A223" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="B223" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="C223" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D223" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="E223" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="F223" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G223" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="B224" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="C224" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D224" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="E224" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="F224" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G224" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="B225" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="C225" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D225" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E225" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="F225" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G225" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="B226" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="C226" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D226" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="E226" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="F226" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G226" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="B227" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="C222" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D222" s="2" t="s">
+      <c r="C227" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D227" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="E227" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="E222" s="2" t="s">
+      <c r="F227" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G227" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="B228" s="2" t="s">
         <v>175</v>
       </c>
-      <c r="F222" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G222" s="2" t="s">
+      <c r="C228" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D228" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="E228" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="F228" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G228" s="2" t="s">
         <v>30</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/riconoscimenti/Rico_010.xlsx
+++ b/docs/Mapping_casi_uso/riconoscimenti/Rico_010.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1596" uniqueCount="178">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1638" uniqueCount="180">
   <si>
     <t>Sezione</t>
   </si>
@@ -225,6 +225,12 @@
   </si>
   <si>
     <t>nazionalita</t>
+  </si>
+  <si>
+    <t>Comprensione</t>
+  </si>
+  <si>
+    <t>tipoImpedimento</t>
   </si>
   <si>
     <t>Residenza non nota</t>
@@ -604,7 +610,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H228"/>
+  <dimension ref="A1:H234"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1656,22 +1662,22 @@
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B46" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="B46" s="2" t="s">
-        <v>42</v>
-      </c>
       <c r="C46" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D46" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E46" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="E46" s="2" t="s">
-        <v>44</v>
-      </c>
       <c r="F46" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G46" s="2" t="s">
         <v>30</v>
@@ -1679,22 +1685,22 @@
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G47" s="2" t="s">
         <v>30</v>
@@ -1702,19 +1708,19 @@
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>10</v>
@@ -1725,19 +1731,19 @@
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>10</v>
@@ -1748,19 +1754,19 @@
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>10</v>
@@ -1771,19 +1777,19 @@
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>10</v>
@@ -1794,19 +1800,19 @@
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>10</v>
@@ -1817,19 +1823,19 @@
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>10</v>
@@ -1840,22 +1846,22 @@
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G54" s="2" t="s">
         <v>30</v>
@@ -1863,22 +1869,22 @@
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G55" s="2" t="s">
         <v>30</v>
@@ -1886,22 +1892,22 @@
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G56" s="2" t="s">
         <v>30</v>
@@ -1909,19 +1915,19 @@
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>17</v>
@@ -1932,22 +1938,22 @@
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G58" s="2" t="s">
         <v>30</v>
@@ -1955,19 +1961,19 @@
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>10</v>
@@ -1978,22 +1984,22 @@
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F60" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G60" s="2" t="s">
         <v>30</v>
@@ -2001,22 +2007,22 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="F61" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G61" s="2" t="s">
         <v>30</v>
@@ -2024,19 +2030,19 @@
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>17</v>
@@ -2047,19 +2053,19 @@
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>10</v>
@@ -2070,19 +2076,19 @@
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>17</v>
@@ -2093,19 +2099,19 @@
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>10</v>
@@ -2116,19 +2122,19 @@
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>17</v>
@@ -2139,22 +2145,22 @@
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="F67" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G67" s="2" t="s">
         <v>30</v>
@@ -2162,22 +2168,22 @@
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F68" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G68" s="2" t="s">
         <v>30</v>
@@ -2185,22 +2191,22 @@
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="F69" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G69" s="2" t="s">
         <v>30</v>
@@ -2208,19 +2214,19 @@
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>10</v>
@@ -2231,19 +2237,19 @@
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>10</v>
@@ -2254,22 +2260,22 @@
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="B72" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="B72" s="2" t="s">
-        <v>97</v>
-      </c>
       <c r="C72" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D72" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="E72" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="E72" s="2" t="s">
-        <v>98</v>
-      </c>
       <c r="F72" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G72" s="2" t="s">
         <v>30</v>
@@ -2277,19 +2283,19 @@
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>10</v>
@@ -2300,19 +2306,19 @@
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>17</v>
@@ -2323,22 +2329,22 @@
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="F75" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G75" s="2" t="s">
         <v>30</v>
@@ -2346,19 +2352,19 @@
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>105</v>
+        <v>95</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>42</v>
+        <v>103</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>106</v>
+        <v>96</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>44</v>
+        <v>104</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>17</v>
@@ -2369,22 +2375,22 @@
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="B77" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="B77" s="2" t="s">
-        <v>45</v>
-      </c>
       <c r="C77" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D77" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="E77" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="E77" s="2" t="s">
-        <v>46</v>
-      </c>
       <c r="F77" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G77" s="2" t="s">
         <v>30</v>
@@ -2392,22 +2398,22 @@
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="F78" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G78" s="2" t="s">
         <v>30</v>
@@ -2415,19 +2421,19 @@
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>10</v>
@@ -2438,19 +2444,19 @@
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>10</v>
@@ -2461,19 +2467,19 @@
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>10</v>
@@ -2484,19 +2490,19 @@
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>10</v>
@@ -2507,19 +2513,19 @@
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>10</v>
@@ -2530,22 +2536,22 @@
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="F84" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G84" s="2" t="s">
         <v>30</v>
@@ -2553,19 +2559,19 @@
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="C85" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>10</v>
@@ -2576,19 +2582,19 @@
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>17</v>
@@ -2599,22 +2605,22 @@
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="C87" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="F87" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G87" s="2" t="s">
         <v>30</v>
@@ -2622,22 +2628,22 @@
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="F88" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G88" s="2" t="s">
         <v>30</v>
@@ -2645,22 +2651,22 @@
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="F89" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G89" s="2" t="s">
         <v>30</v>
@@ -2668,22 +2674,22 @@
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="F90" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G90" s="2" t="s">
         <v>30</v>
@@ -2691,19 +2697,19 @@
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>10</v>
@@ -2714,19 +2720,19 @@
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="C92" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="F92" s="2" t="s">
         <v>17</v>
@@ -2737,22 +2743,22 @@
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="C93" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="F93" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G93" s="2" t="s">
         <v>30</v>
@@ -2760,22 +2766,22 @@
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="C94" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="F94" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G94" s="2" t="s">
         <v>30</v>
@@ -2783,22 +2789,22 @@
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="C95" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="F95" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G95" s="2" t="s">
         <v>30</v>
@@ -2806,22 +2812,22 @@
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="C96" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="F96" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G96" s="2" t="s">
         <v>30</v>
@@ -2829,19 +2835,19 @@
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="C97" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="F97" s="2" t="s">
         <v>17</v>
@@ -2852,19 +2858,19 @@
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="F98" s="2" t="s">
         <v>10</v>
@@ -2875,22 +2881,22 @@
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="F99" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G99" s="2" t="s">
         <v>30</v>
@@ -2898,22 +2904,22 @@
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="F100" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G100" s="2" t="s">
         <v>30</v>
@@ -2921,19 +2927,19 @@
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="F101" s="2" t="s">
         <v>10</v>
@@ -2944,22 +2950,22 @@
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="F102" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G102" s="2" t="s">
         <v>30</v>
@@ -2967,19 +2973,19 @@
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="F103" s="2" t="s">
         <v>10</v>
@@ -2990,22 +2996,22 @@
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="C104" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="F104" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G104" s="2" t="s">
         <v>30</v>
@@ -3013,19 +3019,19 @@
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="C105" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="F105" s="2" t="s">
         <v>17</v>
@@ -3039,7 +3045,7 @@
         <v>107</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>42</v>
+        <v>101</v>
       </c>
       <c r="C106" s="2" t="s">
         <v>9</v>
@@ -3048,10 +3054,10 @@
         <v>108</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>44</v>
+        <v>102</v>
       </c>
       <c r="F106" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G106" s="2" t="s">
         <v>30</v>
@@ -3062,19 +3068,19 @@
         <v>107</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>45</v>
+        <v>103</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D107" s="2" t="s">
         <v>108</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>46</v>
+        <v>104</v>
       </c>
       <c r="F107" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G107" s="2" t="s">
         <v>30</v>
@@ -3085,7 +3091,7 @@
         <v>107</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>47</v>
+        <v>105</v>
       </c>
       <c r="C108" s="2" t="s">
         <v>9</v>
@@ -3094,10 +3100,10 @@
         <v>108</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>48</v>
+        <v>106</v>
       </c>
       <c r="F108" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G108" s="2" t="s">
         <v>30</v>
@@ -3105,22 +3111,22 @@
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="F109" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G109" s="2" t="s">
         <v>30</v>
@@ -3128,19 +3134,19 @@
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="C110" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="F110" s="2" t="s">
         <v>10</v>
@@ -3151,19 +3157,19 @@
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="F111" s="2" t="s">
         <v>10</v>
@@ -3174,19 +3180,19 @@
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="C112" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="F112" s="2" t="s">
         <v>10</v>
@@ -3197,19 +3203,19 @@
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="F113" s="2" t="s">
         <v>10</v>
@@ -3220,22 +3226,22 @@
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="F114" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G114" s="2" t="s">
         <v>30</v>
@@ -3243,19 +3249,19 @@
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="F115" s="2" t="s">
         <v>10</v>
@@ -3266,22 +3272,22 @@
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="C116" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="F116" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G116" s="2" t="s">
         <v>30</v>
@@ -3289,19 +3295,19 @@
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="C117" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="F117" s="2" t="s">
         <v>17</v>
@@ -3312,19 +3318,19 @@
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="F118" s="2" t="s">
         <v>10</v>
@@ -3335,22 +3341,22 @@
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="F119" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G119" s="2" t="s">
         <v>30</v>
@@ -3358,19 +3364,19 @@
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="C120" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="F120" s="2" t="s">
         <v>17</v>
@@ -3381,19 +3387,19 @@
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="F121" s="2" t="s">
         <v>10</v>
@@ -3404,22 +3410,22 @@
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="F122" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G122" s="2" t="s">
         <v>30</v>
@@ -3427,22 +3433,22 @@
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="C123" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="F123" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G123" s="2" t="s">
         <v>30</v>
@@ -3450,19 +3456,19 @@
     </row>
     <row r="124">
       <c r="A124" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="C124" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="F124" s="2" t="s">
         <v>17</v>
@@ -3473,19 +3479,19 @@
     </row>
     <row r="125">
       <c r="A125" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="C125" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="F125" s="2" t="s">
         <v>10</v>
@@ -3496,19 +3502,19 @@
     </row>
     <row r="126">
       <c r="A126" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="C126" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="F126" s="2" t="s">
         <v>17</v>
@@ -3519,22 +3525,22 @@
     </row>
     <row r="127">
       <c r="A127" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="C127" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="F127" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G127" s="2" t="s">
         <v>30</v>
@@ -3542,22 +3548,22 @@
     </row>
     <row r="128">
       <c r="A128" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="C128" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="F128" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G128" s="2" t="s">
         <v>30</v>
@@ -3565,19 +3571,19 @@
     </row>
     <row r="129">
       <c r="A129" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="C129" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="F129" s="2" t="s">
         <v>10</v>
@@ -3588,22 +3594,22 @@
     </row>
     <row r="130">
       <c r="A130" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="C130" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="F130" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G130" s="2" t="s">
         <v>30</v>
@@ -3611,22 +3617,22 @@
     </row>
     <row r="131">
       <c r="A131" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="C131" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="F131" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G131" s="2" t="s">
         <v>30</v>
@@ -3634,22 +3640,22 @@
     </row>
     <row r="132">
       <c r="A132" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="C132" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="F132" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G132" s="2" t="s">
         <v>30</v>
@@ -3657,19 +3663,19 @@
     </row>
     <row r="133">
       <c r="A133" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="C133" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E133" s="2" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="F133" s="2" t="s">
         <v>10</v>
@@ -3680,22 +3686,22 @@
     </row>
     <row r="134">
       <c r="A134" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="C134" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E134" s="2" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="F134" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G134" s="2" t="s">
         <v>30</v>
@@ -3706,16 +3712,16 @@
         <v>109</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>42</v>
+        <v>97</v>
       </c>
       <c r="C135" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D135" s="2" t="s">
         <v>110</v>
       </c>
       <c r="E135" s="2" t="s">
-        <v>44</v>
+        <v>98</v>
       </c>
       <c r="F135" s="2" t="s">
         <v>10</v>
@@ -3729,19 +3735,19 @@
         <v>109</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>45</v>
+        <v>99</v>
       </c>
       <c r="C136" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D136" s="2" t="s">
         <v>110</v>
       </c>
       <c r="E136" s="2" t="s">
-        <v>46</v>
+        <v>100</v>
       </c>
       <c r="F136" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G136" s="2" t="s">
         <v>30</v>
@@ -3752,16 +3758,16 @@
         <v>109</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>47</v>
+        <v>101</v>
       </c>
       <c r="C137" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D137" s="2" t="s">
         <v>110</v>
       </c>
       <c r="E137" s="2" t="s">
-        <v>48</v>
+        <v>102</v>
       </c>
       <c r="F137" s="2" t="s">
         <v>10</v>
@@ -3775,19 +3781,19 @@
         <v>109</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>49</v>
+        <v>103</v>
       </c>
       <c r="C138" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D138" s="2" t="s">
         <v>110</v>
       </c>
       <c r="E138" s="2" t="s">
-        <v>50</v>
+        <v>104</v>
       </c>
       <c r="F138" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G138" s="2" t="s">
         <v>30</v>
@@ -3795,19 +3801,19 @@
     </row>
     <row r="139">
       <c r="A139" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="C139" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E139" s="2" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="F139" s="2" t="s">
         <v>10</v>
@@ -3818,19 +3824,19 @@
     </row>
     <row r="140">
       <c r="A140" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="C140" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E140" s="2" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="F140" s="2" t="s">
         <v>10</v>
@@ -3841,19 +3847,19 @@
     </row>
     <row r="141">
       <c r="A141" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="C141" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E141" s="2" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="F141" s="2" t="s">
         <v>10</v>
@@ -3864,19 +3870,19 @@
     </row>
     <row r="142">
       <c r="A142" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="C142" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E142" s="2" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="F142" s="2" t="s">
         <v>10</v>
@@ -3887,19 +3893,19 @@
     </row>
     <row r="143">
       <c r="A143" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="C143" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E143" s="2" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="F143" s="2" t="s">
         <v>10</v>
@@ -3910,19 +3916,19 @@
     </row>
     <row r="144">
       <c r="A144" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="C144" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E144" s="2" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="F144" s="2" t="s">
         <v>10</v>
@@ -3933,19 +3939,19 @@
     </row>
     <row r="145">
       <c r="A145" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="C145" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E145" s="2" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="F145" s="2" t="s">
         <v>10</v>
@@ -3956,19 +3962,19 @@
     </row>
     <row r="146">
       <c r="A146" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="C146" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E146" s="2" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="F146" s="2" t="s">
         <v>10</v>
@@ -3979,19 +3985,19 @@
     </row>
     <row r="147">
       <c r="A147" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="C147" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E147" s="2" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="F147" s="2" t="s">
         <v>10</v>
@@ -4002,19 +4008,19 @@
     </row>
     <row r="148">
       <c r="A148" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="C148" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D148" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E148" s="2" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="F148" s="2" t="s">
         <v>10</v>
@@ -4025,19 +4031,19 @@
     </row>
     <row r="149">
       <c r="A149" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="C149" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D149" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E149" s="2" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="F149" s="2" t="s">
         <v>10</v>
@@ -4048,19 +4054,19 @@
     </row>
     <row r="150">
       <c r="A150" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="C150" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D150" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E150" s="2" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="F150" s="2" t="s">
         <v>10</v>
@@ -4071,19 +4077,19 @@
     </row>
     <row r="151">
       <c r="A151" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="C151" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D151" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E151" s="2" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="F151" s="2" t="s">
         <v>10</v>
@@ -4094,19 +4100,19 @@
     </row>
     <row r="152">
       <c r="A152" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="C152" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D152" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E152" s="2" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="F152" s="2" t="s">
         <v>10</v>
@@ -4117,19 +4123,19 @@
     </row>
     <row r="153">
       <c r="A153" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="C153" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D153" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E153" s="2" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="F153" s="2" t="s">
         <v>10</v>
@@ -4140,19 +4146,19 @@
     </row>
     <row r="154">
       <c r="A154" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="C154" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D154" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E154" s="2" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="F154" s="2" t="s">
         <v>10</v>
@@ -4163,19 +4169,19 @@
     </row>
     <row r="155">
       <c r="A155" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="C155" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D155" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E155" s="2" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="F155" s="2" t="s">
         <v>10</v>
@@ -4186,19 +4192,19 @@
     </row>
     <row r="156">
       <c r="A156" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="C156" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D156" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E156" s="2" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="F156" s="2" t="s">
         <v>10</v>
@@ -4209,19 +4215,19 @@
     </row>
     <row r="157">
       <c r="A157" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="C157" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D157" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E157" s="2" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="F157" s="2" t="s">
         <v>10</v>
@@ -4232,19 +4238,19 @@
     </row>
     <row r="158">
       <c r="A158" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="C158" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D158" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E158" s="2" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="F158" s="2" t="s">
         <v>10</v>
@@ -4255,19 +4261,19 @@
     </row>
     <row r="159">
       <c r="A159" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="C159" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D159" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E159" s="2" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="F159" s="2" t="s">
         <v>10</v>
@@ -4281,16 +4287,16 @@
         <v>111</v>
       </c>
       <c r="B160" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C160" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D160" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="C160" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D160" s="2" t="s">
-        <v>113</v>
-      </c>
       <c r="E160" s="2" t="s">
-        <v>114</v>
+        <v>86</v>
       </c>
       <c r="F160" s="2" t="s">
         <v>10</v>
@@ -4304,16 +4310,16 @@
         <v>111</v>
       </c>
       <c r="B161" s="2" t="s">
-        <v>115</v>
+        <v>87</v>
       </c>
       <c r="C161" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D161" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E161" s="2" t="s">
-        <v>116</v>
+        <v>88</v>
       </c>
       <c r="F161" s="2" t="s">
         <v>10</v>
@@ -4327,16 +4333,16 @@
         <v>111</v>
       </c>
       <c r="B162" s="2" t="s">
-        <v>117</v>
+        <v>89</v>
       </c>
       <c r="C162" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D162" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E162" s="2" t="s">
-        <v>118</v>
+        <v>90</v>
       </c>
       <c r="F162" s="2" t="s">
         <v>10</v>
@@ -4350,16 +4356,16 @@
         <v>111</v>
       </c>
       <c r="B163" s="2" t="s">
-        <v>119</v>
+        <v>91</v>
       </c>
       <c r="C163" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D163" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E163" s="2" t="s">
-        <v>120</v>
+        <v>92</v>
       </c>
       <c r="F163" s="2" t="s">
         <v>10</v>
@@ -4373,16 +4379,16 @@
         <v>111</v>
       </c>
       <c r="B164" s="2" t="s">
-        <v>121</v>
+        <v>93</v>
       </c>
       <c r="C164" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D164" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E164" s="2" t="s">
-        <v>122</v>
+        <v>94</v>
       </c>
       <c r="F164" s="2" t="s">
         <v>10</v>
@@ -4393,19 +4399,19 @@
     </row>
     <row r="165">
       <c r="A165" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B165" s="2" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
       <c r="C165" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D165" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E165" s="2" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="F165" s="2" t="s">
         <v>10</v>
@@ -4416,19 +4422,19 @@
     </row>
     <row r="166">
       <c r="A166" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B166" s="2" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="C166" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D166" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E166" s="2" t="s">
-        <v>29</v>
+        <v>118</v>
       </c>
       <c r="F166" s="2" t="s">
         <v>10</v>
@@ -4439,19 +4445,19 @@
     </row>
     <row r="167">
       <c r="A167" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B167" s="2" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="C167" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D167" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E167" s="2" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="F167" s="2" t="s">
         <v>10</v>
@@ -4462,19 +4468,19 @@
     </row>
     <row r="168">
       <c r="A168" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B168" s="2" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="C168" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D168" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E168" s="2" t="s">
-        <v>32</v>
+        <v>122</v>
       </c>
       <c r="F168" s="2" t="s">
         <v>10</v>
@@ -4485,19 +4491,19 @@
     </row>
     <row r="169">
       <c r="A169" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B169" s="2" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="C169" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D169" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E169" s="2" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="F169" s="2" t="s">
         <v>10</v>
@@ -4508,19 +4514,19 @@
     </row>
     <row r="170">
       <c r="A170" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B170" s="2" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="C170" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D170" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E170" s="2" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="F170" s="2" t="s">
         <v>10</v>
@@ -4531,19 +4537,19 @@
     </row>
     <row r="171">
       <c r="A171" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B171" s="2" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="C171" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D171" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E171" s="2" t="s">
-        <v>134</v>
+        <v>29</v>
       </c>
       <c r="F171" s="2" t="s">
         <v>10</v>
@@ -4554,1312 +4560,1450 @@
     </row>
     <row r="172">
       <c r="A172" s="2" t="s">
-        <v>135</v>
+        <v>113</v>
       </c>
       <c r="B172" s="2" t="s">
-        <v>112</v>
+        <v>128</v>
       </c>
       <c r="C172" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D172" s="2" t="s">
-        <v>136</v>
+        <v>115</v>
       </c>
       <c r="E172" s="2" t="s">
-        <v>114</v>
+        <v>129</v>
       </c>
       <c r="F172" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G172" s="2" t="s">
-        <v>137</v>
+        <v>30</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" s="2" t="s">
-        <v>135</v>
+        <v>113</v>
       </c>
       <c r="B173" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="C173" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D173" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="C173" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D173" s="2" t="s">
-        <v>136</v>
-      </c>
       <c r="E173" s="2" t="s">
-        <v>116</v>
+        <v>32</v>
       </c>
       <c r="F173" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G173" s="2" t="s">
-        <v>137</v>
+        <v>30</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" s="2" t="s">
-        <v>135</v>
+        <v>113</v>
       </c>
       <c r="B174" s="2" t="s">
-        <v>117</v>
+        <v>131</v>
       </c>
       <c r="C174" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D174" s="2" t="s">
-        <v>136</v>
+        <v>115</v>
       </c>
       <c r="E174" s="2" t="s">
-        <v>118</v>
+        <v>132</v>
       </c>
       <c r="F174" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G174" s="2" t="s">
-        <v>137</v>
+        <v>30</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" s="2" t="s">
-        <v>135</v>
+        <v>113</v>
       </c>
       <c r="B175" s="2" t="s">
-        <v>119</v>
+        <v>133</v>
       </c>
       <c r="C175" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D175" s="2" t="s">
-        <v>136</v>
+        <v>115</v>
       </c>
       <c r="E175" s="2" t="s">
-        <v>120</v>
+        <v>134</v>
       </c>
       <c r="F175" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G175" s="2" t="s">
-        <v>137</v>
+        <v>30</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="B176" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="B176" s="2" t="s">
-        <v>121</v>
-      </c>
       <c r="C176" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D176" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="E176" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="E176" s="2" t="s">
-        <v>122</v>
-      </c>
       <c r="F176" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G176" s="2" t="s">
-        <v>137</v>
+        <v>30</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B177" s="2" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
       <c r="C177" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D177" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="E177" s="2" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="F177" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G177" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B178" s="2" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="C178" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D178" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="E178" s="2" t="s">
-        <v>29</v>
+        <v>118</v>
       </c>
       <c r="F178" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G178" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B179" s="2" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="C179" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D179" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="E179" s="2" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="F179" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G179" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B180" s="2" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="C180" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D180" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="E180" s="2" t="s">
-        <v>32</v>
+        <v>122</v>
       </c>
       <c r="F180" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G180" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B181" s="2" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="C181" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D181" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="E181" s="2" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="F181" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G181" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B182" s="2" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="C182" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D182" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="E182" s="2" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="F182" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G182" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B183" s="2" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="C183" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D183" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="E183" s="2" t="s">
-        <v>134</v>
+        <v>29</v>
       </c>
       <c r="F183" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G183" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B184" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="C184" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D184" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="C184" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D184" s="2" t="s">
+      <c r="E184" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="F184" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G184" s="2" t="s">
         <v>139</v>
-      </c>
-      <c r="E184" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="F184" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="G184" s="2" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B185" s="2" t="s">
-        <v>142</v>
+        <v>130</v>
       </c>
       <c r="C185" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D185" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="E185" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F185" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G185" s="2" t="s">
         <v>139</v>
-      </c>
-      <c r="E185" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="F185" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="G185" s="2" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B186" s="2" t="s">
-        <v>144</v>
+        <v>131</v>
       </c>
       <c r="C186" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D186" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E186" s="2" t="s">
-        <v>145</v>
+        <v>132</v>
       </c>
       <c r="F186" s="2" t="s">
         <v>17</v>
       </c>
       <c r="G186" s="2" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B187" s="2" t="s">
-        <v>146</v>
+        <v>133</v>
       </c>
       <c r="C187" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D187" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="E187" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="F187" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G187" s="2" t="s">
         <v>139</v>
-      </c>
-      <c r="E187" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="F187" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G187" s="2" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="B188" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="B188" s="2" t="s">
-        <v>148</v>
-      </c>
       <c r="C188" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D188" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E188" s="2" t="s">
-        <v>149</v>
+        <v>136</v>
       </c>
       <c r="F188" s="2" t="s">
         <v>17</v>
       </c>
       <c r="G188" s="2" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B189" s="2" t="s">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="C189" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D189" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="E189" s="2" t="s">
-        <v>151</v>
+        <v>142</v>
       </c>
       <c r="F189" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G189" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B190" s="2" t="s">
-        <v>152</v>
+        <v>144</v>
       </c>
       <c r="C190" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D190" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="E190" s="2" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
       <c r="F190" s="2" t="s">
         <v>17</v>
       </c>
       <c r="G190" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" s="2" t="s">
-        <v>154</v>
+        <v>137</v>
       </c>
       <c r="B191" s="2" t="s">
-        <v>138</v>
+        <v>146</v>
       </c>
       <c r="C191" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D191" s="2" t="s">
-        <v>155</v>
+        <v>141</v>
       </c>
       <c r="E191" s="2" t="s">
-        <v>140</v>
+        <v>147</v>
       </c>
       <c r="F191" s="2" t="s">
         <v>17</v>
       </c>
       <c r="G191" s="2" t="s">
-        <v>156</v>
+        <v>143</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" s="2" t="s">
-        <v>154</v>
+        <v>137</v>
       </c>
       <c r="B192" s="2" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
       <c r="C192" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D192" s="2" t="s">
-        <v>155</v>
+        <v>141</v>
       </c>
       <c r="E192" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="F192" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G192" s="2" t="s">
         <v>143</v>
-      </c>
-      <c r="F192" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="G192" s="2" t="s">
-        <v>156</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" s="2" t="s">
-        <v>154</v>
+        <v>137</v>
       </c>
       <c r="B193" s="2" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="C193" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D193" s="2" t="s">
-        <v>155</v>
+        <v>141</v>
       </c>
       <c r="E193" s="2" t="s">
-        <v>145</v>
+        <v>151</v>
       </c>
       <c r="F193" s="2" t="s">
         <v>17</v>
       </c>
       <c r="G193" s="2" t="s">
-        <v>156</v>
+        <v>143</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" s="2" t="s">
-        <v>154</v>
+        <v>137</v>
       </c>
       <c r="B194" s="2" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="C194" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D194" s="2" t="s">
-        <v>155</v>
+        <v>141</v>
       </c>
       <c r="E194" s="2" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="F194" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G194" s="2" t="s">
-        <v>156</v>
+        <v>143</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="B195" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="B195" s="2" t="s">
-        <v>148</v>
-      </c>
       <c r="C195" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D195" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="E195" s="2" t="s">
         <v>155</v>
-      </c>
-      <c r="E195" s="2" t="s">
-        <v>149</v>
       </c>
       <c r="F195" s="2" t="s">
         <v>17</v>
       </c>
       <c r="G195" s="2" t="s">
-        <v>156</v>
+        <v>143</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" s="2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="B196" s="2" t="s">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="C196" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D196" s="2" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="E196" s="2" t="s">
-        <v>151</v>
+        <v>142</v>
       </c>
       <c r="F196" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G196" s="2" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" s="2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="B197" s="2" t="s">
-        <v>152</v>
+        <v>144</v>
       </c>
       <c r="C197" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D197" s="2" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="E197" s="2" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
       <c r="F197" s="2" t="s">
         <v>17</v>
       </c>
       <c r="G197" s="2" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="B198" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="C198" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D198" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="B198" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="C198" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D198" s="2" t="s">
+      <c r="E198" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="F198" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G198" s="2" t="s">
         <v>158</v>
-      </c>
-      <c r="E198" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="F198" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="G198" s="2" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="B199" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="C199" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D199" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="B199" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="C199" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D199" s="2" t="s">
+      <c r="E199" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="F199" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G199" s="2" t="s">
         <v>158</v>
-      </c>
-      <c r="E199" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="F199" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G199" s="2" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="B200" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="C200" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D200" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="B200" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="C200" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D200" s="2" t="s">
+      <c r="E200" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="F200" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G200" s="2" t="s">
         <v>158</v>
-      </c>
-      <c r="E200" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="F200" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G200" s="2" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="B201" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="C201" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D201" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="B201" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="C201" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D201" s="2" t="s">
+      <c r="E201" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="F201" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G201" s="2" t="s">
         <v>158</v>
-      </c>
-      <c r="E201" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="F201" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G201" s="2" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="B202" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="C202" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D202" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="B202" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="C202" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D202" s="2" t="s">
+      <c r="E202" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="F202" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G202" s="2" t="s">
         <v>158</v>
-      </c>
-      <c r="E202" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="F202" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G202" s="2" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="B203" s="2" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="C203" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D203" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="E203" s="2" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="F203" s="2" t="s">
-        <v>10</v>
+        <v>161</v>
       </c>
       <c r="G203" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="B204" s="2" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="C204" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D204" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="E204" s="2" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="F204" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G204" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="B205" s="2" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="C205" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D205" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="E205" s="2" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="F205" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G205" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="B206" s="2" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="C206" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D206" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="E206" s="2" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="F206" s="2" t="s">
-        <v>159</v>
+        <v>10</v>
       </c>
       <c r="G206" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="B207" s="2" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="C207" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D207" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="E207" s="2" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="F207" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G207" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="B208" s="2" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="C208" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D208" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="E208" s="2" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="F208" s="2" t="s">
-        <v>159</v>
+        <v>10</v>
       </c>
       <c r="G208" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="B209" s="2" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="C209" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D209" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="E209" s="2" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="F209" s="2" t="s">
-        <v>159</v>
+        <v>10</v>
       </c>
       <c r="G209" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="B210" s="2" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="C210" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D210" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="E210" s="2" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="F210" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G210" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="B211" s="2" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="C211" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D211" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="E211" s="2" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="F211" s="2" t="s">
-        <v>10</v>
+        <v>161</v>
       </c>
       <c r="G211" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="B212" s="2" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="C212" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D212" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="E212" s="2" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="F212" s="2" t="s">
-        <v>159</v>
+        <v>10</v>
       </c>
       <c r="G212" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="B213" s="2" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="C213" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D213" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="E213" s="2" t="s">
-        <v>74</v>
+        <v>64</v>
       </c>
       <c r="F213" s="2" t="s">
-        <v>10</v>
+        <v>161</v>
       </c>
       <c r="G213" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="B214" s="2" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="C214" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D214" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="E214" s="2" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="F214" s="2" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="G214" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="B215" s="2" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="C215" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D215" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="E215" s="2" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="F215" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G215" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="B216" s="2" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="C216" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D216" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="E216" s="2" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="F216" s="2" t="s">
-        <v>159</v>
+        <v>10</v>
       </c>
       <c r="G216" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="B217" s="2" t="s">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="C217" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D217" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="E217" s="2" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="F217" s="2" t="s">
-        <v>10</v>
+        <v>161</v>
       </c>
       <c r="G217" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="B218" s="2" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="C218" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D218" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="E218" s="2" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="F218" s="2" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="G218" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="B219" s="2" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="C219" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D219" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="E219" s="2" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="F219" s="2" t="s">
-        <v>159</v>
+        <v>10</v>
       </c>
       <c r="G219" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="B220" s="2" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="C220" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D220" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="E220" s="2" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="F220" s="2" t="s">
-        <v>10</v>
+        <v>161</v>
       </c>
       <c r="G220" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="B221" s="2" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="C221" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D221" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="E221" s="2" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="F221" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G221" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="B222" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C222" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D222" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="E222" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="F222" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="C222" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D222" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="E222" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="F222" s="2" t="s">
-        <v>10</v>
-      </c>
       <c r="G222" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="B223" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C223" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D223" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="E223" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="F223" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G223" s="2" t="s">
         <v>162</v>
-      </c>
-      <c r="B223" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="C223" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D223" s="2" t="s">
-        <v>164</v>
-      </c>
-      <c r="E223" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="F223" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G223" s="2" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="B224" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C224" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D224" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="E224" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="F224" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="G224" s="2" t="s">
         <v>162</v>
-      </c>
-      <c r="B224" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="C224" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D224" s="2" t="s">
-        <v>164</v>
-      </c>
-      <c r="E224" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="F224" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G224" s="2" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="B225" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C225" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D225" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="E225" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="F225" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="G225" s="2" t="s">
         <v>162</v>
-      </c>
-      <c r="B225" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="C225" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D225" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="E225" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="F225" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G225" s="2" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="B226" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C226" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D226" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="E226" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="F226" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G226" s="2" t="s">
         <v>162</v>
-      </c>
-      <c r="B226" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="C226" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D226" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="E226" s="2" t="s">
-        <v>172</v>
-      </c>
-      <c r="F226" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G226" s="2" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="B227" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C227" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D227" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="E227" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="F227" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G227" s="2" t="s">
         <v>162</v>
-      </c>
-      <c r="B227" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="C227" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D227" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="E227" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="F227" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G227" s="2" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="B228" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="C228" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D228" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="E228" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="F228" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G228" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="B228" s="2" t="s">
+    </row>
+    <row r="229">
+      <c r="A229" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="B229" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="C229" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D229" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="E229" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="F229" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G229" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="B230" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="C230" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D230" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="E230" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="F230" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G230" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="B231" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="C231" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D231" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E231" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="F231" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G231" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="B232" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="C232" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D232" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="E232" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="F232" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G232" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="B233" s="2" t="s">
         <v>175</v>
       </c>
-      <c r="C228" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D228" s="2" t="s">
+      <c r="C233" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D233" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="E233" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="E228" s="2" t="s">
+      <c r="F233" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G233" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="B234" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="F228" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G228" s="2" t="s">
+      <c r="C234" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D234" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="E234" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="F234" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G234" s="2" t="s">
         <v>30</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/riconoscimenti/Rico_010.xlsx
+++ b/docs/Mapping_casi_uso/riconoscimenti/Rico_010.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1638" uniqueCount="180">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1652" uniqueCount="182">
   <si>
     <t>Sezione</t>
   </si>
@@ -417,6 +417,12 @@
   </si>
   <si>
     <t>serie</t>
+  </si>
+  <si>
+    <t>Volume</t>
+  </si>
+  <si>
+    <t>volume</t>
   </si>
   <si>
     <t>Tipo registro</t>
@@ -610,7 +616,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H234"/>
+  <dimension ref="A1:H236"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -4658,7 +4664,7 @@
         <v>135</v>
       </c>
       <c r="C176" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D176" s="2" t="s">
         <v>115</v>
@@ -4675,1261 +4681,1261 @@
     </row>
     <row r="177">
       <c r="A177" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="B177" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="B177" s="2" t="s">
-        <v>114</v>
-      </c>
       <c r="C177" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D177" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="E177" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="E177" s="2" t="s">
-        <v>116</v>
-      </c>
       <c r="F177" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G177" s="2" t="s">
-        <v>139</v>
+        <v>30</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="B178" s="2" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="C178" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D178" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="E178" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="F178" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G178" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="B179" s="2" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C179" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D179" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="E179" s="2" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="F179" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G179" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="B180" s="2" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C180" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D180" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="E180" s="2" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="F180" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G180" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="B181" s="2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C181" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D181" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="E181" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="F181" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G181" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="B182" s="2" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C182" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D182" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="E182" s="2" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="F182" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G182" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="B183" s="2" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C183" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D183" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="E183" s="2" t="s">
-        <v>29</v>
+        <v>126</v>
       </c>
       <c r="F183" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G183" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="B184" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C184" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D184" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="E184" s="2" t="s">
-        <v>129</v>
+        <v>29</v>
       </c>
       <c r="F184" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G184" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="B185" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C185" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D185" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="E185" s="2" t="s">
-        <v>32</v>
+        <v>129</v>
       </c>
       <c r="F185" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G185" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="B186" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C186" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D186" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="E186" s="2" t="s">
-        <v>132</v>
+        <v>32</v>
       </c>
       <c r="F186" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G186" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="B187" s="2" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C187" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D187" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="E187" s="2" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="F187" s="2" t="s">
         <v>17</v>
       </c>
       <c r="G187" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="B188" s="2" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C188" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D188" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="E188" s="2" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="F188" s="2" t="s">
         <v>17</v>
       </c>
       <c r="G188" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="B189" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="C189" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D189" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="C189" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D189" s="2" t="s">
-        <v>141</v>
-      </c>
       <c r="E189" s="2" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="F189" s="2" t="s">
         <v>17</v>
       </c>
       <c r="G189" s="2" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="B190" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="B190" s="2" t="s">
-        <v>144</v>
-      </c>
       <c r="C190" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D190" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E190" s="2" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="F190" s="2" t="s">
         <v>17</v>
       </c>
       <c r="G190" s="2" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="B191" s="2" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="C191" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D191" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="E191" s="2" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="F191" s="2" t="s">
         <v>17</v>
       </c>
       <c r="G191" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="B192" s="2" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C192" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D192" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="E192" s="2" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="F192" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G192" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="B193" s="2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C193" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D193" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="E193" s="2" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="F193" s="2" t="s">
         <v>17</v>
       </c>
       <c r="G193" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="B194" s="2" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C194" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D194" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="E194" s="2" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="F194" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G194" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="B195" s="2" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C195" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D195" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="E195" s="2" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="F195" s="2" t="s">
         <v>17</v>
       </c>
       <c r="G195" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" s="2" t="s">
-        <v>156</v>
+        <v>139</v>
       </c>
       <c r="B196" s="2" t="s">
-        <v>140</v>
+        <v>154</v>
       </c>
       <c r="C196" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D196" s="2" t="s">
-        <v>157</v>
+        <v>143</v>
       </c>
       <c r="E196" s="2" t="s">
-        <v>142</v>
+        <v>155</v>
       </c>
       <c r="F196" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G196" s="2" t="s">
-        <v>158</v>
+        <v>145</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="B197" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="B197" s="2" t="s">
-        <v>144</v>
-      </c>
       <c r="C197" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D197" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="E197" s="2" t="s">
         <v>157</v>
-      </c>
-      <c r="E197" s="2" t="s">
-        <v>145</v>
       </c>
       <c r="F197" s="2" t="s">
         <v>17</v>
       </c>
       <c r="G197" s="2" t="s">
-        <v>158</v>
+        <v>145</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" s="2" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="B198" s="2" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="C198" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D198" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="E198" s="2" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="F198" s="2" t="s">
         <v>17</v>
       </c>
       <c r="G198" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" s="2" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="B199" s="2" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C199" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D199" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="E199" s="2" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="F199" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G199" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" s="2" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="B200" s="2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C200" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D200" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="E200" s="2" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="F200" s="2" t="s">
         <v>17</v>
       </c>
       <c r="G200" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" s="2" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="B201" s="2" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C201" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D201" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="E201" s="2" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="F201" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G201" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" s="2" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="B202" s="2" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C202" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D202" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="E202" s="2" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="F202" s="2" t="s">
         <v>17</v>
       </c>
       <c r="G202" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="B203" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="C203" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D203" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="B203" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="C203" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D203" s="2" t="s">
+      <c r="E203" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="F203" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G203" s="2" t="s">
         <v>160</v>
-      </c>
-      <c r="E203" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="F203" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="G203" s="2" t="s">
-        <v>162</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="B204" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="C204" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D204" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="B204" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="C204" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D204" s="2" t="s">
+      <c r="E204" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="F204" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G204" s="2" t="s">
         <v>160</v>
-      </c>
-      <c r="E204" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="F204" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G204" s="2" t="s">
-        <v>162</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" s="2" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="B205" s="2" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="C205" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D205" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="E205" s="2" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="F205" s="2" t="s">
-        <v>10</v>
+        <v>163</v>
       </c>
       <c r="G205" s="2" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" s="2" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="B206" s="2" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="C206" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D206" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="E206" s="2" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="F206" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G206" s="2" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" s="2" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="B207" s="2" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="C207" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D207" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="E207" s="2" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="F207" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G207" s="2" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" s="2" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="B208" s="2" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C208" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D208" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="E208" s="2" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="F208" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G208" s="2" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" s="2" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="B209" s="2" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="C209" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D209" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="E209" s="2" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="F209" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G209" s="2" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" s="2" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="B210" s="2" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="C210" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D210" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="E210" s="2" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="F210" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G210" s="2" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" s="2" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="B211" s="2" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C211" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D211" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="E211" s="2" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="F211" s="2" t="s">
-        <v>161</v>
+        <v>10</v>
       </c>
       <c r="G211" s="2" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" s="2" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="B212" s="2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="C212" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D212" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="E212" s="2" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="F212" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G212" s="2" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" s="2" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="B213" s="2" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="C213" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D213" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="E213" s="2" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="F213" s="2" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="G213" s="2" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" s="2" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="B214" s="2" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="C214" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D214" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="E214" s="2" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="F214" s="2" t="s">
-        <v>161</v>
+        <v>10</v>
       </c>
       <c r="G214" s="2" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" s="2" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="B215" s="2" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="C215" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D215" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="E215" s="2" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="F215" s="2" t="s">
-        <v>10</v>
+        <v>163</v>
       </c>
       <c r="G215" s="2" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" s="2" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="B216" s="2" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="C216" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D216" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="E216" s="2" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="F216" s="2" t="s">
-        <v>10</v>
+        <v>163</v>
       </c>
       <c r="G216" s="2" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" s="2" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="B217" s="2" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="C217" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D217" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="E217" s="2" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="F217" s="2" t="s">
-        <v>161</v>
+        <v>10</v>
       </c>
       <c r="G217" s="2" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" s="2" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="B218" s="2" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="C218" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D218" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="E218" s="2" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="F218" s="2" t="s">
-        <v>161</v>
+        <v>10</v>
       </c>
       <c r="G218" s="2" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" s="2" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="B219" s="2" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="C219" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D219" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="E219" s="2" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="F219" s="2" t="s">
-        <v>10</v>
+        <v>163</v>
       </c>
       <c r="G219" s="2" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" s="2" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="B220" s="2" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="C220" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D220" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="E220" s="2" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="F220" s="2" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="G220" s="2" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" s="2" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="B221" s="2" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="C221" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D221" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="E221" s="2" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="F221" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G221" s="2" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" s="2" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="B222" s="2" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="C222" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D222" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="E222" s="2" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="F222" s="2" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="G222" s="2" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" s="2" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="B223" s="2" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="C223" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D223" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="E223" s="2" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="F223" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G223" s="2" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" s="2" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="B224" s="2" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="C224" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D224" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="E224" s="2" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="F224" s="2" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="G224" s="2" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" s="2" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="B225" s="2" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="C225" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D225" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="E225" s="2" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="F225" s="2" t="s">
-        <v>161</v>
+        <v>10</v>
       </c>
       <c r="G225" s="2" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" s="2" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="B226" s="2" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="C226" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D226" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="E226" s="2" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="F226" s="2" t="s">
-        <v>10</v>
+        <v>163</v>
       </c>
       <c r="G226" s="2" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" s="2" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="B227" s="2" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="C227" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D227" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="E227" s="2" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="F227" s="2" t="s">
-        <v>10</v>
+        <v>163</v>
       </c>
       <c r="G227" s="2" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" s="2" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="B228" s="2" t="s">
-        <v>163</v>
+        <v>89</v>
       </c>
       <c r="C228" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D228" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="E228" s="2" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="F228" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G228" s="2" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="B229" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C229" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D229" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="E229" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="F229" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G229" s="2" t="s">
         <v>164</v>
-      </c>
-      <c r="B229" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="C229" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D229" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="E229" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="F229" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G229" s="2" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="B230" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="C230" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D230" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="E230" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="F230" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G230" s="2" t="s">
         <v>164</v>
-      </c>
-      <c r="B230" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="C230" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D230" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="E230" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="F230" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G230" s="2" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="B231" s="2" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="C231" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D231" s="2" t="s">
-        <v>28</v>
+        <v>168</v>
       </c>
       <c r="E231" s="2" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="F231" s="2" t="s">
         <v>10</v>
@@ -5940,22 +5946,22 @@
     </row>
     <row r="232">
       <c r="A232" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="B232" s="2" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C232" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D232" s="2" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="E232" s="2" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="F232" s="2" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G232" s="2" t="s">
         <v>30</v>
@@ -5963,19 +5969,19 @@
     </row>
     <row r="233">
       <c r="A233" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="B233" s="2" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="C233" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D233" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E233" s="2" t="s">
         <v>173</v>
-      </c>
-      <c r="E233" s="2" t="s">
-        <v>176</v>
       </c>
       <c r="F233" s="2" t="s">
         <v>10</v>
@@ -5986,24 +5992,70 @@
     </row>
     <row r="234">
       <c r="A234" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="B234" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="C234" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D234" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="E234" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="F234" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G234" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="B235" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="C234" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D234" s="2" t="s">
+      <c r="C235" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D235" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="E235" s="2" t="s">
         <v>178</v>
       </c>
-      <c r="E234" s="2" t="s">
+      <c r="F235" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G235" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="B236" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="F234" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G234" s="2" t="s">
+      <c r="C236" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D236" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="E236" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="F236" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G236" s="2" t="s">
         <v>30</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/riconoscimenti/Rico_010.xlsx
+++ b/docs/Mapping_casi_uso/riconoscimenti/Rico_010.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1652" uniqueCount="182">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1470" uniqueCount="180">
   <si>
     <t>Sezione</t>
   </si>
@@ -345,12 +345,6 @@
   </si>
   <si>
     <t>evento.intestatari[0]</t>
-  </si>
-  <si>
-    <t>Dati Riconoscimento - Generalità discendenti</t>
-  </si>
-  <si>
-    <t>evento.datiEventoRiconoscimento.discendenti[0]</t>
   </si>
   <si>
     <t>Atto Nascita Figlio</t>
@@ -616,16 +610,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H236"/>
+  <dimension ref="A1:H210"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="41.359375" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="20.2421875" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="82.625" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="12.5625" customWidth="true" bestFit="true"/>
-    <col min="4" max="4" width="45.16796875" customWidth="true" bestFit="true"/>
+    <col min="4" max="4" width="42.60546875" customWidth="true" bestFit="true"/>
     <col min="5" max="5" width="30.5234375" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="27.3203125" customWidth="true" bestFit="true"/>
     <col min="7" max="7" width="95.2421875" customWidth="true" bestFit="true"/>
@@ -3810,16 +3804,16 @@
         <v>111</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>42</v>
+        <v>112</v>
       </c>
       <c r="C139" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E139" s="2" t="s">
-        <v>44</v>
+        <v>114</v>
       </c>
       <c r="F139" s="2" t="s">
         <v>10</v>
@@ -3833,16 +3827,16 @@
         <v>111</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>45</v>
+        <v>115</v>
       </c>
       <c r="C140" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E140" s="2" t="s">
-        <v>46</v>
+        <v>116</v>
       </c>
       <c r="F140" s="2" t="s">
         <v>10</v>
@@ -3856,16 +3850,16 @@
         <v>111</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>47</v>
+        <v>117</v>
       </c>
       <c r="C141" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E141" s="2" t="s">
-        <v>48</v>
+        <v>118</v>
       </c>
       <c r="F141" s="2" t="s">
         <v>10</v>
@@ -3879,16 +3873,16 @@
         <v>111</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>49</v>
+        <v>119</v>
       </c>
       <c r="C142" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E142" s="2" t="s">
-        <v>50</v>
+        <v>120</v>
       </c>
       <c r="F142" s="2" t="s">
         <v>10</v>
@@ -3902,16 +3896,16 @@
         <v>111</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>51</v>
+        <v>121</v>
       </c>
       <c r="C143" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E143" s="2" t="s">
-        <v>52</v>
+        <v>122</v>
       </c>
       <c r="F143" s="2" t="s">
         <v>10</v>
@@ -3925,16 +3919,16 @@
         <v>111</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>53</v>
+        <v>123</v>
       </c>
       <c r="C144" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E144" s="2" t="s">
-        <v>54</v>
+        <v>124</v>
       </c>
       <c r="F144" s="2" t="s">
         <v>10</v>
@@ -3948,16 +3942,16 @@
         <v>111</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>55</v>
+        <v>125</v>
       </c>
       <c r="C145" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E145" s="2" t="s">
-        <v>56</v>
+        <v>29</v>
       </c>
       <c r="F145" s="2" t="s">
         <v>10</v>
@@ -3971,16 +3965,16 @@
         <v>111</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>57</v>
+        <v>126</v>
       </c>
       <c r="C146" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E146" s="2" t="s">
-        <v>58</v>
+        <v>127</v>
       </c>
       <c r="F146" s="2" t="s">
         <v>10</v>
@@ -3994,16 +3988,16 @@
         <v>111</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>59</v>
+        <v>128</v>
       </c>
       <c r="C147" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E147" s="2" t="s">
-        <v>60</v>
+        <v>32</v>
       </c>
       <c r="F147" s="2" t="s">
         <v>10</v>
@@ -4017,16 +4011,16 @@
         <v>111</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>61</v>
+        <v>129</v>
       </c>
       <c r="C148" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D148" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E148" s="2" t="s">
-        <v>62</v>
+        <v>130</v>
       </c>
       <c r="F148" s="2" t="s">
         <v>10</v>
@@ -4040,16 +4034,16 @@
         <v>111</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>63</v>
+        <v>131</v>
       </c>
       <c r="C149" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D149" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E149" s="2" t="s">
-        <v>64</v>
+        <v>132</v>
       </c>
       <c r="F149" s="2" t="s">
         <v>10</v>
@@ -4063,16 +4057,16 @@
         <v>111</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>65</v>
+        <v>133</v>
       </c>
       <c r="C150" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D150" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E150" s="2" t="s">
-        <v>66</v>
+        <v>134</v>
       </c>
       <c r="F150" s="2" t="s">
         <v>10</v>
@@ -4086,16 +4080,16 @@
         <v>111</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>67</v>
+        <v>135</v>
       </c>
       <c r="C151" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D151" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E151" s="2" t="s">
-        <v>68</v>
+        <v>136</v>
       </c>
       <c r="F151" s="2" t="s">
         <v>10</v>
@@ -4106,1956 +4100,1358 @@
     </row>
     <row r="152">
       <c r="A152" s="2" t="s">
-        <v>111</v>
+        <v>137</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>69</v>
+        <v>112</v>
       </c>
       <c r="C152" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D152" s="2" t="s">
-        <v>112</v>
+        <v>138</v>
       </c>
       <c r="E152" s="2" t="s">
-        <v>70</v>
+        <v>114</v>
       </c>
       <c r="F152" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G152" s="2" t="s">
-        <v>30</v>
+        <v>139</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="2" t="s">
-        <v>111</v>
+        <v>137</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>71</v>
+        <v>115</v>
       </c>
       <c r="C153" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D153" s="2" t="s">
-        <v>112</v>
+        <v>138</v>
       </c>
       <c r="E153" s="2" t="s">
-        <v>72</v>
+        <v>116</v>
       </c>
       <c r="F153" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G153" s="2" t="s">
-        <v>30</v>
+        <v>139</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="2" t="s">
-        <v>111</v>
+        <v>137</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>73</v>
+        <v>117</v>
       </c>
       <c r="C154" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D154" s="2" t="s">
-        <v>112</v>
+        <v>138</v>
       </c>
       <c r="E154" s="2" t="s">
-        <v>74</v>
+        <v>118</v>
       </c>
       <c r="F154" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G154" s="2" t="s">
-        <v>30</v>
+        <v>139</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="2" t="s">
-        <v>111</v>
+        <v>137</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>75</v>
+        <v>119</v>
       </c>
       <c r="C155" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D155" s="2" t="s">
-        <v>112</v>
+        <v>138</v>
       </c>
       <c r="E155" s="2" t="s">
-        <v>76</v>
+        <v>120</v>
       </c>
       <c r="F155" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G155" s="2" t="s">
-        <v>30</v>
+        <v>139</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="2" t="s">
-        <v>111</v>
+        <v>137</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>77</v>
+        <v>121</v>
       </c>
       <c r="C156" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D156" s="2" t="s">
-        <v>112</v>
+        <v>138</v>
       </c>
       <c r="E156" s="2" t="s">
-        <v>78</v>
+        <v>122</v>
       </c>
       <c r="F156" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G156" s="2" t="s">
-        <v>30</v>
+        <v>139</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="2" t="s">
-        <v>111</v>
+        <v>137</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>79</v>
+        <v>123</v>
       </c>
       <c r="C157" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D157" s="2" t="s">
-        <v>112</v>
+        <v>138</v>
       </c>
       <c r="E157" s="2" t="s">
-        <v>80</v>
+        <v>124</v>
       </c>
       <c r="F157" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G157" s="2" t="s">
-        <v>30</v>
+        <v>139</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="2" t="s">
-        <v>111</v>
+        <v>137</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>81</v>
+        <v>125</v>
       </c>
       <c r="C158" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D158" s="2" t="s">
-        <v>112</v>
+        <v>138</v>
       </c>
       <c r="E158" s="2" t="s">
-        <v>82</v>
+        <v>29</v>
       </c>
       <c r="F158" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G158" s="2" t="s">
-        <v>30</v>
+        <v>139</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="2" t="s">
-        <v>111</v>
+        <v>137</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>83</v>
+        <v>126</v>
       </c>
       <c r="C159" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D159" s="2" t="s">
-        <v>112</v>
+        <v>138</v>
       </c>
       <c r="E159" s="2" t="s">
-        <v>84</v>
+        <v>127</v>
       </c>
       <c r="F159" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G159" s="2" t="s">
-        <v>30</v>
+        <v>139</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" s="2" t="s">
-        <v>111</v>
+        <v>137</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>85</v>
+        <v>128</v>
       </c>
       <c r="C160" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D160" s="2" t="s">
-        <v>112</v>
+        <v>138</v>
       </c>
       <c r="E160" s="2" t="s">
-        <v>86</v>
+        <v>32</v>
       </c>
       <c r="F160" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G160" s="2" t="s">
-        <v>30</v>
+        <v>139</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="2" t="s">
-        <v>111</v>
+        <v>137</v>
       </c>
       <c r="B161" s="2" t="s">
-        <v>87</v>
+        <v>129</v>
       </c>
       <c r="C161" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D161" s="2" t="s">
-        <v>112</v>
+        <v>138</v>
       </c>
       <c r="E161" s="2" t="s">
-        <v>88</v>
+        <v>130</v>
       </c>
       <c r="F161" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G161" s="2" t="s">
-        <v>30</v>
+        <v>139</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" s="2" t="s">
-        <v>111</v>
+        <v>137</v>
       </c>
       <c r="B162" s="2" t="s">
-        <v>89</v>
+        <v>131</v>
       </c>
       <c r="C162" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D162" s="2" t="s">
-        <v>112</v>
+        <v>138</v>
       </c>
       <c r="E162" s="2" t="s">
-        <v>90</v>
+        <v>132</v>
       </c>
       <c r="F162" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G162" s="2" t="s">
-        <v>30</v>
+        <v>139</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" s="2" t="s">
-        <v>111</v>
+        <v>137</v>
       </c>
       <c r="B163" s="2" t="s">
-        <v>91</v>
+        <v>133</v>
       </c>
       <c r="C163" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D163" s="2" t="s">
-        <v>112</v>
+        <v>138</v>
       </c>
       <c r="E163" s="2" t="s">
-        <v>92</v>
+        <v>134</v>
       </c>
       <c r="F163" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G163" s="2" t="s">
-        <v>30</v>
+        <v>139</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" s="2" t="s">
-        <v>111</v>
+        <v>137</v>
       </c>
       <c r="B164" s="2" t="s">
-        <v>93</v>
+        <v>135</v>
       </c>
       <c r="C164" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D164" s="2" t="s">
-        <v>112</v>
+        <v>138</v>
       </c>
       <c r="E164" s="2" t="s">
-        <v>94</v>
+        <v>136</v>
       </c>
       <c r="F164" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G164" s="2" t="s">
-        <v>30</v>
+        <v>139</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" s="2" t="s">
-        <v>113</v>
+        <v>137</v>
       </c>
       <c r="B165" s="2" t="s">
-        <v>114</v>
+        <v>140</v>
       </c>
       <c r="C165" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D165" s="2" t="s">
-        <v>115</v>
+        <v>141</v>
       </c>
       <c r="E165" s="2" t="s">
-        <v>116</v>
+        <v>142</v>
       </c>
       <c r="F165" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G165" s="2" t="s">
-        <v>30</v>
+        <v>143</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" s="2" t="s">
-        <v>113</v>
+        <v>137</v>
       </c>
       <c r="B166" s="2" t="s">
-        <v>117</v>
+        <v>144</v>
       </c>
       <c r="C166" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D166" s="2" t="s">
-        <v>115</v>
+        <v>141</v>
       </c>
       <c r="E166" s="2" t="s">
-        <v>118</v>
+        <v>145</v>
       </c>
       <c r="F166" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G166" s="2" t="s">
-        <v>30</v>
+        <v>143</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" s="2" t="s">
-        <v>113</v>
+        <v>137</v>
       </c>
       <c r="B167" s="2" t="s">
-        <v>119</v>
+        <v>146</v>
       </c>
       <c r="C167" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D167" s="2" t="s">
-        <v>115</v>
+        <v>141</v>
       </c>
       <c r="E167" s="2" t="s">
-        <v>120</v>
+        <v>147</v>
       </c>
       <c r="F167" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G167" s="2" t="s">
-        <v>30</v>
+        <v>143</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" s="2" t="s">
-        <v>113</v>
+        <v>137</v>
       </c>
       <c r="B168" s="2" t="s">
-        <v>121</v>
+        <v>148</v>
       </c>
       <c r="C168" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D168" s="2" t="s">
-        <v>115</v>
+        <v>141</v>
       </c>
       <c r="E168" s="2" t="s">
-        <v>122</v>
+        <v>149</v>
       </c>
       <c r="F168" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G168" s="2" t="s">
-        <v>30</v>
+        <v>143</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" s="2" t="s">
-        <v>113</v>
+        <v>137</v>
       </c>
       <c r="B169" s="2" t="s">
-        <v>123</v>
+        <v>150</v>
       </c>
       <c r="C169" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D169" s="2" t="s">
-        <v>115</v>
+        <v>141</v>
       </c>
       <c r="E169" s="2" t="s">
-        <v>124</v>
+        <v>151</v>
       </c>
       <c r="F169" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G169" s="2" t="s">
-        <v>30</v>
+        <v>143</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" s="2" t="s">
-        <v>113</v>
+        <v>137</v>
       </c>
       <c r="B170" s="2" t="s">
-        <v>125</v>
+        <v>152</v>
       </c>
       <c r="C170" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D170" s="2" t="s">
-        <v>115</v>
+        <v>141</v>
       </c>
       <c r="E170" s="2" t="s">
-        <v>126</v>
+        <v>153</v>
       </c>
       <c r="F170" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G170" s="2" t="s">
-        <v>30</v>
+        <v>143</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" s="2" t="s">
-        <v>113</v>
+        <v>137</v>
       </c>
       <c r="B171" s="2" t="s">
-        <v>127</v>
+        <v>154</v>
       </c>
       <c r="C171" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D171" s="2" t="s">
-        <v>115</v>
+        <v>141</v>
       </c>
       <c r="E171" s="2" t="s">
-        <v>29</v>
+        <v>155</v>
       </c>
       <c r="F171" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G171" s="2" t="s">
-        <v>30</v>
+        <v>143</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" s="2" t="s">
-        <v>113</v>
+        <v>156</v>
       </c>
       <c r="B172" s="2" t="s">
-        <v>128</v>
+        <v>140</v>
       </c>
       <c r="C172" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D172" s="2" t="s">
-        <v>115</v>
+        <v>157</v>
       </c>
       <c r="E172" s="2" t="s">
-        <v>129</v>
+        <v>142</v>
       </c>
       <c r="F172" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G172" s="2" t="s">
-        <v>30</v>
+        <v>158</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" s="2" t="s">
-        <v>113</v>
+        <v>156</v>
       </c>
       <c r="B173" s="2" t="s">
-        <v>130</v>
+        <v>144</v>
       </c>
       <c r="C173" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D173" s="2" t="s">
-        <v>115</v>
+        <v>157</v>
       </c>
       <c r="E173" s="2" t="s">
-        <v>32</v>
+        <v>145</v>
       </c>
       <c r="F173" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G173" s="2" t="s">
-        <v>30</v>
+        <v>158</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" s="2" t="s">
-        <v>113</v>
+        <v>156</v>
       </c>
       <c r="B174" s="2" t="s">
-        <v>131</v>
+        <v>146</v>
       </c>
       <c r="C174" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D174" s="2" t="s">
-        <v>115</v>
+        <v>157</v>
       </c>
       <c r="E174" s="2" t="s">
-        <v>132</v>
+        <v>147</v>
       </c>
       <c r="F174" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G174" s="2" t="s">
-        <v>30</v>
+        <v>158</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" s="2" t="s">
-        <v>113</v>
+        <v>156</v>
       </c>
       <c r="B175" s="2" t="s">
-        <v>133</v>
+        <v>148</v>
       </c>
       <c r="C175" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D175" s="2" t="s">
-        <v>115</v>
+        <v>157</v>
       </c>
       <c r="E175" s="2" t="s">
-        <v>134</v>
+        <v>149</v>
       </c>
       <c r="F175" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G175" s="2" t="s">
-        <v>30</v>
+        <v>158</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" s="2" t="s">
-        <v>113</v>
+        <v>156</v>
       </c>
       <c r="B176" s="2" t="s">
-        <v>135</v>
+        <v>150</v>
       </c>
       <c r="C176" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D176" s="2" t="s">
-        <v>115</v>
+        <v>157</v>
       </c>
       <c r="E176" s="2" t="s">
-        <v>136</v>
+        <v>151</v>
       </c>
       <c r="F176" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G176" s="2" t="s">
-        <v>30</v>
+        <v>158</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" s="2" t="s">
-        <v>113</v>
+        <v>156</v>
       </c>
       <c r="B177" s="2" t="s">
-        <v>137</v>
+        <v>152</v>
       </c>
       <c r="C177" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D177" s="2" t="s">
-        <v>115</v>
+        <v>157</v>
       </c>
       <c r="E177" s="2" t="s">
-        <v>138</v>
+        <v>153</v>
       </c>
       <c r="F177" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G177" s="2" t="s">
-        <v>30</v>
+        <v>158</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" s="2" t="s">
-        <v>139</v>
+        <v>156</v>
       </c>
       <c r="B178" s="2" t="s">
-        <v>114</v>
+        <v>154</v>
       </c>
       <c r="C178" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D178" s="2" t="s">
-        <v>140</v>
+        <v>157</v>
       </c>
       <c r="E178" s="2" t="s">
-        <v>116</v>
+        <v>155</v>
       </c>
       <c r="F178" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G178" s="2" t="s">
-        <v>141</v>
+        <v>158</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" s="2" t="s">
-        <v>139</v>
+        <v>159</v>
       </c>
       <c r="B179" s="2" t="s">
-        <v>117</v>
+        <v>42</v>
       </c>
       <c r="C179" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D179" s="2" t="s">
-        <v>140</v>
+        <v>160</v>
       </c>
       <c r="E179" s="2" t="s">
-        <v>118</v>
+        <v>44</v>
       </c>
       <c r="F179" s="2" t="s">
-        <v>10</v>
+        <v>161</v>
       </c>
       <c r="G179" s="2" t="s">
-        <v>141</v>
+        <v>162</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" s="2" t="s">
-        <v>139</v>
+        <v>159</v>
       </c>
       <c r="B180" s="2" t="s">
-        <v>119</v>
+        <v>45</v>
       </c>
       <c r="C180" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D180" s="2" t="s">
-        <v>140</v>
+        <v>160</v>
       </c>
       <c r="E180" s="2" t="s">
-        <v>120</v>
+        <v>46</v>
       </c>
       <c r="F180" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G180" s="2" t="s">
-        <v>141</v>
+        <v>162</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" s="2" t="s">
-        <v>139</v>
+        <v>159</v>
       </c>
       <c r="B181" s="2" t="s">
-        <v>121</v>
+        <v>47</v>
       </c>
       <c r="C181" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D181" s="2" t="s">
-        <v>140</v>
+        <v>160</v>
       </c>
       <c r="E181" s="2" t="s">
-        <v>122</v>
+        <v>48</v>
       </c>
       <c r="F181" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G181" s="2" t="s">
-        <v>141</v>
+        <v>162</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" s="2" t="s">
-        <v>139</v>
+        <v>159</v>
       </c>
       <c r="B182" s="2" t="s">
-        <v>123</v>
+        <v>49</v>
       </c>
       <c r="C182" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D182" s="2" t="s">
-        <v>140</v>
+        <v>160</v>
       </c>
       <c r="E182" s="2" t="s">
-        <v>124</v>
+        <v>50</v>
       </c>
       <c r="F182" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G182" s="2" t="s">
-        <v>141</v>
+        <v>162</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" s="2" t="s">
-        <v>139</v>
+        <v>159</v>
       </c>
       <c r="B183" s="2" t="s">
-        <v>125</v>
+        <v>51</v>
       </c>
       <c r="C183" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D183" s="2" t="s">
-        <v>140</v>
+        <v>160</v>
       </c>
       <c r="E183" s="2" t="s">
-        <v>126</v>
+        <v>52</v>
       </c>
       <c r="F183" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G183" s="2" t="s">
-        <v>141</v>
+        <v>162</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" s="2" t="s">
-        <v>139</v>
+        <v>159</v>
       </c>
       <c r="B184" s="2" t="s">
-        <v>127</v>
+        <v>53</v>
       </c>
       <c r="C184" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D184" s="2" t="s">
-        <v>140</v>
+        <v>160</v>
       </c>
       <c r="E184" s="2" t="s">
-        <v>29</v>
+        <v>54</v>
       </c>
       <c r="F184" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G184" s="2" t="s">
-        <v>141</v>
+        <v>162</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" s="2" t="s">
-        <v>139</v>
+        <v>159</v>
       </c>
       <c r="B185" s="2" t="s">
-        <v>128</v>
+        <v>55</v>
       </c>
       <c r="C185" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D185" s="2" t="s">
-        <v>140</v>
+        <v>160</v>
       </c>
       <c r="E185" s="2" t="s">
-        <v>129</v>
+        <v>56</v>
       </c>
       <c r="F185" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G185" s="2" t="s">
-        <v>141</v>
+        <v>162</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" s="2" t="s">
-        <v>139</v>
+        <v>159</v>
       </c>
       <c r="B186" s="2" t="s">
-        <v>130</v>
+        <v>57</v>
       </c>
       <c r="C186" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D186" s="2" t="s">
-        <v>140</v>
+        <v>160</v>
       </c>
       <c r="E186" s="2" t="s">
-        <v>32</v>
+        <v>58</v>
       </c>
       <c r="F186" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G186" s="2" t="s">
-        <v>141</v>
+        <v>162</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" s="2" t="s">
-        <v>139</v>
+        <v>159</v>
       </c>
       <c r="B187" s="2" t="s">
-        <v>131</v>
+        <v>59</v>
       </c>
       <c r="C187" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D187" s="2" t="s">
-        <v>140</v>
+        <v>160</v>
       </c>
       <c r="E187" s="2" t="s">
-        <v>132</v>
+        <v>60</v>
       </c>
       <c r="F187" s="2" t="s">
-        <v>17</v>
+        <v>161</v>
       </c>
       <c r="G187" s="2" t="s">
-        <v>141</v>
+        <v>162</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" s="2" t="s">
-        <v>139</v>
+        <v>159</v>
       </c>
       <c r="B188" s="2" t="s">
-        <v>133</v>
+        <v>61</v>
       </c>
       <c r="C188" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D188" s="2" t="s">
-        <v>140</v>
+        <v>160</v>
       </c>
       <c r="E188" s="2" t="s">
-        <v>134</v>
+        <v>62</v>
       </c>
       <c r="F188" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G188" s="2" t="s">
-        <v>141</v>
+        <v>162</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" s="2" t="s">
-        <v>139</v>
+        <v>159</v>
       </c>
       <c r="B189" s="2" t="s">
-        <v>135</v>
+        <v>63</v>
       </c>
       <c r="C189" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D189" s="2" t="s">
-        <v>140</v>
+        <v>160</v>
       </c>
       <c r="E189" s="2" t="s">
-        <v>136</v>
+        <v>64</v>
       </c>
       <c r="F189" s="2" t="s">
-        <v>17</v>
+        <v>161</v>
       </c>
       <c r="G189" s="2" t="s">
-        <v>141</v>
+        <v>162</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" s="2" t="s">
-        <v>139</v>
+        <v>159</v>
       </c>
       <c r="B190" s="2" t="s">
-        <v>137</v>
+        <v>65</v>
       </c>
       <c r="C190" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D190" s="2" t="s">
-        <v>140</v>
+        <v>160</v>
       </c>
       <c r="E190" s="2" t="s">
-        <v>138</v>
+        <v>66</v>
       </c>
       <c r="F190" s="2" t="s">
-        <v>17</v>
+        <v>161</v>
       </c>
       <c r="G190" s="2" t="s">
-        <v>141</v>
+        <v>162</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" s="2" t="s">
-        <v>139</v>
+        <v>159</v>
       </c>
       <c r="B191" s="2" t="s">
-        <v>142</v>
+        <v>67</v>
       </c>
       <c r="C191" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D191" s="2" t="s">
-        <v>143</v>
+        <v>160</v>
       </c>
       <c r="E191" s="2" t="s">
-        <v>144</v>
+        <v>68</v>
       </c>
       <c r="F191" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G191" s="2" t="s">
-        <v>145</v>
+        <v>162</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" s="2" t="s">
-        <v>139</v>
+        <v>159</v>
       </c>
       <c r="B192" s="2" t="s">
-        <v>146</v>
+        <v>69</v>
       </c>
       <c r="C192" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D192" s="2" t="s">
-        <v>143</v>
+        <v>160</v>
       </c>
       <c r="E192" s="2" t="s">
-        <v>147</v>
+        <v>70</v>
       </c>
       <c r="F192" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G192" s="2" t="s">
-        <v>145</v>
+        <v>162</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" s="2" t="s">
-        <v>139</v>
+        <v>159</v>
       </c>
       <c r="B193" s="2" t="s">
-        <v>148</v>
+        <v>71</v>
       </c>
       <c r="C193" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D193" s="2" t="s">
-        <v>143</v>
+        <v>160</v>
       </c>
       <c r="E193" s="2" t="s">
-        <v>149</v>
+        <v>72</v>
       </c>
       <c r="F193" s="2" t="s">
-        <v>17</v>
+        <v>161</v>
       </c>
       <c r="G193" s="2" t="s">
-        <v>145</v>
+        <v>162</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" s="2" t="s">
-        <v>139</v>
+        <v>159</v>
       </c>
       <c r="B194" s="2" t="s">
-        <v>150</v>
+        <v>73</v>
       </c>
       <c r="C194" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D194" s="2" t="s">
-        <v>143</v>
+        <v>160</v>
       </c>
       <c r="E194" s="2" t="s">
-        <v>151</v>
+        <v>74</v>
       </c>
       <c r="F194" s="2" t="s">
-        <v>10</v>
+        <v>161</v>
       </c>
       <c r="G194" s="2" t="s">
-        <v>145</v>
+        <v>162</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" s="2" t="s">
-        <v>139</v>
+        <v>159</v>
       </c>
       <c r="B195" s="2" t="s">
-        <v>152</v>
+        <v>75</v>
       </c>
       <c r="C195" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D195" s="2" t="s">
-        <v>143</v>
+        <v>160</v>
       </c>
       <c r="E195" s="2" t="s">
-        <v>153</v>
+        <v>76</v>
       </c>
       <c r="F195" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G195" s="2" t="s">
-        <v>145</v>
+        <v>162</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" s="2" t="s">
-        <v>139</v>
+        <v>159</v>
       </c>
       <c r="B196" s="2" t="s">
-        <v>154</v>
+        <v>77</v>
       </c>
       <c r="C196" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D196" s="2" t="s">
-        <v>143</v>
+        <v>160</v>
       </c>
       <c r="E196" s="2" t="s">
-        <v>155</v>
+        <v>78</v>
       </c>
       <c r="F196" s="2" t="s">
-        <v>10</v>
+        <v>161</v>
       </c>
       <c r="G196" s="2" t="s">
-        <v>145</v>
+        <v>162</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" s="2" t="s">
-        <v>139</v>
+        <v>159</v>
       </c>
       <c r="B197" s="2" t="s">
-        <v>156</v>
+        <v>79</v>
       </c>
       <c r="C197" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D197" s="2" t="s">
-        <v>143</v>
+        <v>160</v>
       </c>
       <c r="E197" s="2" t="s">
-        <v>157</v>
+        <v>80</v>
       </c>
       <c r="F197" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G197" s="2" t="s">
-        <v>145</v>
+        <v>162</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" s="2" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B198" s="2" t="s">
-        <v>142</v>
+        <v>81</v>
       </c>
       <c r="C198" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D198" s="2" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="E198" s="2" t="s">
-        <v>144</v>
+        <v>82</v>
       </c>
       <c r="F198" s="2" t="s">
-        <v>17</v>
+        <v>161</v>
       </c>
       <c r="G198" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" s="2" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B199" s="2" t="s">
-        <v>146</v>
+        <v>83</v>
       </c>
       <c r="C199" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D199" s="2" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="E199" s="2" t="s">
-        <v>147</v>
+        <v>84</v>
       </c>
       <c r="F199" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G199" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" s="2" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B200" s="2" t="s">
-        <v>148</v>
+        <v>85</v>
       </c>
       <c r="C200" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D200" s="2" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="E200" s="2" t="s">
-        <v>149</v>
+        <v>86</v>
       </c>
       <c r="F200" s="2" t="s">
-        <v>17</v>
+        <v>161</v>
       </c>
       <c r="G200" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" s="2" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B201" s="2" t="s">
-        <v>150</v>
+        <v>87</v>
       </c>
       <c r="C201" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D201" s="2" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="E201" s="2" t="s">
-        <v>151</v>
+        <v>88</v>
       </c>
       <c r="F201" s="2" t="s">
-        <v>10</v>
+        <v>161</v>
       </c>
       <c r="G201" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" s="2" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B202" s="2" t="s">
-        <v>152</v>
+        <v>89</v>
       </c>
       <c r="C202" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D202" s="2" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="E202" s="2" t="s">
-        <v>153</v>
+        <v>90</v>
       </c>
       <c r="F202" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G202" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" s="2" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B203" s="2" t="s">
-        <v>154</v>
+        <v>91</v>
       </c>
       <c r="C203" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D203" s="2" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="E203" s="2" t="s">
-        <v>155</v>
+        <v>92</v>
       </c>
       <c r="F203" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G203" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" s="2" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B204" s="2" t="s">
-        <v>156</v>
+        <v>163</v>
       </c>
       <c r="C204" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D204" s="2" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="E204" s="2" t="s">
-        <v>157</v>
+        <v>94</v>
       </c>
       <c r="F204" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G204" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" s="2" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="B205" s="2" t="s">
-        <v>42</v>
+        <v>165</v>
       </c>
       <c r="C205" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D205" s="2" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="E205" s="2" t="s">
-        <v>44</v>
+        <v>167</v>
       </c>
       <c r="F205" s="2" t="s">
-        <v>163</v>
+        <v>10</v>
       </c>
       <c r="G205" s="2" t="s">
-        <v>164</v>
+        <v>30</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" s="2" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="B206" s="2" t="s">
-        <v>45</v>
+        <v>168</v>
       </c>
       <c r="C206" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D206" s="2" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="E206" s="2" t="s">
-        <v>46</v>
+        <v>169</v>
       </c>
       <c r="F206" s="2" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G206" s="2" t="s">
-        <v>164</v>
+        <v>30</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" s="2" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="B207" s="2" t="s">
-        <v>47</v>
+        <v>170</v>
       </c>
       <c r="C207" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D207" s="2" t="s">
-        <v>162</v>
+        <v>28</v>
       </c>
       <c r="E207" s="2" t="s">
-        <v>48</v>
+        <v>171</v>
       </c>
       <c r="F207" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G207" s="2" t="s">
-        <v>164</v>
+        <v>30</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" s="2" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="B208" s="2" t="s">
-        <v>49</v>
+        <v>172</v>
       </c>
       <c r="C208" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D208" s="2" t="s">
-        <v>162</v>
+        <v>173</v>
       </c>
       <c r="E208" s="2" t="s">
-        <v>50</v>
+        <v>174</v>
       </c>
       <c r="F208" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G208" s="2" t="s">
-        <v>164</v>
+        <v>30</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" s="2" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="B209" s="2" t="s">
-        <v>51</v>
+        <v>175</v>
       </c>
       <c r="C209" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D209" s="2" t="s">
-        <v>162</v>
+        <v>173</v>
       </c>
       <c r="E209" s="2" t="s">
-        <v>52</v>
+        <v>176</v>
       </c>
       <c r="F209" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G209" s="2" t="s">
-        <v>164</v>
+        <v>30</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" s="2" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="B210" s="2" t="s">
-        <v>53</v>
+        <v>177</v>
       </c>
       <c r="C210" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D210" s="2" t="s">
-        <v>162</v>
+        <v>178</v>
       </c>
       <c r="E210" s="2" t="s">
-        <v>54</v>
+        <v>179</v>
       </c>
       <c r="F210" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G210" s="2" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="211">
-      <c r="A211" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="B211" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="C211" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D211" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="E211" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="F211" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G211" s="2" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="212">
-      <c r="A212" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="B212" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="C212" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D212" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="E212" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="F212" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G212" s="2" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="213">
-      <c r="A213" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="B213" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="C213" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D213" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="E213" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="F213" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="G213" s="2" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="214">
-      <c r="A214" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="B214" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="C214" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D214" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="E214" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="F214" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G214" s="2" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="215">
-      <c r="A215" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="B215" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="C215" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D215" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="E215" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="F215" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="G215" s="2" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="216">
-      <c r="A216" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="B216" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="C216" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D216" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="E216" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="F216" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="G216" s="2" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="217">
-      <c r="A217" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="B217" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="C217" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D217" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="E217" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="F217" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G217" s="2" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="218">
-      <c r="A218" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="B218" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="C218" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D218" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="E218" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="F218" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G218" s="2" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="219">
-      <c r="A219" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="B219" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="C219" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D219" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="E219" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="F219" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="G219" s="2" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="220">
-      <c r="A220" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="B220" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="C220" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D220" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="E220" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="F220" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="G220" s="2" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="221">
-      <c r="A221" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="B221" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="C221" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D221" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="E221" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="F221" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G221" s="2" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="222">
-      <c r="A222" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="B222" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="C222" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D222" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="E222" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="F222" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="G222" s="2" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="223">
-      <c r="A223" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="B223" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="C223" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D223" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="E223" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="F223" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G223" s="2" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="224">
-      <c r="A224" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="B224" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="C224" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D224" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="E224" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="F224" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="G224" s="2" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="225">
-      <c r="A225" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="B225" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="C225" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D225" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="E225" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="F225" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G225" s="2" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="226">
-      <c r="A226" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="B226" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="C226" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D226" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="E226" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="F226" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="G226" s="2" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="227">
-      <c r="A227" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="B227" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="C227" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D227" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="E227" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="F227" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="G227" s="2" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="228">
-      <c r="A228" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="B228" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="C228" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D228" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="E228" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="F228" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G228" s="2" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="229">
-      <c r="A229" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="B229" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="C229" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D229" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="E229" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="F229" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G229" s="2" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="230">
-      <c r="A230" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="B230" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="C230" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D230" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="E230" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="F230" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G230" s="2" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="231">
-      <c r="A231" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="B231" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="C231" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D231" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="E231" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="F231" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G231" s="2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="232">
-      <c r="A232" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="B232" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="C232" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D232" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="E232" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="F232" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G232" s="2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="233">
-      <c r="A233" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="B233" s="2" t="s">
-        <v>172</v>
-      </c>
-      <c r="C233" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D233" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="E233" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="F233" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G233" s="2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="234">
-      <c r="A234" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="B234" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="C234" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D234" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="E234" s="2" t="s">
-        <v>176</v>
-      </c>
-      <c r="F234" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G234" s="2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="235">
-      <c r="A235" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="B235" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="C235" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D235" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="E235" s="2" t="s">
-        <v>178</v>
-      </c>
-      <c r="F235" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G235" s="2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="236">
-      <c r="A236" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="B236" s="2" t="s">
-        <v>179</v>
-      </c>
-      <c r="C236" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D236" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="E236" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="F236" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G236" s="2" t="s">
         <v>30</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/riconoscimenti/Rico_010.xlsx
+++ b/docs/Mapping_casi_uso/riconoscimenti/Rico_010.xlsx
@@ -5003,7 +5003,7 @@
         <v>67</v>
       </c>
       <c r="C191" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D191" s="2" t="s">
         <v>160</v>
@@ -5026,7 +5026,7 @@
         <v>69</v>
       </c>
       <c r="C192" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D192" s="2" t="s">
         <v>160</v>
@@ -5035,7 +5035,7 @@
         <v>70</v>
       </c>
       <c r="F192" s="2" t="s">
-        <v>10</v>
+        <v>161</v>
       </c>
       <c r="G192" s="2" t="s">
         <v>162</v>

--- a/docs/Mapping_casi_uso/riconoscimenti/Rico_010.xlsx
+++ b/docs/Mapping_casi_uso/riconoscimenti/Rico_010.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1470" uniqueCount="180">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1540" uniqueCount="184">
   <si>
     <t>Sezione</t>
   </si>
@@ -167,6 +167,18 @@
     <t>sesso</t>
   </si>
   <si>
+    <t>Formato Data Nascita</t>
+  </si>
+  <si>
+    <t>idFormatodata</t>
+  </si>
+  <si>
+    <t>Formato Data Nascita - Descrizione</t>
+  </si>
+  <si>
+    <t>formatodata</t>
+  </si>
+  <si>
     <t>Data nascita</t>
   </si>
   <si>
@@ -341,6 +353,9 @@
     <t>evento.padre</t>
   </si>
   <si>
+    <t>Firmatario</t>
+  </si>
+  <si>
     <t>Figlio</t>
   </si>
   <si>
@@ -501,9 +516,6 @@
   </si>
   <si>
     <t>evento.ausilioInterprete,!=,true &amp;&amp; evento.ausilioInterprete,!=,S &amp;&amp; evento.ausilioInterprete,!=,SI</t>
-  </si>
-  <si>
-    <t>Firmatario</t>
   </si>
   <si>
     <t>Dettagli evento</t>
@@ -610,7 +622,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H210"/>
+  <dimension ref="A1:H220"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1685,22 +1697,22 @@
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B47" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="B47" s="2" t="s">
-        <v>42</v>
-      </c>
       <c r="C47" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D47" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E47" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="E47" s="2" t="s">
-        <v>44</v>
-      </c>
       <c r="F47" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G47" s="2" t="s">
         <v>30</v>
@@ -1708,19 +1720,19 @@
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>95</v>
+        <v>40</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>45</v>
+        <v>97</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>96</v>
+        <v>43</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>46</v>
+        <v>98</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>10</v>
@@ -1731,22 +1743,22 @@
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="C49" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G49" s="2" t="s">
         <v>30</v>
@@ -1754,19 +1766,19 @@
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>10</v>
@@ -1777,19 +1789,19 @@
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>10</v>
@@ -1800,19 +1812,19 @@
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>10</v>
@@ -1823,19 +1835,19 @@
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>10</v>
@@ -1846,22 +1858,22 @@
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G54" s="2" t="s">
         <v>30</v>
@@ -1869,22 +1881,22 @@
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G55" s="2" t="s">
         <v>30</v>
@@ -1892,19 +1904,19 @@
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>10</v>
@@ -1915,22 +1927,22 @@
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G57" s="2" t="s">
         <v>30</v>
@@ -1938,22 +1950,22 @@
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G58" s="2" t="s">
         <v>30</v>
@@ -1961,22 +1973,22 @@
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G59" s="2" t="s">
         <v>30</v>
@@ -1984,19 +1996,19 @@
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>10</v>
@@ -2007,19 +2019,19 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>17</v>
@@ -2030,19 +2042,19 @@
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>17</v>
@@ -2053,19 +2065,19 @@
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>10</v>
@@ -2076,22 +2088,22 @@
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="F64" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G64" s="2" t="s">
         <v>30</v>
@@ -2099,22 +2111,22 @@
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="F65" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G65" s="2" t="s">
         <v>30</v>
@@ -2122,19 +2134,19 @@
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>17</v>
@@ -2145,19 +2157,19 @@
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>10</v>
@@ -2168,19 +2180,19 @@
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>17</v>
@@ -2191,22 +2203,22 @@
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="F69" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G69" s="2" t="s">
         <v>30</v>
@@ -2214,22 +2226,22 @@
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="F70" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G70" s="2" t="s">
         <v>30</v>
@@ -2237,19 +2249,19 @@
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>10</v>
@@ -2260,22 +2272,22 @@
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="F72" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G72" s="2" t="s">
         <v>30</v>
@@ -2283,22 +2295,22 @@
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="F73" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G73" s="2" t="s">
         <v>30</v>
@@ -2306,22 +2318,22 @@
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="F74" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G74" s="2" t="s">
         <v>30</v>
@@ -2329,19 +2341,19 @@
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="B75" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="B75" s="2" t="s">
-        <v>101</v>
-      </c>
       <c r="C75" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D75" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="E75" s="2" t="s">
         <v>96</v>
-      </c>
-      <c r="E75" s="2" t="s">
-        <v>102</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>10</v>
@@ -2352,22 +2364,22 @@
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="F76" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G76" s="2" t="s">
         <v>30</v>
@@ -2375,22 +2387,22 @@
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="F77" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G77" s="2" t="s">
         <v>30</v>
@@ -2398,19 +2410,19 @@
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>42</v>
+        <v>103</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>44</v>
+        <v>104</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>17</v>
@@ -2421,19 +2433,19 @@
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>45</v>
+        <v>105</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>46</v>
+        <v>106</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>10</v>
@@ -2444,22 +2456,22 @@
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="B80" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="B80" s="2" t="s">
-        <v>47</v>
-      </c>
       <c r="C80" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D80" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="E80" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="E80" s="2" t="s">
-        <v>48</v>
-      </c>
       <c r="F80" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G80" s="2" t="s">
         <v>30</v>
@@ -2467,22 +2479,22 @@
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>49</v>
+        <v>109</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>50</v>
+        <v>110</v>
       </c>
       <c r="F81" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G81" s="2" t="s">
         <v>30</v>
@@ -2490,22 +2502,22 @@
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="F82" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G82" s="2" t="s">
         <v>30</v>
@@ -2513,19 +2525,19 @@
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="C83" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>10</v>
@@ -2536,19 +2548,19 @@
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>10</v>
@@ -2559,19 +2571,19 @@
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>10</v>
@@ -2582,22 +2594,22 @@
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="F86" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G86" s="2" t="s">
         <v>30</v>
@@ -2605,22 +2617,22 @@
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="C87" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="F87" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G87" s="2" t="s">
         <v>30</v>
@@ -2628,22 +2640,22 @@
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="F88" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G88" s="2" t="s">
         <v>30</v>
@@ -2651,22 +2663,22 @@
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="F89" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G89" s="2" t="s">
         <v>30</v>
@@ -2674,19 +2686,19 @@
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="C90" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>10</v>
@@ -2697,19 +2709,19 @@
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>10</v>
@@ -2720,19 +2732,19 @@
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="C92" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="F92" s="2" t="s">
         <v>17</v>
@@ -2743,22 +2755,22 @@
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="C93" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="F93" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G93" s="2" t="s">
         <v>30</v>
@@ -2766,22 +2778,22 @@
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="C94" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="F94" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G94" s="2" t="s">
         <v>30</v>
@@ -2789,19 +2801,19 @@
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="C95" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="F95" s="2" t="s">
         <v>17</v>
@@ -2812,19 +2824,19 @@
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="F96" s="2" t="s">
         <v>10</v>
@@ -2835,22 +2847,22 @@
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="F97" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G97" s="2" t="s">
         <v>30</v>
@@ -2858,22 +2870,22 @@
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="C98" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="F98" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G98" s="2" t="s">
         <v>30</v>
@@ -2881,19 +2893,19 @@
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="C99" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="F99" s="2" t="s">
         <v>17</v>
@@ -2904,22 +2916,22 @@
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="C100" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="F100" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G100" s="2" t="s">
         <v>30</v>
@@ -2927,22 +2939,22 @@
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="F101" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G101" s="2" t="s">
         <v>30</v>
@@ -2950,19 +2962,19 @@
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="F102" s="2" t="s">
         <v>10</v>
@@ -2973,22 +2985,22 @@
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="F103" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G103" s="2" t="s">
         <v>30</v>
@@ -2996,19 +3008,19 @@
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>97</v>
+        <v>87</v>
       </c>
       <c r="C104" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>98</v>
+        <v>88</v>
       </c>
       <c r="F104" s="2" t="s">
         <v>10</v>
@@ -3019,19 +3031,19 @@
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
       <c r="C105" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="F105" s="2" t="s">
         <v>17</v>
@@ -3042,22 +3054,22 @@
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>101</v>
+        <v>91</v>
       </c>
       <c r="C106" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
       <c r="F106" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G106" s="2" t="s">
         <v>30</v>
@@ -3065,22 +3077,22 @@
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>104</v>
+        <v>94</v>
       </c>
       <c r="F107" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G107" s="2" t="s">
         <v>30</v>
@@ -3088,22 +3100,22 @@
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>105</v>
+        <v>95</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>106</v>
+        <v>96</v>
       </c>
       <c r="F108" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G108" s="2" t="s">
         <v>30</v>
@@ -3111,19 +3123,19 @@
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>42</v>
+        <v>113</v>
       </c>
       <c r="C109" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>44</v>
+        <v>98</v>
       </c>
       <c r="F109" s="2" t="s">
         <v>17</v>
@@ -3134,19 +3146,19 @@
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>45</v>
+        <v>101</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>46</v>
+        <v>102</v>
       </c>
       <c r="F110" s="2" t="s">
         <v>10</v>
@@ -3157,22 +3169,22 @@
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>47</v>
+        <v>103</v>
       </c>
       <c r="C111" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>48</v>
+        <v>104</v>
       </c>
       <c r="F111" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G111" s="2" t="s">
         <v>30</v>
@@ -3180,19 +3192,19 @@
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>49</v>
+        <v>105</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>50</v>
+        <v>106</v>
       </c>
       <c r="F112" s="2" t="s">
         <v>10</v>
@@ -3203,22 +3215,22 @@
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>51</v>
+        <v>107</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>52</v>
+        <v>108</v>
       </c>
       <c r="F113" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G113" s="2" t="s">
         <v>30</v>
@@ -3226,22 +3238,22 @@
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="B114" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="B114" s="2" t="s">
-        <v>53</v>
-      </c>
       <c r="C114" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D114" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="E114" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="E114" s="2" t="s">
-        <v>54</v>
-      </c>
       <c r="F114" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G114" s="2" t="s">
         <v>30</v>
@@ -3249,22 +3261,22 @@
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="F115" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G115" s="2" t="s">
         <v>30</v>
@@ -3272,19 +3284,19 @@
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>58</v>
+        <v>46</v>
       </c>
       <c r="F116" s="2" t="s">
         <v>10</v>
@@ -3295,22 +3307,22 @@
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>59</v>
+        <v>47</v>
       </c>
       <c r="C117" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="F117" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G117" s="2" t="s">
         <v>30</v>
@@ -3318,19 +3330,19 @@
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>61</v>
+        <v>49</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>62</v>
+        <v>50</v>
       </c>
       <c r="F118" s="2" t="s">
         <v>10</v>
@@ -3341,22 +3353,22 @@
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>63</v>
+        <v>51</v>
       </c>
       <c r="C119" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>64</v>
+        <v>52</v>
       </c>
       <c r="F119" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G119" s="2" t="s">
         <v>30</v>
@@ -3364,19 +3376,19 @@
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>65</v>
+        <v>53</v>
       </c>
       <c r="C120" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>66</v>
+        <v>54</v>
       </c>
       <c r="F120" s="2" t="s">
         <v>17</v>
@@ -3387,19 +3399,19 @@
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>67</v>
+        <v>55</v>
       </c>
       <c r="C121" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>68</v>
+        <v>56</v>
       </c>
       <c r="F121" s="2" t="s">
         <v>10</v>
@@ -3410,19 +3422,19 @@
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="C122" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>70</v>
+        <v>58</v>
       </c>
       <c r="F122" s="2" t="s">
         <v>10</v>
@@ -3433,22 +3445,22 @@
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>71</v>
+        <v>59</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>72</v>
+        <v>60</v>
       </c>
       <c r="F123" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G123" s="2" t="s">
         <v>30</v>
@@ -3456,22 +3468,22 @@
     </row>
     <row r="124">
       <c r="A124" s="2" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>73</v>
+        <v>61</v>
       </c>
       <c r="C124" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>74</v>
+        <v>62</v>
       </c>
       <c r="F124" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G124" s="2" t="s">
         <v>30</v>
@@ -3479,22 +3491,22 @@
     </row>
     <row r="125">
       <c r="A125" s="2" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>75</v>
+        <v>63</v>
       </c>
       <c r="C125" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>76</v>
+        <v>64</v>
       </c>
       <c r="F125" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G125" s="2" t="s">
         <v>30</v>
@@ -3502,22 +3514,22 @@
     </row>
     <row r="126">
       <c r="A126" s="2" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>77</v>
+        <v>65</v>
       </c>
       <c r="C126" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>78</v>
+        <v>66</v>
       </c>
       <c r="F126" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G126" s="2" t="s">
         <v>30</v>
@@ -3525,22 +3537,22 @@
     </row>
     <row r="127">
       <c r="A127" s="2" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>79</v>
+        <v>67</v>
       </c>
       <c r="C127" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>80</v>
+        <v>68</v>
       </c>
       <c r="F127" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G127" s="2" t="s">
         <v>30</v>
@@ -3548,19 +3560,19 @@
     </row>
     <row r="128">
       <c r="A128" s="2" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>81</v>
+        <v>69</v>
       </c>
       <c r="C128" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>82</v>
+        <v>70</v>
       </c>
       <c r="F128" s="2" t="s">
         <v>17</v>
@@ -3571,19 +3583,19 @@
     </row>
     <row r="129">
       <c r="A129" s="2" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>83</v>
+        <v>71</v>
       </c>
       <c r="C129" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>84</v>
+        <v>72</v>
       </c>
       <c r="F129" s="2" t="s">
         <v>10</v>
@@ -3594,22 +3606,22 @@
     </row>
     <row r="130">
       <c r="A130" s="2" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>85</v>
+        <v>73</v>
       </c>
       <c r="C130" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>86</v>
+        <v>74</v>
       </c>
       <c r="F130" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G130" s="2" t="s">
         <v>30</v>
@@ -3617,19 +3629,19 @@
     </row>
     <row r="131">
       <c r="A131" s="2" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>87</v>
+        <v>75</v>
       </c>
       <c r="C131" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="F131" s="2" t="s">
         <v>17</v>
@@ -3640,22 +3652,22 @@
     </row>
     <row r="132">
       <c r="A132" s="2" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="C132" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="F132" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G132" s="2" t="s">
         <v>30</v>
@@ -3663,19 +3675,19 @@
     </row>
     <row r="133">
       <c r="A133" s="2" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="C133" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="E133" s="2" t="s">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="F133" s="2" t="s">
         <v>10</v>
@@ -3686,22 +3698,22 @@
     </row>
     <row r="134">
       <c r="A134" s="2" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="C134" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="E134" s="2" t="s">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="F134" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G134" s="2" t="s">
         <v>30</v>
@@ -3709,19 +3721,19 @@
     </row>
     <row r="135">
       <c r="A135" s="2" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>97</v>
+        <v>83</v>
       </c>
       <c r="C135" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="E135" s="2" t="s">
-        <v>98</v>
+        <v>84</v>
       </c>
       <c r="F135" s="2" t="s">
         <v>10</v>
@@ -3732,19 +3744,19 @@
     </row>
     <row r="136">
       <c r="A136" s="2" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>99</v>
+        <v>85</v>
       </c>
       <c r="C136" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="E136" s="2" t="s">
-        <v>100</v>
+        <v>86</v>
       </c>
       <c r="F136" s="2" t="s">
         <v>17</v>
@@ -3755,19 +3767,19 @@
     </row>
     <row r="137">
       <c r="A137" s="2" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>101</v>
+        <v>87</v>
       </c>
       <c r="C137" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="E137" s="2" t="s">
-        <v>102</v>
+        <v>88</v>
       </c>
       <c r="F137" s="2" t="s">
         <v>10</v>
@@ -3778,19 +3790,19 @@
     </row>
     <row r="138">
       <c r="A138" s="2" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>103</v>
+        <v>89</v>
       </c>
       <c r="C138" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="E138" s="2" t="s">
-        <v>104</v>
+        <v>90</v>
       </c>
       <c r="F138" s="2" t="s">
         <v>17</v>
@@ -3801,22 +3813,22 @@
     </row>
     <row r="139">
       <c r="A139" s="2" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>112</v>
+        <v>91</v>
       </c>
       <c r="C139" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E139" s="2" t="s">
-        <v>114</v>
+        <v>92</v>
       </c>
       <c r="F139" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G139" s="2" t="s">
         <v>30</v>
@@ -3824,19 +3836,19 @@
     </row>
     <row r="140">
       <c r="A140" s="2" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="B140" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C140" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D140" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="C140" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D140" s="2" t="s">
-        <v>113</v>
-      </c>
       <c r="E140" s="2" t="s">
-        <v>116</v>
+        <v>94</v>
       </c>
       <c r="F140" s="2" t="s">
         <v>10</v>
@@ -3847,19 +3859,19 @@
     </row>
     <row r="141">
       <c r="A141" s="2" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>117</v>
+        <v>95</v>
       </c>
       <c r="C141" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E141" s="2" t="s">
-        <v>118</v>
+        <v>96</v>
       </c>
       <c r="F141" s="2" t="s">
         <v>10</v>
@@ -3870,19 +3882,19 @@
     </row>
     <row r="142">
       <c r="A142" s="2" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>119</v>
+        <v>97</v>
       </c>
       <c r="C142" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E142" s="2" t="s">
-        <v>120</v>
+        <v>98</v>
       </c>
       <c r="F142" s="2" t="s">
         <v>10</v>
@@ -3893,19 +3905,19 @@
     </row>
     <row r="143">
       <c r="A143" s="2" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>121</v>
+        <v>101</v>
       </c>
       <c r="C143" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E143" s="2" t="s">
-        <v>122</v>
+        <v>102</v>
       </c>
       <c r="F143" s="2" t="s">
         <v>10</v>
@@ -3916,22 +3928,22 @@
     </row>
     <row r="144">
       <c r="A144" s="2" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>123</v>
+        <v>103</v>
       </c>
       <c r="C144" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E144" s="2" t="s">
-        <v>124</v>
+        <v>104</v>
       </c>
       <c r="F144" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G144" s="2" t="s">
         <v>30</v>
@@ -3939,19 +3951,19 @@
     </row>
     <row r="145">
       <c r="A145" s="2" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>125</v>
+        <v>105</v>
       </c>
       <c r="C145" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E145" s="2" t="s">
-        <v>29</v>
+        <v>106</v>
       </c>
       <c r="F145" s="2" t="s">
         <v>10</v>
@@ -3962,22 +3974,22 @@
     </row>
     <row r="146">
       <c r="A146" s="2" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>126</v>
+        <v>107</v>
       </c>
       <c r="C146" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E146" s="2" t="s">
-        <v>127</v>
+        <v>108</v>
       </c>
       <c r="F146" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G146" s="2" t="s">
         <v>30</v>
@@ -3985,19 +3997,19 @@
     </row>
     <row r="147">
       <c r="A147" s="2" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>128</v>
+        <v>117</v>
       </c>
       <c r="C147" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="E147" s="2" t="s">
-        <v>32</v>
+        <v>119</v>
       </c>
       <c r="F147" s="2" t="s">
         <v>10</v>
@@ -4008,19 +4020,19 @@
     </row>
     <row r="148">
       <c r="A148" s="2" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>129</v>
+        <v>120</v>
       </c>
       <c r="C148" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D148" s="2" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="E148" s="2" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="F148" s="2" t="s">
         <v>10</v>
@@ -4031,19 +4043,19 @@
     </row>
     <row r="149">
       <c r="A149" s="2" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>131</v>
+        <v>122</v>
       </c>
       <c r="C149" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D149" s="2" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="E149" s="2" t="s">
-        <v>132</v>
+        <v>123</v>
       </c>
       <c r="F149" s="2" t="s">
         <v>10</v>
@@ -4054,19 +4066,19 @@
     </row>
     <row r="150">
       <c r="A150" s="2" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>133</v>
+        <v>124</v>
       </c>
       <c r="C150" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D150" s="2" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="E150" s="2" t="s">
-        <v>134</v>
+        <v>125</v>
       </c>
       <c r="F150" s="2" t="s">
         <v>10</v>
@@ -4077,19 +4089,19 @@
     </row>
     <row r="151">
       <c r="A151" s="2" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="C151" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D151" s="2" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="E151" s="2" t="s">
-        <v>136</v>
+        <v>127</v>
       </c>
       <c r="F151" s="2" t="s">
         <v>10</v>
@@ -4100,467 +4112,467 @@
     </row>
     <row r="152">
       <c r="A152" s="2" t="s">
-        <v>137</v>
+        <v>116</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>112</v>
+        <v>128</v>
       </c>
       <c r="C152" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D152" s="2" t="s">
-        <v>138</v>
+        <v>118</v>
       </c>
       <c r="E152" s="2" t="s">
-        <v>114</v>
+        <v>129</v>
       </c>
       <c r="F152" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G152" s="2" t="s">
-        <v>139</v>
+        <v>30</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="2" t="s">
-        <v>137</v>
+        <v>116</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>115</v>
+        <v>130</v>
       </c>
       <c r="C153" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D153" s="2" t="s">
-        <v>138</v>
+        <v>118</v>
       </c>
       <c r="E153" s="2" t="s">
-        <v>116</v>
+        <v>29</v>
       </c>
       <c r="F153" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G153" s="2" t="s">
-        <v>139</v>
+        <v>30</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="2" t="s">
-        <v>137</v>
+        <v>116</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>117</v>
+        <v>131</v>
       </c>
       <c r="C154" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D154" s="2" t="s">
-        <v>138</v>
+        <v>118</v>
       </c>
       <c r="E154" s="2" t="s">
-        <v>118</v>
+        <v>132</v>
       </c>
       <c r="F154" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G154" s="2" t="s">
-        <v>139</v>
+        <v>30</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="2" t="s">
-        <v>137</v>
+        <v>116</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>119</v>
+        <v>133</v>
       </c>
       <c r="C155" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D155" s="2" t="s">
-        <v>138</v>
+        <v>118</v>
       </c>
       <c r="E155" s="2" t="s">
-        <v>120</v>
+        <v>32</v>
       </c>
       <c r="F155" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G155" s="2" t="s">
-        <v>139</v>
+        <v>30</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="2" t="s">
-        <v>137</v>
+        <v>116</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>121</v>
+        <v>134</v>
       </c>
       <c r="C156" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D156" s="2" t="s">
-        <v>138</v>
+        <v>118</v>
       </c>
       <c r="E156" s="2" t="s">
-        <v>122</v>
+        <v>135</v>
       </c>
       <c r="F156" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G156" s="2" t="s">
-        <v>139</v>
+        <v>30</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="B157" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="C157" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D157" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="E157" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="B157" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="C157" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D157" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="E157" s="2" t="s">
-        <v>124</v>
-      </c>
       <c r="F157" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G157" s="2" t="s">
-        <v>139</v>
+        <v>30</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="2" t="s">
-        <v>137</v>
+        <v>116</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>125</v>
+        <v>138</v>
       </c>
       <c r="C158" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D158" s="2" t="s">
-        <v>138</v>
+        <v>118</v>
       </c>
       <c r="E158" s="2" t="s">
-        <v>29</v>
+        <v>139</v>
       </c>
       <c r="F158" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G158" s="2" t="s">
-        <v>139</v>
+        <v>30</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="2" t="s">
-        <v>137</v>
+        <v>116</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>126</v>
+        <v>140</v>
       </c>
       <c r="C159" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D159" s="2" t="s">
-        <v>138</v>
+        <v>118</v>
       </c>
       <c r="E159" s="2" t="s">
-        <v>127</v>
+        <v>141</v>
       </c>
       <c r="F159" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G159" s="2" t="s">
-        <v>139</v>
+        <v>30</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" s="2" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>128</v>
+        <v>117</v>
       </c>
       <c r="C160" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D160" s="2" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="E160" s="2" t="s">
-        <v>32</v>
+        <v>119</v>
       </c>
       <c r="F160" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G160" s="2" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="2" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="B161" s="2" t="s">
-        <v>129</v>
+        <v>120</v>
       </c>
       <c r="C161" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D161" s="2" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="E161" s="2" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="F161" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G161" s="2" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" s="2" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="B162" s="2" t="s">
-        <v>131</v>
+        <v>122</v>
       </c>
       <c r="C162" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D162" s="2" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="E162" s="2" t="s">
-        <v>132</v>
+        <v>123</v>
       </c>
       <c r="F162" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G162" s="2" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" s="2" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="B163" s="2" t="s">
-        <v>133</v>
+        <v>124</v>
       </c>
       <c r="C163" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D163" s="2" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="E163" s="2" t="s">
-        <v>134</v>
+        <v>125</v>
       </c>
       <c r="F163" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G163" s="2" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" s="2" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="B164" s="2" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="C164" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D164" s="2" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="E164" s="2" t="s">
-        <v>136</v>
+        <v>127</v>
       </c>
       <c r="F164" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G164" s="2" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" s="2" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="B165" s="2" t="s">
-        <v>140</v>
+        <v>128</v>
       </c>
       <c r="C165" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D165" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="E165" s="2" t="s">
-        <v>142</v>
+        <v>129</v>
       </c>
       <c r="F165" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G165" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" s="2" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="B166" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="C166" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D166" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="E166" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F166" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G166" s="2" t="s">
         <v>144</v>
-      </c>
-      <c r="C166" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D166" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="E166" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="F166" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="G166" s="2" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" s="2" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="B167" s="2" t="s">
-        <v>146</v>
+        <v>131</v>
       </c>
       <c r="C167" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D167" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="E167" s="2" t="s">
-        <v>147</v>
+        <v>132</v>
       </c>
       <c r="F167" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G167" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" s="2" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="B168" s="2" t="s">
-        <v>148</v>
+        <v>133</v>
       </c>
       <c r="C168" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D168" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="E168" s="2" t="s">
-        <v>149</v>
+        <v>32</v>
       </c>
       <c r="F168" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G168" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" s="2" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="B169" s="2" t="s">
-        <v>150</v>
+        <v>134</v>
       </c>
       <c r="C169" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D169" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="E169" s="2" t="s">
-        <v>151</v>
+        <v>135</v>
       </c>
       <c r="F169" s="2" t="s">
         <v>17</v>
       </c>
       <c r="G169" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="B170" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="C170" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D170" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="E170" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="B170" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="C170" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D170" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="E170" s="2" t="s">
-        <v>153</v>
-      </c>
       <c r="F170" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G170" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" s="2" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="B171" s="2" t="s">
-        <v>154</v>
+        <v>138</v>
       </c>
       <c r="C171" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D171" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="E171" s="2" t="s">
-        <v>155</v>
+        <v>139</v>
       </c>
       <c r="F171" s="2" t="s">
         <v>17</v>
       </c>
       <c r="G171" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" s="2" t="s">
-        <v>156</v>
+        <v>142</v>
       </c>
       <c r="B172" s="2" t="s">
         <v>140</v>
@@ -4569,752 +4581,752 @@
         <v>9</v>
       </c>
       <c r="D172" s="2" t="s">
-        <v>157</v>
+        <v>143</v>
       </c>
       <c r="E172" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F172" s="2" t="s">
         <v>17</v>
       </c>
       <c r="G172" s="2" t="s">
-        <v>158</v>
+        <v>144</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" s="2" t="s">
-        <v>156</v>
+        <v>142</v>
       </c>
       <c r="B173" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C173" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D173" s="2" t="s">
-        <v>157</v>
+        <v>146</v>
       </c>
       <c r="E173" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="F173" s="2" t="s">
         <v>17</v>
       </c>
       <c r="G173" s="2" t="s">
-        <v>158</v>
+        <v>148</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" s="2" t="s">
-        <v>156</v>
+        <v>142</v>
       </c>
       <c r="B174" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="C174" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D174" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="C174" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D174" s="2" t="s">
-        <v>157</v>
-      </c>
       <c r="E174" s="2" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="F174" s="2" t="s">
         <v>17</v>
       </c>
       <c r="G174" s="2" t="s">
-        <v>158</v>
+        <v>148</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" s="2" t="s">
-        <v>156</v>
+        <v>142</v>
       </c>
       <c r="B175" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="C175" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D175" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="E175" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="F175" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G175" s="2" t="s">
         <v>148</v>
-      </c>
-      <c r="C175" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D175" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="E175" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="F175" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G175" s="2" t="s">
-        <v>158</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" s="2" t="s">
-        <v>156</v>
+        <v>142</v>
       </c>
       <c r="B176" s="2" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="C176" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D176" s="2" t="s">
-        <v>157</v>
+        <v>146</v>
       </c>
       <c r="E176" s="2" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="F176" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G176" s="2" t="s">
-        <v>158</v>
+        <v>148</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="B177" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="C177" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D177" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="E177" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="B177" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="C177" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D177" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="E177" s="2" t="s">
-        <v>153</v>
-      </c>
       <c r="F177" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G177" s="2" t="s">
-        <v>158</v>
+        <v>148</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" s="2" t="s">
-        <v>156</v>
+        <v>142</v>
       </c>
       <c r="B178" s="2" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="C178" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D178" s="2" t="s">
-        <v>157</v>
+        <v>146</v>
       </c>
       <c r="E178" s="2" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="F178" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G178" s="2" t="s">
-        <v>158</v>
+        <v>148</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="B179" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="B179" s="2" t="s">
-        <v>42</v>
-      </c>
       <c r="C179" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D179" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="E179" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="E179" s="2" t="s">
-        <v>44</v>
-      </c>
       <c r="F179" s="2" t="s">
-        <v>161</v>
+        <v>17</v>
       </c>
       <c r="G179" s="2" t="s">
-        <v>162</v>
+        <v>148</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" s="2" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="B180" s="2" t="s">
-        <v>45</v>
+        <v>145</v>
       </c>
       <c r="C180" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D180" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="E180" s="2" t="s">
-        <v>46</v>
+        <v>147</v>
       </c>
       <c r="F180" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G180" s="2" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" s="2" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="B181" s="2" t="s">
-        <v>47</v>
+        <v>149</v>
       </c>
       <c r="C181" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D181" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="E181" s="2" t="s">
-        <v>48</v>
+        <v>150</v>
       </c>
       <c r="F181" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G181" s="2" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" s="2" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="B182" s="2" t="s">
-        <v>49</v>
+        <v>151</v>
       </c>
       <c r="C182" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D182" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="E182" s="2" t="s">
-        <v>50</v>
+        <v>152</v>
       </c>
       <c r="F182" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G182" s="2" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" s="2" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="B183" s="2" t="s">
-        <v>51</v>
+        <v>153</v>
       </c>
       <c r="C183" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D183" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="E183" s="2" t="s">
-        <v>52</v>
+        <v>154</v>
       </c>
       <c r="F183" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G183" s="2" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" s="2" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="B184" s="2" t="s">
-        <v>53</v>
+        <v>155</v>
       </c>
       <c r="C184" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D184" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="E184" s="2" t="s">
-        <v>54</v>
+        <v>156</v>
       </c>
       <c r="F184" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G184" s="2" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" s="2" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="B185" s="2" t="s">
-        <v>55</v>
+        <v>157</v>
       </c>
       <c r="C185" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D185" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="E185" s="2" t="s">
-        <v>56</v>
+        <v>158</v>
       </c>
       <c r="F185" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G185" s="2" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="B186" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="B186" s="2" t="s">
-        <v>57</v>
-      </c>
       <c r="C186" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D186" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="E186" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="E186" s="2" t="s">
-        <v>58</v>
-      </c>
       <c r="F186" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G186" s="2" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" s="2" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="B187" s="2" t="s">
-        <v>59</v>
+        <v>42</v>
       </c>
       <c r="C187" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D187" s="2" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="E187" s="2" t="s">
-        <v>60</v>
+        <v>44</v>
       </c>
       <c r="F187" s="2" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="G187" s="2" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" s="2" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="B188" s="2" t="s">
-        <v>61</v>
+        <v>45</v>
       </c>
       <c r="C188" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D188" s="2" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="E188" s="2" t="s">
-        <v>62</v>
+        <v>46</v>
       </c>
       <c r="F188" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G188" s="2" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" s="2" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="B189" s="2" t="s">
-        <v>63</v>
+        <v>47</v>
       </c>
       <c r="C189" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D189" s="2" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="E189" s="2" t="s">
-        <v>64</v>
+        <v>48</v>
       </c>
       <c r="F189" s="2" t="s">
-        <v>161</v>
+        <v>10</v>
       </c>
       <c r="G189" s="2" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" s="2" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="B190" s="2" t="s">
-        <v>65</v>
+        <v>49</v>
       </c>
       <c r="C190" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D190" s="2" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="E190" s="2" t="s">
-        <v>66</v>
+        <v>50</v>
       </c>
       <c r="F190" s="2" t="s">
-        <v>161</v>
+        <v>10</v>
       </c>
       <c r="G190" s="2" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" s="2" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="B191" s="2" t="s">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="C191" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D191" s="2" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="E191" s="2" t="s">
-        <v>68</v>
+        <v>52</v>
       </c>
       <c r="F191" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G191" s="2" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" s="2" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="B192" s="2" t="s">
-        <v>69</v>
+        <v>53</v>
       </c>
       <c r="C192" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D192" s="2" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="E192" s="2" t="s">
-        <v>70</v>
+        <v>54</v>
       </c>
       <c r="F192" s="2" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="G192" s="2" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" s="2" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="B193" s="2" t="s">
-        <v>71</v>
+        <v>55</v>
       </c>
       <c r="C193" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D193" s="2" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="E193" s="2" t="s">
-        <v>72</v>
+        <v>56</v>
       </c>
       <c r="F193" s="2" t="s">
-        <v>161</v>
+        <v>10</v>
       </c>
       <c r="G193" s="2" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" s="2" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="B194" s="2" t="s">
-        <v>73</v>
+        <v>57</v>
       </c>
       <c r="C194" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D194" s="2" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="E194" s="2" t="s">
-        <v>74</v>
+        <v>58</v>
       </c>
       <c r="F194" s="2" t="s">
-        <v>161</v>
+        <v>10</v>
       </c>
       <c r="G194" s="2" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" s="2" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="B195" s="2" t="s">
-        <v>75</v>
+        <v>59</v>
       </c>
       <c r="C195" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D195" s="2" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="E195" s="2" t="s">
-        <v>76</v>
+        <v>60</v>
       </c>
       <c r="F195" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G195" s="2" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" s="2" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="B196" s="2" t="s">
-        <v>77</v>
+        <v>61</v>
       </c>
       <c r="C196" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D196" s="2" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="E196" s="2" t="s">
-        <v>78</v>
+        <v>62</v>
       </c>
       <c r="F196" s="2" t="s">
-        <v>161</v>
+        <v>10</v>
       </c>
       <c r="G196" s="2" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" s="2" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="B197" s="2" t="s">
-        <v>79</v>
+        <v>63</v>
       </c>
       <c r="C197" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D197" s="2" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="E197" s="2" t="s">
-        <v>80</v>
+        <v>64</v>
       </c>
       <c r="F197" s="2" t="s">
-        <v>10</v>
+        <v>166</v>
       </c>
       <c r="G197" s="2" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" s="2" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="B198" s="2" t="s">
-        <v>81</v>
+        <v>65</v>
       </c>
       <c r="C198" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D198" s="2" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="E198" s="2" t="s">
-        <v>82</v>
+        <v>66</v>
       </c>
       <c r="F198" s="2" t="s">
-        <v>161</v>
+        <v>10</v>
       </c>
       <c r="G198" s="2" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" s="2" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="B199" s="2" t="s">
-        <v>83</v>
+        <v>67</v>
       </c>
       <c r="C199" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D199" s="2" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="E199" s="2" t="s">
-        <v>84</v>
+        <v>68</v>
       </c>
       <c r="F199" s="2" t="s">
-        <v>10</v>
+        <v>166</v>
       </c>
       <c r="G199" s="2" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" s="2" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="B200" s="2" t="s">
-        <v>85</v>
+        <v>69</v>
       </c>
       <c r="C200" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D200" s="2" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="E200" s="2" t="s">
-        <v>86</v>
+        <v>70</v>
       </c>
       <c r="F200" s="2" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="G200" s="2" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" s="2" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="B201" s="2" t="s">
-        <v>87</v>
+        <v>71</v>
       </c>
       <c r="C201" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D201" s="2" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="E201" s="2" t="s">
-        <v>88</v>
+        <v>72</v>
       </c>
       <c r="F201" s="2" t="s">
-        <v>161</v>
+        <v>10</v>
       </c>
       <c r="G201" s="2" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" s="2" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="B202" s="2" t="s">
-        <v>89</v>
+        <v>73</v>
       </c>
       <c r="C202" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D202" s="2" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="E202" s="2" t="s">
-        <v>90</v>
+        <v>74</v>
       </c>
       <c r="F202" s="2" t="s">
-        <v>10</v>
+        <v>166</v>
       </c>
       <c r="G202" s="2" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" s="2" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="B203" s="2" t="s">
-        <v>91</v>
+        <v>75</v>
       </c>
       <c r="C203" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D203" s="2" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="E203" s="2" t="s">
-        <v>92</v>
+        <v>76</v>
       </c>
       <c r="F203" s="2" t="s">
-        <v>10</v>
+        <v>166</v>
       </c>
       <c r="G203" s="2" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" s="2" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="B204" s="2" t="s">
-        <v>163</v>
+        <v>77</v>
       </c>
       <c r="C204" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D204" s="2" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="E204" s="2" t="s">
-        <v>94</v>
+        <v>78</v>
       </c>
       <c r="F204" s="2" t="s">
-        <v>10</v>
+        <v>166</v>
       </c>
       <c r="G204" s="2" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
     </row>
     <row r="205">
@@ -5322,22 +5334,22 @@
         <v>164</v>
       </c>
       <c r="B205" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C205" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D205" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="C205" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D205" s="2" t="s">
-        <v>166</v>
-      </c>
       <c r="E205" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="F205" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G205" s="2" t="s">
         <v>167</v>
-      </c>
-      <c r="F205" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G205" s="2" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="206">
@@ -5345,22 +5357,22 @@
         <v>164</v>
       </c>
       <c r="B206" s="2" t="s">
-        <v>168</v>
+        <v>81</v>
       </c>
       <c r="C206" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D206" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="E206" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="F206" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="E206" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="F206" s="2" t="s">
-        <v>20</v>
-      </c>
       <c r="G206" s="2" t="s">
-        <v>30</v>
+        <v>167</v>
       </c>
     </row>
     <row r="207">
@@ -5368,22 +5380,22 @@
         <v>164</v>
       </c>
       <c r="B207" s="2" t="s">
-        <v>170</v>
+        <v>83</v>
       </c>
       <c r="C207" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D207" s="2" t="s">
-        <v>28</v>
+        <v>165</v>
       </c>
       <c r="E207" s="2" t="s">
-        <v>171</v>
+        <v>84</v>
       </c>
       <c r="F207" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G207" s="2" t="s">
-        <v>30</v>
+        <v>167</v>
       </c>
     </row>
     <row r="208">
@@ -5391,22 +5403,22 @@
         <v>164</v>
       </c>
       <c r="B208" s="2" t="s">
-        <v>172</v>
+        <v>85</v>
       </c>
       <c r="C208" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D208" s="2" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="E208" s="2" t="s">
-        <v>174</v>
+        <v>86</v>
       </c>
       <c r="F208" s="2" t="s">
-        <v>10</v>
+        <v>166</v>
       </c>
       <c r="G208" s="2" t="s">
-        <v>30</v>
+        <v>167</v>
       </c>
     </row>
     <row r="209">
@@ -5414,22 +5426,22 @@
         <v>164</v>
       </c>
       <c r="B209" s="2" t="s">
-        <v>175</v>
+        <v>87</v>
       </c>
       <c r="C209" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D209" s="2" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="E209" s="2" t="s">
-        <v>176</v>
+        <v>88</v>
       </c>
       <c r="F209" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G209" s="2" t="s">
-        <v>30</v>
+        <v>167</v>
       </c>
     </row>
     <row r="210">
@@ -5437,21 +5449,251 @@
         <v>164</v>
       </c>
       <c r="B210" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C210" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D210" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="E210" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="F210" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="G210" s="2" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="B211" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C211" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D211" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="E211" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="F211" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="G211" s="2" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="B212" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C212" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D212" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="E212" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="F212" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G212" s="2" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="B213" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C213" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D213" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="E213" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="F213" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G213" s="2" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="B214" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="C214" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D214" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="E214" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="F214" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G214" s="2" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="B215" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="C215" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D215" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="E215" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="F215" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G215" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="B216" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="C216" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D216" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="E216" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="F216" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G216" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="B217" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="C217" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D217" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E217" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="F217" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G217" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="B218" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="C218" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D218" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="C210" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D210" s="2" t="s">
+      <c r="E218" s="2" t="s">
         <v>178</v>
       </c>
-      <c r="E210" s="2" t="s">
+      <c r="F218" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G218" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="B219" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="F210" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G210" s="2" t="s">
+      <c r="C219" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D219" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="E219" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="F219" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G219" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="B220" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="C220" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D220" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="E220" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="F220" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G220" s="2" t="s">
         <v>30</v>
       </c>
     </row>
